--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,33 +472,33 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C2" t="n">
-        <v>24745.1</v>
+        <v>23906.48</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E2" t="n">
         <v>0.82</v>
       </c>
       <c r="F2" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C3" t="n">
-        <v>25340.06</v>
+        <v>24563.51</v>
       </c>
       <c r="D3" t="n">
         <v>0.83</v>
@@ -512,13 +512,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C4" t="n">
-        <v>25960.16</v>
+        <v>25216.63</v>
       </c>
       <c r="D4" t="n">
         <v>0.83</v>
@@ -532,719 +532,719 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C5" t="n">
-        <v>26665.14</v>
+        <v>25886.79</v>
       </c>
       <c r="D5" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.84</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C6" t="n">
-        <v>27528.78</v>
+        <v>26630.92</v>
       </c>
       <c r="D6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.85</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C7" t="n">
-        <v>28587.88</v>
+        <v>27521.91</v>
       </c>
       <c r="D7" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E7" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.86</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C8" t="n">
-        <v>29799.44</v>
+        <v>28597.42</v>
       </c>
       <c r="D8" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E8" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.88</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C9" t="n">
-        <v>31040.83</v>
+        <v>29816.44</v>
       </c>
       <c r="D9" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E9" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F9" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C10" t="n">
-        <v>32166.54</v>
+        <v>31058.87</v>
       </c>
       <c r="D10" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F10" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C11" t="n">
-        <v>33079.64</v>
+        <v>32181.7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E11" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.96</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C12" t="n">
-        <v>33765.87</v>
+        <v>33090.14</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C13" t="n">
-        <v>34277.18</v>
+        <v>33771.5</v>
       </c>
       <c r="D13" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F13" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C14" t="n">
-        <v>34684.12</v>
+        <v>34278.7</v>
       </c>
       <c r="D14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F14" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C15" t="n">
-        <v>35023.25</v>
+        <v>34682.75</v>
       </c>
       <c r="D15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C16" t="n">
-        <v>35265.31</v>
+        <v>35020.26</v>
       </c>
       <c r="D16" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C17" t="n">
-        <v>35356.75</v>
+        <v>35261.79</v>
       </c>
       <c r="D17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C18" t="n">
-        <v>35271.71</v>
+        <v>35353.48</v>
       </c>
       <c r="D18" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C19" t="n">
-        <v>35044.2</v>
+        <v>35269.15</v>
       </c>
       <c r="D19" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="E19" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F19" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C20" t="n">
-        <v>34744.76</v>
+        <v>35042.5</v>
       </c>
       <c r="D20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C21" t="n">
-        <v>34430.12</v>
+        <v>34743.89</v>
       </c>
       <c r="D21" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C22" t="n">
-        <v>34113.68</v>
+        <v>34429.91</v>
       </c>
       <c r="D22" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C23" t="n">
-        <v>33732.53</v>
+        <v>34113.91</v>
       </c>
       <c r="D23" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C24" t="n">
-        <v>33206.09</v>
+        <v>33733</v>
       </c>
       <c r="D24" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E24" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C25" t="n">
-        <v>32509.72</v>
+        <v>33206.62</v>
       </c>
       <c r="D25" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C26" t="n">
-        <v>31687.62</v>
+        <v>32510.2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C27" t="n">
-        <v>30819.72</v>
+        <v>31687.99</v>
       </c>
       <c r="D27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C28" t="n">
-        <v>29968.68</v>
+        <v>30819.96</v>
       </c>
       <c r="D28" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C29" t="n">
-        <v>29138.23</v>
+        <v>29968.79</v>
       </c>
       <c r="D29" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E29" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F29" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C30" t="n">
-        <v>28257.41</v>
+        <v>29138.25</v>
       </c>
       <c r="D30" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E30" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F30" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C31" t="n">
-        <v>27241.83</v>
+        <v>28257.37</v>
       </c>
       <c r="D31" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E31" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F31" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C32" t="n">
-        <v>26047.34</v>
+        <v>27241.75</v>
       </c>
       <c r="D32" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E32" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C33" t="n">
-        <v>24688.75</v>
+        <v>26047.26</v>
       </c>
       <c r="D33" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E33" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C34" t="n">
-        <v>23220.07</v>
+        <v>24688.68</v>
       </c>
       <c r="D34" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E34" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C35" t="n">
-        <v>21707.03</v>
+        <v>23220.02</v>
       </c>
       <c r="D35" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E35" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F35" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C36" t="n">
-        <v>20196.55</v>
+        <v>21706.99</v>
       </c>
       <c r="D36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C37" t="n">
-        <v>18698.56</v>
+        <v>20196.53</v>
       </c>
       <c r="D37" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C38" t="n">
-        <v>17214.8</v>
+        <v>18698.56</v>
       </c>
       <c r="D38" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E38" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C39" t="n">
-        <v>15756.84</v>
+        <v>17214.81</v>
       </c>
       <c r="D39" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E39" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F39" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C40" t="n">
-        <v>14354.73</v>
+        <v>15756.85</v>
       </c>
       <c r="D40" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E40" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F40" t="n">
         <v>1.78</v>
@@ -1252,19 +1252,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C41" t="n">
-        <v>13046.31</v>
+        <v>14354.74</v>
       </c>
       <c r="D41" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E41" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F41" t="n">
         <v>1.78</v>
@@ -1272,33 +1272,33 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C42" t="n">
-        <v>11863.37</v>
+        <v>13046.32</v>
       </c>
       <c r="D42" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E42" t="n">
         <v>1.72</v>
       </c>
       <c r="F42" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C43" t="n">
-        <v>10809.32</v>
+        <v>11863.38</v>
       </c>
       <c r="D43" t="n">
         <v>1.76</v>
@@ -1312,53 +1312,53 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C44" t="n">
-        <v>9858.639999999999</v>
+        <v>10809.33</v>
       </c>
       <c r="D44" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E44" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F44" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C45" t="n">
-        <v>8981.57</v>
+        <v>9858.639999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E45" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F45" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C46" t="n">
-        <v>8159.87</v>
+        <v>8981.57</v>
       </c>
       <c r="D46" t="n">
         <v>1.78</v>
@@ -1372,13 +1372,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C47" t="n">
-        <v>7391.9</v>
+        <v>8159.87</v>
       </c>
       <c r="D47" t="n">
         <v>1.78</v>
@@ -1392,39 +1392,39 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C48" t="n">
-        <v>6687.42</v>
+        <v>7391.9</v>
       </c>
       <c r="D48" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E48" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F48" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C49" t="n">
-        <v>6055.98</v>
+        <v>6687.41</v>
       </c>
       <c r="D49" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E49" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F49" t="n">
         <v>1.81</v>
@@ -1432,19 +1432,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C50" t="n">
-        <v>5495.9</v>
+        <v>6055.98</v>
       </c>
       <c r="D50" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E50" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F50" t="n">
         <v>1.8</v>
@@ -1452,319 +1452,319 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C51" t="n">
-        <v>4991.13</v>
+        <v>5495.9</v>
       </c>
       <c r="D51" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="E51" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F51" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C52" t="n">
-        <v>4522.49</v>
+        <v>4991.13</v>
       </c>
       <c r="D52" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="E52" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C53" t="n">
-        <v>4079.31</v>
+        <v>4522.49</v>
       </c>
       <c r="D53" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E53" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="F53" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C54" t="n">
-        <v>3663.77</v>
+        <v>4079.31</v>
       </c>
       <c r="D54" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="E54" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="F54" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C55" t="n">
-        <v>3286.67</v>
+        <v>3663.77</v>
       </c>
       <c r="D55" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E55" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F55" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C56" t="n">
-        <v>2959.48</v>
+        <v>3286.67</v>
       </c>
       <c r="D56" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E56" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F56" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C57" t="n">
-        <v>2686.25</v>
+        <v>2959.48</v>
       </c>
       <c r="D57" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E57" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F57" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C58" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D58" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E58" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F58" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C59" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D59" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E59" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F59" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C60" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E60" t="n">
         <v>1.25</v>
       </c>
-      <c r="E60" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F60" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C61" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E61" t="n">
         <v>1.2</v>
       </c>
-      <c r="E61" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F61" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C62" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D62" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E62" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F62" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C63" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D63" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E63" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F63" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C64" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D64" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E64" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F64" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C65" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D65" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E65" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="F65" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C66" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D66" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E66" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F66" t="n">
         <v>1.16</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C67" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D67" t="n">
         <v>1.1</v>
@@ -1787,18 +1787,18 @@
         <v>1.05</v>
       </c>
       <c r="F67" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C68" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D68" t="n">
         <v>1.1</v>
@@ -1812,19 +1812,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C69" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D69" t="n">
         <v>1.1</v>
       </c>
       <c r="E69" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F69" t="n">
         <v>1.15</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C70" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D70" t="n">
         <v>1.1</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C71" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D71" t="n">
         <v>1.1</v>
@@ -1872,16 +1872,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C72" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D72" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E72" t="n">
         <v>1.04</v>
@@ -1892,113 +1892,113 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C73" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D73" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E73" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F73" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C74" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D74" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E74" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F74" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C75" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D75" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E75" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F75" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C76" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D76" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E76" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F76" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C77" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D77" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E77" t="n">
         <v>0.97</v>
       </c>
       <c r="F77" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C78" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D78" t="n">
         <v>1.02</v>
@@ -2012,19 +2012,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C79" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D79" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E79" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F79" t="n">
         <v>1.08</v>
@@ -2032,416 +2032,416 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C80" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D80" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E80" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F80" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C81" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D81" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E81" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F81" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C82" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D82" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E82" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F82" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C83" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E83" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F83" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C84" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D84" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E84" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F84" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C85" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D85" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E85" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F85" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C86" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D86" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E86" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F86" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C87" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E87" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="F87" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C88" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E88" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F88" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C89" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D89" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E89" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F89" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C90" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D90" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E90" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F90" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C91" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D91" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E91" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F91" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C92" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D92" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E92" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F92" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C93" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D93" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="E93" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="F93" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C94" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D94" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="E94" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="F94" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C95" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D95" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F95" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C96" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F96" t="n">
         <v>1.58</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C97" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D97" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E97" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F97" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C98" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D98" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E98" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F98" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C99" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D99" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E99" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="F99" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C100" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D100" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E100" t="n">
         <v>1.62</v>
@@ -2452,153 +2452,153 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C101" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D101" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E101" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="F101" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C102" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D102" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E102" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F102" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C103" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E103" t="n">
         <v>1.49</v>
       </c>
-      <c r="E103" t="n">
-        <v>1.38</v>
-      </c>
       <c r="F103" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C104" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D104" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E104" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F104" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C105" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E105" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="F105" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C106" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E106" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="F106" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C107" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D107" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E107" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F107" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C108" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D108" t="n">
         <v>1.23</v>
@@ -2607,121 +2607,121 @@
         <v>1.12</v>
       </c>
       <c r="F108" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C109" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D109" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E109" t="n">
         <v>1.13</v>
       </c>
       <c r="F109" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C110" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E110" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="F110" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C111" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E111" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="F111" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C112" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D112" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E112" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F112" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C113" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D113" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="E113" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="F113" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C114" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D114" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="E114" t="n">
         <v>1.21</v>
@@ -2732,133 +2732,133 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C115" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D115" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E115" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="F115" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C116" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="E116" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F116" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C117" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D117" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="E117" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F117" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C118" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D118" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E118" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="F118" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C119" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D119" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E119" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="F119" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C120" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D120" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F120" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C121" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D121" t="n">
         <v>1.13</v>
@@ -2867,138 +2867,138 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C122" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D122" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E122" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C123" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D123" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E123" t="n">
         <v>1.01</v>
       </c>
       <c r="F123" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C124" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D124" t="n">
         <v>1.15</v>
       </c>
       <c r="E124" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F124" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C125" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D125" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E125" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F125" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C126" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D126" t="n">
         <v>1.16</v>
       </c>
       <c r="E126" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F126" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C127" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D127" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E127" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F127" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C128" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D128" t="n">
         <v>1.17</v>
@@ -3007,21 +3007,21 @@
         <v>1.03</v>
       </c>
       <c r="F128" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C129" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D129" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E129" t="n">
         <v>1.03</v>
@@ -3032,19 +3032,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C130" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D130" t="n">
         <v>1.17</v>
       </c>
       <c r="E130" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F130" t="n">
         <v>1.32</v>
@@ -3052,193 +3052,193 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C131" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D131" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="E131" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F131" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C132" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D132" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F132" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C133" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D133" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="E133" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F133" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C134" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D134" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F134" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C135" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D135" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E135" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C136" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D136" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E136" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F136" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C137" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E137" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F137" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C138" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D138" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F138" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C139" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D139" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E139" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F139" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C140" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D140" t="n">
         <v>0.97</v>
@@ -3247,98 +3247,98 @@
         <v>0.83</v>
       </c>
       <c r="F140" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C141" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D141" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E141" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F141" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C142" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D142" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E142" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F142" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C143" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E143" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F143" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C144" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D144" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E144" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F144" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C145" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D145" t="n">
         <v>1.02</v>
@@ -3347,164 +3347,164 @@
         <v>0.89</v>
       </c>
       <c r="F145" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C146" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D146" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E146" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F146" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C147" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D147" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E147" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F147" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C148" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D148" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E148" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F148" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C149" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D149" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E149" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="F149" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C150" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D150" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E150" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F150" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C151" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D151" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E151" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F151" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C152" t="n">
         <v>184.12</v>
       </c>
       <c r="D152" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="F152" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C153" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D153" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F153" t="n">
         <v>0.93</v>
@@ -3512,233 +3512,233 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C154" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D154" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E154" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C155" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D155" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E155" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C156" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E156" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="F156" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C157" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E157" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F157" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C158" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D158" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F158" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C159" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D159" t="n">
         <v>1.04</v>
       </c>
       <c r="E159" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F159" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C160" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D160" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E160" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F160" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C161" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D161" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E161" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F161" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C162" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D162" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E162" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C163" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D163" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E163" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C164" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D164" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C165" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D165" t="n">
         <v>0.8</v>
@@ -3752,99 +3752,99 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C166" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D166" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E166" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C167" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D167" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E167" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F167" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C168" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E168" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C169" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D169" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F169" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C170" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D170" t="n">
         <v>0.92</v>
       </c>
       <c r="E170" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F170" t="n">
         <v>1.03</v>
@@ -3852,213 +3852,213 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C171" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D171" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E171" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F171" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C172" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D172" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="E172" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F172" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C173" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D173" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E173" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F173" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C174" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E174" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F174" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C175" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D175" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E175" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="F175" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C176" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D176" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E176" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F176" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C177" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E177" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F177" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C178" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D178" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E178" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F178" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C179" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D179" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E179" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F179" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C180" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D180" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E180" t="n">
         <v>0.58</v>
       </c>
       <c r="F180" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C181" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D181" t="n">
         <v>0.64</v>
@@ -4072,19 +4072,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C182" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D182" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E182" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F182" t="n">
         <v>0.72</v>
@@ -4092,93 +4092,93 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C183" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D183" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E183" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="F183" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C184" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E184" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="F184" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C185" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D185" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E185" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F185" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C186" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D186" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E186" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F186" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C187" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D187" t="n">
         <v>0.72</v>
@@ -4192,13 +4192,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C188" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D188" t="n">
         <v>0.72</v>
@@ -4207,38 +4207,38 @@
         <v>0.66</v>
       </c>
       <c r="F188" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C189" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D189" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E189" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F189" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C190" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D190" t="n">
         <v>0.71</v>
@@ -4247,18 +4247,18 @@
         <v>0.65</v>
       </c>
       <c r="F190" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C191" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D191" t="n">
         <v>0.71</v>
@@ -4267,21 +4267,21 @@
         <v>0.65</v>
       </c>
       <c r="F191" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C192" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D192" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E192" t="n">
         <v>0.65</v>
@@ -4292,13 +4292,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C193" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D193" t="n">
         <v>0.7</v>
@@ -4307,38 +4307,38 @@
         <v>0.64</v>
       </c>
       <c r="F193" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C194" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D194" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E194" t="n">
         <v>0.64</v>
       </c>
       <c r="F194" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C195" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D195" t="n">
         <v>0.6899999999999999</v>
@@ -4352,19 +4352,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C196" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D196" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F196" t="n">
         <v>0.74</v>
@@ -4372,13 +4372,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C197" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D197" t="n">
         <v>0.6899999999999999</v>
@@ -4392,13 +4392,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C198" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D198" t="n">
         <v>0.6899999999999999</v>
@@ -4412,33 +4412,33 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C199" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D199" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E199" t="n">
         <v>0.65</v>
       </c>
       <c r="F199" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C200" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D200" t="n">
         <v>0.7</v>
@@ -4452,13 +4452,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C201" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D201" t="n">
         <v>0.7</v>
@@ -4467,98 +4467,98 @@
         <v>0.66</v>
       </c>
       <c r="F201" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C202" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D202" t="n">
         <v>0.7</v>
       </c>
       <c r="E202" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F202" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C203" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D203" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F203" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C204" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D204" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E204" t="n">
         <v>0.64</v>
       </c>
       <c r="F204" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C205" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D205" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E205" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F205" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C206" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D206" t="n">
         <v>0.67</v>
@@ -4567,38 +4567,38 @@
         <v>0.63</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C207" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D207" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E207" t="n">
         <v>0.63</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C208" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D208" t="n">
         <v>0.66</v>
@@ -4612,19 +4612,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C209" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D209" t="n">
         <v>0.66</v>
       </c>
       <c r="E209" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F209" t="n">
         <v>0.7</v>
@@ -4632,16 +4632,16 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C210" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D210" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E210" t="n">
         <v>0.63</v>
@@ -4652,253 +4652,253 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C211" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D211" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E211" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="F211" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C212" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E212" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F212" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C213" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F213" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C214" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D214" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E214" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F214" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C215" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D215" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E215" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F215" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C216" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D216" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E216" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F216" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C217" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D217" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E217" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F217" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C218" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D218" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E218" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F218" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C219" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D219" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E219" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F219" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C220" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D220" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E220" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F220" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C221" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D221" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E221" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F221" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C222" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D222" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E222" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F222" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C223" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D223" t="n">
         <v>0.84</v>
@@ -4912,19 +4912,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C224" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D224" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E224" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F224" t="n">
         <v>0.87</v>
@@ -4932,13 +4932,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C225" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D225" t="n">
         <v>0.85</v>
@@ -4952,13 +4952,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C226" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D226" t="n">
         <v>0.85</v>
@@ -4972,13 +4972,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C227" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D227" t="n">
         <v>0.85</v>
@@ -4992,113 +4992,113 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C228" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D228" t="n">
         <v>0.85</v>
       </c>
       <c r="E228" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F228" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C229" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D229" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E229" t="n">
         <v>0.83</v>
       </c>
       <c r="F229" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C230" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D230" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E230" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F230" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C231" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D231" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E231" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F231" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C232" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D232" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E232" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F232" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C233" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D233" t="n">
         <v>0.89</v>
@@ -5112,13 +5112,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C234" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D234" t="n">
         <v>0.89</v>
@@ -5132,73 +5132,73 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C235" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D235" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E235" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F235" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C236" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D236" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E236" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F236" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C237" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D237" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E237" t="n">
         <v>0.84</v>
       </c>
       <c r="F237" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C238" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D238" t="n">
         <v>0.86</v>
@@ -5207,18 +5207,18 @@
         <v>0.83</v>
       </c>
       <c r="F238" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C239" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D239" t="n">
         <v>0.86</v>
@@ -5232,13 +5232,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C240" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D240" t="n">
         <v>0.86</v>
@@ -5247,687 +5247,707 @@
         <v>0.83</v>
       </c>
       <c r="F240" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C241" t="n">
-        <v>4336.9</v>
+        <v>4223.92</v>
       </c>
       <c r="D241" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E241" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F241" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C242" t="n">
-        <v>4460.82</v>
+        <v>4336.9</v>
       </c>
       <c r="D242" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E242" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F242" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C243" t="n">
-        <v>4599.62</v>
+        <v>4460.82</v>
       </c>
       <c r="D243" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E243" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F243" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C244" t="n">
-        <v>4758.73</v>
+        <v>4599.62</v>
       </c>
       <c r="D244" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F244" t="n">
         <v>0.93</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F244" t="n">
-        <v>0.95</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C245" t="n">
-        <v>4939.94</v>
+        <v>4758.73</v>
       </c>
       <c r="D245" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E245" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F245" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C246" t="n">
-        <v>5134.47</v>
+        <v>4939.94</v>
       </c>
       <c r="D246" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E246" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F246" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C247" t="n">
-        <v>5323.18</v>
+        <v>5134.47</v>
       </c>
       <c r="D247" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E247" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F247" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C248" t="n">
-        <v>5485.51</v>
+        <v>5323.18</v>
       </c>
       <c r="D248" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E248" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F248" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C249" t="n">
-        <v>5607.79</v>
+        <v>5485.51</v>
       </c>
       <c r="D249" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E249" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F249" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C250" t="n">
-        <v>5684.89</v>
+        <v>5607.79</v>
       </c>
       <c r="D250" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E250" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F250" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C251" t="n">
-        <v>5717.21</v>
+        <v>5684.89</v>
       </c>
       <c r="D251" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E251" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F251" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C252" t="n">
-        <v>5702.18</v>
+        <v>5717.21</v>
       </c>
       <c r="D252" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E252" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F252" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C253" t="n">
-        <v>5630.57</v>
+        <v>5702.18</v>
       </c>
       <c r="D253" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E253" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F253" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C254" t="n">
-        <v>5487.39</v>
+        <v>5630.57</v>
       </c>
       <c r="D254" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E254" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="F254" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C255" t="n">
-        <v>5262.03</v>
+        <v>5487.39</v>
       </c>
       <c r="D255" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E255" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="F255" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C256" t="n">
-        <v>4958.98</v>
+        <v>5262.03</v>
       </c>
       <c r="D256" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E256" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="F256" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C257" t="n">
-        <v>4597.99</v>
+        <v>4958.98</v>
       </c>
       <c r="D257" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E257" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F257" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C258" t="n">
-        <v>4206.86</v>
+        <v>4597.99</v>
       </c>
       <c r="D258" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="E258" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F258" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C259" t="n">
-        <v>3810.73</v>
+        <v>4206.86</v>
       </c>
       <c r="D259" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E259" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F259" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C260" t="n">
-        <v>3425.14</v>
+        <v>3810.73</v>
       </c>
       <c r="D260" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2</v>
+      </c>
+      <c r="F260" t="n">
         <v>2.14</v>
-      </c>
-      <c r="E260" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="F260" t="n">
-        <v>2.21</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C261" t="n">
-        <v>3056.03</v>
+        <v>3425.14</v>
       </c>
       <c r="D261" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F261" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E261" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F261" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C262" t="n">
-        <v>2705.4</v>
+        <v>3056.03</v>
       </c>
       <c r="D262" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F262" t="n">
         <v>2.29</v>
-      </c>
-      <c r="E262" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F262" t="n">
-        <v>2.38</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C263" t="n">
-        <v>2375.46</v>
+        <v>2705.4</v>
       </c>
       <c r="D263" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="E263" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="F263" t="n">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C264" t="n">
-        <v>2068.2</v>
+        <v>2375.46</v>
       </c>
       <c r="D264" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="E264" t="n">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="F264" t="n">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C265" t="n">
-        <v>1786.7</v>
+        <v>2068.2</v>
       </c>
       <c r="D265" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="E265" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="F265" t="n">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C266" t="n">
-        <v>1533.57</v>
+        <v>1786.7</v>
       </c>
       <c r="D266" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="E266" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="F266" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C267" t="n">
-        <v>1307.05</v>
+        <v>1533.57</v>
       </c>
       <c r="D267" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="E267" t="n">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
       <c r="F267" t="n">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C268" t="n">
-        <v>1105.08</v>
+        <v>1307.05</v>
       </c>
       <c r="D268" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="E268" t="n">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="F268" t="n">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C269" t="n">
-        <v>926.85</v>
+        <v>1105.08</v>
       </c>
       <c r="D269" t="n">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="E269" t="n">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="F269" t="n">
-        <v>3.06</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C270" t="n">
-        <v>772.42</v>
+        <v>926.85</v>
       </c>
       <c r="D270" t="n">
-        <v>3.01</v>
+        <v>2.89</v>
       </c>
       <c r="E270" t="n">
-        <v>2.81</v>
+        <v>2.71</v>
       </c>
       <c r="F270" t="n">
-        <v>3.24</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C271" t="n">
-        <v>640.99</v>
+        <v>772.42</v>
       </c>
       <c r="D271" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="E271" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="F271" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C272" t="n">
-        <v>530.61</v>
+        <v>640.99</v>
       </c>
       <c r="D272" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="E272" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="F272" t="n">
-        <v>3.76</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C273" t="n">
-        <v>437.9</v>
+        <v>530.61</v>
       </c>
       <c r="D273" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="E273" t="n">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="F273" t="n">
-        <v>4.21</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B274" t="n">
+        <v>342</v>
+      </c>
+      <c r="C274" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F274" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B275" t="n">
         <v>566</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C275" t="n">
         <v>358.41</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D275" t="n">
         <v>4.49</v>
       </c>
-      <c r="E274" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="F274" t="n">
-        <v>4.94</v>
+      <c r="E275" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F275" t="n">
+        <v>4.95</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,796 +472,796 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C2" t="n">
-        <v>23906.48</v>
+        <v>21460.93</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="E2" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="F2" t="n">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C3" t="n">
-        <v>24563.51</v>
+        <v>22573.54</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="E3" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="F3" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C4" t="n">
-        <v>25216.63</v>
+        <v>23657.58</v>
       </c>
       <c r="D4" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="F4" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C5" t="n">
-        <v>25886.79</v>
+        <v>24678.15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.82</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C6" t="n">
-        <v>26630.92</v>
+        <v>25635.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.83</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C7" t="n">
-        <v>27521.91</v>
+        <v>26580.49</v>
       </c>
       <c r="D7" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.84</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C8" t="n">
-        <v>28597.42</v>
+        <v>27591.92</v>
       </c>
       <c r="D8" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E8" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.86</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C9" t="n">
-        <v>29816.44</v>
+        <v>28722.21</v>
       </c>
       <c r="D9" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E9" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.88</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C10" t="n">
-        <v>31058.87</v>
+        <v>29948.85</v>
       </c>
       <c r="D10" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E10" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.91</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C11" t="n">
-        <v>32181.7</v>
+        <v>31170.16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F11" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C12" t="n">
-        <v>33090.14</v>
+        <v>32258.8</v>
       </c>
       <c r="D12" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E12" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C13" t="n">
-        <v>33771.5</v>
+        <v>33131.46</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E13" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C14" t="n">
-        <v>34278.7</v>
+        <v>33782.66</v>
       </c>
       <c r="D14" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F14" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C15" t="n">
-        <v>34682.75</v>
+        <v>34268.62</v>
       </c>
       <c r="D15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C16" t="n">
-        <v>35020.26</v>
+        <v>34660.81</v>
       </c>
       <c r="D16" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C17" t="n">
-        <v>35261.79</v>
+        <v>34994.45</v>
       </c>
       <c r="D17" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C18" t="n">
-        <v>35353.48</v>
+        <v>35237.83</v>
       </c>
       <c r="D18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C19" t="n">
-        <v>35269.15</v>
+        <v>35334.66</v>
       </c>
       <c r="D19" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C20" t="n">
-        <v>35042.5</v>
+        <v>35256.68</v>
       </c>
       <c r="D20" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="E20" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F20" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C21" t="n">
-        <v>34743.89</v>
+        <v>35036.08</v>
       </c>
       <c r="D21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C22" t="n">
-        <v>34429.91</v>
+        <v>34742.31</v>
       </c>
       <c r="D22" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C23" t="n">
-        <v>34113.91</v>
+        <v>34431.6</v>
       </c>
       <c r="D23" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C24" t="n">
-        <v>33733</v>
+        <v>34117.35</v>
       </c>
       <c r="D24" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C25" t="n">
-        <v>33206.62</v>
+        <v>33736.94</v>
       </c>
       <c r="D25" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E25" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C26" t="n">
-        <v>32510.2</v>
+        <v>33210.2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C27" t="n">
-        <v>31687.99</v>
+        <v>32512.94</v>
       </c>
       <c r="D27" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C28" t="n">
-        <v>30819.96</v>
+        <v>31689.74</v>
       </c>
       <c r="D28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C29" t="n">
-        <v>29968.79</v>
+        <v>30820.79</v>
       </c>
       <c r="D29" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C30" t="n">
-        <v>29138.25</v>
+        <v>29968.91</v>
       </c>
       <c r="D30" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E30" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F30" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C31" t="n">
-        <v>28257.37</v>
+        <v>29137.91</v>
       </c>
       <c r="D31" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E31" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F31" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C32" t="n">
-        <v>27241.75</v>
+        <v>28256.79</v>
       </c>
       <c r="D32" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E32" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F32" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C33" t="n">
-        <v>26047.26</v>
+        <v>27241.13</v>
       </c>
       <c r="D33" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E33" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F33" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C34" t="n">
-        <v>24688.68</v>
+        <v>26046.71</v>
       </c>
       <c r="D34" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E34" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C35" t="n">
-        <v>23220.02</v>
+        <v>24688.27</v>
       </c>
       <c r="D35" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E35" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C36" t="n">
-        <v>21706.99</v>
+        <v>23219.77</v>
       </c>
       <c r="D36" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E36" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F36" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C37" t="n">
-        <v>20196.53</v>
+        <v>21706.89</v>
       </c>
       <c r="D37" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C38" t="n">
-        <v>18698.56</v>
+        <v>20196.53</v>
       </c>
       <c r="D38" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C39" t="n">
-        <v>17214.81</v>
+        <v>18698.62</v>
       </c>
       <c r="D39" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E39" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C40" t="n">
-        <v>15756.85</v>
+        <v>17214.9</v>
       </c>
       <c r="D40" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E40" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F40" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C41" t="n">
-        <v>14354.74</v>
+        <v>15756.95</v>
       </c>
       <c r="D41" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E41" t="n">
         <v>1.73</v>
@@ -1272,36 +1272,36 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C42" t="n">
-        <v>13046.32</v>
+        <v>14354.82</v>
       </c>
       <c r="D42" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E42" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F42" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C43" t="n">
-        <v>11863.38</v>
+        <v>13046.38</v>
       </c>
       <c r="D43" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E43" t="n">
         <v>1.73</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C44" t="n">
-        <v>10809.33</v>
+        <v>11863.41</v>
       </c>
       <c r="D44" t="n">
         <v>1.76</v>
@@ -1327,58 +1327,58 @@
         <v>1.73</v>
       </c>
       <c r="F44" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C45" t="n">
-        <v>9858.639999999999</v>
+        <v>10809.34</v>
       </c>
       <c r="D45" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E45" t="n">
         <v>1.73</v>
       </c>
       <c r="F45" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C46" t="n">
-        <v>8981.57</v>
+        <v>9858.639999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E46" t="n">
         <v>1.74</v>
       </c>
       <c r="F46" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C47" t="n">
-        <v>8159.87</v>
+        <v>8981.559999999999</v>
       </c>
       <c r="D47" t="n">
         <v>1.78</v>
@@ -1387,18 +1387,18 @@
         <v>1.74</v>
       </c>
       <c r="F47" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C48" t="n">
-        <v>7391.9</v>
+        <v>8159.85</v>
       </c>
       <c r="D48" t="n">
         <v>1.78</v>
@@ -1412,56 +1412,56 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C49" t="n">
-        <v>6687.41</v>
+        <v>7391.88</v>
       </c>
       <c r="D49" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E49" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F49" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C50" t="n">
-        <v>6055.98</v>
+        <v>6687.4</v>
       </c>
       <c r="D50" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E50" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F50" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C51" t="n">
-        <v>5495.9</v>
+        <v>6055.97</v>
       </c>
       <c r="D51" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E51" t="n">
         <v>1.71</v>
@@ -1472,319 +1472,319 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C52" t="n">
-        <v>4991.13</v>
+        <v>5495.89</v>
       </c>
       <c r="D52" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="E52" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F52" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C53" t="n">
-        <v>4522.49</v>
+        <v>4991.13</v>
       </c>
       <c r="D53" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="E53" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C54" t="n">
-        <v>4079.31</v>
+        <v>4522.49</v>
       </c>
       <c r="D54" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E54" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="F54" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C55" t="n">
-        <v>3663.77</v>
+        <v>4079.32</v>
       </c>
       <c r="D55" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="E55" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="F55" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C56" t="n">
-        <v>3286.67</v>
+        <v>3663.78</v>
       </c>
       <c r="D56" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E56" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F56" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C57" t="n">
-        <v>2959.48</v>
+        <v>3286.67</v>
       </c>
       <c r="D57" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E57" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F57" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C58" t="n">
-        <v>2686.25</v>
+        <v>2959.48</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E58" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F58" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C59" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D59" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E59" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F59" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C60" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D60" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E60" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F60" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C61" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E61" t="n">
         <v>1.25</v>
       </c>
-      <c r="E61" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F61" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C62" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E62" t="n">
         <v>1.2</v>
       </c>
-      <c r="E62" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F62" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C63" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D63" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E63" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F63" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C64" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D64" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E64" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F64" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C65" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D65" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E65" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F65" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C66" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D66" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E66" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="F66" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C67" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D67" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E67" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F67" t="n">
         <v>1.16</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C68" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D68" t="n">
         <v>1.1</v>
@@ -1807,18 +1807,18 @@
         <v>1.05</v>
       </c>
       <c r="F68" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C69" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D69" t="n">
         <v>1.1</v>
@@ -1827,24 +1827,24 @@
         <v>1.05</v>
       </c>
       <c r="F69" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C70" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D70" t="n">
         <v>1.1</v>
       </c>
       <c r="E70" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F70" t="n">
         <v>1.15</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C71" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D71" t="n">
         <v>1.1</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C72" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D72" t="n">
         <v>1.1</v>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C73" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D73" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E73" t="n">
         <v>1.04</v>
@@ -1912,19 +1912,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C74" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D74" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E74" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F74" t="n">
         <v>1.14</v>
@@ -1932,93 +1932,93 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C75" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D75" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E75" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F75" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C76" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D76" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E76" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F76" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C77" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D77" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E77" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F77" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C78" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E78" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F78" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C79" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D79" t="n">
         <v>1.02</v>
@@ -2032,436 +2032,436 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C80" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E80" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F80" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C81" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D81" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E81" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F81" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C82" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D82" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E82" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F82" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C83" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E83" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F83" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C84" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E84" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F84" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C85" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D85" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E85" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F85" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C86" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D86" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E86" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="F86" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C87" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E87" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F87" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C88" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D88" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E88" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="F88" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C89" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D89" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E89" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F89" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C90" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D90" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E90" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F90" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C91" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E91" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F91" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C92" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D92" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E92" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F92" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C93" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D93" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E93" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F93" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C94" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D94" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F94" t="n">
         <v>1.34</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1.41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C95" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F95" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C96" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F96" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C97" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D97" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="E97" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="F97" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C98" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D98" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E98" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F98" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C99" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D99" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E99" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F99" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C100" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D100" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E100" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="F100" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C101" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D101" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E101" t="n">
         <v>1.62</v>
@@ -2472,413 +2472,413 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C102" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D102" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E102" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="F102" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C103" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D103" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E103" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F103" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C104" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E104" t="n">
         <v>1.49</v>
       </c>
-      <c r="E104" t="n">
-        <v>1.38</v>
-      </c>
       <c r="F104" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C105" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D105" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E105" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F105" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C106" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E106" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="F106" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C107" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E107" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="F107" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C108" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D108" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E108" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F108" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C109" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D109" t="n">
         <v>1.23</v>
       </c>
       <c r="E109" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F109" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C110" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D110" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E110" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F110" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C111" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D111" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E111" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F111" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C112" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D112" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E112" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F112" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C113" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D113" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E113" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="F113" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C114" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D114" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="E114" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="F114" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C115" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D115" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="E115" t="n">
         <v>1.21</v>
       </c>
       <c r="F115" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C116" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D116" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E116" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="F116" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C117" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D117" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E117" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="F117" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C118" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D118" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="E118" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F118" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C119" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D119" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E119" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="F119" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C120" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D120" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E120" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="F120" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C121" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D121" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F121" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C122" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D122" t="n">
         <v>1.13</v>
@@ -2892,53 +2892,53 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C123" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D123" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E123" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C124" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D124" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E124" t="n">
         <v>1.01</v>
       </c>
       <c r="F124" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C125" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D125" t="n">
         <v>1.15</v>
@@ -2947,21 +2947,21 @@
         <v>1.01</v>
       </c>
       <c r="F125" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C126" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D126" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E126" t="n">
         <v>1.01</v>
@@ -2972,53 +2972,53 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C127" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D127" t="n">
         <v>1.16</v>
       </c>
       <c r="E127" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F127" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C128" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D128" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E128" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F128" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C129" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D129" t="n">
         <v>1.17</v>
@@ -3027,18 +3027,18 @@
         <v>1.03</v>
       </c>
       <c r="F129" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C130" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D130" t="n">
         <v>1.17</v>
@@ -3052,219 +3052,219 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C131" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D131" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="E131" t="n">
         <v>1.03</v>
       </c>
       <c r="F131" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C132" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D132" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="E132" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F132" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C133" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D133" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E133" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F133" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C134" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D134" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E134" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C135" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D135" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F135" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C136" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D136" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E136" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C137" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D137" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E137" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F137" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C138" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E138" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F138" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C139" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D139" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F139" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C140" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D140" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E140" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F140" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C141" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D141" t="n">
         <v>0.97</v>
       </c>
       <c r="E141" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F141" t="n">
         <v>1.11</v>
@@ -3272,79 +3272,79 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C142" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D142" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E142" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F142" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C143" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E143" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F143" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C144" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D144" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F144" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C145" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D145" t="n">
         <v>1.02</v>
       </c>
       <c r="E145" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F145" t="n">
         <v>1.16</v>
@@ -3352,13 +3352,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C146" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D146" t="n">
         <v>1.02</v>
@@ -3367,284 +3367,284 @@
         <v>0.89</v>
       </c>
       <c r="F146" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C147" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D147" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E147" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F147" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C148" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D148" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E148" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F148" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C149" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D149" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E149" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F149" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C150" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D150" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E150" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C151" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D151" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E151" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F151" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C152" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D152" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E152" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="F152" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C153" t="n">
         <v>184.12</v>
       </c>
       <c r="D153" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F153" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C154" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D154" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F154" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C155" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D155" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E155" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C156" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D156" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E156" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C157" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E157" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="F157" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C158" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E158" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F158" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C159" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D159" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F159" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C160" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D160" t="n">
         <v>1.04</v>
       </c>
       <c r="E160" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F160" t="n">
         <v>1.17</v>
@@ -3652,113 +3652,113 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C161" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D161" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="E161" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F161" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C162" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D162" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E162" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F162" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C163" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D163" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E163" t="n">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C164" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D164" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E164" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C165" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D165" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E165" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F165" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C166" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D166" t="n">
         <v>0.8</v>
@@ -3772,93 +3772,93 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C167" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D167" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E167" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C168" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D168" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E168" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F168" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C169" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E169" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F169" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C170" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D170" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E170" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F170" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C171" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D171" t="n">
         <v>0.92</v>
@@ -3867,218 +3867,218 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F171" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C172" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D172" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E172" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F172" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C173" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D173" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E173" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C174" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D174" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E174" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F174" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C175" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E175" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C176" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D176" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="F176" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C177" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D177" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E177" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F177" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C178" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D178" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E178" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F178" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C179" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D179" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F179" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C180" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D180" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E180" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F180" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C181" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D181" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E181" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F181" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C182" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D182" t="n">
         <v>0.64</v>
@@ -4092,19 +4092,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C183" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D183" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E183" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="F183" t="n">
         <v>0.72</v>
@@ -4112,93 +4112,93 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C184" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D184" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E184" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F184" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C185" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E185" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="F185" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C186" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D186" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E186" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="F186" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C187" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D187" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E187" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F187" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C188" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D188" t="n">
         <v>0.72</v>
@@ -4212,13 +4212,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C189" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D189" t="n">
         <v>0.72</v>
@@ -4227,24 +4227,24 @@
         <v>0.66</v>
       </c>
       <c r="F189" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C190" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D190" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E190" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F190" t="n">
         <v>0.78</v>
@@ -4252,13 +4252,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C191" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D191" t="n">
         <v>0.71</v>
@@ -4267,18 +4267,18 @@
         <v>0.65</v>
       </c>
       <c r="F191" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C192" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D192" t="n">
         <v>0.71</v>
@@ -4287,98 +4287,98 @@
         <v>0.65</v>
       </c>
       <c r="F192" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C193" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D193" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E193" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F193" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C194" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D194" t="n">
         <v>0.7</v>
       </c>
       <c r="E194" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F194" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C195" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E195" t="n">
         <v>0.64</v>
       </c>
       <c r="F195" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C196" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D196" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F196" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C197" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D197" t="n">
         <v>0.6899999999999999</v>
@@ -4392,19 +4392,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C198" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D198" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F198" t="n">
         <v>0.74</v>
@@ -4412,19 +4412,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C199" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D199" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E199" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F199" t="n">
         <v>0.74</v>
@@ -4432,59 +4432,59 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C200" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D200" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E200" t="n">
         <v>0.65</v>
       </c>
       <c r="F200" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C201" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D201" t="n">
         <v>0.7</v>
       </c>
       <c r="E201" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F201" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C202" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D202" t="n">
         <v>0.7</v>
       </c>
       <c r="E202" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F202" t="n">
         <v>0.75</v>
@@ -4492,19 +4492,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C203" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E203" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F203" t="n">
         <v>0.74</v>
@@ -4512,73 +4512,73 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C204" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D204" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E204" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F204" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C205" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D205" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E205" t="n">
         <v>0.64</v>
       </c>
       <c r="F205" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C206" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D206" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E206" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F206" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C207" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D207" t="n">
         <v>0.67</v>
@@ -4592,19 +4592,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C208" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D208" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E208" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F208" t="n">
         <v>0.7</v>
@@ -4612,13 +4612,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C209" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D209" t="n">
         <v>0.66</v>
@@ -4632,19 +4632,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C210" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D210" t="n">
         <v>0.66</v>
       </c>
       <c r="E210" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F210" t="n">
         <v>0.7</v>
@@ -4652,16 +4652,16 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C211" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D211" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E211" t="n">
         <v>0.63</v>
@@ -4672,259 +4672,259 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C212" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D212" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E212" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F212" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C213" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E213" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F213" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C214" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E214" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F214" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C215" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D215" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E215" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F215" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C216" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D216" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E216" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F216" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C217" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D217" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E217" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F217" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C218" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D218" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E218" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F218" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C219" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D219" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E219" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F219" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C220" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D220" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E220" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F220" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C221" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E221" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F221" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C222" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D222" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E222" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F222" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C223" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D223" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E223" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F223" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C224" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D224" t="n">
         <v>0.84</v>
       </c>
       <c r="E224" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F224" t="n">
         <v>0.87</v>
@@ -4932,53 +4932,53 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C225" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D225" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E225" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F225" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C226" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D226" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E226" t="n">
         <v>0.82</v>
       </c>
       <c r="F226" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C227" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D227" t="n">
         <v>0.85</v>
@@ -4992,13 +4992,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C228" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D228" t="n">
         <v>0.85</v>
@@ -5012,19 +5012,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C229" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D229" t="n">
         <v>0.85</v>
       </c>
       <c r="E229" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F229" t="n">
         <v>0.88</v>
@@ -5032,93 +5032,93 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C230" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D230" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E230" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F230" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C231" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D231" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E231" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F231" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C232" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D232" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E232" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F232" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C233" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D233" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E233" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F233" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C234" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D234" t="n">
         <v>0.89</v>
@@ -5132,13 +5132,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C235" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D235" t="n">
         <v>0.89</v>
@@ -5152,73 +5152,73 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C236" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D236" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E236" t="n">
         <v>0.86</v>
       </c>
       <c r="F236" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C237" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D237" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E237" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F237" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C238" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D238" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E238" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F238" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C239" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D239" t="n">
         <v>0.86</v>
@@ -5227,18 +5227,18 @@
         <v>0.83</v>
       </c>
       <c r="F239" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C240" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D240" t="n">
         <v>0.86</v>
@@ -5252,13 +5252,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C241" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D241" t="n">
         <v>0.86</v>
@@ -5272,681 +5272,701 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C242" t="n">
-        <v>4336.9</v>
+        <v>4223.92</v>
       </c>
       <c r="D242" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E242" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F242" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C243" t="n">
-        <v>4460.82</v>
+        <v>4336.9</v>
       </c>
       <c r="D243" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E243" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F243" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C244" t="n">
-        <v>4599.62</v>
+        <v>4460.82</v>
       </c>
       <c r="D244" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E244" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F244" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C245" t="n">
-        <v>4758.73</v>
+        <v>4599.62</v>
       </c>
       <c r="D245" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E245" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F245" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C246" t="n">
-        <v>4939.94</v>
+        <v>4758.73</v>
       </c>
       <c r="D246" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E246" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F246" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C247" t="n">
-        <v>5134.47</v>
+        <v>4939.94</v>
       </c>
       <c r="D247" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E247" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F247" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C248" t="n">
-        <v>5323.18</v>
+        <v>5134.47</v>
       </c>
       <c r="D248" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E248" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F248" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C249" t="n">
-        <v>5485.51</v>
+        <v>5323.18</v>
       </c>
       <c r="D249" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F249" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C250" t="n">
-        <v>5607.79</v>
+        <v>5485.51</v>
       </c>
       <c r="D250" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E250" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F250" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C251" t="n">
-        <v>5684.89</v>
+        <v>5607.79</v>
       </c>
       <c r="D251" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E251" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F251" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C252" t="n">
-        <v>5717.21</v>
+        <v>5684.89</v>
       </c>
       <c r="D252" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E252" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F252" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C253" t="n">
-        <v>5702.18</v>
+        <v>5717.21</v>
       </c>
       <c r="D253" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E253" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F253" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C254" t="n">
-        <v>5630.57</v>
+        <v>5702.18</v>
       </c>
       <c r="D254" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E254" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F254" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C255" t="n">
-        <v>5487.39</v>
+        <v>5630.57</v>
       </c>
       <c r="D255" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E255" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="F255" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C256" t="n">
-        <v>5262.03</v>
+        <v>5487.39</v>
       </c>
       <c r="D256" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E256" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="F256" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C257" t="n">
-        <v>4958.98</v>
+        <v>5262.03</v>
       </c>
       <c r="D257" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E257" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="F257" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C258" t="n">
-        <v>4597.99</v>
+        <v>4958.98</v>
       </c>
       <c r="D258" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="E258" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F258" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C259" t="n">
-        <v>4206.86</v>
+        <v>4597.99</v>
       </c>
       <c r="D259" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="E259" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F259" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C260" t="n">
-        <v>3810.73</v>
+        <v>4206.86</v>
       </c>
       <c r="D260" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E260" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F260" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C261" t="n">
-        <v>3425.14</v>
+        <v>3810.73</v>
       </c>
       <c r="D261" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2</v>
+      </c>
+      <c r="F261" t="n">
         <v>2.14</v>
-      </c>
-      <c r="E261" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F261" t="n">
-        <v>2.21</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C262" t="n">
-        <v>3056.03</v>
+        <v>3425.14</v>
       </c>
       <c r="D262" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F262" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E262" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F262" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C263" t="n">
-        <v>2705.4</v>
+        <v>3056.03</v>
       </c>
       <c r="D263" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F263" t="n">
         <v>2.29</v>
-      </c>
-      <c r="E263" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F263" t="n">
-        <v>2.37</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C264" t="n">
-        <v>2375.46</v>
+        <v>2705.4</v>
       </c>
       <c r="D264" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="E264" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="F264" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C265" t="n">
-        <v>2068.2</v>
+        <v>2375.46</v>
       </c>
       <c r="D265" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="E265" t="n">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="F265" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C266" t="n">
-        <v>1786.7</v>
+        <v>2068.2</v>
       </c>
       <c r="D266" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="E266" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="F266" t="n">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C267" t="n">
-        <v>1533.57</v>
+        <v>1786.7</v>
       </c>
       <c r="D267" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="E267" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="F267" t="n">
-        <v>2.73</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C268" t="n">
-        <v>1307.05</v>
+        <v>1533.57</v>
       </c>
       <c r="D268" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="E268" t="n">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
       <c r="F268" t="n">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C269" t="n">
-        <v>1105.08</v>
+        <v>1307.05</v>
       </c>
       <c r="D269" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="E269" t="n">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="F269" t="n">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C270" t="n">
-        <v>926.85</v>
+        <v>1105.08</v>
       </c>
       <c r="D270" t="n">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="E270" t="n">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="F270" t="n">
-        <v>3.08</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C271" t="n">
-        <v>772.42</v>
+        <v>926.85</v>
       </c>
       <c r="D271" t="n">
-        <v>3.01</v>
+        <v>2.89</v>
       </c>
       <c r="E271" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F271" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C272" t="n">
-        <v>640.99</v>
+        <v>772.42</v>
       </c>
       <c r="D272" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="E272" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="F272" t="n">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C273" t="n">
-        <v>530.61</v>
+        <v>640.99</v>
       </c>
       <c r="D273" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="E273" t="n">
-        <v>3.16</v>
+        <v>2.95</v>
       </c>
       <c r="F273" t="n">
-        <v>3.75</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C274" t="n">
-        <v>437.9</v>
+        <v>530.61</v>
       </c>
       <c r="D274" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="E274" t="n">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="F274" t="n">
-        <v>4.23</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B275" t="n">
+        <v>342</v>
+      </c>
+      <c r="C275" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="D275" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F275" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B276" t="n">
         <v>566</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C276" t="n">
         <v>358.41</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D276" t="n">
         <v>4.49</v>
       </c>
-      <c r="E275" t="n">
+      <c r="E276" t="n">
         <v>4.03</v>
       </c>
-      <c r="F275" t="n">
+      <c r="F276" t="n">
         <v>4.95</v>
       </c>
     </row>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,856 +472,856 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C2" t="n">
-        <v>21460.93</v>
+        <v>19397.95</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="E2" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="F2" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C3" t="n">
-        <v>22573.54</v>
+        <v>20752.65</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C4" t="n">
-        <v>23657.58</v>
+        <v>22092.16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="E4" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C5" t="n">
-        <v>24678.15</v>
+        <v>23371.44</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C6" t="n">
-        <v>25635.6</v>
+        <v>24544.67</v>
       </c>
       <c r="D6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C7" t="n">
-        <v>26580.49</v>
+        <v>25608.8</v>
       </c>
       <c r="D7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.83</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C8" t="n">
-        <v>27591.92</v>
+        <v>26617.69</v>
       </c>
       <c r="D8" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E8" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.84</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C9" t="n">
-        <v>28722.21</v>
+        <v>27658.23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E9" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.86</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C10" t="n">
-        <v>29948.85</v>
+        <v>28792.56</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E10" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F10" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C11" t="n">
-        <v>31170.16</v>
+        <v>30007.99</v>
       </c>
       <c r="D11" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.91</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C12" t="n">
-        <v>32258.8</v>
+        <v>31211.13</v>
       </c>
       <c r="D12" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="E12" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C13" t="n">
-        <v>33131.46</v>
+        <v>32280.76</v>
       </c>
       <c r="D13" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E13" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C14" t="n">
-        <v>33782.66</v>
+        <v>33137.39</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E14" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C15" t="n">
-        <v>34268.62</v>
+        <v>33777.31</v>
       </c>
       <c r="D15" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C16" t="n">
-        <v>34660.81</v>
+        <v>34256.96</v>
       </c>
       <c r="D16" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C17" t="n">
-        <v>34994.45</v>
+        <v>34647.1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C18" t="n">
-        <v>35237.83</v>
+        <v>34981.72</v>
       </c>
       <c r="D18" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C19" t="n">
-        <v>35334.66</v>
+        <v>35227.82</v>
       </c>
       <c r="D19" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C20" t="n">
-        <v>35256.68</v>
+        <v>35328.03</v>
       </c>
       <c r="D20" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C21" t="n">
-        <v>35036.08</v>
+        <v>35253.26</v>
       </c>
       <c r="D21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C22" t="n">
-        <v>34742.31</v>
+        <v>35035.24</v>
       </c>
       <c r="D22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C23" t="n">
-        <v>34431.6</v>
+        <v>34743.21</v>
       </c>
       <c r="D23" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C24" t="n">
-        <v>34117.35</v>
+        <v>34433.43</v>
       </c>
       <c r="D24" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C25" t="n">
-        <v>33736.94</v>
+        <v>34119.44</v>
       </c>
       <c r="D25" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C26" t="n">
-        <v>33210.2</v>
+        <v>33738.84</v>
       </c>
       <c r="D26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C27" t="n">
-        <v>32512.94</v>
+        <v>33211.65</v>
       </c>
       <c r="D27" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C28" t="n">
-        <v>31689.74</v>
+        <v>32513.87</v>
       </c>
       <c r="D28" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C29" t="n">
-        <v>30820.79</v>
+        <v>31690.18</v>
       </c>
       <c r="D29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C30" t="n">
-        <v>29968.91</v>
+        <v>30820.86</v>
       </c>
       <c r="D30" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C31" t="n">
-        <v>29137.91</v>
+        <v>29968.73</v>
       </c>
       <c r="D31" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E31" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F31" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C32" t="n">
-        <v>28256.79</v>
+        <v>29137.6</v>
       </c>
       <c r="D32" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E32" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F32" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C33" t="n">
-        <v>27241.13</v>
+        <v>28256.46</v>
       </c>
       <c r="D33" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E33" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F33" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C34" t="n">
-        <v>26046.71</v>
+        <v>27240.84</v>
       </c>
       <c r="D34" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E34" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F34" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C35" t="n">
-        <v>24688.27</v>
+        <v>26046.5</v>
       </c>
       <c r="D35" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E35" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C36" t="n">
-        <v>23219.77</v>
+        <v>24688.14</v>
       </c>
       <c r="D36" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E36" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C37" t="n">
-        <v>21706.89</v>
+        <v>23219.71</v>
       </c>
       <c r="D37" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E37" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F37" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C38" t="n">
-        <v>20196.53</v>
+        <v>21706.88</v>
       </c>
       <c r="D38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C39" t="n">
-        <v>18698.62</v>
+        <v>20196.56</v>
       </c>
       <c r="D39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C40" t="n">
-        <v>17214.9</v>
+        <v>18698.67</v>
       </c>
       <c r="D40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.74</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C41" t="n">
-        <v>15756.95</v>
+        <v>17214.95</v>
       </c>
       <c r="D41" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E41" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F41" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C42" t="n">
-        <v>14354.82</v>
+        <v>15756.99</v>
       </c>
       <c r="D42" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E42" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F42" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C43" t="n">
-        <v>13046.38</v>
+        <v>14354.85</v>
       </c>
       <c r="D43" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E43" t="n">
         <v>1.73</v>
       </c>
       <c r="F43" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C44" t="n">
-        <v>11863.41</v>
+        <v>13046.4</v>
       </c>
       <c r="D44" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E44" t="n">
         <v>1.73</v>
@@ -1332,19 +1332,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C45" t="n">
-        <v>10809.34</v>
+        <v>11863.42</v>
       </c>
       <c r="D45" t="n">
         <v>1.76</v>
       </c>
       <c r="E45" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F45" t="n">
         <v>1.79</v>
@@ -1352,53 +1352,53 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C46" t="n">
-        <v>9858.639999999999</v>
+        <v>10809.34</v>
       </c>
       <c r="D46" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E46" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F46" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C47" t="n">
-        <v>8981.559999999999</v>
+        <v>9858.639999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E47" t="n">
         <v>1.74</v>
       </c>
       <c r="F47" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C48" t="n">
-        <v>8159.85</v>
+        <v>8981.549999999999</v>
       </c>
       <c r="D48" t="n">
         <v>1.78</v>
@@ -1412,13 +1412,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C49" t="n">
-        <v>7391.88</v>
+        <v>8159.85</v>
       </c>
       <c r="D49" t="n">
         <v>1.78</v>
@@ -1432,79 +1432,79 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C50" t="n">
-        <v>6687.4</v>
+        <v>7391.87</v>
       </c>
       <c r="D50" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E50" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F50" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C51" t="n">
-        <v>6055.97</v>
+        <v>6687.4</v>
       </c>
       <c r="D51" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E51" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="F51" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C52" t="n">
-        <v>5495.89</v>
+        <v>6055.97</v>
       </c>
       <c r="D52" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E52" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F52" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C53" t="n">
-        <v>4991.13</v>
+        <v>5495.89</v>
       </c>
       <c r="D53" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="E53" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F53" t="n">
         <v>1.8</v>
@@ -1512,299 +1512,299 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C54" t="n">
-        <v>4522.49</v>
+        <v>4991.13</v>
       </c>
       <c r="D54" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="E54" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="F54" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C55" t="n">
-        <v>4079.32</v>
+        <v>4522.49</v>
       </c>
       <c r="D55" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E55" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="F55" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C56" t="n">
-        <v>3663.78</v>
+        <v>4079.32</v>
       </c>
       <c r="D56" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="E56" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="F56" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C57" t="n">
-        <v>3286.67</v>
+        <v>3663.78</v>
       </c>
       <c r="D57" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E57" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F57" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C58" t="n">
-        <v>2959.48</v>
+        <v>3286.67</v>
       </c>
       <c r="D58" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E58" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F58" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C59" t="n">
-        <v>2686.25</v>
+        <v>2959.49</v>
       </c>
       <c r="D59" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E59" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F59" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C60" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D60" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E60" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F60" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C61" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D61" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E61" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F61" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C62" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E62" t="n">
         <v>1.25</v>
       </c>
-      <c r="E62" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F62" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C63" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E63" t="n">
         <v>1.2</v>
       </c>
-      <c r="E63" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F63" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C64" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D64" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E64" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F64" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C65" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D65" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E65" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F65" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C66" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E66" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F66" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C67" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E67" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="F67" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C68" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D68" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E68" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F68" t="n">
         <v>1.16</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C69" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D69" t="n">
         <v>1.1</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C70" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D70" t="n">
         <v>1.1</v>
@@ -1852,19 +1852,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C71" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D71" t="n">
         <v>1.1</v>
       </c>
       <c r="E71" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F71" t="n">
         <v>1.15</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C72" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D72" t="n">
         <v>1.1</v>
@@ -1892,19 +1892,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C73" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D73" t="n">
         <v>1.1</v>
       </c>
       <c r="E73" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F73" t="n">
         <v>1.15</v>
@@ -1912,39 +1912,39 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C74" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D74" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E74" t="n">
         <v>1.04</v>
       </c>
       <c r="F74" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C75" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D75" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E75" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F75" t="n">
         <v>1.14</v>
@@ -1952,79 +1952,79 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C76" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D76" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E76" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F76" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C77" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D77" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E77" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F77" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C78" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D78" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E78" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F78" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C79" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E79" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F79" t="n">
         <v>1.08</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C80" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D80" t="n">
         <v>1.02</v>
@@ -2052,593 +2052,593 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C81" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E81" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F81" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C82" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D82" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E82" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F82" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C83" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E83" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F83" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C84" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D84" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E84" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F84" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C85" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D85" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E85" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F85" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C86" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D86" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E86" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F86" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C87" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D87" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E87" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F87" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C88" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D88" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E88" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F88" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C89" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D89" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E89" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="F89" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C90" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D90" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E90" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F90" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C91" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D91" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E91" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F91" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C92" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D92" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E92" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F92" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C93" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D93" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E93" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F93" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C94" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D94" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E94" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F94" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C95" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D95" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="E95" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="F95" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C96" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F96" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C97" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D97" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F97" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1.59</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C98" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F98" t="n">
         <v>1.58</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1.66</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C99" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D99" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E99" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F99" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C100" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D100" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E100" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="F100" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C101" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D101" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E101" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F101" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C102" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E102" t="n">
         <v>1.62</v>
       </c>
       <c r="F102" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C103" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D103" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E103" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="F103" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C104" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E104" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F104" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C105" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D105" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="E105" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="F105" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C106" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D106" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E106" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F106" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C107" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E107" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="F107" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C108" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E108" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="F108" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C109" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E109" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F109" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C110" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D110" t="n">
         <v>1.23</v>
@@ -2652,113 +2652,113 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C111" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D111" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E111" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="F111" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C112" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E112" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F112" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C113" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D113" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E113" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="F113" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C114" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D114" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E114" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="F114" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C115" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D115" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="E115" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="F115" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C116" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D116" t="n">
         <v>1.34</v>
@@ -2767,198 +2767,198 @@
         <v>1.21</v>
       </c>
       <c r="F116" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C117" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D117" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E117" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="F117" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C118" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E118" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F118" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C119" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="E119" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F119" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C120" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D120" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E120" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="F120" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C121" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D121" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E121" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="F121" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C122" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D122" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F122" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C123" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D123" t="n">
         <v>1.13</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F123" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C124" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D124" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E124" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C125" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D125" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E125" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C126" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D126" t="n">
         <v>1.15</v>
@@ -2967,24 +2967,24 @@
         <v>1.01</v>
       </c>
       <c r="F126" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C127" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D127" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E127" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F127" t="n">
         <v>1.29</v>
@@ -2992,13 +2992,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C128" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D128" t="n">
         <v>1.16</v>
@@ -3012,33 +3012,33 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C129" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D129" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E129" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F129" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C130" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D130" t="n">
         <v>1.17</v>
@@ -3047,24 +3047,24 @@
         <v>1.03</v>
       </c>
       <c r="F130" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C131" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D131" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E131" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F131" t="n">
         <v>1.32</v>
@@ -3072,13 +3072,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C132" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D132" t="n">
         <v>1.18</v>
@@ -3087,198 +3087,198 @@
         <v>1.03</v>
       </c>
       <c r="F132" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C133" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D133" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="E133" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F133" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C134" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D134" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F134" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C135" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D135" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="E135" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F135" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C136" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D136" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F136" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C137" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D137" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E137" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C138" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D138" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E138" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F138" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C139" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E139" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F139" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C140" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D140" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F140" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C141" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D141" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E141" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F141" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C142" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D142" t="n">
         <v>0.97</v>
@@ -3292,253 +3292,253 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C143" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D143" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E143" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F143" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C144" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E144" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F144" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C145" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D145" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E145" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F145" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C146" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D146" t="n">
         <v>1.02</v>
       </c>
       <c r="E146" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F146" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C147" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D147" t="n">
         <v>1.02</v>
       </c>
       <c r="E147" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F147" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C148" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D148" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E148" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F148" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C149" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D149" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E149" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F149" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C150" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D150" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E150" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="F150" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C151" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D151" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E151" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C152" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D152" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E152" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="F152" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C153" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D153" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E153" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="F153" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C154" t="n">
         <v>184.12</v>
       </c>
       <c r="D154" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E154" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="F154" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C155" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D155" t="n">
         <v>0.8100000000000001</v>
@@ -3547,238 +3547,238 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C156" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D156" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C157" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D157" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E157" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C158" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E158" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="F158" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C159" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E159" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F159" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C160" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D160" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F160" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C161" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D161" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E161" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F161" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C162" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D162" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E162" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F162" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C163" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D163" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E163" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F163" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C164" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D164" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E164" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C165" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D165" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E165" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C166" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E166" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F166" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C167" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D167" t="n">
         <v>0.8</v>
@@ -3792,93 +3792,93 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C168" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D168" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E168" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C169" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D169" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E169" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="F169" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C170" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E170" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C171" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D171" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F171" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C172" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D172" t="n">
         <v>0.92</v>
@@ -3892,213 +3892,213 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C173" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D173" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E173" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C174" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D174" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E174" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F174" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C175" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D175" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E175" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F175" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C176" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E176" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C177" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D177" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="F177" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C178" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D178" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E178" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F178" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C179" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D179" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E179" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F179" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C180" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D180" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E180" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F180" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C181" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D181" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E181" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F181" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C182" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D182" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E182" t="n">
         <v>0.58</v>
       </c>
       <c r="F182" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C183" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D183" t="n">
         <v>0.64</v>
@@ -4112,113 +4112,113 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C184" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D184" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E184" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="F184" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C185" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D185" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E185" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F185" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C186" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E186" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F186" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C187" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D187" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E187" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F187" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C188" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D188" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E188" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F188" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C189" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D189" t="n">
         <v>0.72</v>
@@ -4232,13 +4232,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C190" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D190" t="n">
         <v>0.72</v>
@@ -4247,24 +4247,24 @@
         <v>0.66</v>
       </c>
       <c r="F190" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C191" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D191" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E191" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F191" t="n">
         <v>0.78</v>
@@ -4272,13 +4272,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C192" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D192" t="n">
         <v>0.71</v>
@@ -4287,18 +4287,18 @@
         <v>0.65</v>
       </c>
       <c r="F192" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C193" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D193" t="n">
         <v>0.71</v>
@@ -4312,16 +4312,16 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C194" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E194" t="n">
         <v>0.65</v>
@@ -4332,36 +4332,36 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C195" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D195" t="n">
         <v>0.7</v>
       </c>
       <c r="E195" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F195" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C196" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D196" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E196" t="n">
         <v>0.64</v>
@@ -4372,13 +4372,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C197" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D197" t="n">
         <v>0.6899999999999999</v>
@@ -4392,13 +4392,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C198" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D198" t="n">
         <v>0.6899999999999999</v>
@@ -4412,13 +4412,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C199" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D199" t="n">
         <v>0.6899999999999999</v>
@@ -4432,19 +4432,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C200" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D200" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E200" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F200" t="n">
         <v>0.74</v>
@@ -4452,16 +4452,16 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C201" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D201" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E201" t="n">
         <v>0.65</v>
@@ -4472,13 +4472,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C202" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D202" t="n">
         <v>0.7</v>
@@ -4492,113 +4492,113 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C203" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D203" t="n">
         <v>0.7</v>
       </c>
       <c r="E203" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F203" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C204" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D204" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E204" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F204" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C205" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D205" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E205" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F205" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C206" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D206" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E206" t="n">
         <v>0.64</v>
       </c>
       <c r="F206" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C207" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D207" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E207" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F207" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C208" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D208" t="n">
         <v>0.67</v>
@@ -4607,24 +4607,24 @@
         <v>0.63</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C209" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D209" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E209" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F209" t="n">
         <v>0.7</v>
@@ -4632,13 +4632,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C210" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D210" t="n">
         <v>0.66</v>
@@ -4652,19 +4652,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C211" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D211" t="n">
         <v>0.66</v>
       </c>
       <c r="E211" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F211" t="n">
         <v>0.7</v>
@@ -4672,16 +4672,16 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C212" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D212" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E212" t="n">
         <v>0.63</v>
@@ -4692,253 +4692,253 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C213" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D213" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E213" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F213" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C214" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E214" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F214" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C215" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D215" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F215" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C216" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D216" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E216" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F216" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C217" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D217" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E217" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F217" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C218" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D218" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E218" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F218" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C219" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D219" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="E219" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F219" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C220" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D220" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E220" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F220" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C221" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E221" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F221" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C222" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D222" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E222" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F222" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C223" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D223" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E223" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F223" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C224" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D224" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E224" t="n">
         <v>0.8</v>
       </c>
       <c r="F224" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C225" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D225" t="n">
         <v>0.84</v>
@@ -4952,19 +4952,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C226" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D226" t="n">
         <v>0.84</v>
       </c>
       <c r="E226" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F226" t="n">
         <v>0.87</v>
@@ -4972,33 +4972,33 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C227" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D227" t="n">
         <v>0.85</v>
       </c>
       <c r="E227" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F227" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C228" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D228" t="n">
         <v>0.85</v>
@@ -5012,13 +5012,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C229" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D229" t="n">
         <v>0.85</v>
@@ -5032,13 +5032,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C230" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D230" t="n">
         <v>0.85</v>
@@ -5052,16 +5052,16 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C231" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D231" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E231" t="n">
         <v>0.83</v>
@@ -5072,73 +5072,73 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C232" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D232" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E232" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F232" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C233" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D233" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E233" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F233" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C234" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D234" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E234" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F234" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C235" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D235" t="n">
         <v>0.89</v>
@@ -5152,13 +5152,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C236" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D236" t="n">
         <v>0.89</v>
@@ -5172,73 +5172,73 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C237" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D237" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E237" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F237" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C238" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D238" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E238" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F238" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C239" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D239" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E239" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F239" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C240" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D240" t="n">
         <v>0.86</v>
@@ -5247,18 +5247,18 @@
         <v>0.83</v>
       </c>
       <c r="F240" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C241" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D241" t="n">
         <v>0.86</v>
@@ -5272,13 +5272,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C242" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D242" t="n">
         <v>0.86</v>
@@ -5292,19 +5292,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C243" t="n">
-        <v>4336.9</v>
+        <v>4223.92</v>
       </c>
       <c r="D243" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E243" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F243" t="n">
         <v>0.89</v>
@@ -5312,661 +5312,681 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C244" t="n">
-        <v>4460.82</v>
+        <v>4336.9</v>
       </c>
       <c r="D244" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E244" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F244" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C245" t="n">
-        <v>4599.62</v>
+        <v>4460.82</v>
       </c>
       <c r="D245" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E245" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F245" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C246" t="n">
-        <v>4758.73</v>
+        <v>4599.62</v>
       </c>
       <c r="D246" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E246" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F246" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C247" t="n">
-        <v>4939.94</v>
+        <v>4758.73</v>
       </c>
       <c r="D247" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E247" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F247" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C248" t="n">
-        <v>5134.47</v>
+        <v>4939.94</v>
       </c>
       <c r="D248" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E248" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F248" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C249" t="n">
-        <v>5323.18</v>
+        <v>5134.47</v>
       </c>
       <c r="D249" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E249" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F249" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C250" t="n">
-        <v>5485.51</v>
+        <v>5323.18</v>
       </c>
       <c r="D250" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E250" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="F250" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C251" t="n">
-        <v>5607.79</v>
+        <v>5485.51</v>
       </c>
       <c r="D251" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E251" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F251" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C252" t="n">
-        <v>5684.89</v>
+        <v>5607.79</v>
       </c>
       <c r="D252" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E252" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F252" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C253" t="n">
-        <v>5717.21</v>
+        <v>5684.89</v>
       </c>
       <c r="D253" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E253" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F253" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C254" t="n">
-        <v>5702.18</v>
+        <v>5717.21</v>
       </c>
       <c r="D254" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E254" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F254" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C255" t="n">
-        <v>5630.57</v>
+        <v>5702.18</v>
       </c>
       <c r="D255" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E255" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F255" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C256" t="n">
-        <v>5487.39</v>
+        <v>5630.57</v>
       </c>
       <c r="D256" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E256" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="F256" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C257" t="n">
-        <v>5262.03</v>
+        <v>5487.39</v>
       </c>
       <c r="D257" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E257" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="F257" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C258" t="n">
-        <v>4958.98</v>
+        <v>5262.03</v>
       </c>
       <c r="D258" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E258" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="F258" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C259" t="n">
-        <v>4597.99</v>
+        <v>4958.98</v>
       </c>
       <c r="D259" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="E259" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F259" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C260" t="n">
-        <v>4206.86</v>
+        <v>4597.99</v>
       </c>
       <c r="D260" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E260" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F260" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C261" t="n">
-        <v>3810.73</v>
+        <v>4206.86</v>
       </c>
       <c r="D261" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E261" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F261" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C262" t="n">
-        <v>3425.14</v>
+        <v>3810.73</v>
       </c>
       <c r="D262" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E262" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="F262" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C263" t="n">
-        <v>3056.03</v>
+        <v>3425.14</v>
       </c>
       <c r="D263" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F263" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E263" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F263" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C264" t="n">
-        <v>2705.4</v>
+        <v>3056.03</v>
       </c>
       <c r="D264" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F264" t="n">
         <v>2.29</v>
-      </c>
-      <c r="E264" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F264" t="n">
-        <v>2.38</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C265" t="n">
-        <v>2375.46</v>
+        <v>2705.4</v>
       </c>
       <c r="D265" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="E265" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="F265" t="n">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C266" t="n">
-        <v>2068.2</v>
+        <v>2375.46</v>
       </c>
       <c r="D266" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="E266" t="n">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="F266" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C267" t="n">
-        <v>1786.7</v>
+        <v>2068.2</v>
       </c>
       <c r="D267" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="E267" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="F267" t="n">
-        <v>2.64</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C268" t="n">
-        <v>1533.57</v>
+        <v>1786.7</v>
       </c>
       <c r="D268" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="E268" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="F268" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C269" t="n">
-        <v>1307.05</v>
+        <v>1533.57</v>
       </c>
       <c r="D269" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="E269" t="n">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
       <c r="F269" t="n">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C270" t="n">
-        <v>1105.08</v>
+        <v>1307.05</v>
       </c>
       <c r="D270" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="E270" t="n">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="F270" t="n">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C271" t="n">
-        <v>926.85</v>
+        <v>1105.08</v>
       </c>
       <c r="D271" t="n">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="E271" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="F271" t="n">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C272" t="n">
-        <v>772.42</v>
+        <v>926.85</v>
       </c>
       <c r="D272" t="n">
-        <v>3.01</v>
+        <v>2.89</v>
       </c>
       <c r="E272" t="n">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="F272" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C273" t="n">
-        <v>640.99</v>
+        <v>772.42</v>
       </c>
       <c r="D273" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="E273" t="n">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="F273" t="n">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C274" t="n">
-        <v>530.61</v>
+        <v>640.99</v>
       </c>
       <c r="D274" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="E274" t="n">
-        <v>3.16</v>
+        <v>2.93</v>
       </c>
       <c r="F274" t="n">
-        <v>3.74</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C275" t="n">
-        <v>437.9</v>
+        <v>530.61</v>
       </c>
       <c r="D275" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="E275" t="n">
-        <v>3.49</v>
+        <v>3.17</v>
       </c>
       <c r="F275" t="n">
-        <v>4.22</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B276" t="n">
+        <v>342</v>
+      </c>
+      <c r="C276" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="D276" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F276" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B277" t="n">
         <v>566</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C277" t="n">
         <v>358.41</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D277" t="n">
         <v>4.49</v>
       </c>
-      <c r="E276" t="n">
+      <c r="E277" t="n">
         <v>4.03</v>
       </c>
-      <c r="F276" t="n">
+      <c r="F277" t="n">
         <v>4.95</v>
       </c>
     </row>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,839 +472,839 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C2" t="n">
-        <v>19397.95</v>
+        <v>18325.75</v>
       </c>
       <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.72</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C3" t="n">
-        <v>20752.65</v>
+        <v>19608.49</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.74</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C4" t="n">
-        <v>22092.16</v>
+        <v>20895.74</v>
       </c>
       <c r="D4" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.76</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C5" t="n">
-        <v>23371.44</v>
+        <v>22177.22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.78</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C6" t="n">
-        <v>24544.67</v>
+        <v>23411.12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="E6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C7" t="n">
-        <v>25608.8</v>
+        <v>24552.64</v>
       </c>
       <c r="D7" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C8" t="n">
-        <v>26617.69</v>
+        <v>25597.74</v>
       </c>
       <c r="D8" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.83</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C9" t="n">
-        <v>27658.23</v>
+        <v>26597.98</v>
       </c>
       <c r="D9" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E9" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.84</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C10" t="n">
-        <v>28792.56</v>
+        <v>27637.31</v>
       </c>
       <c r="D10" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E10" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.86</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C11" t="n">
-        <v>30007.99</v>
+        <v>28774.99</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E11" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F11" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C12" t="n">
-        <v>31211.13</v>
+        <v>29995.82</v>
       </c>
       <c r="D12" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E12" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C13" t="n">
-        <v>32280.76</v>
+        <v>31204.6</v>
       </c>
       <c r="D13" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="E13" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C14" t="n">
-        <v>33137.39</v>
+        <v>32278.99</v>
       </c>
       <c r="D14" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E14" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C15" t="n">
-        <v>33777.31</v>
+        <v>33138.98</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E15" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C16" t="n">
-        <v>34256.96</v>
+        <v>33780.77</v>
       </c>
       <c r="D16" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C17" t="n">
-        <v>34647.1</v>
+        <v>34261.04</v>
       </c>
       <c r="D17" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C18" t="n">
-        <v>34981.72</v>
+        <v>34650.88</v>
       </c>
       <c r="D18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C19" t="n">
-        <v>35227.82</v>
+        <v>34984.69</v>
       </c>
       <c r="D19" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C20" t="n">
-        <v>35328.03</v>
+        <v>35229.79</v>
       </c>
       <c r="D20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C21" t="n">
-        <v>35253.26</v>
+        <v>35329.04</v>
       </c>
       <c r="D21" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C22" t="n">
-        <v>35035.24</v>
+        <v>35253.51</v>
       </c>
       <c r="D22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C23" t="n">
-        <v>34743.21</v>
+        <v>35034.97</v>
       </c>
       <c r="D23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C24" t="n">
-        <v>34433.43</v>
+        <v>34742.66</v>
       </c>
       <c r="D24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.17</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C25" t="n">
-        <v>34119.44</v>
+        <v>34432.81</v>
       </c>
       <c r="D25" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C26" t="n">
-        <v>33738.84</v>
+        <v>34118.88</v>
       </c>
       <c r="D26" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C27" t="n">
-        <v>33211.65</v>
+        <v>33738.4</v>
       </c>
       <c r="D27" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C28" t="n">
-        <v>32513.87</v>
+        <v>33211.37</v>
       </c>
       <c r="D28" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E28" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="F28" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C29" t="n">
-        <v>31690.18</v>
+        <v>32513.74</v>
       </c>
       <c r="D29" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C30" t="n">
-        <v>30820.86</v>
+        <v>31690.16</v>
       </c>
       <c r="D30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C31" t="n">
-        <v>29968.73</v>
+        <v>30820.91</v>
       </c>
       <c r="D31" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C32" t="n">
-        <v>29137.6</v>
+        <v>29968.82</v>
       </c>
       <c r="D32" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E32" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F32" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C33" t="n">
-        <v>28256.46</v>
+        <v>29137.7</v>
       </c>
       <c r="D33" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E33" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F33" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C34" t="n">
-        <v>27240.84</v>
+        <v>28256.55</v>
       </c>
       <c r="D34" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E34" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F34" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C35" t="n">
-        <v>26046.5</v>
+        <v>27240.9</v>
       </c>
       <c r="D35" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E35" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F35" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C36" t="n">
-        <v>24688.14</v>
+        <v>26046.54</v>
       </c>
       <c r="D36" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E36" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C37" t="n">
-        <v>23219.71</v>
+        <v>24688.16</v>
       </c>
       <c r="D37" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E37" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C38" t="n">
-        <v>21706.88</v>
+        <v>23219.71</v>
       </c>
       <c r="D38" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E38" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F38" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C39" t="n">
-        <v>20196.56</v>
+        <v>21706.87</v>
       </c>
       <c r="D39" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C40" t="n">
-        <v>18698.67</v>
+        <v>20196.55</v>
       </c>
       <c r="D40" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C41" t="n">
-        <v>17214.95</v>
+        <v>18698.66</v>
       </c>
       <c r="D41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.74</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C42" t="n">
-        <v>15756.99</v>
+        <v>17214.94</v>
       </c>
       <c r="D42" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E42" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F42" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C43" t="n">
-        <v>14354.85</v>
+        <v>15756.99</v>
       </c>
       <c r="D43" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E43" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F43" t="n">
         <v>1.78</v>
@@ -1312,39 +1312,39 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C44" t="n">
-        <v>13046.4</v>
+        <v>14354.85</v>
       </c>
       <c r="D44" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E44" t="n">
         <v>1.73</v>
       </c>
       <c r="F44" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C45" t="n">
-        <v>11863.42</v>
+        <v>13046.39</v>
       </c>
       <c r="D45" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E45" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F45" t="n">
         <v>1.79</v>
@@ -1352,19 +1352,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C46" t="n">
-        <v>10809.34</v>
+        <v>11863.42</v>
       </c>
       <c r="D46" t="n">
         <v>1.76</v>
       </c>
       <c r="E46" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F46" t="n">
         <v>1.79</v>
@@ -1372,53 +1372,53 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C47" t="n">
-        <v>9858.639999999999</v>
+        <v>10809.34</v>
       </c>
       <c r="D47" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E47" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F47" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C48" t="n">
-        <v>8981.549999999999</v>
+        <v>9858.639999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E48" t="n">
         <v>1.74</v>
       </c>
       <c r="F48" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C49" t="n">
-        <v>8159.85</v>
+        <v>8981.549999999999</v>
       </c>
       <c r="D49" t="n">
         <v>1.78</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C50" t="n">
-        <v>7391.87</v>
+        <v>8159.85</v>
       </c>
       <c r="D50" t="n">
         <v>1.78</v>
@@ -1452,39 +1452,39 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C51" t="n">
-        <v>6687.4</v>
+        <v>7391.88</v>
       </c>
       <c r="D51" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E51" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F51" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C52" t="n">
-        <v>6055.97</v>
+        <v>6687.4</v>
       </c>
       <c r="D52" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E52" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F52" t="n">
         <v>1.81</v>
@@ -1492,336 +1492,336 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C53" t="n">
-        <v>5495.89</v>
+        <v>6055.97</v>
       </c>
       <c r="D53" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E53" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F53" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C54" t="n">
-        <v>4991.13</v>
+        <v>5495.89</v>
       </c>
       <c r="D54" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="E54" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F54" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C55" t="n">
-        <v>4522.49</v>
+        <v>4991.13</v>
       </c>
       <c r="D55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="E55" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="F55" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C56" t="n">
-        <v>4079.32</v>
+        <v>4522.49</v>
       </c>
       <c r="D56" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E56" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="F56" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C57" t="n">
-        <v>3663.78</v>
+        <v>4079.32</v>
       </c>
       <c r="D57" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="E57" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="F57" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C58" t="n">
-        <v>3286.67</v>
+        <v>3663.78</v>
       </c>
       <c r="D58" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E58" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F58" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C59" t="n">
-        <v>2959.49</v>
+        <v>3286.67</v>
       </c>
       <c r="D59" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E59" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F59" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C60" t="n">
-        <v>2686.25</v>
+        <v>2959.49</v>
       </c>
       <c r="D60" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E60" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F60" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C61" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D61" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E61" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F61" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C62" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D62" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E62" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F62" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C63" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E63" t="n">
         <v>1.25</v>
       </c>
-      <c r="E63" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F63" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C64" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E64" t="n">
         <v>1.2</v>
       </c>
-      <c r="E64" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F64" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C65" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D65" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E65" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F65" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C66" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D66" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E66" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F66" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C67" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D67" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E67" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F67" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C68" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D68" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E68" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="F68" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C69" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D69" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E69" t="n">
         <v>1.05</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C70" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D70" t="n">
         <v>1.1</v>
@@ -1847,18 +1847,18 @@
         <v>1.05</v>
       </c>
       <c r="F70" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C71" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D71" t="n">
         <v>1.1</v>
@@ -1867,24 +1867,24 @@
         <v>1.05</v>
       </c>
       <c r="F71" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C72" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D72" t="n">
         <v>1.1</v>
       </c>
       <c r="E72" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F72" t="n">
         <v>1.15</v>
@@ -1892,19 +1892,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C73" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D73" t="n">
         <v>1.1</v>
       </c>
       <c r="E73" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F73" t="n">
         <v>1.15</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C74" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D74" t="n">
         <v>1.1</v>
@@ -1932,133 +1932,133 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C75" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D75" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E75" t="n">
         <v>1.04</v>
       </c>
       <c r="F75" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C76" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D76" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E76" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F76" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C77" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D77" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E77" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F77" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C78" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D78" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E78" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F78" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C79" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D79" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E79" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F79" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C80" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E80" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F80" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C81" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D81" t="n">
         <v>1.02</v>
@@ -2067,444 +2067,444 @@
         <v>0.97</v>
       </c>
       <c r="F81" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C82" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D82" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E82" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F82" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C83" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D83" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E83" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F83" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C84" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D84" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E84" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F84" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C85" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D85" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E85" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F85" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C86" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D86" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E86" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F86" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C87" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D87" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E87" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F87" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C88" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D88" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E88" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F88" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C89" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D89" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E89" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F89" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C90" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D90" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E90" t="n">
         <v>1.09</v>
       </c>
       <c r="F90" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C91" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D91" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E91" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F91" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C92" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D92" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E92" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F92" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C93" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D93" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E93" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F93" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C94" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D94" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E94" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F94" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C95" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D95" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E95" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F95" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C96" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D96" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="E96" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="F96" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C97" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D97" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="E97" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="F97" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C98" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D98" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F98" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C99" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D99" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="E99" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="F99" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C100" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D100" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E100" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F100" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C101" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D101" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E101" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F101" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C102" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D102" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E102" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F102" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C103" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D103" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E103" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="F103" t="n">
         <v>1.83</v>
@@ -2512,159 +2512,159 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C104" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E104" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="F104" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C105" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D105" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E105" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F105" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C106" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E106" t="n">
         <v>1.49</v>
       </c>
-      <c r="E106" t="n">
-        <v>1.38</v>
-      </c>
       <c r="F106" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C107" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D107" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E107" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F107" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C108" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E108" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="F108" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C109" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E109" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="F109" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C110" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E110" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F110" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C111" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D111" t="n">
         <v>1.23</v>
       </c>
       <c r="E111" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F111" t="n">
         <v>1.34</v>
@@ -2672,253 +2672,253 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C112" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D112" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E112" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="F112" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C113" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D113" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E113" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="F113" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C114" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D114" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E114" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="F114" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C115" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D115" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E115" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="F115" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C116" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D116" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="E116" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="F116" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C117" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D117" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="E117" t="n">
         <v>1.21</v>
       </c>
       <c r="F117" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C118" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D118" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E118" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="F118" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C119" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D119" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E119" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F119" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C120" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D120" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="E120" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F120" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C121" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D121" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E121" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="F121" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C122" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D122" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E122" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="F122" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C123" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D123" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E123" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F123" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C124" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D124" t="n">
         <v>1.13</v>
@@ -2932,59 +2932,59 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C125" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D125" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C126" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D126" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E126" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C127" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D127" t="n">
         <v>1.15</v>
       </c>
       <c r="E127" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F127" t="n">
         <v>1.29</v>
@@ -2992,33 +2992,33 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C128" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D128" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E128" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F128" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C129" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D129" t="n">
         <v>1.16</v>
@@ -3027,81 +3027,81 @@
         <v>1.02</v>
       </c>
       <c r="F129" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C130" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D130" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E130" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F130" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C131" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D131" t="n">
         <v>1.17</v>
       </c>
       <c r="E131" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F131" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C132" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D132" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E132" t="n">
         <v>1.03</v>
       </c>
       <c r="F132" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C133" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D133" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E133" t="n">
         <v>1.03</v>
@@ -3112,193 +3112,193 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C134" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D134" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="E134" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F134" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C135" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D135" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E135" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="F135" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C136" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D136" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="E136" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F136" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C137" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D137" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F137" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C138" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D138" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E138" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F138" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C139" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D139" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E139" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F139" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C140" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E140" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F140" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C141" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D141" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F141" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C142" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D142" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E142" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F142" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C143" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D143" t="n">
         <v>0.97</v>
@@ -3307,258 +3307,258 @@
         <v>0.83</v>
       </c>
       <c r="F143" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C144" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D144" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E144" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F144" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C145" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D145" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E145" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F145" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C146" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D146" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E146" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F146" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C147" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D147" t="n">
         <v>1.02</v>
       </c>
       <c r="E147" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F147" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C148" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D148" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E148" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F148" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C149" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D149" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E149" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F149" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C150" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D150" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E150" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F150" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C151" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D151" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F151" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C152" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D152" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E152" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="F152" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C153" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D153" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E153" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="F153" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C154" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D154" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E154" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F154" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C155" t="n">
         <v>184.12</v>
       </c>
       <c r="D155" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F155" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C156" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D156" t="n">
         <v>0.8100000000000001</v>
@@ -3567,124 +3567,124 @@
         <v>0.7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C157" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D157" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E157" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C158" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D158" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E158" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C159" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E159" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="F159" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C160" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E160" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F160" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C161" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D161" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F161" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C162" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D162" t="n">
         <v>1.04</v>
       </c>
       <c r="E162" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F162" t="n">
         <v>1.17</v>
@@ -3692,119 +3692,119 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C163" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D163" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E163" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F163" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C164" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D164" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E164" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F164" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C165" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D165" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E165" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C166" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D166" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E166" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C167" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D167" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E167" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F167" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C168" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D168" t="n">
         <v>0.8</v>
       </c>
       <c r="E168" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F168" t="n">
         <v>0.91</v>
@@ -3812,93 +3812,93 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C169" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D169" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E169" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C170" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D170" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E170" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="F170" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C171" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E171" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F171" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C172" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D172" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F172" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C173" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D173" t="n">
         <v>0.92</v>
@@ -3912,339 +3912,339 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C174" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D174" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E174" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C175" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D175" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E175" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F175" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C176" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D176" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E176" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F176" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C177" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E177" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F177" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C178" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D178" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E178" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="F178" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C179" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D179" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E179" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F179" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C180" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D180" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E180" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F180" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C181" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D181" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E181" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F181" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C182" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D182" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E182" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F182" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C183" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D183" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E183" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F183" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C184" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D184" t="n">
         <v>0.64</v>
       </c>
       <c r="E184" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F184" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C185" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D185" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E185" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="F185" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C186" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D186" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E186" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="F186" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C187" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E187" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F187" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C188" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D188" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E188" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="F188" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C189" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D189" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E189" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F189" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C190" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D190" t="n">
         <v>0.72</v>
       </c>
       <c r="E190" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F190" t="n">
         <v>0.79</v>
@@ -4252,13 +4252,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C191" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D191" t="n">
         <v>0.72</v>
@@ -4267,21 +4267,21 @@
         <v>0.66</v>
       </c>
       <c r="F191" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C192" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D192" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E192" t="n">
         <v>0.65</v>
@@ -4292,13 +4292,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C193" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D193" t="n">
         <v>0.71</v>
@@ -4312,13 +4312,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C194" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D194" t="n">
         <v>0.71</v>
@@ -4327,98 +4327,98 @@
         <v>0.65</v>
       </c>
       <c r="F194" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C195" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D195" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E195" t="n">
         <v>0.65</v>
       </c>
       <c r="F195" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C196" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D196" t="n">
         <v>0.7</v>
       </c>
       <c r="E196" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F196" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C197" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E197" t="n">
         <v>0.64</v>
       </c>
       <c r="F197" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C198" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D198" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F198" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C199" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D199" t="n">
         <v>0.6899999999999999</v>
@@ -4432,13 +4432,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C200" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D200" t="n">
         <v>0.6899999999999999</v>
@@ -4447,24 +4447,24 @@
         <v>0.64</v>
       </c>
       <c r="F200" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C201" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D201" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E201" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F201" t="n">
         <v>0.74</v>
@@ -4472,33 +4472,33 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C202" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D202" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E202" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F202" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C203" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D203" t="n">
         <v>0.7</v>
@@ -4507,18 +4507,18 @@
         <v>0.65</v>
       </c>
       <c r="F203" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C204" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D204" t="n">
         <v>0.7</v>
@@ -4532,93 +4532,93 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C205" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D205" t="n">
         <v>0.7</v>
       </c>
       <c r="E205" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F205" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C206" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E206" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F206" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C207" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D207" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F207" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C208" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D208" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E208" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F208" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C209" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D209" t="n">
         <v>0.67</v>
@@ -4627,24 +4627,24 @@
         <v>0.63</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C210" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D210" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E210" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F210" t="n">
         <v>0.7</v>
@@ -4652,19 +4652,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C211" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D211" t="n">
         <v>0.66</v>
       </c>
       <c r="E211" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F211" t="n">
         <v>0.7</v>
@@ -4672,39 +4672,39 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C212" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D212" t="n">
         <v>0.66</v>
       </c>
       <c r="E212" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F212" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C213" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D213" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E213" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F213" t="n">
         <v>0.7</v>
@@ -4712,253 +4712,253 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C214" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D214" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E214" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F214" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C215" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D215" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E215" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F215" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C216" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E216" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F216" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C217" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D217" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E217" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F217" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C218" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D218" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E218" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F218" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C219" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E219" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F219" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C220" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D220" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E220" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F220" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C221" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D221" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E221" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F221" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C222" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D222" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E222" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F222" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C223" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D223" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E223" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F223" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C224" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D224" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E224" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F224" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C225" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D225" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E225" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F225" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C226" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D226" t="n">
         <v>0.84</v>
@@ -4972,16 +4972,16 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C227" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D227" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E227" t="n">
         <v>0.8100000000000001</v>
@@ -4992,33 +4992,33 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C228" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D228" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E228" t="n">
         <v>0.82</v>
       </c>
       <c r="F228" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C229" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D229" t="n">
         <v>0.85</v>
@@ -5032,13 +5032,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C230" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D230" t="n">
         <v>0.85</v>
@@ -5052,113 +5052,113 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C231" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D231" t="n">
         <v>0.85</v>
       </c>
       <c r="E231" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F231" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C232" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D232" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E232" t="n">
         <v>0.83</v>
       </c>
       <c r="F232" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C233" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D233" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E233" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F233" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C234" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D234" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E234" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F234" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C235" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D235" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E235" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F235" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C236" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D236" t="n">
         <v>0.89</v>
@@ -5172,13 +5172,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C237" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D237" t="n">
         <v>0.89</v>
@@ -5192,73 +5192,73 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C238" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D238" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E238" t="n">
         <v>0.86</v>
       </c>
       <c r="F238" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C239" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D239" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E239" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F239" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C240" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D240" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E240" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F240" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C241" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D241" t="n">
         <v>0.86</v>
@@ -5267,18 +5267,18 @@
         <v>0.83</v>
       </c>
       <c r="F241" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C242" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D242" t="n">
         <v>0.86</v>
@@ -5292,13 +5292,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C243" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D243" t="n">
         <v>0.86</v>
@@ -5307,24 +5307,24 @@
         <v>0.83</v>
       </c>
       <c r="F243" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C244" t="n">
-        <v>4336.9</v>
+        <v>4223.92</v>
       </c>
       <c r="D244" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E244" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F244" t="n">
         <v>0.89</v>
@@ -5332,662 +5332,682 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C245" t="n">
-        <v>4460.82</v>
+        <v>4336.9</v>
       </c>
       <c r="D245" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E245" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F245" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C246" t="n">
-        <v>4599.62</v>
+        <v>4460.82</v>
       </c>
       <c r="D246" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E246" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F246" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C247" t="n">
-        <v>4758.73</v>
+        <v>4599.62</v>
       </c>
       <c r="D247" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F247" t="n">
         <v>0.93</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F247" t="n">
-        <v>0.95</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C248" t="n">
-        <v>4939.94</v>
+        <v>4758.73</v>
       </c>
       <c r="D248" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E248" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F248" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C249" t="n">
-        <v>5134.47</v>
+        <v>4939.94</v>
       </c>
       <c r="D249" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E249" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F249" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C250" t="n">
-        <v>5323.18</v>
+        <v>5134.47</v>
       </c>
       <c r="D250" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E250" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F250" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C251" t="n">
-        <v>5485.51</v>
+        <v>5323.18</v>
       </c>
       <c r="D251" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E251" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F251" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C252" t="n">
-        <v>5607.79</v>
+        <v>5485.51</v>
       </c>
       <c r="D252" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E252" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F252" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C253" t="n">
-        <v>5684.89</v>
+        <v>5607.79</v>
       </c>
       <c r="D253" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E253" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F253" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C254" t="n">
-        <v>5717.21</v>
+        <v>5684.89</v>
       </c>
       <c r="D254" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E254" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F254" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C255" t="n">
-        <v>5702.18</v>
+        <v>5717.21</v>
       </c>
       <c r="D255" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E255" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F255" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C256" t="n">
-        <v>5630.57</v>
+        <v>5702.18</v>
       </c>
       <c r="D256" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E256" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F256" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C257" t="n">
-        <v>5487.39</v>
+        <v>5630.57</v>
       </c>
       <c r="D257" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E257" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="F257" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C258" t="n">
-        <v>5262.03</v>
+        <v>5487.39</v>
       </c>
       <c r="D258" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E258" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="F258" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C259" t="n">
-        <v>4958.98</v>
+        <v>5262.03</v>
       </c>
       <c r="D259" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E259" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="F259" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C260" t="n">
-        <v>4597.99</v>
+        <v>4958.98</v>
       </c>
       <c r="D260" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E260" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F260" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C261" t="n">
-        <v>4206.86</v>
+        <v>4597.99</v>
       </c>
       <c r="D261" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="E261" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F261" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C262" t="n">
-        <v>3810.73</v>
+        <v>4206.86</v>
       </c>
       <c r="D262" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E262" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F262" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C263" t="n">
-        <v>3425.14</v>
+        <v>3810.73</v>
       </c>
       <c r="D263" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="n">
         <v>2.14</v>
-      </c>
-      <c r="E263" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F263" t="n">
-        <v>2.21</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C264" t="n">
-        <v>3056.03</v>
+        <v>3425.14</v>
       </c>
       <c r="D264" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F264" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E264" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F264" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C265" t="n">
-        <v>2705.4</v>
+        <v>3056.03</v>
       </c>
       <c r="D265" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F265" t="n">
         <v>2.29</v>
-      </c>
-      <c r="E265" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F265" t="n">
-        <v>2.37</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C266" t="n">
-        <v>2375.46</v>
+        <v>2705.4</v>
       </c>
       <c r="D266" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="E266" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="F266" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C267" t="n">
-        <v>2068.2</v>
+        <v>2375.46</v>
       </c>
       <c r="D267" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="E267" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="F267" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C268" t="n">
-        <v>1786.7</v>
+        <v>2068.2</v>
       </c>
       <c r="D268" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="E268" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="F268" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C269" t="n">
-        <v>1533.57</v>
+        <v>1786.7</v>
       </c>
       <c r="D269" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="E269" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="F269" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C270" t="n">
-        <v>1307.05</v>
+        <v>1533.57</v>
       </c>
       <c r="D270" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="E270" t="n">
-        <v>2.53</v>
+        <v>2.48</v>
       </c>
       <c r="F270" t="n">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C271" t="n">
-        <v>1105.08</v>
+        <v>1307.05</v>
       </c>
       <c r="D271" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="E271" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="F271" t="n">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C272" t="n">
-        <v>926.85</v>
+        <v>1105.08</v>
       </c>
       <c r="D272" t="n">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="E272" t="n">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="F272" t="n">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C273" t="n">
-        <v>772.42</v>
+        <v>926.85</v>
       </c>
       <c r="D273" t="n">
-        <v>3.01</v>
+        <v>2.89</v>
       </c>
       <c r="E273" t="n">
-        <v>2.81</v>
+        <v>2.7</v>
       </c>
       <c r="F273" t="n">
-        <v>3.22</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C274" t="n">
-        <v>640.99</v>
+        <v>772.42</v>
       </c>
       <c r="D274" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="E274" t="n">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="F274" t="n">
-        <v>3.44</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C275" t="n">
-        <v>530.61</v>
+        <v>640.99</v>
       </c>
       <c r="D275" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="E275" t="n">
-        <v>3.17</v>
+        <v>2.95</v>
       </c>
       <c r="F275" t="n">
-        <v>3.75</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C276" t="n">
-        <v>437.9</v>
+        <v>530.61</v>
       </c>
       <c r="D276" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="E276" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="F276" t="n">
-        <v>4.21</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B277" t="n">
+        <v>342</v>
+      </c>
+      <c r="C277" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B278" t="n">
         <v>566</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C278" t="n">
         <v>358.41</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D278" t="n">
         <v>4.49</v>
       </c>
-      <c r="E277" t="n">
+      <c r="E278" t="n">
         <v>4.03</v>
       </c>
-      <c r="F277" t="n">
-        <v>4.95</v>
+      <c r="F278" t="n">
+        <v>4.94</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,73 +472,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>20709</v>
+        <v>23225</v>
       </c>
       <c r="C2" t="n">
-        <v>18325.75</v>
+        <v>18675.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="F2" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C3" t="n">
-        <v>19608.49</v>
+        <v>19542.07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="E3" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="F3" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C4" t="n">
-        <v>20895.74</v>
+        <v>20435.15</v>
       </c>
       <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.75</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.74</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C5" t="n">
-        <v>22177.22</v>
+        <v>21387.12</v>
       </c>
       <c r="D5" t="n">
         <v>0.77</v>
@@ -552,779 +552,779 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C6" t="n">
-        <v>23411.12</v>
+        <v>22406.44</v>
       </c>
       <c r="D6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.79</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C7" t="n">
-        <v>24552.64</v>
+        <v>23457.14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="E7" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C8" t="n">
-        <v>25597.74</v>
+        <v>24488.76</v>
       </c>
       <c r="D8" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C9" t="n">
-        <v>26597.98</v>
+        <v>25483.87</v>
       </c>
       <c r="D9" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.83</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C10" t="n">
-        <v>27637.31</v>
+        <v>26477.15</v>
       </c>
       <c r="D10" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E10" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.84</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C11" t="n">
-        <v>28774.99</v>
+        <v>27535.75</v>
       </c>
       <c r="D11" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.86</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C12" t="n">
-        <v>29995.82</v>
+        <v>28704.64</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E12" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F12" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C13" t="n">
-        <v>31204.6</v>
+        <v>29958.11</v>
       </c>
       <c r="D13" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C14" t="n">
-        <v>32278.99</v>
+        <v>31194.42</v>
       </c>
       <c r="D14" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E14" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C15" t="n">
-        <v>33138.98</v>
+        <v>32288.19</v>
       </c>
       <c r="D15" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E15" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C16" t="n">
-        <v>33780.77</v>
+        <v>33159</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E16" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C17" t="n">
-        <v>34261.04</v>
+        <v>33804.32</v>
       </c>
       <c r="D17" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C18" t="n">
-        <v>34650.88</v>
+        <v>34282.91</v>
       </c>
       <c r="D18" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C19" t="n">
-        <v>34984.69</v>
+        <v>34668.06</v>
       </c>
       <c r="D19" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C20" t="n">
-        <v>35229.79</v>
+        <v>34996.07</v>
       </c>
       <c r="D20" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C21" t="n">
-        <v>35329.04</v>
+        <v>35235.65</v>
       </c>
       <c r="D21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C22" t="n">
-        <v>35253.51</v>
+        <v>35330.49</v>
       </c>
       <c r="D22" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C23" t="n">
-        <v>35034.97</v>
+        <v>35251.97</v>
       </c>
       <c r="D23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C24" t="n">
-        <v>34742.66</v>
+        <v>35031.84</v>
       </c>
       <c r="D24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C25" t="n">
-        <v>34432.81</v>
+        <v>34739.07</v>
       </c>
       <c r="D25" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C26" t="n">
-        <v>34118.88</v>
+        <v>34429.55</v>
       </c>
       <c r="D26" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C27" t="n">
-        <v>33738.4</v>
+        <v>34116.38</v>
       </c>
       <c r="D27" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C28" t="n">
-        <v>33211.37</v>
+        <v>33736.81</v>
       </c>
       <c r="D28" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C29" t="n">
-        <v>32513.74</v>
+        <v>33210.61</v>
       </c>
       <c r="D29" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C30" t="n">
-        <v>31690.16</v>
+        <v>32513.62</v>
       </c>
       <c r="D30" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C31" t="n">
-        <v>30820.91</v>
+        <v>31690.48</v>
       </c>
       <c r="D31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C32" t="n">
-        <v>29968.82</v>
+        <v>30821.44</v>
       </c>
       <c r="D32" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C33" t="n">
-        <v>29137.7</v>
+        <v>29969.39</v>
       </c>
       <c r="D33" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E33" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F33" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C34" t="n">
-        <v>28256.55</v>
+        <v>29138.2</v>
       </c>
       <c r="D34" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E34" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F34" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C35" t="n">
-        <v>27240.9</v>
+        <v>28256.92</v>
       </c>
       <c r="D35" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E35" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F35" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C36" t="n">
-        <v>26046.54</v>
+        <v>27241.13</v>
       </c>
       <c r="D36" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E36" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C37" t="n">
-        <v>24688.16</v>
+        <v>26046.64</v>
       </c>
       <c r="D37" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E37" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F37" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C38" t="n">
-        <v>23219.71</v>
+        <v>24688.16</v>
       </c>
       <c r="D38" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E38" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F38" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C39" t="n">
-        <v>21706.87</v>
+        <v>23219.65</v>
       </c>
       <c r="D39" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E39" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F39" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C40" t="n">
-        <v>20196.55</v>
+        <v>21706.79</v>
       </c>
       <c r="D40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C41" t="n">
-        <v>18698.66</v>
+        <v>20196.46</v>
       </c>
       <c r="D41" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C42" t="n">
-        <v>17214.94</v>
+        <v>18698.58</v>
       </c>
       <c r="D42" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E42" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C43" t="n">
-        <v>15756.99</v>
+        <v>17214.89</v>
       </c>
       <c r="D43" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E43" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F43" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C44" t="n">
-        <v>14354.85</v>
+        <v>15756.95</v>
       </c>
       <c r="D44" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E44" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F44" t="n">
         <v>1.78</v>
@@ -1332,39 +1332,39 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C45" t="n">
-        <v>13046.39</v>
+        <v>14354.84</v>
       </c>
       <c r="D45" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E45" t="n">
         <v>1.73</v>
       </c>
       <c r="F45" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C46" t="n">
-        <v>11863.42</v>
+        <v>13046.4</v>
       </c>
       <c r="D46" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E46" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F46" t="n">
         <v>1.79</v>
@@ -1372,19 +1372,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C47" t="n">
-        <v>10809.34</v>
+        <v>11863.43</v>
       </c>
       <c r="D47" t="n">
         <v>1.76</v>
       </c>
       <c r="E47" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F47" t="n">
         <v>1.79</v>
@@ -1392,53 +1392,53 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C48" t="n">
-        <v>9858.639999999999</v>
+        <v>10809.36</v>
       </c>
       <c r="D48" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E48" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F48" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C49" t="n">
-        <v>8981.549999999999</v>
+        <v>9858.65</v>
       </c>
       <c r="D49" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E49" t="n">
         <v>1.74</v>
       </c>
       <c r="F49" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C50" t="n">
-        <v>8159.85</v>
+        <v>8981.57</v>
       </c>
       <c r="D50" t="n">
         <v>1.78</v>
@@ -1447,18 +1447,18 @@
         <v>1.74</v>
       </c>
       <c r="F50" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C51" t="n">
-        <v>7391.88</v>
+        <v>8159.86</v>
       </c>
       <c r="D51" t="n">
         <v>1.78</v>
@@ -1472,39 +1472,39 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C52" t="n">
-        <v>6687.4</v>
+        <v>7391.88</v>
       </c>
       <c r="D52" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E52" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F52" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C53" t="n">
-        <v>6055.97</v>
+        <v>6687.4</v>
       </c>
       <c r="D53" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E53" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F53" t="n">
         <v>1.81</v>
@@ -1512,16 +1512,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C54" t="n">
-        <v>5495.89</v>
+        <v>6055.97</v>
       </c>
       <c r="D54" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E54" t="n">
         <v>1.71</v>
@@ -1532,319 +1532,319 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C55" t="n">
-        <v>4991.13</v>
+        <v>5495.89</v>
       </c>
       <c r="D55" t="n">
         <v>1.75</v>
       </c>
       <c r="E55" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F55" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C56" t="n">
-        <v>4522.49</v>
+        <v>4991.12</v>
       </c>
       <c r="D56" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="E56" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="F56" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C57" t="n">
-        <v>4079.32</v>
+        <v>4522.49</v>
       </c>
       <c r="D57" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E57" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="F57" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C58" t="n">
-        <v>3663.78</v>
+        <v>4079.32</v>
       </c>
       <c r="D58" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="E58" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="F58" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C59" t="n">
-        <v>3286.67</v>
+        <v>3663.78</v>
       </c>
       <c r="D59" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E59" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F59" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C60" t="n">
-        <v>2959.49</v>
+        <v>3286.67</v>
       </c>
       <c r="D60" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E60" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="F60" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C61" t="n">
-        <v>2686.25</v>
+        <v>2959.49</v>
       </c>
       <c r="D61" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E61" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F61" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C62" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E62" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F62" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C63" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D63" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E63" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F63" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C64" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E64" t="n">
         <v>1.25</v>
       </c>
-      <c r="E64" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F64" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C65" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E65" t="n">
         <v>1.2</v>
       </c>
-      <c r="E65" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F65" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C66" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D66" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E66" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F66" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C67" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D67" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E67" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F67" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C68" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D68" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E68" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F68" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C69" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D69" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E69" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="F69" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C70" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D70" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E70" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F70" t="n">
         <v>1.16</v>
@@ -1852,16 +1852,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C71" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D71" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E71" t="n">
         <v>1.05</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C72" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D72" t="n">
         <v>1.1</v>
@@ -1887,18 +1887,18 @@
         <v>1.05</v>
       </c>
       <c r="F72" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C73" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D73" t="n">
         <v>1.1</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C74" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D74" t="n">
         <v>1.1</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C75" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D75" t="n">
         <v>1.1</v>
@@ -1952,16 +1952,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C76" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D76" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E76" t="n">
         <v>1.04</v>
@@ -1972,19 +1972,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C77" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D77" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E77" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F77" t="n">
         <v>1.14</v>
@@ -1992,93 +1992,93 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C78" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D78" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E78" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F78" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C79" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E79" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F79" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C80" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E80" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F80" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C81" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D81" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E81" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F81" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C82" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D82" t="n">
         <v>1.02</v>
@@ -2087,201 +2087,201 @@
         <v>0.97</v>
       </c>
       <c r="F82" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C83" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D83" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E83" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F83" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C84" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D84" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E84" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F84" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C85" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E85" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F85" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C86" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D86" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E86" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F86" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C87" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E87" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F87" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C88" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D88" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E88" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F88" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C89" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D89" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E89" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F89" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C90" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D90" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E90" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="F90" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C91" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D91" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E91" t="n">
         <v>1.09</v>
       </c>
       <c r="F91" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C92" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D92" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E92" t="n">
         <v>1.1</v>
@@ -2292,236 +2292,236 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C93" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D93" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E93" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F93" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C94" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D94" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E94" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F94" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C95" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E95" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="F95" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C96" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E96" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F96" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C97" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D97" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="E97" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="F97" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C98" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D98" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F98" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C99" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D99" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F99" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C100" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D100" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="E100" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="F100" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C101" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D101" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E101" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F101" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C102" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D102" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="E102" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F102" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C103" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D103" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E103" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F103" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C104" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D104" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E104" t="n">
         <v>1.62</v>
@@ -2532,153 +2532,153 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C105" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D105" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E105" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="F105" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C106" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D106" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E106" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F106" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C107" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D107" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="E107" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="F107" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C108" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D108" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E108" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F108" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C109" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E109" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="F109" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C110" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E110" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="F110" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C111" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D111" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E111" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F111" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C112" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D112" t="n">
         <v>1.23</v>
@@ -2692,113 +2692,113 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C113" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D113" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E113" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F113" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C114" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D114" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E114" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F114" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C115" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D115" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E115" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="F115" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C116" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D116" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E116" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="F116" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C117" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D117" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="E117" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="F117" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C118" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D118" t="n">
         <v>1.34</v>
@@ -2807,138 +2807,138 @@
         <v>1.21</v>
       </c>
       <c r="F118" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C119" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D119" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E119" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="F119" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C120" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D120" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E120" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F120" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C121" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="E121" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F121" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C122" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D122" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E122" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="F122" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C123" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D123" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E123" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="F123" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C124" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D124" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F124" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C125" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D125" t="n">
         <v>1.13</v>
@@ -2952,53 +2952,53 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C126" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D126" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F126" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C127" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D127" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E127" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C128" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D128" t="n">
         <v>1.15</v>
@@ -3007,44 +3007,44 @@
         <v>1.01</v>
       </c>
       <c r="F128" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C129" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D129" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E129" t="n">
         <v>1.02</v>
       </c>
       <c r="F129" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C130" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D130" t="n">
         <v>1.16</v>
       </c>
       <c r="E130" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F130" t="n">
         <v>1.3</v>
@@ -3052,59 +3052,59 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C131" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D131" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E131" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F131" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C132" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D132" t="n">
         <v>1.17</v>
       </c>
       <c r="E132" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F132" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C133" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D133" t="n">
         <v>1.17</v>
       </c>
       <c r="E133" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F133" t="n">
         <v>1.32</v>
@@ -3112,16 +3112,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C134" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D134" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="E134" t="n">
         <v>1.03</v>
@@ -3132,193 +3132,193 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C135" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D135" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="E135" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F135" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C136" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D136" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E136" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="F136" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C137" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D137" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E137" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F137" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C138" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D138" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="E138" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F138" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C139" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D139" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E139" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C140" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D140" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E140" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F140" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C141" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E141" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F141" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C142" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D142" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F142" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C143" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D143" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E143" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F143" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C144" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D144" t="n">
         <v>0.97</v>
@@ -3332,96 +3332,96 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C145" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D145" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E145" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F145" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C146" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D146" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E146" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F146" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C147" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D147" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E147" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F147" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C148" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D148" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E148" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F148" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C149" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D149" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E149" t="n">
         <v>0.89</v>
@@ -3432,153 +3432,153 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C150" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D150" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E150" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F150" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C151" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D151" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E151" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F151" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C152" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D152" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E152" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F152" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C153" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D153" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E153" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C154" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D154" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E154" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F154" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C155" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D155" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E155" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F155" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C156" t="n">
         <v>184.12</v>
       </c>
       <c r="D156" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E156" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="F156" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C157" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D157" t="n">
         <v>0.8100000000000001</v>
@@ -3592,113 +3592,113 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C158" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D158" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C159" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D159" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E159" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C160" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E160" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="F160" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C161" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E161" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="F161" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C162" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D162" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F162" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C163" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D163" t="n">
         <v>1.04</v>
@@ -3712,213 +3712,213 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C164" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D164" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E164" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F164" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C165" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D165" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E165" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F165" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C166" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D166" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E166" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C167" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D167" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E167" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C168" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E168" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F168" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C169" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D169" t="n">
         <v>0.8</v>
       </c>
       <c r="E169" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C170" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D170" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E170" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F170" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C171" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D171" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E171" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F171" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C172" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E172" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F172" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C173" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D173" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F173" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C174" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D174" t="n">
         <v>0.92</v>
@@ -3932,213 +3932,213 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C175" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D175" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E175" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F175" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C176" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D176" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E176" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F176" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C177" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D177" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="E177" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F177" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C178" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E178" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F178" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C179" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D179" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="F179" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C180" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D180" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E180" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F180" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C181" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D181" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E181" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F181" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C182" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D182" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E182" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F182" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C183" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D183" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E183" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F183" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C184" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D184" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E184" t="n">
         <v>0.58</v>
       </c>
       <c r="F184" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C185" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D185" t="n">
         <v>0.64</v>
@@ -4147,118 +4147,118 @@
         <v>0.57</v>
       </c>
       <c r="F185" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C186" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D186" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E186" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="F186" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C187" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D187" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E187" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="F187" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C188" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E188" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F188" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C189" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D189" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E189" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="F189" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C190" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D190" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E190" t="n">
         <v>0.65</v>
       </c>
       <c r="F190" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C191" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D191" t="n">
         <v>0.72</v>
@@ -4272,53 +4272,53 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C192" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D192" t="n">
         <v>0.72</v>
       </c>
       <c r="E192" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F192" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C193" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D193" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E193" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F193" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C194" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D194" t="n">
         <v>0.71</v>
@@ -4327,18 +4327,18 @@
         <v>0.65</v>
       </c>
       <c r="F194" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C195" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D195" t="n">
         <v>0.71</v>
@@ -4352,73 +4352,73 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C196" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D196" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E196" t="n">
         <v>0.65</v>
       </c>
       <c r="F196" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C197" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D197" t="n">
         <v>0.7</v>
       </c>
       <c r="E197" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F197" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C198" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E198" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F198" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C199" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D199" t="n">
         <v>0.6899999999999999</v>
@@ -4427,18 +4427,18 @@
         <v>0.64</v>
       </c>
       <c r="F199" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C200" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D200" t="n">
         <v>0.6899999999999999</v>
@@ -4447,18 +4447,18 @@
         <v>0.64</v>
       </c>
       <c r="F200" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C201" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D201" t="n">
         <v>0.6899999999999999</v>
@@ -4467,18 +4467,18 @@
         <v>0.64</v>
       </c>
       <c r="F201" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C202" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D202" t="n">
         <v>0.6899999999999999</v>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C203" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D203" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E203" t="n">
         <v>0.65</v>
@@ -4512,19 +4512,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C204" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D204" t="n">
         <v>0.7</v>
       </c>
       <c r="E204" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F204" t="n">
         <v>0.75</v>
@@ -4532,13 +4532,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C205" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D205" t="n">
         <v>0.7</v>
@@ -4552,19 +4552,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C206" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D206" t="n">
         <v>0.7</v>
       </c>
       <c r="E206" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F206" t="n">
         <v>0.74</v>
@@ -4572,13 +4572,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C207" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D207" t="n">
         <v>0.6899999999999999</v>
@@ -4587,58 +4587,58 @@
         <v>0.65</v>
       </c>
       <c r="F207" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C208" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D208" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E208" t="n">
         <v>0.64</v>
       </c>
       <c r="F208" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C209" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D209" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E209" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F209" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C210" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D210" t="n">
         <v>0.67</v>
@@ -4647,21 +4647,21 @@
         <v>0.63</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C211" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D211" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E211" t="n">
         <v>0.63</v>
@@ -4672,13 +4672,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C212" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D212" t="n">
         <v>0.66</v>
@@ -4687,18 +4687,18 @@
         <v>0.62</v>
       </c>
       <c r="F212" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C213" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D213" t="n">
         <v>0.66</v>
@@ -4712,279 +4712,279 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C214" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D214" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E214" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F214" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C215" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D215" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E215" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F215" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C216" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D216" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E216" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F216" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C217" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D217" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E217" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F217" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C218" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D218" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E218" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F218" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C219" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D219" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E219" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F219" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C220" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D220" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E220" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F220" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C221" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D221" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E221" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F221" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C222" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D222" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E222" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F222" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C223" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D223" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E223" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F223" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C224" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D224" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E224" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F224" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C225" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D225" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E225" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F225" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C226" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D226" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F226" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C227" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D227" t="n">
         <v>0.84</v>
       </c>
       <c r="E227" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F227" t="n">
         <v>0.87</v>
@@ -4992,19 +4992,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C228" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D228" t="n">
         <v>0.84</v>
       </c>
       <c r="E228" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F228" t="n">
         <v>0.87</v>
@@ -5012,33 +5012,33 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C229" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D229" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E229" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F229" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C230" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D230" t="n">
         <v>0.85</v>
@@ -5052,13 +5052,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C231" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D231" t="n">
         <v>0.85</v>
@@ -5072,19 +5072,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C232" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D232" t="n">
         <v>0.85</v>
       </c>
       <c r="E232" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F232" t="n">
         <v>0.88</v>
@@ -5092,93 +5092,93 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C233" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D233" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E233" t="n">
         <v>0.83</v>
       </c>
       <c r="F233" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C234" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D234" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E234" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F234" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C235" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D235" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E235" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F235" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C236" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D236" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E236" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F236" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C237" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D237" t="n">
         <v>0.89</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C238" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D238" t="n">
         <v>0.89</v>
@@ -5212,73 +5212,73 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C239" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D239" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E239" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F239" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C240" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D240" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E240" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F240" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C241" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D241" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E241" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F241" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C242" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D242" t="n">
         <v>0.86</v>
@@ -5287,18 +5287,18 @@
         <v>0.83</v>
       </c>
       <c r="F242" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C243" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D243" t="n">
         <v>0.86</v>
@@ -5312,13 +5312,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C244" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D244" t="n">
         <v>0.86</v>
@@ -5327,687 +5327,707 @@
         <v>0.83</v>
       </c>
       <c r="F244" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C245" t="n">
-        <v>4336.9</v>
+        <v>4223.92</v>
       </c>
       <c r="D245" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E245" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F245" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C246" t="n">
-        <v>4460.82</v>
+        <v>4336.9</v>
       </c>
       <c r="D246" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E246" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F246" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C247" t="n">
-        <v>4599.62</v>
+        <v>4460.82</v>
       </c>
       <c r="D247" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E247" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F247" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C248" t="n">
-        <v>4758.73</v>
+        <v>4599.62</v>
       </c>
       <c r="D248" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F248" t="n">
         <v>0.93</v>
-      </c>
-      <c r="E248" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F248" t="n">
-        <v>0.95</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C249" t="n">
-        <v>4939.94</v>
+        <v>4758.73</v>
       </c>
       <c r="D249" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E249" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F249" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C250" t="n">
-        <v>5134.47</v>
+        <v>4939.94</v>
       </c>
       <c r="D250" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E250" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F250" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C251" t="n">
-        <v>5323.18</v>
+        <v>5134.47</v>
       </c>
       <c r="D251" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E251" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F251" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C252" t="n">
-        <v>5485.51</v>
+        <v>5323.18</v>
       </c>
       <c r="D252" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E252" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F252" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C253" t="n">
-        <v>5607.79</v>
+        <v>5485.51</v>
       </c>
       <c r="D253" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E253" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F253" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C254" t="n">
-        <v>5684.89</v>
+        <v>5607.79</v>
       </c>
       <c r="D254" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E254" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F254" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C255" t="n">
-        <v>5717.21</v>
+        <v>5684.89</v>
       </c>
       <c r="D255" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E255" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F255" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C256" t="n">
-        <v>5702.18</v>
+        <v>5717.21</v>
       </c>
       <c r="D256" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E256" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F256" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C257" t="n">
-        <v>5630.57</v>
+        <v>5702.18</v>
       </c>
       <c r="D257" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E257" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F257" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C258" t="n">
-        <v>5487.39</v>
+        <v>5630.57</v>
       </c>
       <c r="D258" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E258" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="F258" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C259" t="n">
-        <v>5262.03</v>
+        <v>5487.39</v>
       </c>
       <c r="D259" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E259" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="F259" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C260" t="n">
-        <v>4958.98</v>
+        <v>5262.03</v>
       </c>
       <c r="D260" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E260" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="F260" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C261" t="n">
-        <v>4597.99</v>
+        <v>4958.98</v>
       </c>
       <c r="D261" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="E261" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F261" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C262" t="n">
-        <v>4206.86</v>
+        <v>4597.99</v>
       </c>
       <c r="D262" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E262" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F262" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C263" t="n">
-        <v>3810.73</v>
+        <v>4206.86</v>
       </c>
       <c r="D263" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E263" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F263" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C264" t="n">
-        <v>3425.14</v>
+        <v>3810.73</v>
       </c>
       <c r="D264" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E264" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="F264" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C265" t="n">
-        <v>3056.03</v>
+        <v>3425.14</v>
       </c>
       <c r="D265" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F265" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E265" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F265" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C266" t="n">
-        <v>2705.4</v>
+        <v>3056.03</v>
       </c>
       <c r="D266" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F266" t="n">
         <v>2.29</v>
-      </c>
-      <c r="E266" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F266" t="n">
-        <v>2.38</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C267" t="n">
-        <v>2375.46</v>
+        <v>2705.4</v>
       </c>
       <c r="D267" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="E267" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="F267" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C268" t="n">
-        <v>2068.2</v>
+        <v>2375.46</v>
       </c>
       <c r="D268" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="E268" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="F268" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C269" t="n">
-        <v>1786.7</v>
+        <v>2068.2</v>
       </c>
       <c r="D269" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="E269" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="F269" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C270" t="n">
-        <v>1533.57</v>
+        <v>1786.7</v>
       </c>
       <c r="D270" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="E270" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="F270" t="n">
-        <v>2.73</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C271" t="n">
-        <v>1307.05</v>
+        <v>1533.57</v>
       </c>
       <c r="D271" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="E271" t="n">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
       <c r="F271" t="n">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C272" t="n">
-        <v>1105.08</v>
+        <v>1307.05</v>
       </c>
       <c r="D272" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="E272" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="F272" t="n">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C273" t="n">
-        <v>926.85</v>
+        <v>1105.08</v>
       </c>
       <c r="D273" t="n">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="E273" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="F273" t="n">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C274" t="n">
-        <v>772.42</v>
+        <v>926.85</v>
       </c>
       <c r="D274" t="n">
-        <v>3.01</v>
+        <v>2.89</v>
       </c>
       <c r="E274" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F274" t="n">
-        <v>3.23</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C275" t="n">
-        <v>640.99</v>
+        <v>772.42</v>
       </c>
       <c r="D275" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="E275" t="n">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="F275" t="n">
-        <v>3.44</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C276" t="n">
-        <v>530.61</v>
+        <v>640.99</v>
       </c>
       <c r="D276" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="E276" t="n">
-        <v>3.17</v>
+        <v>2.95</v>
       </c>
       <c r="F276" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B277" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C277" t="n">
-        <v>437.9</v>
+        <v>530.61</v>
       </c>
       <c r="D277" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="E277" t="n">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="F277" t="n">
-        <v>4.22</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B278" t="n">
+        <v>342</v>
+      </c>
+      <c r="C278" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E278" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F278" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B279" t="n">
         <v>566</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C279" t="n">
         <v>358.41</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D279" t="n">
         <v>4.49</v>
       </c>
-      <c r="E278" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F278" t="n">
-        <v>4.94</v>
+      <c r="E279" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F279" t="n">
+        <v>4.95</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F279"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,113 +472,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44168.99930555555</v>
+        <v>44171.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>23225</v>
+        <v>18887</v>
       </c>
       <c r="C2" t="n">
-        <v>18675.06</v>
+        <v>20867.21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="E2" t="n">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="F2" t="n">
-        <v>0.76</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44170.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>20709</v>
+        <v>21052</v>
       </c>
       <c r="C3" t="n">
-        <v>19542.07</v>
+        <v>20875.72</v>
       </c>
       <c r="D3" t="n">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="E3" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="F3" t="n">
-        <v>0.77</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44169.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>19350</v>
+        <v>24099</v>
       </c>
       <c r="C4" t="n">
-        <v>20435.15</v>
+        <v>20883.88</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F4" t="n">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>16377</v>
+        <v>23225</v>
       </c>
       <c r="C5" t="n">
-        <v>21387.12</v>
+        <v>20910.45</v>
       </c>
       <c r="D5" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="E5" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="F5" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>20648</v>
+        <v>20709</v>
       </c>
       <c r="C6" t="n">
-        <v>22406.44</v>
+        <v>21011.02</v>
       </c>
       <c r="D6" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="E6" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>26323</v>
+        <v>19350</v>
       </c>
       <c r="C7" t="n">
-        <v>23457.14</v>
+        <v>21263.37</v>
       </c>
       <c r="D7" t="n">
         <v>0.79</v>
@@ -592,813 +592,813 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>28352</v>
+        <v>16377</v>
       </c>
       <c r="C8" t="n">
-        <v>24488.76</v>
+        <v>21729.9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="E8" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>29003</v>
+        <v>20648</v>
       </c>
       <c r="C9" t="n">
-        <v>25483.87</v>
+        <v>22422.93</v>
       </c>
       <c r="D9" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="F9" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>25853</v>
+        <v>26323</v>
       </c>
       <c r="C10" t="n">
-        <v>26477.15</v>
+        <v>23289.3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="E10" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="F10" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>23232</v>
+        <v>28352</v>
       </c>
       <c r="C11" t="n">
-        <v>27535.75</v>
+        <v>24248.34</v>
       </c>
       <c r="D11" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="E11" t="n">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="F11" t="n">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>22930</v>
+        <v>29003</v>
       </c>
       <c r="C12" t="n">
-        <v>28704.64</v>
+        <v>25247.83</v>
       </c>
       <c r="D12" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F12" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>28337</v>
+        <v>25853</v>
       </c>
       <c r="C13" t="n">
-        <v>29958.11</v>
+        <v>26289.48</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="E13" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>34767</v>
+        <v>23232</v>
       </c>
       <c r="C14" t="n">
-        <v>31194.42</v>
+        <v>27413.63</v>
       </c>
       <c r="D14" t="n">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="E14" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>37242</v>
+        <v>22930</v>
       </c>
       <c r="C15" t="n">
-        <v>32288.19</v>
+        <v>28646.35</v>
       </c>
       <c r="D15" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F15" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>36176</v>
+        <v>28337</v>
       </c>
       <c r="C16" t="n">
-        <v>33159</v>
+        <v>29950.9</v>
       </c>
       <c r="D16" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="E16" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F16" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>34282</v>
+        <v>34767</v>
       </c>
       <c r="C17" t="n">
-        <v>33804.32</v>
+        <v>31221.16</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="E17" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F17" t="n">
-        <v>1.01</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>32191</v>
+        <v>37242</v>
       </c>
       <c r="C18" t="n">
-        <v>34282.91</v>
+        <v>32332.1</v>
       </c>
       <c r="D18" t="n">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="E18" t="n">
-        <v>1.01</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>27354</v>
+        <v>36176</v>
       </c>
       <c r="C19" t="n">
-        <v>34668.06</v>
+        <v>33206.48</v>
       </c>
       <c r="D19" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="E19" t="n">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="F19" t="n">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>33979</v>
+        <v>34282</v>
       </c>
       <c r="C20" t="n">
-        <v>34996.07</v>
+        <v>33846.18</v>
       </c>
       <c r="D20" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="F20" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>37255</v>
+        <v>32191</v>
       </c>
       <c r="C21" t="n">
-        <v>35235.65</v>
+        <v>34314.28</v>
       </c>
       <c r="D21" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="E21" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="F21" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>40902</v>
+        <v>27354</v>
       </c>
       <c r="C22" t="n">
-        <v>35330.49</v>
+        <v>34687.64</v>
       </c>
       <c r="D22" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="E22" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="F22" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>37978</v>
+        <v>33979</v>
       </c>
       <c r="C23" t="n">
-        <v>35251.97</v>
+        <v>35005.03</v>
       </c>
       <c r="D23" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="E23" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="F23" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>32961</v>
+        <v>37255</v>
       </c>
       <c r="C24" t="n">
-        <v>35031.84</v>
+        <v>35236.5</v>
       </c>
       <c r="D24" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="E24" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="F24" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>35098</v>
+        <v>40902</v>
       </c>
       <c r="C25" t="n">
-        <v>34739.07</v>
+        <v>35326.15</v>
       </c>
       <c r="D25" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="F25" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>25271</v>
+        <v>37978</v>
       </c>
       <c r="C26" t="n">
-        <v>34429.55</v>
+        <v>35245.16</v>
       </c>
       <c r="D26" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="E26" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="F26" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>32616</v>
+        <v>32961</v>
       </c>
       <c r="C27" t="n">
-        <v>34116.38</v>
+        <v>35024.65</v>
       </c>
       <c r="D27" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E27" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="F27" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>39811</v>
+        <v>35098</v>
       </c>
       <c r="C28" t="n">
-        <v>33736.81</v>
+        <v>34732.88</v>
       </c>
       <c r="D28" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="E28" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="F28" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>37809</v>
+        <v>25271</v>
       </c>
       <c r="C29" t="n">
-        <v>33210.61</v>
+        <v>34425.03</v>
       </c>
       <c r="D29" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="E29" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="F29" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>34505</v>
+        <v>32616</v>
       </c>
       <c r="C30" t="n">
-        <v>32513.62</v>
+        <v>34113.68</v>
       </c>
       <c r="D30" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="E30" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="F30" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>30550</v>
+        <v>39811</v>
       </c>
       <c r="C31" t="n">
-        <v>31690.48</v>
+        <v>33735.7</v>
       </c>
       <c r="D31" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="E31" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="F31" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>28244</v>
+        <v>37809</v>
       </c>
       <c r="C32" t="n">
-        <v>30821.44</v>
+        <v>33210.68</v>
       </c>
       <c r="D32" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="E32" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F32" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>22253</v>
+        <v>34505</v>
       </c>
       <c r="C33" t="n">
-        <v>29969.39</v>
+        <v>32514.42</v>
       </c>
       <c r="D33" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="E33" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="F33" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>29907</v>
+        <v>30550</v>
       </c>
       <c r="C34" t="n">
-        <v>29138.2</v>
+        <v>31691.59</v>
       </c>
       <c r="D34" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="E34" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="F34" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>31758</v>
+        <v>28244</v>
       </c>
       <c r="C35" t="n">
-        <v>28256.92</v>
+        <v>30822.56</v>
       </c>
       <c r="D35" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="E35" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="F35" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>31084</v>
+        <v>22253</v>
       </c>
       <c r="C36" t="n">
-        <v>27241.13</v>
+        <v>29970.33</v>
       </c>
       <c r="D36" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="E36" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="F36" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>26831</v>
+        <v>29907</v>
       </c>
       <c r="C37" t="n">
-        <v>26046.64</v>
+        <v>29138.86</v>
       </c>
       <c r="D37" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="E37" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="F37" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>24991</v>
+        <v>31758</v>
       </c>
       <c r="C38" t="n">
-        <v>24688.16</v>
+        <v>28257.29</v>
       </c>
       <c r="D38" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="E38" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="F38" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>21994</v>
+        <v>31084</v>
       </c>
       <c r="C39" t="n">
-        <v>23219.65</v>
+        <v>27241.26</v>
       </c>
       <c r="D39" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="E39" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="F39" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>17012</v>
+        <v>26831</v>
       </c>
       <c r="C40" t="n">
-        <v>21706.79</v>
+        <v>26046.6</v>
       </c>
       <c r="D40" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="E40" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="F40" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>21273</v>
+        <v>24991</v>
       </c>
       <c r="C41" t="n">
-        <v>20196.46</v>
+        <v>24688.02</v>
       </c>
       <c r="D41" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="E41" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="F41" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>19644</v>
+        <v>21994</v>
       </c>
       <c r="C42" t="n">
-        <v>18698.58</v>
+        <v>23219.47</v>
       </c>
       <c r="D42" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="E42" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="F42" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>19143</v>
+        <v>17012</v>
       </c>
       <c r="C43" t="n">
-        <v>17214.89</v>
+        <v>21706.62</v>
       </c>
       <c r="D43" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="E43" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="F43" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>16079</v>
+        <v>21273</v>
       </c>
       <c r="C44" t="n">
-        <v>15756.95</v>
+        <v>20196.32</v>
       </c>
       <c r="D44" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="E44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F44" t="n">
         <v>1.72</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>15199</v>
+        <v>19644</v>
       </c>
       <c r="C45" t="n">
-        <v>14354.84</v>
+        <v>18698.49</v>
       </c>
       <c r="D45" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="E45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>10874</v>
+        <v>19143</v>
       </c>
       <c r="C46" t="n">
-        <v>13046.4</v>
+        <v>17214.83</v>
       </c>
       <c r="D46" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E46" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F46" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>9338</v>
+        <v>16079</v>
       </c>
       <c r="C47" t="n">
-        <v>11863.43</v>
+        <v>15756.94</v>
       </c>
       <c r="D47" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E47" t="n">
         <v>1.72</v>
       </c>
       <c r="F47" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>11705</v>
+        <v>15199</v>
       </c>
       <c r="C48" t="n">
-        <v>10809.36</v>
+        <v>14354.85</v>
       </c>
       <c r="D48" t="n">
         <v>1.76</v>
@@ -1407,104 +1407,104 @@
         <v>1.73</v>
       </c>
       <c r="F48" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>10925</v>
+        <v>10874</v>
       </c>
       <c r="C49" t="n">
-        <v>9858.65</v>
+        <v>13046.42</v>
       </c>
       <c r="D49" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="E49" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="F49" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>10010</v>
+        <v>9338</v>
       </c>
       <c r="C50" t="n">
-        <v>8981.57</v>
+        <v>11863.46</v>
       </c>
       <c r="D50" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="E50" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F50" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>8804</v>
+        <v>11705</v>
       </c>
       <c r="C51" t="n">
-        <v>8159.86</v>
+        <v>10809.38</v>
       </c>
       <c r="D51" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="E51" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F51" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>7332</v>
+        <v>10925</v>
       </c>
       <c r="C52" t="n">
-        <v>7391.88</v>
+        <v>9858.67</v>
       </c>
       <c r="D52" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E52" t="n">
         <v>1.74</v>
       </c>
       <c r="F52" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>5901</v>
+        <v>10010</v>
       </c>
       <c r="C53" t="n">
-        <v>6687.4</v>
+        <v>8981.58</v>
       </c>
       <c r="D53" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E53" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F53" t="n">
         <v>1.81</v>
@@ -1512,439 +1512,439 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>4619</v>
+        <v>8804</v>
       </c>
       <c r="C54" t="n">
-        <v>6055.97</v>
+        <v>8159.86</v>
       </c>
       <c r="D54" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="E54" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="F54" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>5456</v>
+        <v>7332</v>
       </c>
       <c r="C55" t="n">
-        <v>5495.89</v>
+        <v>7391.88</v>
       </c>
       <c r="D55" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="E55" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="F55" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>5724</v>
+        <v>5901</v>
       </c>
       <c r="C56" t="n">
-        <v>4991.12</v>
+        <v>6687.4</v>
       </c>
       <c r="D56" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="E56" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="F56" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>5372</v>
+        <v>4619</v>
       </c>
       <c r="C57" t="n">
-        <v>4522.49</v>
+        <v>6055.96</v>
       </c>
       <c r="D57" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="E57" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="F57" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>4458</v>
+        <v>5456</v>
       </c>
       <c r="C58" t="n">
-        <v>4079.32</v>
+        <v>5495.89</v>
       </c>
       <c r="D58" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="E58" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="F58" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>3678</v>
+        <v>5724</v>
       </c>
       <c r="C59" t="n">
-        <v>3663.78</v>
+        <v>4991.12</v>
       </c>
       <c r="D59" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="E59" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="F59" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>2677</v>
+        <v>5372</v>
       </c>
       <c r="C60" t="n">
-        <v>3286.67</v>
+        <v>4522.48</v>
       </c>
       <c r="D60" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="E60" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="F60" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>2257</v>
+        <v>4458</v>
       </c>
       <c r="C61" t="n">
-        <v>2959.49</v>
+        <v>4079.31</v>
       </c>
       <c r="D61" t="n">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="E61" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="F61" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>2578</v>
+        <v>3678</v>
       </c>
       <c r="C62" t="n">
-        <v>2686.25</v>
+        <v>3663.78</v>
       </c>
       <c r="D62" t="n">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="E62" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="F62" t="n">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>2844</v>
+        <v>2677</v>
       </c>
       <c r="C63" t="n">
-        <v>2461.59</v>
+        <v>3286.67</v>
       </c>
       <c r="D63" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="E63" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="F63" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>2499</v>
+        <v>2257</v>
       </c>
       <c r="C64" t="n">
-        <v>2275.67</v>
+        <v>2959.49</v>
       </c>
       <c r="D64" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="E64" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="F64" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>2548</v>
+        <v>2578</v>
       </c>
       <c r="C65" t="n">
-        <v>2120.37</v>
+        <v>2686.26</v>
       </c>
       <c r="D65" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="E65" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="F65" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>1851</v>
+        <v>2844</v>
       </c>
       <c r="C66" t="n">
-        <v>1991.52</v>
+        <v>2461.59</v>
       </c>
       <c r="D66" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="E66" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="F66" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>1648</v>
+        <v>2499</v>
       </c>
       <c r="C67" t="n">
-        <v>1888.97</v>
+        <v>2275.67</v>
       </c>
       <c r="D67" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="E67" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="F67" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>1494</v>
+        <v>2548</v>
       </c>
       <c r="C68" t="n">
-        <v>1812.38</v>
+        <v>2120.37</v>
       </c>
       <c r="D68" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="E68" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="F68" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>1766</v>
+        <v>1851</v>
       </c>
       <c r="C69" t="n">
-        <v>1758.38</v>
+        <v>1991.52</v>
       </c>
       <c r="D69" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="E69" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="F69" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>1869</v>
+        <v>1648</v>
       </c>
       <c r="C70" t="n">
-        <v>1720.23</v>
+        <v>1888.97</v>
       </c>
       <c r="D70" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E70" t="n">
         <v>1.11</v>
       </c>
-      <c r="E70" t="n">
-        <v>1.06</v>
-      </c>
       <c r="F70" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>1912</v>
+        <v>1494</v>
       </c>
       <c r="C71" t="n">
-        <v>1690.58</v>
+        <v>1812.38</v>
       </c>
       <c r="D71" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="E71" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="F71" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1786</v>
+        <v>1766</v>
       </c>
       <c r="C72" t="n">
-        <v>1664.17</v>
+        <v>1758.38</v>
       </c>
       <c r="D72" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="E72" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F72" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1640</v>
+        <v>1869</v>
       </c>
       <c r="C73" t="n">
-        <v>1639.12</v>
+        <v>1720.23</v>
       </c>
       <c r="D73" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E73" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F73" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1392</v>
+        <v>1912</v>
       </c>
       <c r="C74" t="n">
-        <v>1615.92</v>
+        <v>1690.58</v>
       </c>
       <c r="D74" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E74" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="F74" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1350</v>
+        <v>1786</v>
       </c>
       <c r="C75" t="n">
-        <v>1595.22</v>
+        <v>1664.17</v>
       </c>
       <c r="D75" t="n">
         <v>1.1</v>
       </c>
       <c r="E75" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F75" t="n">
         <v>1.15</v>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1587</v>
+        <v>1640</v>
       </c>
       <c r="C76" t="n">
-        <v>1575.6</v>
+        <v>1639.12</v>
       </c>
       <c r="D76" t="n">
         <v>1.1</v>
@@ -1972,153 +1972,153 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1638</v>
+        <v>1392</v>
       </c>
       <c r="C77" t="n">
-        <v>1553.69</v>
+        <v>1615.92</v>
       </c>
       <c r="D77" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E77" t="n">
         <v>1.04</v>
       </c>
       <c r="F77" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1907</v>
+        <v>1350</v>
       </c>
       <c r="C78" t="n">
-        <v>1526.56</v>
+        <v>1595.22</v>
       </c>
       <c r="D78" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="E78" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F78" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="C79" t="n">
-        <v>1494.19</v>
+        <v>1575.6</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="F79" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1452</v>
+        <v>1638</v>
       </c>
       <c r="C80" t="n">
-        <v>1460.94</v>
+        <v>1553.69</v>
       </c>
       <c r="D80" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="E80" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="F80" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1229</v>
+        <v>1907</v>
       </c>
       <c r="C81" t="n">
-        <v>1433.34</v>
+        <v>1526.56</v>
       </c>
       <c r="D81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E81" t="n">
         <v>1.03</v>
       </c>
-      <c r="E81" t="n">
-        <v>0.98</v>
-      </c>
       <c r="F81" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1008</v>
+        <v>1585</v>
       </c>
       <c r="C82" t="n">
-        <v>1416.93</v>
+        <v>1494.19</v>
       </c>
       <c r="D82" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="E82" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="F82" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="C83" t="n">
-        <v>1413.18</v>
+        <v>1460.94</v>
       </c>
       <c r="D83" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="E83" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F83" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1501</v>
+        <v>1229</v>
       </c>
       <c r="C84" t="n">
-        <v>1418.5</v>
+        <v>1433.34</v>
       </c>
       <c r="D84" t="n">
         <v>1.03</v>
@@ -2127,598 +2127,598 @@
         <v>0.98</v>
       </c>
       <c r="F84" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1616</v>
+        <v>1008</v>
       </c>
       <c r="C85" t="n">
-        <v>1427.32</v>
+        <v>1416.93</v>
       </c>
       <c r="D85" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="E85" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F85" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1597</v>
+        <v>1458</v>
       </c>
       <c r="C86" t="n">
-        <v>1434.72</v>
+        <v>1413.18</v>
       </c>
       <c r="D86" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="E86" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="F86" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1434</v>
+        <v>1501</v>
       </c>
       <c r="C87" t="n">
-        <v>1438.24</v>
+        <v>1418.5</v>
       </c>
       <c r="D87" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="E87" t="n">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="F87" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1370</v>
+        <v>1616</v>
       </c>
       <c r="C88" t="n">
-        <v>1437.85</v>
+        <v>1427.32</v>
       </c>
       <c r="D88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
         <v>1.1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1108</v>
+        <v>1597</v>
       </c>
       <c r="C89" t="n">
-        <v>1434.22</v>
+        <v>1434.72</v>
       </c>
       <c r="D89" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="E89" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="F89" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1297</v>
+        <v>1434</v>
       </c>
       <c r="C90" t="n">
-        <v>1427.16</v>
+        <v>1438.24</v>
       </c>
       <c r="D90" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="E90" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="F90" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1694</v>
+        <v>1370</v>
       </c>
       <c r="C91" t="n">
-        <v>1414.67</v>
+        <v>1437.85</v>
       </c>
       <c r="D91" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="F91" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1733</v>
+        <v>1108</v>
       </c>
       <c r="C92" t="n">
-        <v>1394.87</v>
+        <v>1434.22</v>
       </c>
       <c r="D92" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="E92" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="F92" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1397</v>
+        <v>1297</v>
       </c>
       <c r="C93" t="n">
-        <v>1369.24</v>
+        <v>1427.16</v>
       </c>
       <c r="D93" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="E93" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="F93" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1326</v>
+        <v>1694</v>
       </c>
       <c r="C94" t="n">
-        <v>1343.03</v>
+        <v>1414.67</v>
       </c>
       <c r="D94" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="E94" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="F94" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>978</v>
+        <v>1733</v>
       </c>
       <c r="C95" t="n">
-        <v>1322.39</v>
+        <v>1394.87</v>
       </c>
       <c r="D95" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="E95" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="F95" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>996</v>
+        <v>1397</v>
       </c>
       <c r="C96" t="n">
-        <v>1311.1</v>
+        <v>1369.24</v>
       </c>
       <c r="D96" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F96" t="n">
         <v>1.22</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1365</v>
+        <v>1326</v>
       </c>
       <c r="C97" t="n">
-        <v>1307.59</v>
+        <v>1343.03</v>
       </c>
       <c r="D97" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="E97" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="F97" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1444</v>
+        <v>978</v>
       </c>
       <c r="C98" t="n">
-        <v>1305.33</v>
+        <v>1322.39</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="E98" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="F98" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>1462</v>
+        <v>996</v>
       </c>
       <c r="C99" t="n">
-        <v>1296.46</v>
+        <v>1311.1</v>
       </c>
       <c r="D99" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="E99" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="F99" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>1411</v>
+        <v>1365</v>
       </c>
       <c r="C100" t="n">
-        <v>1274.78</v>
+        <v>1307.59</v>
       </c>
       <c r="D100" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="E100" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="F100" t="n">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>1367</v>
+        <v>1444</v>
       </c>
       <c r="C101" t="n">
-        <v>1237.39</v>
+        <v>1305.33</v>
       </c>
       <c r="D101" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="E101" t="n">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="F101" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>878</v>
+        <v>1462</v>
       </c>
       <c r="C102" t="n">
-        <v>1184.67</v>
+        <v>1296.46</v>
       </c>
       <c r="D102" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="E102" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="F102" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>953</v>
+        <v>1411</v>
       </c>
       <c r="C103" t="n">
-        <v>1118.95</v>
+        <v>1274.78</v>
       </c>
       <c r="D103" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E103" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="F103" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>1210</v>
+        <v>1367</v>
       </c>
       <c r="C104" t="n">
-        <v>1041.87</v>
+        <v>1237.39</v>
       </c>
       <c r="D104" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="E104" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="F104" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>1071</v>
+        <v>878</v>
       </c>
       <c r="C105" t="n">
-        <v>954.83</v>
+        <v>1184.67</v>
       </c>
       <c r="D105" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="E105" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="F105" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="C106" t="n">
-        <v>861.08</v>
+        <v>1118.95</v>
       </c>
       <c r="D106" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="E106" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="F106" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>845</v>
+        <v>1210</v>
       </c>
       <c r="C107" t="n">
-        <v>766.2</v>
+        <v>1041.87</v>
       </c>
       <c r="D107" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="E107" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="F107" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>642</v>
+        <v>1071</v>
       </c>
       <c r="C108" t="n">
-        <v>677.34</v>
+        <v>954.83</v>
       </c>
       <c r="D108" t="n">
-        <v>1.49</v>
+        <v>1.72</v>
       </c>
       <c r="E108" t="n">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="F108" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>403</v>
+        <v>947</v>
       </c>
       <c r="C109" t="n">
-        <v>601.6799999999999</v>
+        <v>861.08</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="E109" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="F109" t="n">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>320</v>
+        <v>845</v>
       </c>
       <c r="C110" t="n">
-        <v>544.0700000000001</v>
+        <v>766.2</v>
       </c>
       <c r="D110" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="E110" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="F110" t="n">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>479</v>
+        <v>642</v>
       </c>
       <c r="C111" t="n">
-        <v>505.08</v>
+        <v>677.34</v>
       </c>
       <c r="D111" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="E111" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="F111" t="n">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>629</v>
+        <v>403</v>
       </c>
       <c r="C112" t="n">
-        <v>481.06</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="E112" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="F112" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>574</v>
+        <v>320</v>
       </c>
       <c r="C113" t="n">
-        <v>466.39</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="E113" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="F113" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="C114" t="n">
-        <v>456.05</v>
+        <v>505.08</v>
       </c>
       <c r="D114" t="n">
         <v>1.25</v>
@@ -2727,644 +2727,644 @@
         <v>1.14</v>
       </c>
       <c r="F114" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>481</v>
+        <v>629</v>
       </c>
       <c r="C115" t="n">
-        <v>446.75</v>
+        <v>481.06</v>
       </c>
       <c r="D115" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="E115" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F115" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>412</v>
+        <v>574</v>
       </c>
       <c r="C116" t="n">
-        <v>436.85</v>
+        <v>466.39</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="E116" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="F116" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>259</v>
+        <v>523</v>
       </c>
       <c r="C117" t="n">
-        <v>425.8</v>
+        <v>456.05</v>
       </c>
       <c r="D117" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="E117" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="F117" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="C118" t="n">
-        <v>413.12</v>
+        <v>446.75</v>
       </c>
       <c r="D118" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="E118" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F118" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="C119" t="n">
-        <v>397.75</v>
+        <v>436.85</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="E119" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="F119" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>552</v>
+        <v>259</v>
       </c>
       <c r="C120" t="n">
-        <v>379</v>
+        <v>425.8</v>
       </c>
       <c r="D120" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="E120" t="n">
         <v>1.2</v>
       </c>
       <c r="F120" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="C121" t="n">
-        <v>357.05</v>
+        <v>413.12</v>
       </c>
       <c r="D121" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E121" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="F121" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C122" t="n">
-        <v>333.88</v>
+        <v>397.75</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="E122" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="F122" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>190</v>
+        <v>552</v>
       </c>
       <c r="C123" t="n">
-        <v>312.58</v>
+        <v>379</v>
       </c>
       <c r="D123" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="E123" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="F123" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>159</v>
+        <v>402</v>
       </c>
       <c r="C124" t="n">
-        <v>296.11</v>
+        <v>357.05</v>
       </c>
       <c r="D124" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="E124" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="F124" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>239</v>
+        <v>384</v>
       </c>
       <c r="C125" t="n">
-        <v>285.65</v>
+        <v>333.88</v>
       </c>
       <c r="D125" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="F125" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="C126" t="n">
-        <v>280.1</v>
+        <v>312.58</v>
       </c>
       <c r="D126" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="E126" t="n">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="F126" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="C127" t="n">
-        <v>277.02</v>
+        <v>296.11</v>
       </c>
       <c r="D127" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F127" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>386</v>
+        <v>239</v>
       </c>
       <c r="C128" t="n">
-        <v>273.98</v>
+        <v>285.65</v>
       </c>
       <c r="D128" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="E128" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C129" t="n">
-        <v>269.82</v>
+        <v>280.1</v>
       </c>
       <c r="D129" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="E129" t="n">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="F129" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="C130" t="n">
-        <v>264.85</v>
+        <v>277.02</v>
       </c>
       <c r="D130" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="E130" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F130" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>170</v>
+        <v>386</v>
       </c>
       <c r="C131" t="n">
-        <v>260</v>
+        <v>273.98</v>
       </c>
       <c r="D131" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E131" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F131" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="C132" t="n">
-        <v>255.75</v>
+        <v>269.82</v>
       </c>
       <c r="D132" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E132" t="n">
         <v>1.02</v>
       </c>
       <c r="F132" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="C133" t="n">
-        <v>251.71</v>
+        <v>264.85</v>
       </c>
       <c r="D133" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E133" t="n">
         <v>1.02</v>
       </c>
       <c r="F133" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="C134" t="n">
-        <v>247.16</v>
+        <v>260</v>
       </c>
       <c r="D134" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="E134" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F134" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="C135" t="n">
-        <v>241.5</v>
+        <v>255.75</v>
       </c>
       <c r="D135" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="E135" t="n">
         <v>1.03</v>
       </c>
       <c r="F135" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C136" t="n">
-        <v>234.63</v>
+        <v>251.71</v>
       </c>
       <c r="D136" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="E136" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F136" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="C137" t="n">
-        <v>227.11</v>
+        <v>247.16</v>
       </c>
       <c r="D137" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="E137" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="F137" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="C138" t="n">
-        <v>219.83</v>
+        <v>241.5</v>
       </c>
       <c r="D138" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="E138" t="n">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="F138" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="C139" t="n">
-        <v>213.13</v>
+        <v>234.63</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="F139" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="C140" t="n">
-        <v>206.91</v>
+        <v>227.11</v>
       </c>
       <c r="D140" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="E140" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F140" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="C141" t="n">
-        <v>201.14</v>
+        <v>219.83</v>
       </c>
       <c r="D141" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="E141" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F141" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C142" t="n">
-        <v>196.18</v>
+        <v>213.13</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="E142" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F142" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="C143" t="n">
-        <v>192.78</v>
+        <v>206.91</v>
       </c>
       <c r="D143" t="n">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="E143" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="F143" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="C144" t="n">
-        <v>191.74</v>
+        <v>201.14</v>
       </c>
       <c r="D144" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="E144" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="F144" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="C145" t="n">
-        <v>193.26</v>
+        <v>196.18</v>
       </c>
       <c r="D145" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F145" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="C146" t="n">
-        <v>196.55</v>
+        <v>192.78</v>
       </c>
       <c r="D146" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E146" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F146" t="n">
         <v>1.13</v>
@@ -3372,379 +3372,379 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="C147" t="n">
-        <v>200.25</v>
+        <v>191.74</v>
       </c>
       <c r="D147" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="E147" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="F147" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="C148" t="n">
-        <v>203.13</v>
+        <v>193.26</v>
       </c>
       <c r="D148" t="n">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="E148" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="F148" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C149" t="n">
-        <v>204.32</v>
+        <v>196.55</v>
       </c>
       <c r="D149" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="E149" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F149" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C150" t="n">
-        <v>203.74</v>
+        <v>200.25</v>
       </c>
       <c r="D150" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E150" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F150" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="C151" t="n">
-        <v>201.78</v>
+        <v>203.13</v>
       </c>
       <c r="D151" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E151" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F151" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C152" t="n">
-        <v>198.88</v>
+        <v>204.32</v>
       </c>
       <c r="D152" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="E152" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="F152" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C153" t="n">
-        <v>195.22</v>
+        <v>203.74</v>
       </c>
       <c r="D153" t="n">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="F153" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="C154" t="n">
-        <v>191.06</v>
+        <v>201.78</v>
       </c>
       <c r="D154" t="n">
-        <v>0.91</v>
+        <v>1.01</v>
       </c>
       <c r="E154" t="n">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="F154" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C155" t="n">
-        <v>186.97</v>
+        <v>198.88</v>
       </c>
       <c r="D155" t="n">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="E155" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F155" t="n">
-        <v>0.99</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C156" t="n">
-        <v>184.12</v>
+        <v>195.22</v>
       </c>
       <c r="D156" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="E156" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="F156" t="n">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="C157" t="n">
-        <v>184.12</v>
+        <v>191.06</v>
       </c>
       <c r="D157" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="E157" t="n">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="F157" t="n">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="C158" t="n">
-        <v>188.48</v>
+        <v>186.97</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="E158" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F158" t="n">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="C159" t="n">
-        <v>197.95</v>
+        <v>184.12</v>
       </c>
       <c r="D159" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E159" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="F159" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C160" t="n">
-        <v>211.83</v>
+        <v>184.12</v>
       </c>
       <c r="D160" t="n">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="F160" t="n">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C161" t="n">
-        <v>227.76</v>
+        <v>188.48</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>0.83</v>
+        <v>0.7</v>
       </c>
       <c r="F161" t="n">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>259</v>
+        <v>126</v>
       </c>
       <c r="C162" t="n">
-        <v>242.25</v>
+        <v>197.95</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="E162" t="n">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="F162" t="n">
-        <v>1.13</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C163" t="n">
-        <v>251.57</v>
+        <v>211.83</v>
       </c>
       <c r="D163" t="n">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
       <c r="E163" t="n">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="F163" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C164" t="n">
-        <v>253.15</v>
+        <v>227.76</v>
       </c>
       <c r="D164" t="n">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E164" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="F164" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="C165" t="n">
-        <v>246.92</v>
+        <v>242.25</v>
       </c>
       <c r="D165" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F165" t="n">
         <v>1.13</v>
@@ -3752,113 +3752,113 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="C166" t="n">
-        <v>236.08</v>
+        <v>251.57</v>
       </c>
       <c r="D166" t="n">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="E166" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F166" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C167" t="n">
-        <v>224.82</v>
+        <v>253.15</v>
       </c>
       <c r="D167" t="n">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="E167" t="n">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>262</v>
+        <v>122</v>
       </c>
       <c r="C168" t="n">
-        <v>217.15</v>
+        <v>246.92</v>
       </c>
       <c r="D168" t="n">
-        <v>0.83</v>
+        <v>1.01</v>
       </c>
       <c r="E168" t="n">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="C169" t="n">
-        <v>216.11</v>
+        <v>236.08</v>
       </c>
       <c r="D169" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E169" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="C170" t="n">
-        <v>222.78</v>
+        <v>224.82</v>
       </c>
       <c r="D170" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="E170" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="F170" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="C171" t="n">
-        <v>235.01</v>
+        <v>217.15</v>
       </c>
       <c r="D171" t="n">
         <v>0.83</v>
@@ -3872,439 +3872,439 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C172" t="n">
-        <v>249.63</v>
+        <v>216.11</v>
       </c>
       <c r="D172" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="E172" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="F172" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="C173" t="n">
-        <v>263.68</v>
+        <v>222.78</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E173" t="n">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C174" t="n">
-        <v>274.7</v>
+        <v>235.01</v>
       </c>
       <c r="D174" t="n">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="E174" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="F174" t="n">
-        <v>1.03</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>346</v>
+        <v>210</v>
       </c>
       <c r="C175" t="n">
-        <v>281.34</v>
+        <v>249.63</v>
       </c>
       <c r="D175" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="E175" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="F175" t="n">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="C176" t="n">
-        <v>283.71</v>
+        <v>263.68</v>
       </c>
       <c r="D176" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F176" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="C177" t="n">
-        <v>282.99</v>
+        <v>274.7</v>
       </c>
       <c r="D177" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="E177" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>202</v>
+        <v>346</v>
       </c>
       <c r="C178" t="n">
-        <v>280.48</v>
+        <v>281.34</v>
       </c>
       <c r="D178" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="E178" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="C179" t="n">
-        <v>277.8</v>
+        <v>283.71</v>
       </c>
       <c r="D179" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E179" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E179" t="n">
-        <v>0.72</v>
-      </c>
       <c r="F179" t="n">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>280</v>
+        <v>379</v>
       </c>
       <c r="C180" t="n">
-        <v>276.15</v>
+        <v>282.99</v>
       </c>
       <c r="D180" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E180" t="n">
         <v>0.77</v>
       </c>
-      <c r="E180" t="n">
-        <v>0.68</v>
-      </c>
       <c r="F180" t="n">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C181" t="n">
-        <v>276.38</v>
+        <v>280.48</v>
       </c>
       <c r="D181" t="n">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="E181" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="F181" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C182" t="n">
-        <v>278.93</v>
+        <v>277.8</v>
       </c>
       <c r="D182" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E182" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="F182" t="n">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>518</v>
+        <v>280</v>
       </c>
       <c r="C183" t="n">
-        <v>283.82</v>
+        <v>276.15</v>
       </c>
       <c r="D183" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E183" t="n">
         <v>0.68</v>
       </c>
-      <c r="E183" t="n">
-        <v>0.6</v>
-      </c>
       <c r="F183" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C184" t="n">
-        <v>291.42</v>
+        <v>276.38</v>
       </c>
       <c r="D184" t="n">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="E184" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="F184" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="C185" t="n">
-        <v>303.22</v>
+        <v>278.93</v>
       </c>
       <c r="D185" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E185" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="F185" t="n">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>318</v>
+        <v>518</v>
       </c>
       <c r="C186" t="n">
-        <v>320.39</v>
+        <v>283.82</v>
       </c>
       <c r="D186" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="E186" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="F186" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C187" t="n">
-        <v>343.38</v>
+        <v>291.42</v>
       </c>
       <c r="D187" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E187" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F187" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="C188" t="n">
-        <v>371.4</v>
+        <v>303.22</v>
       </c>
       <c r="D188" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="E188" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="F188" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>416</v>
+        <v>318</v>
       </c>
       <c r="C189" t="n">
-        <v>401.89</v>
+        <v>320.39</v>
       </c>
       <c r="D189" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="E189" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="F189" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>516</v>
+        <v>178</v>
       </c>
       <c r="C190" t="n">
-        <v>431.68</v>
+        <v>343.38</v>
       </c>
       <c r="D190" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="E190" t="n">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="F190" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>593</v>
+        <v>355</v>
       </c>
       <c r="C191" t="n">
-        <v>458.27</v>
+        <v>371.4</v>
       </c>
       <c r="D191" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="E191" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="F191" t="n">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>584</v>
+        <v>416</v>
       </c>
       <c r="C192" t="n">
-        <v>481.02</v>
+        <v>401.89</v>
       </c>
       <c r="D192" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E192" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="F192" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>397</v>
+        <v>516</v>
       </c>
       <c r="C193" t="n">
-        <v>501.43</v>
+        <v>431.68</v>
       </c>
       <c r="D193" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E193" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F193" t="n">
         <v>0.78</v>
@@ -4312,173 +4312,173 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>300</v>
+        <v>593</v>
       </c>
       <c r="C194" t="n">
-        <v>522.16</v>
+        <v>458.27</v>
       </c>
       <c r="D194" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E194" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F194" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="C195" t="n">
-        <v>544.91</v>
+        <v>481.02</v>
       </c>
       <c r="D195" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E195" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F195" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>669</v>
+        <v>397</v>
       </c>
       <c r="C196" t="n">
-        <v>569.49</v>
+        <v>501.43</v>
       </c>
       <c r="D196" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E196" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F196" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>652</v>
+        <v>300</v>
       </c>
       <c r="C197" t="n">
-        <v>594.9299999999999</v>
+        <v>522.16</v>
       </c>
       <c r="D197" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E197" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F197" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>642</v>
+        <v>531</v>
       </c>
       <c r="C198" t="n">
-        <v>620.9</v>
+        <v>544.91</v>
       </c>
       <c r="D198" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E198" t="n">
         <v>0.65</v>
       </c>
       <c r="F198" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C199" t="n">
-        <v>648.05</v>
+        <v>569.49</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E199" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F199" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>813</v>
+        <v>652</v>
       </c>
       <c r="C200" t="n">
-        <v>677.75</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E200" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F200" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>451</v>
+        <v>642</v>
       </c>
       <c r="C201" t="n">
-        <v>711.71</v>
+        <v>620.9</v>
       </c>
       <c r="D201" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E201" t="n">
         <v>0.64</v>
       </c>
       <c r="F201" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C202" t="n">
-        <v>751.34</v>
+        <v>648.05</v>
       </c>
       <c r="D202" t="n">
         <v>0.6899999999999999</v>
@@ -4492,19 +4492,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>875</v>
+        <v>813</v>
       </c>
       <c r="C203" t="n">
-        <v>795.84</v>
+        <v>677.75</v>
       </c>
       <c r="D203" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="F203" t="n">
         <v>0.74</v>
@@ -4512,59 +4512,59 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>789</v>
+        <v>451</v>
       </c>
       <c r="C204" t="n">
-        <v>842.8099999999999</v>
+        <v>711.71</v>
       </c>
       <c r="D204" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E204" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F204" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>992</v>
+        <v>675</v>
       </c>
       <c r="C205" t="n">
-        <v>889.71</v>
+        <v>751.34</v>
       </c>
       <c r="D205" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E205" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F205" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="C206" t="n">
-        <v>934.4400000000001</v>
+        <v>795.84</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E206" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F206" t="n">
         <v>0.74</v>
@@ -4572,16 +4572,16 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>1402</v>
+        <v>789</v>
       </c>
       <c r="C207" t="n">
-        <v>976.5599999999999</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D207" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E207" t="n">
         <v>0.65</v>
@@ -4592,159 +4592,159 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>744</v>
+        <v>992</v>
       </c>
       <c r="C208" t="n">
-        <v>1017.39</v>
+        <v>889.71</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E208" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F208" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>802</v>
+        <v>888</v>
       </c>
       <c r="C209" t="n">
-        <v>1060.63</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D209" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E209" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="F209" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>1083</v>
+        <v>1402</v>
       </c>
       <c r="C210" t="n">
-        <v>1108.72</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D210" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="E210" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="F210" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>1327</v>
+        <v>744</v>
       </c>
       <c r="C211" t="n">
-        <v>1161.92</v>
+        <v>1017.39</v>
       </c>
       <c r="D211" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E211" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F211" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>1401</v>
+        <v>802</v>
       </c>
       <c r="C212" t="n">
-        <v>1219.97</v>
+        <v>1060.63</v>
       </c>
       <c r="D212" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E212" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="F212" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>1444</v>
+        <v>1083</v>
       </c>
       <c r="C213" t="n">
-        <v>1284.03</v>
+        <v>1108.72</v>
       </c>
       <c r="D213" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E213" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F213" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>1075</v>
+        <v>1327</v>
       </c>
       <c r="C214" t="n">
-        <v>1356.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D214" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E214" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F214" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>1221</v>
+        <v>1401</v>
       </c>
       <c r="C215" t="n">
-        <v>1441.81</v>
+        <v>1219.97</v>
       </c>
       <c r="D215" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E215" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F215" t="n">
         <v>0.7</v>
@@ -4752,339 +4752,339 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>1389</v>
+        <v>1444</v>
       </c>
       <c r="C216" t="n">
-        <v>1538.63</v>
+        <v>1284.03</v>
       </c>
       <c r="D216" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="E216" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="F216" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1900</v>
+        <v>1075</v>
       </c>
       <c r="C217" t="n">
-        <v>1644.22</v>
+        <v>1356.97</v>
       </c>
       <c r="D217" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="E217" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="F217" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>1965</v>
+        <v>1221</v>
       </c>
       <c r="C218" t="n">
-        <v>1753.99</v>
+        <v>1441.81</v>
       </c>
       <c r="D218" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F218" t="n">
         <v>0.7</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.74</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>1872</v>
+        <v>1389</v>
       </c>
       <c r="C219" t="n">
-        <v>1865.36</v>
+        <v>1538.63</v>
       </c>
       <c r="D219" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="E219" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="F219" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>2086</v>
+        <v>1900</v>
       </c>
       <c r="C220" t="n">
-        <v>1978.6</v>
+        <v>1644.22</v>
       </c>
       <c r="D220" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E220" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="F220" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>2091</v>
+        <v>1965</v>
       </c>
       <c r="C221" t="n">
-        <v>2095.56</v>
+        <v>1753.99</v>
       </c>
       <c r="D221" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E221" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F221" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>1739</v>
+        <v>1872</v>
       </c>
       <c r="C222" t="n">
-        <v>2218.32</v>
+        <v>1865.36</v>
       </c>
       <c r="D222" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="E222" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="F222" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>2324</v>
+        <v>2086</v>
       </c>
       <c r="C223" t="n">
-        <v>2346.77</v>
+        <v>1978.6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="E223" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F223" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>2357</v>
+        <v>2091</v>
       </c>
       <c r="C224" t="n">
-        <v>2476.25</v>
+        <v>2095.56</v>
       </c>
       <c r="D224" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E224" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="F224" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>3021</v>
+        <v>1739</v>
       </c>
       <c r="C225" t="n">
-        <v>2599.96</v>
+        <v>2218.32</v>
       </c>
       <c r="D225" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="E225" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="F225" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>2646</v>
+        <v>2324</v>
       </c>
       <c r="C226" t="n">
-        <v>2711.63</v>
+        <v>2346.77</v>
       </c>
       <c r="D226" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F226" t="n">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>3370</v>
+        <v>2357</v>
       </c>
       <c r="C227" t="n">
-        <v>2809.36</v>
+        <v>2476.25</v>
       </c>
       <c r="D227" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="E227" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="F227" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>2729</v>
+        <v>3021</v>
       </c>
       <c r="C228" t="n">
-        <v>2895.24</v>
+        <v>2599.96</v>
       </c>
       <c r="D228" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E228" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="F228" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>2256</v>
+        <v>2646</v>
       </c>
       <c r="C229" t="n">
-        <v>2975.63</v>
+        <v>2711.63</v>
       </c>
       <c r="D229" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E229" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F229" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>3047</v>
+        <v>3370</v>
       </c>
       <c r="C230" t="n">
-        <v>3055.9</v>
+        <v>2809.36</v>
       </c>
       <c r="D230" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E230" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F230" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>3491</v>
+        <v>2729</v>
       </c>
       <c r="C231" t="n">
-        <v>3136.69</v>
+        <v>2895.24</v>
       </c>
       <c r="D231" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E231" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F231" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>3493</v>
+        <v>2256</v>
       </c>
       <c r="C232" t="n">
-        <v>3217.52</v>
+        <v>2975.63</v>
       </c>
       <c r="D232" t="n">
         <v>0.85</v>
       </c>
       <c r="E232" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F232" t="n">
         <v>0.88</v>
@@ -5092,19 +5092,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>3786</v>
+        <v>3047</v>
       </c>
       <c r="C233" t="n">
-        <v>3300.39</v>
+        <v>3055.9</v>
       </c>
       <c r="D233" t="n">
         <v>0.85</v>
       </c>
       <c r="E233" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F233" t="n">
         <v>0.88</v>
@@ -5112,239 +5112,239 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>2667</v>
+        <v>3491</v>
       </c>
       <c r="C234" t="n">
-        <v>3389.89</v>
+        <v>3136.69</v>
       </c>
       <c r="D234" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E234" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F234" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>2972</v>
+        <v>3493</v>
       </c>
       <c r="C235" t="n">
-        <v>3490.5</v>
+        <v>3217.52</v>
       </c>
       <c r="D235" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E235" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="F235" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>3153</v>
+        <v>3786</v>
       </c>
       <c r="C236" t="n">
-        <v>3599.09</v>
+        <v>3300.39</v>
       </c>
       <c r="D236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F236" t="n">
         <v>0.88</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0.91</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>4092</v>
+        <v>2667</v>
       </c>
       <c r="C237" t="n">
-        <v>3704.61</v>
+        <v>3389.89</v>
       </c>
       <c r="D237" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F237" t="n">
         <v>0.89</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0.92</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>4694</v>
+        <v>2972</v>
       </c>
       <c r="C238" t="n">
-        <v>3793</v>
+        <v>3490.5</v>
       </c>
       <c r="D238" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E238" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F238" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>3951</v>
+        <v>3153</v>
       </c>
       <c r="C239" t="n">
-        <v>3856.53</v>
+        <v>3599.09</v>
       </c>
       <c r="D239" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E239" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F239" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>4204</v>
+        <v>4092</v>
       </c>
       <c r="C240" t="n">
-        <v>3899.28</v>
+        <v>3704.61</v>
       </c>
       <c r="D240" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E240" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F240" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>3836</v>
+        <v>4694</v>
       </c>
       <c r="C241" t="n">
-        <v>3933.61</v>
+        <v>3793</v>
       </c>
       <c r="D241" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E241" t="n">
         <v>0.87</v>
       </c>
-      <c r="E241" t="n">
-        <v>0.84</v>
-      </c>
       <c r="F241" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>3039</v>
+        <v>3951</v>
       </c>
       <c r="C242" t="n">
-        <v>3975.66</v>
+        <v>3856.53</v>
       </c>
       <c r="D242" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E242" t="n">
         <v>0.86</v>
       </c>
-      <c r="E242" t="n">
-        <v>0.83</v>
-      </c>
       <c r="F242" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>3599</v>
+        <v>4204</v>
       </c>
       <c r="C243" t="n">
-        <v>4037.87</v>
+        <v>3899.28</v>
       </c>
       <c r="D243" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E243" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F243" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>4316</v>
+        <v>3836</v>
       </c>
       <c r="C244" t="n">
-        <v>4122.39</v>
+        <v>3933.61</v>
       </c>
       <c r="D244" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E244" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F244" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>4805</v>
+        <v>3039</v>
       </c>
       <c r="C245" t="n">
-        <v>4223.92</v>
+        <v>3975.66</v>
       </c>
       <c r="D245" t="n">
         <v>0.86</v>
       </c>
       <c r="E245" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F245" t="n">
         <v>0.89</v>
@@ -5352,682 +5352,742 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>4585</v>
+        <v>3599</v>
       </c>
       <c r="C246" t="n">
-        <v>4336.9</v>
+        <v>4037.87</v>
       </c>
       <c r="D246" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E246" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F246" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>4668</v>
+        <v>4316</v>
       </c>
       <c r="C247" t="n">
-        <v>4460.82</v>
+        <v>4122.39</v>
       </c>
       <c r="D247" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F247" t="n">
         <v>0.88</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F247" t="n">
-        <v>0.91</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>4782</v>
+        <v>4805</v>
       </c>
       <c r="C248" t="n">
-        <v>4599.62</v>
+        <v>4223.92</v>
       </c>
       <c r="D248" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E248" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="F248" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>4053</v>
+        <v>4585</v>
       </c>
       <c r="C249" t="n">
-        <v>4758.73</v>
+        <v>4336.9</v>
       </c>
       <c r="D249" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="E249" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="F249" t="n">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>4050</v>
+        <v>4668</v>
       </c>
       <c r="C250" t="n">
-        <v>4939.94</v>
+        <v>4460.82</v>
       </c>
       <c r="D250" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="E250" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F250" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>5217</v>
+        <v>4782</v>
       </c>
       <c r="C251" t="n">
-        <v>5134.47</v>
+        <v>4599.62</v>
       </c>
       <c r="D251" t="n">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="E251" t="n">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="F251" t="n">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>5974</v>
+        <v>4053</v>
       </c>
       <c r="C252" t="n">
-        <v>5323.18</v>
+        <v>4758.73</v>
       </c>
       <c r="D252" t="n">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="E252" t="n">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="F252" t="n">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>5959</v>
+        <v>4050</v>
       </c>
       <c r="C253" t="n">
-        <v>5485.51</v>
+        <v>4939.94</v>
       </c>
       <c r="D253" t="n">
-        <v>1.13</v>
+        <v>0.96</v>
       </c>
       <c r="E253" t="n">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F253" t="n">
-        <v>1.16</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>6153</v>
+        <v>5217</v>
       </c>
       <c r="C254" t="n">
-        <v>5607.79</v>
+        <v>5134.47</v>
       </c>
       <c r="D254" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="E254" t="n">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="F254" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>5210</v>
+        <v>5974</v>
       </c>
       <c r="C255" t="n">
-        <v>5684.89</v>
+        <v>5323.18</v>
       </c>
       <c r="D255" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="E255" t="n">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="F255" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>5249</v>
+        <v>5959</v>
       </c>
       <c r="C256" t="n">
-        <v>5717.21</v>
+        <v>5485.51</v>
       </c>
       <c r="D256" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="E256" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="F256" t="n">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>4789</v>
+        <v>6153</v>
       </c>
       <c r="C257" t="n">
-        <v>5702.18</v>
+        <v>5607.79</v>
       </c>
       <c r="D257" t="n">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="E257" t="n">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="F257" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>5560</v>
+        <v>5210</v>
       </c>
       <c r="C258" t="n">
-        <v>5630.57</v>
+        <v>5684.89</v>
       </c>
       <c r="D258" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="E258" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="F258" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>6557</v>
+        <v>5249</v>
       </c>
       <c r="C259" t="n">
-        <v>5487.39</v>
+        <v>5717.21</v>
       </c>
       <c r="D259" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="E259" t="n">
-        <v>1.61</v>
+        <v>1.32</v>
       </c>
       <c r="F259" t="n">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>5986</v>
+        <v>4789</v>
       </c>
       <c r="C260" t="n">
-        <v>5262.03</v>
+        <v>5702.18</v>
       </c>
       <c r="D260" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="E260" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="F260" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>5322</v>
+        <v>5560</v>
       </c>
       <c r="C261" t="n">
-        <v>4958.98</v>
+        <v>5630.57</v>
       </c>
       <c r="D261" t="n">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="E261" t="n">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="F261" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>4207</v>
+        <v>6557</v>
       </c>
       <c r="C262" t="n">
-        <v>4597.99</v>
+        <v>5487.39</v>
       </c>
       <c r="D262" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="E262" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="F262" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>3526</v>
+        <v>5986</v>
       </c>
       <c r="C263" t="n">
-        <v>4206.86</v>
+        <v>5262.03</v>
       </c>
       <c r="D263" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E263" t="n">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="F263" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>3233</v>
+        <v>5322</v>
       </c>
       <c r="C264" t="n">
-        <v>3810.73</v>
+        <v>4958.98</v>
       </c>
       <c r="D264" t="n">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="E264" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="F264" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>3590</v>
+        <v>4207</v>
       </c>
       <c r="C265" t="n">
-        <v>3425.14</v>
+        <v>4597.99</v>
       </c>
       <c r="D265" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="E265" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="F265" t="n">
-        <v>2.21</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>3497</v>
+        <v>3526</v>
       </c>
       <c r="C266" t="n">
-        <v>3056.03</v>
+        <v>4206.86</v>
       </c>
       <c r="D266" t="n">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="E266" t="n">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="F266" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>2547</v>
+        <v>3233</v>
       </c>
       <c r="C267" t="n">
-        <v>2705.4</v>
+        <v>3810.73</v>
       </c>
       <c r="D267" t="n">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="E267" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="F267" t="n">
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>2651</v>
+        <v>3590</v>
       </c>
       <c r="C268" t="n">
-        <v>2375.46</v>
+        <v>3425.14</v>
       </c>
       <c r="D268" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="E268" t="n">
-        <v>2.27</v>
+        <v>2.06</v>
       </c>
       <c r="F268" t="n">
-        <v>2.46</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>2313</v>
+        <v>3497</v>
       </c>
       <c r="C269" t="n">
-        <v>2068.2</v>
+        <v>3056.03</v>
       </c>
       <c r="D269" t="n">
-        <v>2.44</v>
+        <v>2.21</v>
       </c>
       <c r="E269" t="n">
-        <v>2.34</v>
+        <v>2.13</v>
       </c>
       <c r="F269" t="n">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>977</v>
+        <v>2547</v>
       </c>
       <c r="C270" t="n">
-        <v>1786.7</v>
+        <v>2705.4</v>
       </c>
       <c r="D270" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="E270" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="F270" t="n">
-        <v>2.64</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>1797</v>
+        <v>2651</v>
       </c>
       <c r="C271" t="n">
-        <v>1533.57</v>
+        <v>2375.46</v>
       </c>
       <c r="D271" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="E271" t="n">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="F271" t="n">
-        <v>2.73</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>1492</v>
+        <v>2313</v>
       </c>
       <c r="C272" t="n">
-        <v>1307.05</v>
+        <v>2068.2</v>
       </c>
       <c r="D272" t="n">
-        <v>2.69</v>
+        <v>2.42</v>
       </c>
       <c r="E272" t="n">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="F272" t="n">
-        <v>2.83</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>1247</v>
+        <v>977</v>
       </c>
       <c r="C273" t="n">
-        <v>1105.08</v>
+        <v>1786.7</v>
       </c>
       <c r="D273" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="E273" t="n">
-        <v>2.62</v>
+        <v>2.37</v>
       </c>
       <c r="F273" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>778</v>
+        <v>1797</v>
       </c>
       <c r="C274" t="n">
-        <v>926.85</v>
+        <v>1533.57</v>
       </c>
       <c r="D274" t="n">
-        <v>2.89</v>
+        <v>2.54</v>
       </c>
       <c r="E274" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="F274" t="n">
-        <v>3.07</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>769</v>
+        <v>1492</v>
       </c>
       <c r="C275" t="n">
-        <v>772.42</v>
+        <v>1307.05</v>
       </c>
       <c r="D275" t="n">
-        <v>3.01</v>
+        <v>2.6</v>
       </c>
       <c r="E275" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="F275" t="n">
-        <v>3.23</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>587</v>
+        <v>1247</v>
       </c>
       <c r="C276" t="n">
-        <v>640.99</v>
+        <v>1105.08</v>
       </c>
       <c r="D276" t="n">
-        <v>3.19</v>
+        <v>2.65</v>
       </c>
       <c r="E276" t="n">
-        <v>2.95</v>
+        <v>2.49</v>
       </c>
       <c r="F276" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B277" t="n">
-        <v>466</v>
+        <v>778</v>
       </c>
       <c r="C277" t="n">
-        <v>530.61</v>
+        <v>926.85</v>
       </c>
       <c r="D277" t="n">
-        <v>3.46</v>
+        <v>2.69</v>
       </c>
       <c r="E277" t="n">
-        <v>3.16</v>
+        <v>2.52</v>
       </c>
       <c r="F277" t="n">
-        <v>3.76</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B278" t="n">
-        <v>342</v>
+        <v>769</v>
       </c>
       <c r="C278" t="n">
-        <v>437.9</v>
+        <v>772.42</v>
       </c>
       <c r="D278" t="n">
-        <v>3.86</v>
+        <v>2.74</v>
       </c>
       <c r="E278" t="n">
-        <v>3.51</v>
+        <v>2.55</v>
       </c>
       <c r="F278" t="n">
-        <v>4.23</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
+        <v>43894.99930555555</v>
+      </c>
+      <c r="B279" t="n">
+        <v>587</v>
+      </c>
+      <c r="C279" t="n">
+        <v>640.99</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F279" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>43893.99930555555</v>
+      </c>
+      <c r="B280" t="n">
+        <v>466</v>
+      </c>
+      <c r="C280" t="n">
+        <v>530.61</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F280" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B281" t="n">
+        <v>342</v>
+      </c>
+      <c r="C281" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="D281" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B282" t="n">
         <v>566</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C282" t="n">
         <v>358.41</v>
       </c>
-      <c r="D279" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="E279" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="F279" t="n">
-        <v>4.95</v>
+      <c r="D282" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E282" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F282" t="n">
+        <v>4.07</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F282"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,159 +472,159 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44171.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>18887</v>
+        <v>13720</v>
       </c>
       <c r="C2" t="n">
-        <v>20867.21</v>
+        <v>19091.86</v>
       </c>
       <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.96</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44170.99930555555</v>
+        <v>44171.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>21052</v>
+        <v>18887</v>
       </c>
       <c r="C3" t="n">
-        <v>20875.72</v>
+        <v>19549.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="E3" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="F3" t="n">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44169.99930555555</v>
+        <v>44170.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>24099</v>
+        <v>21052</v>
       </c>
       <c r="C4" t="n">
-        <v>20883.88</v>
+        <v>19979.78</v>
       </c>
       <c r="D4" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E4" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="F4" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44168.99930555555</v>
+        <v>44169.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>23225</v>
+        <v>24099</v>
       </c>
       <c r="C5" t="n">
-        <v>20910.45</v>
+        <v>20350.82</v>
       </c>
       <c r="D5" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E5" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>20709</v>
+        <v>23225</v>
       </c>
       <c r="C6" t="n">
-        <v>21011.02</v>
+        <v>20661.31</v>
       </c>
       <c r="D6" t="n">
         <v>0.82</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C7" t="n">
-        <v>21263.37</v>
+        <v>20960.41</v>
       </c>
       <c r="D7" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C8" t="n">
-        <v>21729.9</v>
+        <v>21332</v>
       </c>
       <c r="D8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.78</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.76</v>
-      </c>
       <c r="F8" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C9" t="n">
-        <v>22422.93</v>
+        <v>21852.88</v>
       </c>
       <c r="D9" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="E9" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="F9" t="n">
         <v>0.8</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C10" t="n">
-        <v>23289.3</v>
+        <v>22553.65</v>
       </c>
       <c r="D10" t="n">
         <v>0.79</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C11" t="n">
-        <v>24248.34</v>
+        <v>23399.29</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E11" t="n">
         <v>0.78</v>
@@ -672,739 +672,739 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C12" t="n">
-        <v>25247.83</v>
+        <v>24324.62</v>
       </c>
       <c r="D12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C13" t="n">
-        <v>26289.48</v>
+        <v>25288.8</v>
       </c>
       <c r="D13" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C14" t="n">
-        <v>27413.63</v>
+        <v>26300.64</v>
       </c>
       <c r="D14" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.83</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C15" t="n">
-        <v>28646.35</v>
+        <v>27403.78</v>
       </c>
       <c r="D15" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="E15" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F15" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C16" t="n">
-        <v>29950.9</v>
+        <v>28624.74</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E16" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F16" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C17" t="n">
-        <v>31221.16</v>
+        <v>29925.44</v>
       </c>
       <c r="D17" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="E17" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C18" t="n">
-        <v>32332.1</v>
+        <v>31197.49</v>
       </c>
       <c r="D18" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E18" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C19" t="n">
-        <v>33206.48</v>
+        <v>32313.49</v>
       </c>
       <c r="D19" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E19" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C20" t="n">
-        <v>33846.18</v>
+        <v>33194.14</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E20" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C21" t="n">
-        <v>34314.28</v>
+        <v>33839.81</v>
       </c>
       <c r="D21" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C22" t="n">
-        <v>34687.64</v>
+        <v>34312.7</v>
       </c>
       <c r="D22" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C23" t="n">
-        <v>35005.03</v>
+        <v>34689.3</v>
       </c>
       <c r="D23" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C24" t="n">
-        <v>35236.5</v>
+        <v>35008.42</v>
       </c>
       <c r="D24" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C25" t="n">
-        <v>35326.15</v>
+        <v>35240.38</v>
       </c>
       <c r="D25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C26" t="n">
-        <v>35245.16</v>
+        <v>35329.68</v>
       </c>
       <c r="D26" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C27" t="n">
-        <v>35024.65</v>
+        <v>35247.86</v>
       </c>
       <c r="D27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C28" t="n">
-        <v>34732.88</v>
+        <v>35026.38</v>
       </c>
       <c r="D28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C29" t="n">
-        <v>34425.03</v>
+        <v>34733.71</v>
       </c>
       <c r="D29" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C30" t="n">
-        <v>34113.68</v>
+        <v>34425.15</v>
       </c>
       <c r="D30" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C31" t="n">
-        <v>33735.7</v>
+        <v>34113.34</v>
       </c>
       <c r="D31" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C32" t="n">
-        <v>33210.68</v>
+        <v>33735.13</v>
       </c>
       <c r="D32" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E32" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C33" t="n">
-        <v>32514.42</v>
+        <v>33210.07</v>
       </c>
       <c r="D33" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C34" t="n">
-        <v>31691.59</v>
+        <v>32513.88</v>
       </c>
       <c r="D34" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C35" t="n">
-        <v>30822.56</v>
+        <v>31691.19</v>
       </c>
       <c r="D35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C36" t="n">
-        <v>29970.33</v>
+        <v>30822.31</v>
       </c>
       <c r="D36" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C37" t="n">
-        <v>29138.86</v>
+        <v>29970.22</v>
       </c>
       <c r="D37" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E37" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F37" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C38" t="n">
-        <v>28257.29</v>
+        <v>29138.86</v>
       </c>
       <c r="D38" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E38" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F38" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C39" t="n">
-        <v>27241.26</v>
+        <v>28257.36</v>
       </c>
       <c r="D39" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E39" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F39" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C40" t="n">
-        <v>26046.6</v>
+        <v>27241.36</v>
       </c>
       <c r="D40" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E40" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F40" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C41" t="n">
-        <v>24688.02</v>
+        <v>26046.69</v>
       </c>
       <c r="D41" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E41" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C42" t="n">
-        <v>23219.47</v>
+        <v>24688.1</v>
       </c>
       <c r="D42" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E42" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="F42" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C43" t="n">
-        <v>21706.62</v>
+        <v>23219.53</v>
       </c>
       <c r="D43" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E43" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F43" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C44" t="n">
-        <v>20196.32</v>
+        <v>21706.65</v>
       </c>
       <c r="D44" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F44" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C45" t="n">
-        <v>18698.49</v>
+        <v>20196.33</v>
       </c>
       <c r="D45" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F45" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C46" t="n">
-        <v>17214.83</v>
+        <v>18698.49</v>
       </c>
       <c r="D46" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E46" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C47" t="n">
-        <v>15756.94</v>
+        <v>17214.82</v>
       </c>
       <c r="D47" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E47" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F47" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C48" t="n">
-        <v>14354.85</v>
+        <v>15756.92</v>
       </c>
       <c r="D48" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E48" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F48" t="n">
         <v>1.78</v>
@@ -1412,59 +1412,59 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C49" t="n">
-        <v>13046.42</v>
+        <v>14354.83</v>
       </c>
       <c r="D49" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E49" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F49" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C50" t="n">
-        <v>11863.46</v>
+        <v>13046.41</v>
       </c>
       <c r="D50" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E50" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F50" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C51" t="n">
-        <v>10809.38</v>
+        <v>11863.45</v>
       </c>
       <c r="D51" t="n">
         <v>1.76</v>
       </c>
       <c r="E51" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F51" t="n">
         <v>1.79</v>
@@ -1472,36 +1472,36 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C52" t="n">
-        <v>9858.67</v>
+        <v>10809.38</v>
       </c>
       <c r="D52" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E52" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F52" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C53" t="n">
-        <v>8981.58</v>
+        <v>9858.67</v>
       </c>
       <c r="D53" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E53" t="n">
         <v>1.74</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C54" t="n">
-        <v>8159.86</v>
+        <v>8981.58</v>
       </c>
       <c r="D54" t="n">
         <v>1.78</v>
@@ -1527,18 +1527,18 @@
         <v>1.74</v>
       </c>
       <c r="F54" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C55" t="n">
-        <v>7391.88</v>
+        <v>8159.87</v>
       </c>
       <c r="D55" t="n">
         <v>1.78</v>
@@ -1552,39 +1552,39 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C56" t="n">
-        <v>6687.4</v>
+        <v>7391.88</v>
       </c>
       <c r="D56" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E56" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F56" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C57" t="n">
-        <v>6055.96</v>
+        <v>6687.4</v>
       </c>
       <c r="D57" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E57" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F57" t="n">
         <v>1.81</v>
@@ -1592,333 +1592,333 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C58" t="n">
-        <v>5495.89</v>
+        <v>6055.96</v>
       </c>
       <c r="D58" t="n">
         <v>1.76</v>
       </c>
       <c r="E58" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F58" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C59" t="n">
-        <v>4991.12</v>
+        <v>5495.89</v>
       </c>
       <c r="D59" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="E59" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F59" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C60" t="n">
-        <v>4522.48</v>
+        <v>4991.12</v>
       </c>
       <c r="D60" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="E60" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="F60" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C61" t="n">
-        <v>4079.31</v>
+        <v>4522.48</v>
       </c>
       <c r="D61" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E61" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="F61" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C62" t="n">
-        <v>3663.78</v>
+        <v>4079.31</v>
       </c>
       <c r="D62" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E62" t="n">
         <v>1.64</v>
       </c>
-      <c r="E62" t="n">
-        <v>1.58</v>
-      </c>
       <c r="F62" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C63" t="n">
-        <v>3286.67</v>
+        <v>3663.77</v>
       </c>
       <c r="D63" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E63" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F63" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C64" t="n">
-        <v>2959.49</v>
+        <v>3286.67</v>
       </c>
       <c r="D64" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E64" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F64" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C65" t="n">
-        <v>2686.26</v>
+        <v>2959.49</v>
       </c>
       <c r="D65" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E65" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F65" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C66" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D66" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E66" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F66" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C67" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E67" t="n">
         <v>1.31</v>
       </c>
-      <c r="E67" t="n">
-        <v>1.25</v>
-      </c>
       <c r="F67" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C68" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E68" t="n">
         <v>1.25</v>
       </c>
-      <c r="E68" t="n">
-        <v>1.19</v>
-      </c>
       <c r="F68" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C69" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E69" t="n">
         <v>1.2</v>
       </c>
-      <c r="E69" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F69" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C70" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D70" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E70" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F70" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C71" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D71" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E71" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F71" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C72" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D72" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E72" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="F72" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C73" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D73" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E73" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="F73" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C74" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D74" t="n">
         <v>1.11</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C75" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D75" t="n">
         <v>1.1</v>
@@ -1947,38 +1947,38 @@
         <v>1.05</v>
       </c>
       <c r="F75" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C76" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D76" t="n">
         <v>1.1</v>
       </c>
       <c r="E76" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F76" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C77" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D77" t="n">
         <v>1.1</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C78" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D78" t="n">
         <v>1.1</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C79" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D79" t="n">
         <v>1.1</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C80" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E80" t="n">
         <v>1.04</v>
@@ -2052,113 +2052,113 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C81" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D81" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E81" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F81" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C82" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D82" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E82" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F82" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C83" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D83" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E83" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F83" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C84" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F84" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C85" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D85" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E85" t="n">
         <v>0.97</v>
       </c>
       <c r="F85" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C86" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D86" t="n">
         <v>1.02</v>
@@ -2167,444 +2167,444 @@
         <v>0.97</v>
       </c>
       <c r="F86" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C87" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D87" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E87" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F87" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C88" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D88" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F88" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C89" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D89" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E89" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F89" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C90" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D90" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E90" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F90" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C91" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D91" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E91" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F91" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C92" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D92" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E92" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F92" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C93" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D93" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E93" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="F93" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C94" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E94" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F94" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C95" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D95" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E95" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="F95" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C96" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D96" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E96" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F96" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C97" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E97" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F97" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C98" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E98" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F98" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C99" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D99" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E99" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F99" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C100" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D100" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E100" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F100" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C101" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D101" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="E101" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="F101" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C102" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F102" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C103" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F103" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C104" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F104" t="n">
         <v>1.58</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.66</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C105" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D105" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="E105" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F105" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C106" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="E106" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F106" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C107" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D107" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E107" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F107" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C108" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D108" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E108" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="F108" t="n">
         <v>1.83</v>
@@ -2612,159 +2612,159 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C109" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D109" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E109" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="F109" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C110" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D110" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E110" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="F110" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C111" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D111" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="E111" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="F111" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C112" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D112" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E112" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F112" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C113" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E113" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="F113" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C114" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E114" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="F114" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C115" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E115" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F115" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C116" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D116" t="n">
         <v>1.23</v>
       </c>
       <c r="E116" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F116" t="n">
         <v>1.34</v>
@@ -2772,113 +2772,113 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C117" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E117" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F117" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C118" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E118" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="F118" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C119" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D119" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E119" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="F119" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C120" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D120" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E120" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="F120" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C121" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="E121" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="F121" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C122" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D122" t="n">
         <v>1.34</v>
@@ -2887,144 +2887,144 @@
         <v>1.21</v>
       </c>
       <c r="F122" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C123" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D123" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E123" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="F123" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C124" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D124" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="E124" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="F124" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C125" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D125" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="E125" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F125" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C126" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D126" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E126" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="F126" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C127" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D127" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E127" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="F127" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C128" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D128" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F128" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C129" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D129" t="n">
         <v>1.13</v>
       </c>
       <c r="E129" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
         <v>1.26</v>
@@ -3032,73 +3032,73 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C130" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D130" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E130" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C131" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D131" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E131" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C132" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D132" t="n">
         <v>1.15</v>
       </c>
       <c r="E132" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F132" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C133" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D133" t="n">
         <v>1.15</v>
@@ -3112,13 +3112,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C134" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D134" t="n">
         <v>1.16</v>
@@ -3127,38 +3127,38 @@
         <v>1.02</v>
       </c>
       <c r="F134" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C135" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D135" t="n">
         <v>1.16</v>
       </c>
       <c r="E135" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F135" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C136" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D136" t="n">
         <v>1.17</v>
@@ -3172,13 +3172,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C137" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D137" t="n">
         <v>1.17</v>
@@ -3192,213 +3192,213 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C138" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D138" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E138" t="n">
         <v>1.03</v>
       </c>
       <c r="F138" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C139" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D139" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="E139" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F139" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C140" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D140" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E140" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="F140" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C141" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D141" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E141" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C142" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D142" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="E142" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F142" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C143" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D143" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E143" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F143" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C144" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D144" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E144" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F144" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C145" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E145" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F145" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C146" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D146" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F146" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C147" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D147" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E147" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F147" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C148" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D148" t="n">
         <v>0.97</v>
@@ -3412,259 +3412,259 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C149" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D149" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E149" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F149" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C150" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D150" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E150" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F150" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C151" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D151" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F151" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C152" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D152" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E152" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F152" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C153" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D153" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E153" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F153" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C154" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D154" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E154" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F154" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C155" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D155" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E155" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F155" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C156" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D156" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E156" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F156" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C157" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D157" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E157" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="F157" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C158" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D158" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E158" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F158" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C159" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D159" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E159" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F159" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C160" t="n">
         <v>184.12</v>
       </c>
       <c r="D160" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="F160" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C161" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D161" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F161" t="n">
         <v>0.92</v>
@@ -3672,239 +3672,239 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C162" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D162" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C163" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D163" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E163" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F163" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C164" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E164" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="F164" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C165" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E165" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F165" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C166" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D166" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F166" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C167" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D167" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E167" t="n">
         <v>0.92</v>
       </c>
       <c r="F167" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C168" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D168" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E168" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F168" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C169" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D169" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E169" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F169" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C170" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D170" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E170" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C171" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D171" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E171" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C172" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E172" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F172" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C173" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D173" t="n">
         <v>0.8</v>
       </c>
       <c r="E173" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F173" t="n">
         <v>0.91</v>
@@ -3912,99 +3912,99 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C174" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D174" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E174" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F174" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C175" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D175" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E175" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F175" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C176" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E176" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F176" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C177" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D177" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E177" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F177" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C178" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D178" t="n">
         <v>0.92</v>
       </c>
       <c r="E178" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F178" t="n">
         <v>1.03</v>
@@ -4012,19 +4012,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C179" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D179" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E179" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F179" t="n">
         <v>1.02</v>
@@ -4032,313 +4032,313 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C180" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D180" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="E180" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F180" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C181" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D181" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E181" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C182" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E182" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F182" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C183" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D183" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E183" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="F183" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C184" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D184" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E184" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F184" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C185" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D185" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E185" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="F185" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C186" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D186" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E186" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F186" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C187" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D187" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E187" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F187" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C188" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D188" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E188" t="n">
         <v>0.58</v>
       </c>
       <c r="F188" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C189" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D189" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E189" t="n">
         <v>0.57</v>
       </c>
       <c r="F189" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C190" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D190" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E190" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F190" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C191" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D191" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E191" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="F191" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C192" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D192" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E192" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="F192" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C193" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D193" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F193" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C194" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D194" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E194" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F194" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C195" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D195" t="n">
         <v>0.72</v>
@@ -4352,13 +4352,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C196" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D196" t="n">
         <v>0.72</v>
@@ -4367,38 +4367,38 @@
         <v>0.66</v>
       </c>
       <c r="F196" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C197" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D197" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E197" t="n">
         <v>0.66</v>
       </c>
       <c r="F197" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C198" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D198" t="n">
         <v>0.71</v>
@@ -4407,18 +4407,18 @@
         <v>0.65</v>
       </c>
       <c r="F198" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C199" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D199" t="n">
         <v>0.71</v>
@@ -4427,84 +4427,84 @@
         <v>0.65</v>
       </c>
       <c r="F199" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C200" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D200" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E200" t="n">
         <v>0.65</v>
       </c>
       <c r="F200" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C201" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D201" t="n">
         <v>0.7</v>
       </c>
       <c r="E201" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F201" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C202" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E202" t="n">
         <v>0.64</v>
       </c>
       <c r="F202" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C203" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D203" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F203" t="n">
         <v>0.74</v>
@@ -4512,13 +4512,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C204" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D204" t="n">
         <v>0.6899999999999999</v>
@@ -4532,13 +4532,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C205" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D205" t="n">
         <v>0.6899999999999999</v>
@@ -4552,19 +4552,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C206" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D206" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E206" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F206" t="n">
         <v>0.74</v>
@@ -4572,16 +4572,16 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C207" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D207" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E207" t="n">
         <v>0.65</v>
@@ -4592,13 +4592,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C208" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D208" t="n">
         <v>0.7</v>
@@ -4612,13 +4612,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C209" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D209" t="n">
         <v>0.7</v>
@@ -4627,98 +4627,98 @@
         <v>0.66</v>
       </c>
       <c r="F209" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C210" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D210" t="n">
         <v>0.7</v>
       </c>
       <c r="E210" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F210" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C211" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D211" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E211" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F211" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C212" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D212" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E212" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F212" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C213" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D213" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E213" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F213" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C214" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D214" t="n">
         <v>0.67</v>
@@ -4732,39 +4732,39 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C215" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D215" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E215" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F215" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C216" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D216" t="n">
         <v>0.66</v>
       </c>
       <c r="E216" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F216" t="n">
         <v>0.7</v>
@@ -4772,36 +4772,36 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C217" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D217" t="n">
         <v>0.66</v>
       </c>
       <c r="E217" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F217" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C218" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D218" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E218" t="n">
         <v>0.63</v>
@@ -4812,253 +4812,253 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C219" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D219" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E219" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F219" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C220" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E220" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F220" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C221" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D221" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E221" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F221" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C222" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D222" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E222" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F222" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C223" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D223" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E223" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F223" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C224" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E224" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F224" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C225" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D225" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E225" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F225" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C226" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D226" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E226" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F226" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C227" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D227" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E227" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F227" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C228" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E228" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F228" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C229" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D229" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E229" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F229" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C230" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D230" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F230" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C231" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D231" t="n">
         <v>0.84</v>
@@ -5072,33 +5072,33 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C232" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D232" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E232" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F232" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C233" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D233" t="n">
         <v>0.85</v>
@@ -5112,13 +5112,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C234" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D234" t="n">
         <v>0.85</v>
@@ -5132,13 +5132,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C235" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D235" t="n">
         <v>0.85</v>
@@ -5152,19 +5152,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C236" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D236" t="n">
         <v>0.85</v>
       </c>
       <c r="E236" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F236" t="n">
         <v>0.88</v>
@@ -5172,99 +5172,99 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C237" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D237" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E237" t="n">
         <v>0.83</v>
       </c>
       <c r="F237" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C238" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D238" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E238" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F238" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C239" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D239" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E239" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F239" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C240" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D240" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E240" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F240" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C241" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D241" t="n">
         <v>0.89</v>
       </c>
       <c r="E241" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F241" t="n">
         <v>0.92</v>
@@ -5272,13 +5272,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C242" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D242" t="n">
         <v>0.89</v>
@@ -5292,73 +5292,73 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C243" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D243" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E243" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F243" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C244" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D244" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E244" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F244" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C245" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D245" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E245" t="n">
         <v>0.84</v>
       </c>
       <c r="F245" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C246" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D246" t="n">
         <v>0.86</v>
@@ -5367,18 +5367,18 @@
         <v>0.83</v>
       </c>
       <c r="F246" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C247" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D247" t="n">
         <v>0.86</v>
@@ -5392,13 +5392,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C248" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D248" t="n">
         <v>0.86</v>
@@ -5407,21 +5407,21 @@
         <v>0.83</v>
       </c>
       <c r="F248" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C249" t="n">
-        <v>4336.9</v>
+        <v>4223.92</v>
       </c>
       <c r="D249" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E249" t="n">
         <v>0.84</v>
@@ -5432,662 +5432,682 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C250" t="n">
-        <v>4460.82</v>
+        <v>4336.91</v>
       </c>
       <c r="D250" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E250" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F250" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C251" t="n">
-        <v>4599.62</v>
+        <v>4460.83</v>
       </c>
       <c r="D251" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E251" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F251" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C252" t="n">
-        <v>4758.73</v>
+        <v>4599.64</v>
       </c>
       <c r="D252" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F252" t="n">
         <v>0.93</v>
-      </c>
-      <c r="E252" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F252" t="n">
-        <v>0.95</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C253" t="n">
-        <v>4939.94</v>
+        <v>4758.75</v>
       </c>
       <c r="D253" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E253" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F253" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C254" t="n">
-        <v>5134.47</v>
+        <v>4939.96</v>
       </c>
       <c r="D254" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E254" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F254" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C255" t="n">
-        <v>5323.18</v>
+        <v>5134.49</v>
       </c>
       <c r="D255" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E255" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F255" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C256" t="n">
-        <v>5485.51</v>
+        <v>5323.19</v>
       </c>
       <c r="D256" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E256" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="F256" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C257" t="n">
-        <v>5607.79</v>
+        <v>5485.5</v>
       </c>
       <c r="D257" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E257" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F257" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C258" t="n">
-        <v>5684.89</v>
+        <v>5607.75</v>
       </c>
       <c r="D258" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E258" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F258" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C259" t="n">
-        <v>5717.21</v>
+        <v>5684.82</v>
       </c>
       <c r="D259" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E259" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F259" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C260" t="n">
-        <v>5702.18</v>
+        <v>5717.09</v>
       </c>
       <c r="D260" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E260" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F260" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C261" t="n">
-        <v>5630.57</v>
+        <v>5702.03</v>
       </c>
       <c r="D261" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E261" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="F261" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C262" t="n">
-        <v>5487.39</v>
+        <v>5630.41</v>
       </c>
       <c r="D262" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E262" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="F262" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C263" t="n">
-        <v>5262.03</v>
+        <v>5487.26</v>
       </c>
       <c r="D263" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E263" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="F263" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C264" t="n">
-        <v>4958.98</v>
+        <v>5261.98</v>
       </c>
       <c r="D264" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E264" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="F264" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C265" t="n">
-        <v>4597.99</v>
+        <v>4959.08</v>
       </c>
       <c r="D265" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E265" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F265" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C266" t="n">
-        <v>4206.86</v>
+        <v>4598.29</v>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E266" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F266" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C267" t="n">
-        <v>3810.73</v>
+        <v>4207.41</v>
       </c>
       <c r="D267" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E267" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F267" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C268" t="n">
-        <v>3425.14</v>
+        <v>3811.52</v>
       </c>
       <c r="D268" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E268" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="F268" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C269" t="n">
-        <v>3056.03</v>
+        <v>3426.12</v>
       </c>
       <c r="D269" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F269" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E269" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F269" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C270" t="n">
-        <v>2705.4</v>
+        <v>3057.02</v>
       </c>
       <c r="D270" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="E270" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="F270" t="n">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C271" t="n">
-        <v>2375.46</v>
+        <v>2706.17</v>
       </c>
       <c r="D271" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="E271" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="F271" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C272" t="n">
-        <v>2068.2</v>
+        <v>2375.65</v>
       </c>
       <c r="D272" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="E272" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="F272" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C273" t="n">
-        <v>1786.7</v>
+        <v>2067.43</v>
       </c>
       <c r="D273" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="E273" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="F273" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C274" t="n">
-        <v>1533.57</v>
+        <v>1784.6</v>
       </c>
       <c r="D274" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="E274" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="F274" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C275" t="n">
-        <v>1307.05</v>
+        <v>1529.94</v>
       </c>
       <c r="D275" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="E275" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="F275" t="n">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C276" t="n">
-        <v>1105.08</v>
+        <v>1301.97</v>
       </c>
       <c r="D276" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="E276" t="n">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="F276" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B277" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C277" t="n">
-        <v>926.85</v>
+        <v>1099.12</v>
       </c>
       <c r="D277" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E277" t="n">
-        <v>2.52</v>
+        <v>2.49</v>
       </c>
       <c r="F277" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B278" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C278" t="n">
-        <v>772.42</v>
+        <v>921.16</v>
       </c>
       <c r="D278" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="E278" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F278" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B279" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C279" t="n">
-        <v>640.99</v>
+        <v>768.86</v>
       </c>
       <c r="D279" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="E279" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="F279" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B280" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C280" t="n">
-        <v>530.61</v>
+        <v>641.99</v>
       </c>
       <c r="D280" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="E280" t="n">
-        <v>2.72</v>
+        <v>2.61</v>
       </c>
       <c r="F280" t="n">
-        <v>3.22</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B281" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C281" t="n">
-        <v>437.9</v>
+        <v>538.9400000000001</v>
       </c>
       <c r="D281" t="n">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="E281" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="F281" t="n">
-        <v>3.54</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B282" t="n">
+        <v>342</v>
+      </c>
+      <c r="C282" t="n">
+        <v>456.18</v>
+      </c>
+      <c r="D282" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F282" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B283" t="n">
         <v>566</v>
       </c>
-      <c r="C282" t="n">
-        <v>358.41</v>
-      </c>
-      <c r="D282" t="n">
+      <c r="C283" t="n">
+        <v>388.41</v>
+      </c>
+      <c r="D283" t="n">
         <v>3.71</v>
       </c>
-      <c r="E282" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F282" t="n">
-        <v>4.07</v>
+      <c r="E283" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F283" t="n">
+        <v>4.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,93 +472,93 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44173.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>13720</v>
+        <v>14842</v>
       </c>
       <c r="C2" t="n">
-        <v>19091.86</v>
+        <v>16767.21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="E2" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="F2" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44171.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>18887</v>
+        <v>13720</v>
       </c>
       <c r="C3" t="n">
-        <v>19549.8</v>
+        <v>17715.13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="E3" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="F3" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44170.99930555555</v>
+        <v>44171.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>21052</v>
+        <v>18887</v>
       </c>
       <c r="C4" t="n">
-        <v>19979.78</v>
+        <v>18627.02</v>
       </c>
       <c r="D4" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F4" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44169.99930555555</v>
+        <v>44170.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>24099</v>
+        <v>21052</v>
       </c>
       <c r="C5" t="n">
-        <v>20350.82</v>
+        <v>19442.79</v>
       </c>
       <c r="D5" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F5" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44168.99930555555</v>
+        <v>44169.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>23225</v>
+        <v>24099</v>
       </c>
       <c r="C6" t="n">
-        <v>20661.31</v>
+        <v>20111.49</v>
       </c>
       <c r="D6" t="n">
         <v>0.82</v>
@@ -572,93 +572,93 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>20709</v>
+        <v>23225</v>
       </c>
       <c r="C7" t="n">
-        <v>20960.41</v>
+        <v>20626.65</v>
       </c>
       <c r="D7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.8</v>
-      </c>
       <c r="F7" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C8" t="n">
-        <v>21332</v>
+        <v>21045.63</v>
       </c>
       <c r="D8" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.8</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.78</v>
-      </c>
       <c r="F8" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C9" t="n">
-        <v>21852.88</v>
+        <v>21468.84</v>
       </c>
       <c r="D9" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C10" t="n">
-        <v>22553.65</v>
+        <v>21993.21</v>
       </c>
       <c r="D10" t="n">
         <v>0.79</v>
       </c>
       <c r="E10" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C11" t="n">
-        <v>23399.29</v>
+        <v>22668.84</v>
       </c>
       <c r="D11" t="n">
         <v>0.79</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C12" t="n">
-        <v>24324.62</v>
+        <v>23477.06</v>
       </c>
       <c r="D12" t="n">
         <v>0.8</v>
@@ -692,759 +692,759 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C13" t="n">
-        <v>25288.8</v>
+        <v>24364.47</v>
       </c>
       <c r="D13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C14" t="n">
-        <v>26300.64</v>
+        <v>25297.37</v>
       </c>
       <c r="D14" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C15" t="n">
-        <v>27403.78</v>
+        <v>26287.71</v>
       </c>
       <c r="D15" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.84</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C16" t="n">
-        <v>28624.74</v>
+        <v>27379.3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="E16" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F16" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C17" t="n">
-        <v>29925.44</v>
+        <v>28597.01</v>
       </c>
       <c r="D17" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E17" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C18" t="n">
-        <v>31197.49</v>
+        <v>29900.27</v>
       </c>
       <c r="D18" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E18" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C19" t="n">
-        <v>32313.49</v>
+        <v>31178.1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F19" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C20" t="n">
-        <v>33194.14</v>
+        <v>32300.95</v>
       </c>
       <c r="D20" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E20" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C21" t="n">
-        <v>33839.81</v>
+        <v>33187.98</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E21" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C22" t="n">
-        <v>34312.7</v>
+        <v>33838.64</v>
       </c>
       <c r="D22" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C23" t="n">
-        <v>34689.3</v>
+        <v>34314.83</v>
       </c>
       <c r="D23" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C24" t="n">
-        <v>35008.42</v>
+        <v>34693.12</v>
       </c>
       <c r="D24" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C25" t="n">
-        <v>35240.38</v>
+        <v>35012.63</v>
       </c>
       <c r="D25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C26" t="n">
-        <v>35329.68</v>
+        <v>35244.12</v>
       </c>
       <c r="D26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C27" t="n">
-        <v>35247.86</v>
+        <v>35332.49</v>
       </c>
       <c r="D27" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C28" t="n">
-        <v>35026.38</v>
+        <v>35249.61</v>
       </c>
       <c r="D28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C29" t="n">
-        <v>34733.71</v>
+        <v>35027.17</v>
       </c>
       <c r="D29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C30" t="n">
-        <v>34425.15</v>
+        <v>34733.76</v>
       </c>
       <c r="D30" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C31" t="n">
-        <v>34113.34</v>
+        <v>34424.74</v>
       </c>
       <c r="D31" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C32" t="n">
-        <v>33735.13</v>
+        <v>34112.71</v>
       </c>
       <c r="D32" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C33" t="n">
-        <v>33210.07</v>
+        <v>33734.47</v>
       </c>
       <c r="D33" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C34" t="n">
-        <v>32513.88</v>
+        <v>33209.5</v>
       </c>
       <c r="D34" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C35" t="n">
-        <v>31691.19</v>
+        <v>32513.47</v>
       </c>
       <c r="D35" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C36" t="n">
-        <v>30822.31</v>
+        <v>31690.94</v>
       </c>
       <c r="D36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C37" t="n">
-        <v>29970.22</v>
+        <v>30822.21</v>
       </c>
       <c r="D37" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C38" t="n">
-        <v>29138.86</v>
+        <v>29970.22</v>
       </c>
       <c r="D38" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E38" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F38" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C39" t="n">
-        <v>28257.36</v>
+        <v>29138.93</v>
       </c>
       <c r="D39" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E39" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F39" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C40" t="n">
-        <v>27241.36</v>
+        <v>28257.46</v>
       </c>
       <c r="D40" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E40" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F40" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C41" t="n">
-        <v>26046.69</v>
+        <v>27241.46</v>
       </c>
       <c r="D41" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E41" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F41" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C42" t="n">
-        <v>24688.1</v>
+        <v>26046.78</v>
       </c>
       <c r="D42" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E42" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.57</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C43" t="n">
-        <v>23219.53</v>
+        <v>24688.16</v>
       </c>
       <c r="D43" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E43" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F43" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C44" t="n">
-        <v>21706.65</v>
+        <v>23219.57</v>
       </c>
       <c r="D44" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E44" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F44" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C45" t="n">
-        <v>20196.33</v>
+        <v>21706.66</v>
       </c>
       <c r="D45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F45" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C46" t="n">
-        <v>18698.49</v>
+        <v>20196.33</v>
       </c>
       <c r="D46" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F46" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C47" t="n">
-        <v>17214.82</v>
+        <v>18698.47</v>
       </c>
       <c r="D47" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E47" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C48" t="n">
-        <v>15756.92</v>
+        <v>17214.81</v>
       </c>
       <c r="D48" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E48" t="n">
         <v>1.72</v>
       </c>
       <c r="F48" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C49" t="n">
-        <v>14354.83</v>
+        <v>15756.91</v>
       </c>
       <c r="D49" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E49" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F49" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C50" t="n">
-        <v>13046.41</v>
+        <v>14354.82</v>
       </c>
       <c r="D50" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E50" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F50" t="n">
         <v>1.78</v>
@@ -1452,16 +1452,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C51" t="n">
-        <v>11863.45</v>
+        <v>13046.4</v>
       </c>
       <c r="D51" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E51" t="n">
         <v>1.72</v>
@@ -1472,19 +1472,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C52" t="n">
-        <v>10809.38</v>
+        <v>11863.45</v>
       </c>
       <c r="D52" t="n">
         <v>1.76</v>
       </c>
       <c r="E52" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F52" t="n">
         <v>1.79</v>
@@ -1492,36 +1492,36 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C53" t="n">
-        <v>9858.67</v>
+        <v>10809.38</v>
       </c>
       <c r="D53" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E53" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F53" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C54" t="n">
-        <v>8981.58</v>
+        <v>9858.67</v>
       </c>
       <c r="D54" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E54" t="n">
         <v>1.74</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C55" t="n">
-        <v>8159.87</v>
+        <v>8981.58</v>
       </c>
       <c r="D55" t="n">
         <v>1.78</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C56" t="n">
-        <v>7391.88</v>
+        <v>8159.87</v>
       </c>
       <c r="D56" t="n">
         <v>1.78</v>
@@ -1572,39 +1572,39 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C57" t="n">
-        <v>6687.4</v>
+        <v>7391.89</v>
       </c>
       <c r="D57" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E57" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F57" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C58" t="n">
-        <v>6055.96</v>
+        <v>6687.4</v>
       </c>
       <c r="D58" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E58" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F58" t="n">
         <v>1.81</v>
@@ -1612,339 +1612,339 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C59" t="n">
-        <v>5495.89</v>
+        <v>6055.96</v>
       </c>
       <c r="D59" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E59" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F59" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C60" t="n">
-        <v>4991.12</v>
+        <v>5495.89</v>
       </c>
       <c r="D60" t="n">
         <v>1.75</v>
       </c>
       <c r="E60" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F60" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C61" t="n">
-        <v>4522.48</v>
+        <v>4991.12</v>
       </c>
       <c r="D61" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="E61" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="F61" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C62" t="n">
-        <v>4079.31</v>
+        <v>4522.48</v>
       </c>
       <c r="D62" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E62" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="F62" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C63" t="n">
-        <v>3663.77</v>
+        <v>4079.31</v>
       </c>
       <c r="D63" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="E63" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="F63" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C64" t="n">
-        <v>3286.67</v>
+        <v>3663.77</v>
       </c>
       <c r="D64" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E64" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F64" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C65" t="n">
-        <v>2959.49</v>
+        <v>3286.67</v>
       </c>
       <c r="D65" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E65" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F65" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C66" t="n">
-        <v>2686.25</v>
+        <v>2959.48</v>
       </c>
       <c r="D66" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E66" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F66" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C67" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D67" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E67" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F67" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C68" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D68" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E68" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F68" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C69" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E69" t="n">
         <v>1.25</v>
       </c>
-      <c r="E69" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F69" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C70" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E70" t="n">
         <v>1.2</v>
       </c>
-      <c r="E70" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F70" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C71" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D71" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E71" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F71" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C72" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D72" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E72" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F72" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C73" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D73" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E73" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F73" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C74" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D74" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E74" t="n">
         <v>1.06</v>
       </c>
       <c r="F74" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C75" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D75" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E75" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F75" t="n">
         <v>1.16</v>
@@ -1952,16 +1952,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C76" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D76" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E76" t="n">
         <v>1.05</v>
@@ -1972,39 +1972,39 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C77" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D77" t="n">
         <v>1.1</v>
       </c>
       <c r="E77" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F77" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C78" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D78" t="n">
         <v>1.1</v>
       </c>
       <c r="E78" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F78" t="n">
         <v>1.15</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C79" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D79" t="n">
         <v>1.1</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C80" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D80" t="n">
         <v>1.1</v>
@@ -2052,16 +2052,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C81" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D81" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E81" t="n">
         <v>1.04</v>
@@ -2072,113 +2072,113 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C82" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D82" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E82" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F82" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C83" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E83" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F83" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C84" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E84" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F84" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C85" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D85" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E85" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F85" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C86" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D86" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E86" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F86" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C87" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D87" t="n">
         <v>1.02</v>
@@ -2187,444 +2187,444 @@
         <v>0.97</v>
       </c>
       <c r="F87" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C88" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D88" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E88" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F88" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C89" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D89" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E89" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F89" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C90" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D90" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E90" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F90" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C91" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D91" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E91" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F91" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C92" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D92" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E92" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F92" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C93" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D93" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E93" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F93" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C94" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E94" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F94" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C95" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E95" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F95" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C96" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D96" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E96" t="n">
         <v>1.09</v>
       </c>
       <c r="F96" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C97" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D97" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E97" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F97" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C98" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D98" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E98" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F98" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C99" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D99" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E99" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F99" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C100" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D100" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E100" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F100" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C101" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D101" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E101" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F101" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C102" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F102" t="n">
         <v>1.34</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1.42</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C103" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D103" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F103" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C104" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F104" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C105" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D105" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="E105" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="F105" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C106" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D106" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="E106" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F106" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C107" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D107" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E107" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F107" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C108" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D108" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E108" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="F108" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C109" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D109" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E109" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="F109" t="n">
         <v>1.83</v>
@@ -2632,153 +2632,153 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C110" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D110" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E110" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="F110" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C111" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D111" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E111" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F111" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C112" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E112" t="n">
         <v>1.49</v>
       </c>
-      <c r="E112" t="n">
-        <v>1.38</v>
-      </c>
       <c r="F112" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C113" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D113" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E113" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F113" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C114" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E114" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="F114" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C115" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E115" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="F115" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C116" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E116" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F116" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C117" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D117" t="n">
         <v>1.23</v>
@@ -2792,113 +2792,113 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C118" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D118" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E118" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F118" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C119" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D119" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E119" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="F119" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C120" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D120" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E120" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="F120" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C121" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D121" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E121" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="F121" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C122" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D122" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="E122" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="F122" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C123" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D123" t="n">
         <v>1.34</v>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C124" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E124" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F124" t="n">
         <v>1.47</v>
@@ -2932,113 +2932,113 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C125" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D125" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E125" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F125" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C126" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D126" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="E126" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="F126" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C127" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D127" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="E127" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="F127" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C128" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D128" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E128" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="F128" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C129" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D129" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F129" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C130" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D130" t="n">
         <v>1.13</v>
@@ -3052,93 +3052,93 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C131" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D131" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C132" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D132" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E132" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C133" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D133" t="n">
         <v>1.15</v>
       </c>
       <c r="E133" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F133" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C134" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D134" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E134" t="n">
         <v>1.02</v>
       </c>
       <c r="F134" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C135" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D135" t="n">
         <v>1.16</v>
@@ -3152,33 +3152,33 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C136" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D136" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E136" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F136" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C137" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D137" t="n">
         <v>1.17</v>
@@ -3187,18 +3187,18 @@
         <v>1.03</v>
       </c>
       <c r="F137" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C138" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D138" t="n">
         <v>1.17</v>
@@ -3212,19 +3212,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C139" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D139" t="n">
         <v>1.17</v>
       </c>
       <c r="E139" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F139" t="n">
         <v>1.32</v>
@@ -3232,296 +3232,296 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C140" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D140" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="E140" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F140" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C141" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D141" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F141" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C142" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D142" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E142" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C143" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D143" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="E143" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F143" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C144" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D144" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E144" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C145" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D145" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E145" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F145" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C146" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E146" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F146" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C147" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D147" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F147" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C148" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D148" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E148" t="n">
         <v>0.84</v>
       </c>
       <c r="F148" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C149" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D149" t="n">
         <v>0.97</v>
       </c>
       <c r="E149" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F149" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C150" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D150" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E150" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F150" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C151" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E151" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F151" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C152" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D152" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E152" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F152" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C153" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D153" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E153" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F153" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C154" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D154" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E154" t="n">
         <v>0.89</v>
@@ -3532,279 +3532,279 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C155" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D155" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E155" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F155" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C156" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D156" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E156" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F156" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C157" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D157" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E157" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F157" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C158" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D158" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E158" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="F158" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C159" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D159" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E159" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F159" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C160" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D160" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E160" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="F160" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C161" t="n">
         <v>184.12</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E161" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F161" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C162" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D162" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C163" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D163" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E163" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F163" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C164" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D164" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E164" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C165" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E165" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="F165" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C166" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E166" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F166" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C167" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D167" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F167" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C168" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D168" t="n">
         <v>1.04</v>
       </c>
       <c r="E168" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F168" t="n">
         <v>1.18</v>
@@ -3812,116 +3812,116 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C169" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D169" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E169" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F169" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C170" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D170" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E170" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F170" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C171" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D171" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E171" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C172" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D172" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E172" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C173" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D173" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E173" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F173" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C174" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E174" t="n">
         <v>0.7</v>
@@ -3932,319 +3932,319 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C175" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D175" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E175" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C176" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D176" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E176" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F176" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C177" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E177" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C178" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D178" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E178" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F178" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C179" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D179" t="n">
         <v>0.92</v>
       </c>
       <c r="E179" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F179" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C180" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D180" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F180" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C181" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D181" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E181" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F181" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C182" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D182" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="E182" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F182" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C183" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D183" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E183" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C184" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D184" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E184" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="F184" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C185" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D185" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E185" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="F185" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C186" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D186" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E186" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="F186" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C187" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D187" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F187" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C188" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D188" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E188" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F188" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C189" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D189" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E189" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F189" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C190" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D190" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E190" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F190" t="n">
         <v>0.72</v>
@@ -4252,113 +4252,113 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C191" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D191" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E191" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F191" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C192" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D192" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E192" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="F192" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C193" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E193" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="F193" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C194" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D194" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="E194" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="F194" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C195" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D195" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E195" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F195" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C196" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D196" t="n">
         <v>0.72</v>
@@ -4372,13 +4372,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C197" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D197" t="n">
         <v>0.72</v>
@@ -4392,19 +4392,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C198" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D198" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E198" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F198" t="n">
         <v>0.78</v>
@@ -4412,33 +4412,33 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C199" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D199" t="n">
         <v>0.71</v>
       </c>
       <c r="E199" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F199" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C200" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D200" t="n">
         <v>0.71</v>
@@ -4452,16 +4452,16 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C201" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D201" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E201" t="n">
         <v>0.65</v>
@@ -4472,53 +4472,53 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C202" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D202" t="n">
         <v>0.7</v>
       </c>
       <c r="E202" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F202" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C203" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E203" t="n">
         <v>0.64</v>
       </c>
       <c r="F203" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C204" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D204" t="n">
         <v>0.6899999999999999</v>
@@ -4532,13 +4532,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C205" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D205" t="n">
         <v>0.6899999999999999</v>
@@ -4552,19 +4552,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C206" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D206" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E206" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F206" t="n">
         <v>0.74</v>
@@ -4572,19 +4572,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C207" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D207" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F207" t="n">
         <v>0.74</v>
@@ -4592,59 +4592,59 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C208" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F208" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C209" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D209" t="n">
         <v>0.7</v>
       </c>
       <c r="E209" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F209" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C210" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D210" t="n">
         <v>0.7</v>
       </c>
       <c r="E210" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F210" t="n">
         <v>0.75</v>
@@ -4652,16 +4652,16 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C211" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D211" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E211" t="n">
         <v>0.65</v>
@@ -4672,13 +4672,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C212" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D212" t="n">
         <v>0.6899999999999999</v>
@@ -4687,58 +4687,58 @@
         <v>0.65</v>
       </c>
       <c r="F212" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C213" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D213" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F213" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C214" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D214" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E214" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F214" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C215" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D215" t="n">
         <v>0.67</v>
@@ -4752,16 +4752,16 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C216" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D216" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E216" t="n">
         <v>0.63</v>
@@ -4772,13 +4772,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C217" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D217" t="n">
         <v>0.66</v>
@@ -4787,44 +4787,44 @@
         <v>0.62</v>
       </c>
       <c r="F217" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C218" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D218" t="n">
         <v>0.66</v>
       </c>
       <c r="E218" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F218" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C219" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D219" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E219" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F219" t="n">
         <v>0.7</v>
@@ -4832,253 +4832,253 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C220" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D220" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E220" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F220" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C221" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E221" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F221" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C222" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D222" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E222" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F222" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C223" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D223" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E223" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F223" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C224" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D224" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E224" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F224" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C225" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D225" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E225" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F225" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C226" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D226" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E226" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F226" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C227" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D227" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E227" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F227" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C228" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D228" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E228" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F228" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C229" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D229" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E229" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F229" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C230" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D230" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F230" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C231" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D231" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E231" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F231" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C232" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D232" t="n">
         <v>0.84</v>
@@ -5092,53 +5092,53 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C233" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D233" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E233" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F233" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C234" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D234" t="n">
         <v>0.85</v>
       </c>
       <c r="E234" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F234" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C235" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D235" t="n">
         <v>0.85</v>
@@ -5152,13 +5152,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C236" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D236" t="n">
         <v>0.85</v>
@@ -5172,19 +5172,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C237" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D237" t="n">
         <v>0.85</v>
       </c>
       <c r="E237" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F237" t="n">
         <v>0.88</v>
@@ -5192,16 +5192,16 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C238" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D238" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E238" t="n">
         <v>0.83</v>
@@ -5212,73 +5212,73 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C239" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D239" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E239" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F239" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C240" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D240" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E240" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F240" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C241" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D241" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E241" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F241" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C242" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D242" t="n">
         <v>0.89</v>
@@ -5292,13 +5292,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C243" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D243" t="n">
         <v>0.89</v>
@@ -5312,73 +5312,73 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C244" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D244" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E244" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F244" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C245" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D245" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E245" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F245" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C246" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D246" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E246" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F246" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C247" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D247" t="n">
         <v>0.86</v>
@@ -5387,18 +5387,18 @@
         <v>0.83</v>
       </c>
       <c r="F247" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C248" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D248" t="n">
         <v>0.86</v>
@@ -5412,39 +5412,39 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C249" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D249" t="n">
         <v>0.86</v>
       </c>
       <c r="E249" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F249" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C250" t="n">
-        <v>4336.91</v>
+        <v>4223.92</v>
       </c>
       <c r="D250" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E250" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F250" t="n">
         <v>0.89</v>
@@ -5452,662 +5452,682 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C251" t="n">
-        <v>4460.83</v>
+        <v>4336.91</v>
       </c>
       <c r="D251" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E251" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F251" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C252" t="n">
-        <v>4599.64</v>
+        <v>4460.83</v>
       </c>
       <c r="D252" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E252" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F252" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C253" t="n">
-        <v>4758.75</v>
+        <v>4599.64</v>
       </c>
       <c r="D253" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E253" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F253" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C254" t="n">
-        <v>4939.96</v>
+        <v>4758.75</v>
       </c>
       <c r="D254" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E254" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F254" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C255" t="n">
-        <v>5134.49</v>
+        <v>4939.96</v>
       </c>
       <c r="D255" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E255" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F255" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C256" t="n">
-        <v>5323.19</v>
+        <v>5134.49</v>
       </c>
       <c r="D256" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E256" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F256" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C257" t="n">
-        <v>5485.5</v>
+        <v>5323.19</v>
       </c>
       <c r="D257" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E257" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F257" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C258" t="n">
-        <v>5607.75</v>
+        <v>5485.5</v>
       </c>
       <c r="D258" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E258" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F258" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C259" t="n">
-        <v>5684.82</v>
+        <v>5607.75</v>
       </c>
       <c r="D259" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E259" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F259" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C260" t="n">
-        <v>5717.09</v>
+        <v>5684.82</v>
       </c>
       <c r="D260" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E260" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F260" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C261" t="n">
-        <v>5702.03</v>
+        <v>5717.09</v>
       </c>
       <c r="D261" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E261" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F261" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C262" t="n">
-        <v>5630.41</v>
+        <v>5702.03</v>
       </c>
       <c r="D262" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E262" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F262" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C263" t="n">
-        <v>5487.26</v>
+        <v>5630.41</v>
       </c>
       <c r="D263" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E263" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="F263" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C264" t="n">
-        <v>5261.98</v>
+        <v>5487.26</v>
       </c>
       <c r="D264" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E264" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="F264" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C265" t="n">
-        <v>4959.08</v>
+        <v>5261.98</v>
       </c>
       <c r="D265" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E265" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="F265" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C266" t="n">
-        <v>4598.29</v>
+        <v>4959.08</v>
       </c>
       <c r="D266" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E266" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F266" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C267" t="n">
-        <v>4207.41</v>
+        <v>4598.29</v>
       </c>
       <c r="D267" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E267" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F267" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C268" t="n">
-        <v>3811.52</v>
+        <v>4207.41</v>
       </c>
       <c r="D268" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F268" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C269" t="n">
-        <v>3426.12</v>
+        <v>3811.52</v>
       </c>
       <c r="D269" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2</v>
+      </c>
+      <c r="F269" t="n">
         <v>2.14</v>
-      </c>
-      <c r="E269" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F269" t="n">
-        <v>2.21</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C270" t="n">
-        <v>3057.02</v>
+        <v>3426.12</v>
       </c>
       <c r="D270" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F270" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E270" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F270" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C271" t="n">
-        <v>2706.17</v>
+        <v>3057.02</v>
       </c>
       <c r="D271" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="E271" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="F271" t="n">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C272" t="n">
-        <v>2375.65</v>
+        <v>2706.17</v>
       </c>
       <c r="D272" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="E272" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="F272" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C273" t="n">
-        <v>2067.43</v>
+        <v>2375.65</v>
       </c>
       <c r="D273" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="E273" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="F273" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C274" t="n">
-        <v>1784.6</v>
+        <v>2067.43</v>
       </c>
       <c r="D274" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="E274" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="F274" t="n">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C275" t="n">
-        <v>1529.94</v>
+        <v>1784.6</v>
       </c>
       <c r="D275" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="E275" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="F275" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C276" t="n">
-        <v>1301.97</v>
+        <v>1529.94</v>
       </c>
       <c r="D276" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="E276" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="F276" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B277" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C277" t="n">
-        <v>1099.12</v>
+        <v>1301.97</v>
       </c>
       <c r="D277" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="E277" t="n">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="F277" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B278" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C278" t="n">
-        <v>921.16</v>
+        <v>1099.12</v>
       </c>
       <c r="D278" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E278" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="F278" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B279" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C279" t="n">
-        <v>768.86</v>
+        <v>921.16</v>
       </c>
       <c r="D279" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="E279" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="F279" t="n">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B280" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C280" t="n">
-        <v>641.99</v>
+        <v>768.86</v>
       </c>
       <c r="D280" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="E280" t="n">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="F280" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B281" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C281" t="n">
-        <v>538.9400000000001</v>
+        <v>641.99</v>
       </c>
       <c r="D281" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="E281" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="F281" t="n">
-        <v>3.22</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B282" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C282" t="n">
-        <v>456.18</v>
+        <v>538.9400000000001</v>
       </c>
       <c r="D282" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="E282" t="n">
-        <v>2.94</v>
+        <v>2.71</v>
       </c>
       <c r="F282" t="n">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B283" t="n">
+        <v>342</v>
+      </c>
+      <c r="C283" t="n">
+        <v>456.18</v>
+      </c>
+      <c r="D283" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B284" t="n">
         <v>566</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C284" t="n">
         <v>388.41</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D284" t="n">
         <v>3.71</v>
       </c>
-      <c r="E283" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F283" t="n">
-        <v>4.08</v>
+      <c r="E284" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F284" t="n">
+        <v>4.07</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F284"/>
+  <dimension ref="A1:F285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,113 +472,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44173.99930555555</v>
+        <v>44174.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>14842</v>
+        <v>12756</v>
       </c>
       <c r="C2" t="n">
-        <v>16767.21</v>
+        <v>14534.52</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44173.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>13720</v>
+        <v>14842</v>
       </c>
       <c r="C3" t="n">
-        <v>17715.13</v>
+        <v>15820.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="E3" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="F3" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44171.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>18887</v>
+        <v>13720</v>
       </c>
       <c r="C4" t="n">
-        <v>18627.02</v>
+        <v>17078.09</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="E4" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="F4" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44170.99930555555</v>
+        <v>44171.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>21052</v>
+        <v>18887</v>
       </c>
       <c r="C5" t="n">
-        <v>19442.79</v>
+        <v>18254.06</v>
       </c>
       <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44169.99930555555</v>
+        <v>44170.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>24099</v>
+        <v>21052</v>
       </c>
       <c r="C6" t="n">
-        <v>20111.49</v>
+        <v>19274.33</v>
       </c>
       <c r="D6" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44168.99930555555</v>
+        <v>44169.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>23225</v>
+        <v>24099</v>
       </c>
       <c r="C7" t="n">
-        <v>20626.65</v>
+        <v>20084.3</v>
       </c>
       <c r="D7" t="n">
         <v>0.82</v>
@@ -592,76 +592,76 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>20709</v>
+        <v>23225</v>
       </c>
       <c r="C8" t="n">
-        <v>21045.63</v>
+        <v>20682.76</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="E8" t="n">
         <v>0.8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C9" t="n">
-        <v>21468.84</v>
+        <v>21138.19</v>
       </c>
       <c r="D9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.8</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.78</v>
-      </c>
       <c r="F9" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C10" t="n">
-        <v>21993.21</v>
+        <v>21564.65</v>
       </c>
       <c r="D10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.79</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.78</v>
-      </c>
       <c r="F10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C11" t="n">
-        <v>22668.84</v>
+        <v>22072.37</v>
       </c>
       <c r="D11" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="E11" t="n">
         <v>0.78</v>
@@ -672,19 +672,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C12" t="n">
-        <v>23477.06</v>
+        <v>22722.68</v>
       </c>
       <c r="D12" t="n">
         <v>0.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F12" t="n">
         <v>0.8100000000000001</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C13" t="n">
-        <v>24364.47</v>
+        <v>23505.01</v>
       </c>
       <c r="D13" t="n">
         <v>0.8</v>
@@ -712,736 +712,736 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C14" t="n">
-        <v>25297.37</v>
+        <v>24370.94</v>
       </c>
       <c r="D14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C15" t="n">
-        <v>26287.71</v>
+        <v>25288.97</v>
       </c>
       <c r="D15" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C16" t="n">
-        <v>27379.3</v>
+        <v>26271.23</v>
       </c>
       <c r="D16" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.83</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C17" t="n">
-        <v>28597.01</v>
+        <v>27360.44</v>
       </c>
       <c r="D17" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E17" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.85</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C18" t="n">
-        <v>29900.27</v>
+        <v>28579.78</v>
       </c>
       <c r="D18" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E18" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C19" t="n">
-        <v>31178.1</v>
+        <v>29886.92</v>
       </c>
       <c r="D19" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E19" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F19" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C20" t="n">
-        <v>32300.95</v>
+        <v>31169.42</v>
       </c>
       <c r="D20" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F20" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C21" t="n">
-        <v>33187.98</v>
+        <v>32296.62</v>
       </c>
       <c r="D21" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E21" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C22" t="n">
-        <v>33838.64</v>
+        <v>33187.08</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E22" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C23" t="n">
-        <v>34314.83</v>
+        <v>33840.03</v>
       </c>
       <c r="D23" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C24" t="n">
-        <v>34693.12</v>
+        <v>34317.4</v>
       </c>
       <c r="D24" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C25" t="n">
-        <v>35012.63</v>
+        <v>34695.99</v>
       </c>
       <c r="D25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C26" t="n">
-        <v>35244.12</v>
+        <v>35015.19</v>
       </c>
       <c r="D26" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C27" t="n">
-        <v>35332.49</v>
+        <v>35246.06</v>
       </c>
       <c r="D27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C28" t="n">
-        <v>35249.61</v>
+        <v>35333.7</v>
       </c>
       <c r="D28" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C29" t="n">
-        <v>35027.17</v>
+        <v>35250.17</v>
       </c>
       <c r="D29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C30" t="n">
-        <v>34733.76</v>
+        <v>35027.22</v>
       </c>
       <c r="D30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C31" t="n">
-        <v>34424.74</v>
+        <v>34733.49</v>
       </c>
       <c r="D31" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C32" t="n">
-        <v>34112.71</v>
+        <v>34424.31</v>
       </c>
       <c r="D32" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C33" t="n">
-        <v>33734.47</v>
+        <v>34112.26</v>
       </c>
       <c r="D33" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C34" t="n">
-        <v>33209.5</v>
+        <v>33734.08</v>
       </c>
       <c r="D34" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C35" t="n">
-        <v>32513.47</v>
+        <v>33209.22</v>
       </c>
       <c r="D35" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C36" t="n">
-        <v>31690.94</v>
+        <v>32513.3</v>
       </c>
       <c r="D36" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C37" t="n">
-        <v>30822.21</v>
+        <v>31690.87</v>
       </c>
       <c r="D37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C38" t="n">
-        <v>29970.22</v>
+        <v>30822.22</v>
       </c>
       <c r="D38" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C39" t="n">
-        <v>29138.93</v>
+        <v>29970.27</v>
       </c>
       <c r="D39" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E39" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F39" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C40" t="n">
-        <v>28257.46</v>
+        <v>29139</v>
       </c>
       <c r="D40" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E40" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F40" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C41" t="n">
-        <v>27241.46</v>
+        <v>28257.53</v>
       </c>
       <c r="D41" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E41" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F41" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C42" t="n">
-        <v>26046.78</v>
+        <v>27241.52</v>
       </c>
       <c r="D42" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E42" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F42" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C43" t="n">
-        <v>24688.16</v>
+        <v>26046.82</v>
       </c>
       <c r="D43" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E43" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F43" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C44" t="n">
-        <v>23219.57</v>
+        <v>24688.19</v>
       </c>
       <c r="D44" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F44" t="n">
         <v>1.61</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C45" t="n">
-        <v>21706.66</v>
+        <v>23219.58</v>
       </c>
       <c r="D45" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E45" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F45" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C46" t="n">
-        <v>20196.33</v>
+        <v>21706.66</v>
       </c>
       <c r="D46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F46" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C47" t="n">
-        <v>18698.47</v>
+        <v>20196.32</v>
       </c>
       <c r="D47" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F47" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C48" t="n">
-        <v>17214.81</v>
+        <v>18698.46</v>
       </c>
       <c r="D48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F48" t="n">
         <v>1.74</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C49" t="n">
-        <v>15756.91</v>
+        <v>17214.8</v>
       </c>
       <c r="D49" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E49" t="n">
         <v>1.72</v>
       </c>
       <c r="F49" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C50" t="n">
-        <v>14354.82</v>
+        <v>15756.9</v>
       </c>
       <c r="D50" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E50" t="n">
         <v>1.73</v>
@@ -1452,59 +1452,59 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C51" t="n">
-        <v>13046.4</v>
+        <v>14354.81</v>
       </c>
       <c r="D51" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E51" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F51" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C52" t="n">
-        <v>11863.45</v>
+        <v>13046.4</v>
       </c>
       <c r="D52" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E52" t="n">
         <v>1.72</v>
       </c>
       <c r="F52" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C53" t="n">
-        <v>10809.38</v>
+        <v>11863.44</v>
       </c>
       <c r="D53" t="n">
         <v>1.76</v>
       </c>
       <c r="E53" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F53" t="n">
         <v>1.79</v>
@@ -1512,53 +1512,53 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C54" t="n">
-        <v>9858.67</v>
+        <v>10809.38</v>
       </c>
       <c r="D54" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E54" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F54" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C55" t="n">
-        <v>8981.58</v>
+        <v>9858.67</v>
       </c>
       <c r="D55" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E55" t="n">
         <v>1.74</v>
       </c>
       <c r="F55" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C56" t="n">
-        <v>8159.87</v>
+        <v>8981.58</v>
       </c>
       <c r="D56" t="n">
         <v>1.78</v>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C57" t="n">
-        <v>7391.89</v>
+        <v>8159.87</v>
       </c>
       <c r="D57" t="n">
         <v>1.78</v>
@@ -1592,39 +1592,39 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C58" t="n">
-        <v>6687.4</v>
+        <v>7391.89</v>
       </c>
       <c r="D58" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E58" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F58" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C59" t="n">
-        <v>6055.96</v>
+        <v>6687.4</v>
       </c>
       <c r="D59" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E59" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F59" t="n">
         <v>1.81</v>
@@ -1632,339 +1632,339 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C60" t="n">
-        <v>5495.89</v>
+        <v>6055.96</v>
       </c>
       <c r="D60" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E60" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F60" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C61" t="n">
-        <v>4991.12</v>
+        <v>5495.89</v>
       </c>
       <c r="D61" t="n">
         <v>1.75</v>
       </c>
       <c r="E61" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F61" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C62" t="n">
-        <v>4522.48</v>
+        <v>4991.12</v>
       </c>
       <c r="D62" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="E62" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="F62" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C63" t="n">
-        <v>4079.31</v>
+        <v>4522.48</v>
       </c>
       <c r="D63" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E63" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="F63" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C64" t="n">
-        <v>3663.77</v>
+        <v>4079.31</v>
       </c>
       <c r="D64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E64" t="n">
         <v>1.63</v>
       </c>
-      <c r="E64" t="n">
-        <v>1.58</v>
-      </c>
       <c r="F64" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C65" t="n">
-        <v>3286.67</v>
+        <v>3663.77</v>
       </c>
       <c r="D65" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="E65" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F65" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C66" t="n">
-        <v>2959.48</v>
+        <v>3286.67</v>
       </c>
       <c r="D66" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E66" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F66" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C67" t="n">
-        <v>2686.25</v>
+        <v>2959.48</v>
       </c>
       <c r="D67" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E67" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F67" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C68" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D68" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E68" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F68" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C69" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D69" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E69" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F69" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C70" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D70" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E70" t="n">
         <v>1.25</v>
       </c>
-      <c r="E70" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F70" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C71" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E71" t="n">
         <v>1.2</v>
       </c>
-      <c r="E71" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F71" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C72" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D72" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E72" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F72" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C73" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D73" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E73" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="F73" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C74" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D74" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E74" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="F74" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C75" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D75" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E75" t="n">
         <v>1.06</v>
       </c>
       <c r="F75" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C76" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D76" t="n">
         <v>1.11</v>
       </c>
       <c r="E76" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F76" t="n">
         <v>1.16</v>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C77" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D77" t="n">
         <v>1.1</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C78" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D78" t="n">
         <v>1.1</v>
@@ -2007,18 +2007,18 @@
         <v>1.05</v>
       </c>
       <c r="F78" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C79" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D79" t="n">
         <v>1.1</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C80" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D80" t="n">
         <v>1.1</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C81" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D81" t="n">
         <v>1.1</v>
@@ -2072,16 +2072,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C82" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D82" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E82" t="n">
         <v>1.04</v>
@@ -2092,16 +2092,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C83" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E83" t="n">
         <v>1.03</v>
@@ -2112,93 +2112,93 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C84" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D84" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E84" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F84" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C85" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D85" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E85" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F85" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C86" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D86" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E86" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F86" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C87" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E87" t="n">
         <v>0.97</v>
       </c>
       <c r="F87" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C88" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D88" t="n">
         <v>1.02</v>
@@ -2207,444 +2207,444 @@
         <v>0.97</v>
       </c>
       <c r="F88" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C89" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D89" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E89" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F89" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C90" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D90" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E90" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F90" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C91" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D91" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E91" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F91" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C92" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D92" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E92" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F92" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C93" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D93" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E93" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F93" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C94" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D94" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E94" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F94" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C95" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D95" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E95" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F95" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C96" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D96" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E96" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="F96" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C97" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D97" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E97" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="F97" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C98" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D98" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E98" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F98" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C99" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E99" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F99" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C100" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E100" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F100" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C101" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D101" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E101" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F101" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C102" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D102" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E102" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="F102" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C103" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F103" t="n">
         <v>1.34</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.42</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C104" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D104" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F104" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C105" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D105" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F105" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1.59</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C106" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F106" t="n">
         <v>1.58</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C107" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D107" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E107" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F107" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C108" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D108" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="E108" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F108" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C109" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D109" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E109" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F109" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C110" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D110" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E110" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="F110" t="n">
         <v>1.83</v>
@@ -2652,153 +2652,153 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C111" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D111" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E111" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="F111" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C112" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D112" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E112" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F112" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C113" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D113" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E113" t="n">
         <v>1.49</v>
       </c>
-      <c r="E113" t="n">
-        <v>1.38</v>
-      </c>
       <c r="F113" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C114" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E114" t="n">
         <v>1.39</v>
       </c>
-      <c r="E114" t="n">
-        <v>1.28</v>
-      </c>
       <c r="F114" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C115" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E115" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="F115" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C116" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E116" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="F116" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C117" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E117" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="F117" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C118" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D118" t="n">
         <v>1.23</v>
@@ -2807,264 +2807,264 @@
         <v>1.12</v>
       </c>
       <c r="F118" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C119" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E119" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="F119" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C120" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D120" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E120" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="F120" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C121" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D121" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E121" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="F121" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C122" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D122" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E122" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F122" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C123" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D123" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="E123" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="F123" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C124" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D124" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="E124" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="F124" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C125" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D125" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E125" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F125" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C126" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D126" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E126" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="F126" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C127" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D127" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="E127" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="F127" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C128" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D128" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E128" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="F128" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C129" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D129" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E129" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="F129" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C130" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D130" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="F130" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C131" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D131" t="n">
         <v>1.13</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F131" t="n">
         <v>1.26</v>
@@ -3072,93 +3072,93 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C132" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D132" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C133" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D133" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E133" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C134" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D134" t="n">
         <v>1.15</v>
       </c>
       <c r="E134" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F134" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C135" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D135" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E135" t="n">
         <v>1.02</v>
       </c>
       <c r="F135" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C136" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D136" t="n">
         <v>1.16</v>
@@ -3167,38 +3167,38 @@
         <v>1.02</v>
       </c>
       <c r="F136" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C137" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D137" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E137" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F137" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C138" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D138" t="n">
         <v>1.17</v>
@@ -3207,18 +3207,18 @@
         <v>1.03</v>
       </c>
       <c r="F138" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C139" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D139" t="n">
         <v>1.17</v>
@@ -3227,24 +3227,24 @@
         <v>1.02</v>
       </c>
       <c r="F139" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C140" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D140" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="E140" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F140" t="n">
         <v>1.32</v>
@@ -3252,193 +3252,193 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C141" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D141" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="E141" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F141" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C142" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D142" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F142" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C143" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D143" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E143" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F143" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C144" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D144" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F144" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C145" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D145" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E145" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C146" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D146" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E146" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F146" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C147" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E147" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F147" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C148" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D148" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F148" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C149" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D149" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E149" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F149" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C150" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D150" t="n">
         <v>0.97</v>
@@ -3447,258 +3447,258 @@
         <v>0.84</v>
       </c>
       <c r="F150" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C151" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D151" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E151" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F151" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C152" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D152" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E152" t="n">
         <v>0.86</v>
       </c>
       <c r="F152" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C153" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D153" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E153" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F153" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C154" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D154" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E154" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F154" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C155" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D155" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E155" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F155" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C156" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D156" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E156" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F156" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C157" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D157" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E157" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F157" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C158" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D158" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E158" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F158" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C159" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D159" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E159" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C160" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D160" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E160" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="F160" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C161" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D161" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E161" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F161" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C162" t="n">
         <v>184.12</v>
       </c>
       <c r="D162" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E162" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F162" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C163" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D163" t="n">
         <v>0.8100000000000001</v>
@@ -3707,124 +3707,124 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F163" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C164" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D164" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F164" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C165" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D165" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E165" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F165" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C166" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E166" t="n">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="F166" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C167" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E167" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F167" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C168" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D168" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F168" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C169" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D169" t="n">
         <v>1.04</v>
       </c>
       <c r="E169" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F169" t="n">
         <v>1.17</v>
@@ -3832,439 +3832,439 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C170" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D170" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E170" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F170" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C171" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D171" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E171" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F171" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C172" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D172" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E172" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C173" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D173" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E173" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C174" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E174" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F174" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C175" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E175" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F175" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C176" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D176" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E176" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F176" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C177" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D177" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E177" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="F177" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C178" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E178" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C179" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D179" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E179" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F179" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C180" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D180" t="n">
         <v>0.92</v>
       </c>
       <c r="E180" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C181" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D181" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E181" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F181" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C182" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D182" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="E182" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F182" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C183" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D183" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="E183" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F183" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C184" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D184" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E184" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C185" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D185" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="F185" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C186" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D186" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E186" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="F186" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C187" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D187" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E187" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F187" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C188" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D188" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E188" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F188" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C189" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D189" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E189" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F189" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C190" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D190" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E190" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F190" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C191" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D191" t="n">
         <v>0.64</v>
       </c>
       <c r="E191" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F191" t="n">
         <v>0.72</v>
@@ -4272,113 +4272,113 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C192" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D192" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E192" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F192" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C193" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D193" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F193" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C194" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="E194" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F194" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C195" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D195" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E195" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F195" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C196" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D196" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E196" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F196" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C197" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D197" t="n">
         <v>0.72</v>
@@ -4392,39 +4392,39 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C198" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D198" t="n">
         <v>0.72</v>
       </c>
       <c r="E198" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F198" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C199" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D199" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E199" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F199" t="n">
         <v>0.78</v>
@@ -4432,33 +4432,33 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C200" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D200" t="n">
         <v>0.71</v>
       </c>
       <c r="E200" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F200" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C201" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D201" t="n">
         <v>0.71</v>
@@ -4467,21 +4467,21 @@
         <v>0.65</v>
       </c>
       <c r="F201" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C202" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D202" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E202" t="n">
         <v>0.65</v>
@@ -4492,53 +4492,53 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C203" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D203" t="n">
         <v>0.7</v>
       </c>
       <c r="E203" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F203" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C204" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D204" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E204" t="n">
         <v>0.64</v>
       </c>
       <c r="F204" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C205" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D205" t="n">
         <v>0.6899999999999999</v>
@@ -4552,19 +4552,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C206" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D206" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E206" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F206" t="n">
         <v>0.74</v>
@@ -4572,33 +4572,33 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C207" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D207" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F207" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C208" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D208" t="n">
         <v>0.6899999999999999</v>
@@ -4612,16 +4612,16 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C209" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D209" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E209" t="n">
         <v>0.65</v>
@@ -4632,13 +4632,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C210" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D210" t="n">
         <v>0.7</v>
@@ -4652,39 +4652,39 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C211" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D211" t="n">
         <v>0.7</v>
       </c>
       <c r="E211" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F211" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C212" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E212" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F212" t="n">
         <v>0.74</v>
@@ -4692,73 +4692,73 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C213" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E213" t="n">
         <v>0.65</v>
       </c>
       <c r="F213" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C214" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D214" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E214" t="n">
         <v>0.64</v>
       </c>
       <c r="F214" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C215" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D215" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E215" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F215" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C216" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D216" t="n">
         <v>0.67</v>
@@ -4767,38 +4767,38 @@
         <v>0.63</v>
       </c>
       <c r="F216" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C217" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D217" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E217" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F217" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C218" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D218" t="n">
         <v>0.66</v>
@@ -4807,18 +4807,18 @@
         <v>0.62</v>
       </c>
       <c r="F218" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C219" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D219" t="n">
         <v>0.66</v>
@@ -4827,21 +4827,21 @@
         <v>0.62</v>
       </c>
       <c r="F219" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C220" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D220" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E220" t="n">
         <v>0.63</v>
@@ -4852,253 +4852,253 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C221" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D221" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E221" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F221" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C222" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D222" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E222" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F222" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C223" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D223" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E223" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F223" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C224" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D224" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E224" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F224" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C225" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D225" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E225" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F225" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C226" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E226" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F226" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C227" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D227" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E227" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F227" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C228" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D228" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E228" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F228" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C229" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D229" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E229" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F229" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C230" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D230" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E230" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F230" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C231" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D231" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E231" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F231" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C232" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D232" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F232" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C233" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D233" t="n">
         <v>0.84</v>
@@ -5112,16 +5112,16 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C234" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D234" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E234" t="n">
         <v>0.8100000000000001</v>
@@ -5132,19 +5132,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C235" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D235" t="n">
         <v>0.85</v>
       </c>
       <c r="E235" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F235" t="n">
         <v>0.88</v>
@@ -5152,13 +5152,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C236" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D236" t="n">
         <v>0.85</v>
@@ -5172,13 +5172,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C237" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D237" t="n">
         <v>0.85</v>
@@ -5192,33 +5192,33 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C238" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D238" t="n">
         <v>0.85</v>
       </c>
       <c r="E238" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F238" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C239" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D239" t="n">
         <v>0.86</v>
@@ -5227,78 +5227,78 @@
         <v>0.83</v>
       </c>
       <c r="F239" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C240" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D240" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E240" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F240" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C241" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D241" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E241" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F241" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C242" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D242" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E242" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F242" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C243" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D243" t="n">
         <v>0.89</v>
@@ -5312,13 +5312,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C244" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D244" t="n">
         <v>0.89</v>
@@ -5332,93 +5332,93 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C245" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D245" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E245" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F245" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C246" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D246" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E246" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F246" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C247" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D247" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E247" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F247" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C248" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D248" t="n">
         <v>0.86</v>
       </c>
       <c r="E248" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F248" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C249" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D249" t="n">
         <v>0.86</v>
@@ -5432,13 +5432,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C250" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D250" t="n">
         <v>0.86</v>
@@ -5447,24 +5447,24 @@
         <v>0.83</v>
       </c>
       <c r="F250" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C251" t="n">
-        <v>4336.91</v>
+        <v>4223.92</v>
       </c>
       <c r="D251" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E251" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F251" t="n">
         <v>0.89</v>
@@ -5472,661 +5472,681 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C252" t="n">
-        <v>4460.83</v>
+        <v>4336.91</v>
       </c>
       <c r="D252" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E252" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F252" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C253" t="n">
-        <v>4599.64</v>
+        <v>4460.83</v>
       </c>
       <c r="D253" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E253" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F253" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C254" t="n">
-        <v>4758.75</v>
+        <v>4599.64</v>
       </c>
       <c r="D254" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E254" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F254" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C255" t="n">
-        <v>4939.96</v>
+        <v>4758.75</v>
       </c>
       <c r="D255" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E255" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F255" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C256" t="n">
-        <v>5134.49</v>
+        <v>4939.96</v>
       </c>
       <c r="D256" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E256" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F256" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C257" t="n">
-        <v>5323.19</v>
+        <v>5134.49</v>
       </c>
       <c r="D257" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E257" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F257" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C258" t="n">
-        <v>5485.5</v>
+        <v>5323.19</v>
       </c>
       <c r="D258" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E258" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F258" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F258" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C259" t="n">
-        <v>5607.75</v>
+        <v>5485.5</v>
       </c>
       <c r="D259" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E259" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F259" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C260" t="n">
-        <v>5684.82</v>
+        <v>5607.75</v>
       </c>
       <c r="D260" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E260" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F260" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C261" t="n">
-        <v>5717.09</v>
+        <v>5684.82</v>
       </c>
       <c r="D261" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E261" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F261" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C262" t="n">
-        <v>5702.03</v>
+        <v>5717.09</v>
       </c>
       <c r="D262" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E262" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F262" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C263" t="n">
-        <v>5630.41</v>
+        <v>5702.03</v>
       </c>
       <c r="D263" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E263" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="F263" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C264" t="n">
-        <v>5487.26</v>
+        <v>5630.41</v>
       </c>
       <c r="D264" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E264" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="F264" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C265" t="n">
-        <v>5261.98</v>
+        <v>5487.26</v>
       </c>
       <c r="D265" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E265" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="F265" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C266" t="n">
-        <v>4959.08</v>
+        <v>5261.98</v>
       </c>
       <c r="D266" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E266" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="F266" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C267" t="n">
-        <v>4598.29</v>
+        <v>4959.08</v>
       </c>
       <c r="D267" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E267" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F267" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C268" t="n">
-        <v>4207.41</v>
+        <v>4598.29</v>
       </c>
       <c r="D268" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E268" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F268" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C269" t="n">
-        <v>3811.52</v>
+        <v>4207.41</v>
       </c>
       <c r="D269" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E269" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F269" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C270" t="n">
-        <v>3426.12</v>
+        <v>3811.52</v>
       </c>
       <c r="D270" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E270" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="F270" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C271" t="n">
-        <v>3057.02</v>
+        <v>3426.12</v>
       </c>
       <c r="D271" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F271" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E271" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F271" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C272" t="n">
-        <v>2706.17</v>
+        <v>3057.02</v>
       </c>
       <c r="D272" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="E272" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="F272" t="n">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C273" t="n">
-        <v>2375.65</v>
+        <v>2706.17</v>
       </c>
       <c r="D273" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="E273" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="F273" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C274" t="n">
-        <v>2067.43</v>
+        <v>2375.65</v>
       </c>
       <c r="D274" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="E274" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="F274" t="n">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C275" t="n">
-        <v>1784.6</v>
+        <v>2067.43</v>
       </c>
       <c r="D275" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="E275" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="F275" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C276" t="n">
-        <v>1529.94</v>
+        <v>1784.6</v>
       </c>
       <c r="D276" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="E276" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="F276" t="n">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B277" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C277" t="n">
-        <v>1301.97</v>
+        <v>1529.94</v>
       </c>
       <c r="D277" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="E277" t="n">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="F277" t="n">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B278" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C278" t="n">
-        <v>1099.12</v>
+        <v>1301.97</v>
       </c>
       <c r="D278" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="E278" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="F278" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B279" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C279" t="n">
-        <v>921.16</v>
+        <v>1099.12</v>
       </c>
       <c r="D279" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E279" t="n">
-        <v>2.52</v>
+        <v>2.49</v>
       </c>
       <c r="F279" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B280" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C280" t="n">
-        <v>768.86</v>
+        <v>921.16</v>
       </c>
       <c r="D280" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="E280" t="n">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="F280" t="n">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B281" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C281" t="n">
-        <v>641.99</v>
+        <v>768.86</v>
       </c>
       <c r="D281" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="E281" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="F281" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B282" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C282" t="n">
-        <v>538.9400000000001</v>
+        <v>641.99</v>
       </c>
       <c r="D282" t="n">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="E282" t="n">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="F282" t="n">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B283" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C283" t="n">
-        <v>456.18</v>
+        <v>538.9400000000001</v>
       </c>
       <c r="D283" t="n">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="E283" t="n">
-        <v>2.94</v>
+        <v>2.71</v>
       </c>
       <c r="F283" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B284" t="n">
+        <v>342</v>
+      </c>
+      <c r="C284" t="n">
+        <v>456.18</v>
+      </c>
+      <c r="D284" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F284" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B285" t="n">
         <v>566</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C285" t="n">
         <v>388.41</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D285" t="n">
         <v>3.71</v>
       </c>
-      <c r="E284" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F284" t="n">
+      <c r="E285" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F285" t="n">
         <v>4.07</v>
       </c>
     </row>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,156 +472,156 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44174.99930555555</v>
+        <v>44175.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>12756</v>
+        <v>16999</v>
       </c>
       <c r="C2" t="n">
-        <v>14534.52</v>
+        <v>14489.97</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="E2" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="F2" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44173.99930555555</v>
+        <v>44174.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>14842</v>
+        <v>12756</v>
       </c>
       <c r="C3" t="n">
-        <v>15820.5</v>
+        <v>15409.88</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E3" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44173.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>13720</v>
+        <v>14842</v>
       </c>
       <c r="C4" t="n">
-        <v>17078.09</v>
+        <v>16369.88</v>
       </c>
       <c r="D4" t="n">
         <v>0.76</v>
       </c>
       <c r="E4" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="F4" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44171.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>18887</v>
+        <v>13720</v>
       </c>
       <c r="C5" t="n">
-        <v>18254.06</v>
+        <v>17364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="E5" t="n">
         <v>0.76</v>
       </c>
       <c r="F5" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44170.99930555555</v>
+        <v>44171.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>21052</v>
+        <v>18887</v>
       </c>
       <c r="C6" t="n">
-        <v>19274.33</v>
+        <v>18348.05</v>
       </c>
       <c r="D6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44169.99930555555</v>
+        <v>44170.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>24099</v>
+        <v>21052</v>
       </c>
       <c r="C7" t="n">
-        <v>20084.3</v>
+        <v>19245.93</v>
       </c>
       <c r="D7" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44168.99930555555</v>
+        <v>44169.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>23225</v>
+        <v>24099</v>
       </c>
       <c r="C8" t="n">
-        <v>20682.76</v>
+        <v>19992.77</v>
       </c>
       <c r="D8" t="n">
         <v>0.82</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>20709</v>
+        <v>23225</v>
       </c>
       <c r="C9" t="n">
-        <v>21138.19</v>
+        <v>20572.73</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="E9" t="n">
         <v>0.8</v>
@@ -632,19 +632,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C10" t="n">
-        <v>21564.65</v>
+        <v>21038.67</v>
       </c>
       <c r="D10" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.79</v>
       </c>
       <c r="F10" t="n">
         <v>0.82</v>
@@ -652,19 +652,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C11" t="n">
-        <v>22072.37</v>
+        <v>21490.7</v>
       </c>
       <c r="D11" t="n">
         <v>0.8</v>
       </c>
       <c r="E11" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F11" t="n">
         <v>0.8100000000000001</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C12" t="n">
-        <v>22722.68</v>
+        <v>22028.28</v>
       </c>
       <c r="D12" t="n">
         <v>0.8</v>
@@ -692,33 +692,33 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C13" t="n">
-        <v>23505.01</v>
+        <v>22705.53</v>
       </c>
       <c r="D13" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C14" t="n">
-        <v>24370.94</v>
+        <v>23508.1</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -732,16 +732,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C15" t="n">
-        <v>25288.97</v>
+        <v>24386.46</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="n">
         <v>0.8</v>
@@ -752,716 +752,716 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C16" t="n">
-        <v>26271.23</v>
+        <v>25309.8</v>
       </c>
       <c r="D16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C17" t="n">
-        <v>27360.44</v>
+        <v>26291.97</v>
       </c>
       <c r="D17" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.84</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C18" t="n">
-        <v>28579.78</v>
+        <v>27377.68</v>
       </c>
       <c r="D18" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.85</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C19" t="n">
-        <v>29886.92</v>
+        <v>28591.95</v>
       </c>
       <c r="D19" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E19" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C20" t="n">
-        <v>31169.42</v>
+        <v>29893.9</v>
       </c>
       <c r="D20" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E20" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F20" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C21" t="n">
-        <v>32296.62</v>
+        <v>31171.99</v>
       </c>
       <c r="D21" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F21" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C22" t="n">
-        <v>33187.08</v>
+        <v>32296.02</v>
       </c>
       <c r="D22" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E22" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C23" t="n">
-        <v>33840.03</v>
+        <v>33184.62</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E23" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C24" t="n">
-        <v>34317.4</v>
+        <v>33836.83</v>
       </c>
       <c r="D24" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C25" t="n">
-        <v>34695.99</v>
+        <v>34314.29</v>
       </c>
       <c r="D25" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C26" t="n">
-        <v>35015.19</v>
+        <v>34693.46</v>
       </c>
       <c r="D26" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C27" t="n">
-        <v>35246.06</v>
+        <v>35013.46</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C28" t="n">
-        <v>35333.7</v>
+        <v>35245.12</v>
       </c>
       <c r="D28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C29" t="n">
-        <v>35250.17</v>
+        <v>35333.42</v>
       </c>
       <c r="D29" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C30" t="n">
-        <v>35027.22</v>
+        <v>35250.34</v>
       </c>
       <c r="D30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C31" t="n">
-        <v>34733.49</v>
+        <v>35027.65</v>
       </c>
       <c r="D31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C32" t="n">
-        <v>34424.31</v>
+        <v>34734</v>
       </c>
       <c r="D32" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C33" t="n">
-        <v>34112.26</v>
+        <v>34424.79</v>
       </c>
       <c r="D33" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E33" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C34" t="n">
-        <v>33734.08</v>
+        <v>34112.64</v>
       </c>
       <c r="D34" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C35" t="n">
-        <v>33209.22</v>
+        <v>33734.33</v>
       </c>
       <c r="D35" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E35" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C36" t="n">
-        <v>32513.3</v>
+        <v>33209.34</v>
       </c>
       <c r="D36" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C37" t="n">
-        <v>31690.87</v>
+        <v>32513.33</v>
       </c>
       <c r="D37" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C38" t="n">
-        <v>30822.22</v>
+        <v>31690.84</v>
       </c>
       <c r="D38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C39" t="n">
-        <v>29970.27</v>
+        <v>30822.14</v>
       </c>
       <c r="D39" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C40" t="n">
-        <v>29139</v>
+        <v>29970.19</v>
       </c>
       <c r="D40" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E40" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F40" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C41" t="n">
-        <v>28257.53</v>
+        <v>29138.93</v>
       </c>
       <c r="D41" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E41" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F41" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C42" t="n">
-        <v>27241.52</v>
+        <v>28257.47</v>
       </c>
       <c r="D42" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E42" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F42" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C43" t="n">
-        <v>26046.82</v>
+        <v>27241.48</v>
       </c>
       <c r="D43" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E43" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C44" t="n">
-        <v>24688.19</v>
+        <v>26046.81</v>
       </c>
       <c r="D44" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E44" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F44" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C45" t="n">
-        <v>23219.58</v>
+        <v>24688.18</v>
       </c>
       <c r="D45" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E45" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C46" t="n">
-        <v>21706.66</v>
+        <v>23219.58</v>
       </c>
       <c r="D46" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E46" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F46" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C47" t="n">
-        <v>20196.32</v>
+        <v>21706.67</v>
       </c>
       <c r="D47" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F47" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C48" t="n">
-        <v>18698.46</v>
+        <v>20196.33</v>
       </c>
       <c r="D48" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F48" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C49" t="n">
-        <v>17214.8</v>
+        <v>18698.47</v>
       </c>
       <c r="D49" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E49" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="F49" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C50" t="n">
-        <v>15756.9</v>
+        <v>17214.8</v>
       </c>
       <c r="D50" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E50" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F50" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C51" t="n">
-        <v>14354.81</v>
+        <v>15756.9</v>
       </c>
       <c r="D51" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E51" t="n">
         <v>1.73</v>
@@ -1472,19 +1472,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C52" t="n">
-        <v>13046.4</v>
+        <v>14354.81</v>
       </c>
       <c r="D52" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E52" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F52" t="n">
         <v>1.78</v>
@@ -1492,39 +1492,39 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C53" t="n">
-        <v>11863.44</v>
+        <v>13046.4</v>
       </c>
       <c r="D53" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E53" t="n">
         <v>1.72</v>
       </c>
       <c r="F53" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C54" t="n">
-        <v>10809.38</v>
+        <v>11863.44</v>
       </c>
       <c r="D54" t="n">
         <v>1.76</v>
       </c>
       <c r="E54" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F54" t="n">
         <v>1.79</v>
@@ -1532,53 +1532,53 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C55" t="n">
-        <v>9858.67</v>
+        <v>10809.37</v>
       </c>
       <c r="D55" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E55" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F55" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C56" t="n">
-        <v>8981.58</v>
+        <v>9858.67</v>
       </c>
       <c r="D56" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E56" t="n">
         <v>1.74</v>
       </c>
       <c r="F56" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C57" t="n">
-        <v>8159.87</v>
+        <v>8981.58</v>
       </c>
       <c r="D57" t="n">
         <v>1.78</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C58" t="n">
-        <v>7391.89</v>
+        <v>8159.87</v>
       </c>
       <c r="D58" t="n">
         <v>1.78</v>
@@ -1612,39 +1612,39 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C59" t="n">
-        <v>6687.4</v>
+        <v>7391.89</v>
       </c>
       <c r="D59" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E59" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F59" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C60" t="n">
-        <v>6055.96</v>
+        <v>6687.4</v>
       </c>
       <c r="D60" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E60" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F60" t="n">
         <v>1.81</v>
@@ -1652,19 +1652,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C61" t="n">
-        <v>5495.89</v>
+        <v>6055.96</v>
       </c>
       <c r="D61" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E61" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F61" t="n">
         <v>1.8</v>
@@ -1672,19 +1672,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C62" t="n">
-        <v>4991.12</v>
+        <v>5495.89</v>
       </c>
       <c r="D62" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="E62" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F62" t="n">
         <v>1.8</v>
@@ -1692,299 +1692,299 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C63" t="n">
-        <v>4522.48</v>
+        <v>4991.12</v>
       </c>
       <c r="D63" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="E63" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="F63" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C64" t="n">
-        <v>4079.31</v>
+        <v>4522.48</v>
       </c>
       <c r="D64" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E64" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="F64" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C65" t="n">
-        <v>3663.77</v>
+        <v>4079.31</v>
       </c>
       <c r="D65" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E65" t="n">
         <v>1.64</v>
       </c>
-      <c r="E65" t="n">
-        <v>1.58</v>
-      </c>
       <c r="F65" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C66" t="n">
-        <v>3286.67</v>
+        <v>3663.77</v>
       </c>
       <c r="D66" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E66" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F66" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C67" t="n">
-        <v>2959.48</v>
+        <v>3286.67</v>
       </c>
       <c r="D67" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E67" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F67" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C68" t="n">
-        <v>2686.25</v>
+        <v>2959.48</v>
       </c>
       <c r="D68" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E68" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F68" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C69" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D69" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E69" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F69" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C70" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E70" t="n">
         <v>1.31</v>
       </c>
-      <c r="E70" t="n">
-        <v>1.25</v>
-      </c>
       <c r="F70" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C71" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E71" t="n">
         <v>1.25</v>
       </c>
-      <c r="E71" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F71" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C72" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E72" t="n">
         <v>1.2</v>
       </c>
-      <c r="E72" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F72" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C73" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D73" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E73" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="F73" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C74" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D74" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E74" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F74" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C75" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D75" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E75" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="F75" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C76" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D76" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E76" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="F76" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C77" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D77" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E77" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F77" t="n">
         <v>1.16</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C78" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D78" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E78" t="n">
         <v>1.05</v>
@@ -2012,19 +2012,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C79" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D79" t="n">
         <v>1.1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F79" t="n">
         <v>1.15</v>
@@ -2032,19 +2032,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C80" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D80" t="n">
         <v>1.1</v>
       </c>
       <c r="E80" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F80" t="n">
         <v>1.15</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C81" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D81" t="n">
         <v>1.1</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C82" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D82" t="n">
         <v>1.1</v>
@@ -2092,133 +2092,133 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C83" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E83" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F83" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C84" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D84" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E84" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F84" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C85" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E85" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F85" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C86" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E86" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F86" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C87" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D87" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E87" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F87" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C88" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D88" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E88" t="n">
         <v>0.97</v>
       </c>
       <c r="F88" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C89" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D89" t="n">
         <v>1.02</v>
@@ -2232,593 +2232,593 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C90" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D90" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E90" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F90" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C91" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D91" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E91" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F91" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C92" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D92" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E92" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C93" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D93" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E93" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F93" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C94" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D94" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E94" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F94" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C95" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D95" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E95" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F95" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C96" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E96" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F96" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C97" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D97" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E97" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F97" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C98" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D98" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E98" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="F98" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C99" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E99" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F99" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C100" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D100" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E100" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F100" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C101" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D101" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E101" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F101" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C102" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D102" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E102" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="F102" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C103" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D103" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E103" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F103" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C104" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F104" t="n">
         <v>1.34</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.42</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C105" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D105" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F105" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C106" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F106" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C107" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F107" t="n">
         <v>1.58</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C108" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D108" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="E108" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F108" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C109" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D109" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E109" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F109" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C110" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D110" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E110" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="F110" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C111" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D111" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E111" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="F111" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C112" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D112" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E112" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="F112" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C113" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D113" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E113" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F113" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C114" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D114" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="E114" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="F114" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C115" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D115" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E115" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F115" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C116" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E116" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="F116" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C117" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E117" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="F117" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C118" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E118" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="F118" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C119" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D119" t="n">
         <v>1.23</v>
@@ -2832,259 +2832,259 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C120" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D120" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E120" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="F120" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C121" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D121" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E121" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="F121" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C122" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D122" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E122" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="F122" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C123" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E123" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F123" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C124" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D124" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="E124" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="F124" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C125" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D125" t="n">
         <v>1.34</v>
       </c>
       <c r="E125" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="F125" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C126" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D126" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E126" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F126" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C127" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D127" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E127" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F127" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C128" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D128" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="E128" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F128" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C129" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D129" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="E129" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="F129" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C130" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D130" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E130" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="F130" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C131" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D131" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E131" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F131" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C132" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D132" t="n">
         <v>1.13</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F132" t="n">
         <v>1.26</v>
@@ -3092,16 +3092,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C133" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D133" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
@@ -3112,56 +3112,56 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C134" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D134" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E134" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C135" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D135" t="n">
         <v>1.15</v>
       </c>
       <c r="E135" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F135" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C136" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D136" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E136" t="n">
         <v>1.02</v>
@@ -3172,13 +3172,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C137" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D137" t="n">
         <v>1.16</v>
@@ -3192,56 +3192,56 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C138" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D138" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E138" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F138" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C139" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D139" t="n">
         <v>1.17</v>
       </c>
       <c r="E139" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F139" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C140" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D140" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E140" t="n">
         <v>1.04</v>
@@ -3252,196 +3252,196 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C141" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D141" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="E141" t="n">
         <v>1.03</v>
       </c>
       <c r="F141" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C142" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D142" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="E142" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F142" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C143" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D143" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E143" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F143" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C144" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D144" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E144" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F144" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C145" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D145" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F145" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C146" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D146" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E146" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F146" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C147" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D147" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E147" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F147" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C148" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E148" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F148" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C149" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D149" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F149" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C150" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D150" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E150" t="n">
         <v>0.84</v>
@@ -3452,19 +3452,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C151" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D151" t="n">
         <v>0.97</v>
       </c>
       <c r="E151" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F151" t="n">
         <v>1.11</v>
@@ -3472,99 +3472,99 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C152" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D152" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E152" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F152" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C153" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D153" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E153" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F153" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C154" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D154" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E154" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F154" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C155" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E155" t="n">
         <v>0.88</v>
       </c>
       <c r="F155" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C156" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E156" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F156" t="n">
         <v>1.16</v>
@@ -3572,279 +3572,279 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C157" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D157" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E157" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F157" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C158" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D158" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E158" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F158" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C159" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D159" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="F159" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C160" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D160" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E160" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C161" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D161" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E161" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C162" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D162" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E162" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F162" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C163" t="n">
         <v>184.12</v>
       </c>
       <c r="D163" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="F163" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C164" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D164" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C165" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D165" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C166" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D166" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E166" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C167" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E167" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="F167" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C168" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E168" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F168" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C169" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D169" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F169" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C170" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D170" t="n">
         <v>1.04</v>
       </c>
       <c r="E170" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F170" t="n">
         <v>1.17</v>
@@ -3852,433 +3852,433 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C171" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D171" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="E171" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F171" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C172" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D172" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E172" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F172" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C173" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D173" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E173" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C174" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D174" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E174" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C175" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E175" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F175" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C176" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D176" t="n">
         <v>0.8</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C177" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D177" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E177" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C178" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D178" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E178" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F178" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C179" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E179" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F179" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C180" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D180" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F180" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C181" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D181" t="n">
         <v>0.92</v>
       </c>
       <c r="E181" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F181" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C182" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D182" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E182" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F182" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C183" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D183" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="E183" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F183" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C184" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D184" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E184" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F184" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C185" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D185" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E185" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F185" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C186" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D186" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E186" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="F186" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C187" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D187" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E187" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="F187" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C188" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D188" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E188" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F188" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C189" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D189" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E189" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F189" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C190" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D190" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E190" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F190" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C191" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D191" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E191" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F191" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C192" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D192" t="n">
         <v>0.64</v>
@@ -4287,124 +4287,124 @@
         <v>0.57</v>
       </c>
       <c r="F192" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C193" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D193" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E193" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F193" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C194" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D194" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E194" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="F194" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C195" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E195" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F195" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C196" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D196" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="F196" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C197" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D197" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E197" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F197" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C198" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D198" t="n">
         <v>0.72</v>
       </c>
       <c r="E198" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F198" t="n">
         <v>0.79</v>
@@ -4412,36 +4412,36 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C199" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D199" t="n">
         <v>0.72</v>
       </c>
       <c r="E199" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F199" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C200" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D200" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E200" t="n">
         <v>0.66</v>
@@ -4452,13 +4452,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C201" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D201" t="n">
         <v>0.71</v>
@@ -4467,18 +4467,18 @@
         <v>0.65</v>
       </c>
       <c r="F201" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C202" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D202" t="n">
         <v>0.71</v>
@@ -4487,21 +4487,21 @@
         <v>0.65</v>
       </c>
       <c r="F202" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C203" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D203" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E203" t="n">
         <v>0.65</v>
@@ -4512,13 +4512,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C204" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D204" t="n">
         <v>0.7</v>
@@ -4527,38 +4527,38 @@
         <v>0.64</v>
       </c>
       <c r="F204" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C205" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D205" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E205" t="n">
         <v>0.64</v>
       </c>
       <c r="F205" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C206" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D206" t="n">
         <v>0.6899999999999999</v>
@@ -4567,18 +4567,18 @@
         <v>0.64</v>
       </c>
       <c r="F206" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C207" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D207" t="n">
         <v>0.6899999999999999</v>
@@ -4587,18 +4587,18 @@
         <v>0.63</v>
       </c>
       <c r="F207" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C208" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D208" t="n">
         <v>0.6899999999999999</v>
@@ -4612,19 +4612,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C209" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D209" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E209" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F209" t="n">
         <v>0.74</v>
@@ -4632,39 +4632,39 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C210" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D210" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E210" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F210" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C211" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D211" t="n">
         <v>0.7</v>
       </c>
       <c r="E211" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F211" t="n">
         <v>0.75</v>
@@ -4672,13 +4672,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C212" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D212" t="n">
         <v>0.7</v>
@@ -4687,18 +4687,18 @@
         <v>0.66</v>
       </c>
       <c r="F212" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C213" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D213" t="n">
         <v>0.7</v>
@@ -4707,78 +4707,78 @@
         <v>0.65</v>
       </c>
       <c r="F213" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C214" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D214" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E214" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F214" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C215" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D215" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F215" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C216" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D216" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E216" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F216" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C217" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D217" t="n">
         <v>0.67</v>
@@ -4792,19 +4792,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C218" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D218" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E218" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F218" t="n">
         <v>0.7</v>
@@ -4812,56 +4812,56 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C219" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D219" t="n">
         <v>0.66</v>
       </c>
       <c r="E219" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F219" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C220" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D220" t="n">
         <v>0.66</v>
       </c>
       <c r="E220" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F220" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C221" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D221" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E221" t="n">
         <v>0.63</v>
@@ -4872,253 +4872,253 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C222" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D222" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E222" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F222" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C223" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E223" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F223" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C224" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D224" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E224" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F224" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C225" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D225" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E225" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F225" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C226" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D226" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E226" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F226" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C227" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E227" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F227" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C228" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D228" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E228" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F228" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C229" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D229" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E229" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F229" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C230" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D230" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E230" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F230" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C231" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D231" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E231" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F231" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C232" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D232" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F232" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C233" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D233" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E233" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F233" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C234" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D234" t="n">
         <v>0.84</v>
@@ -5132,53 +5132,53 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C235" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D235" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E235" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F235" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C236" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D236" t="n">
         <v>0.85</v>
       </c>
       <c r="E236" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F236" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C237" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D237" t="n">
         <v>0.85</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C238" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D238" t="n">
         <v>0.85</v>
@@ -5212,19 +5212,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C239" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D239" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E239" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F239" t="n">
         <v>0.88</v>
@@ -5232,13 +5232,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C240" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D240" t="n">
         <v>0.86</v>
@@ -5247,78 +5247,78 @@
         <v>0.83</v>
       </c>
       <c r="F240" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C241" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D241" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E241" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F241" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C242" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D242" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E242" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F242" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C243" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D243" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E243" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F243" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C244" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D244" t="n">
         <v>0.89</v>
@@ -5332,13 +5332,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C245" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D245" t="n">
         <v>0.89</v>
@@ -5352,93 +5352,93 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C246" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D246" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E246" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F246" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C247" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D247" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E247" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F247" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C248" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D248" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E248" t="n">
         <v>0.84</v>
       </c>
       <c r="F248" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C249" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D249" t="n">
         <v>0.86</v>
       </c>
       <c r="E249" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F249" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C250" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D250" t="n">
         <v>0.86</v>
@@ -5452,13 +5452,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C251" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D251" t="n">
         <v>0.86</v>
@@ -5467,24 +5467,24 @@
         <v>0.83</v>
       </c>
       <c r="F251" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C252" t="n">
-        <v>4336.91</v>
+        <v>4223.92</v>
       </c>
       <c r="D252" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E252" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F252" t="n">
         <v>0.89</v>
@@ -5492,662 +5492,682 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C253" t="n">
-        <v>4460.83</v>
+        <v>4336.91</v>
       </c>
       <c r="D253" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E253" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F253" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C254" t="n">
-        <v>4599.64</v>
+        <v>4460.83</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E254" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F254" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C255" t="n">
-        <v>4758.75</v>
+        <v>4599.64</v>
       </c>
       <c r="D255" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E255" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F255" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C256" t="n">
-        <v>4939.96</v>
+        <v>4758.75</v>
       </c>
       <c r="D256" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E256" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F256" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C257" t="n">
-        <v>5134.49</v>
+        <v>4939.96</v>
       </c>
       <c r="D257" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E257" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F257" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C258" t="n">
-        <v>5323.19</v>
+        <v>5134.49</v>
       </c>
       <c r="D258" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E258" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F258" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F258" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C259" t="n">
-        <v>5485.5</v>
+        <v>5323.19</v>
       </c>
       <c r="D259" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E259" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F259" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C260" t="n">
-        <v>5607.75</v>
+        <v>5485.5</v>
       </c>
       <c r="D260" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E260" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F260" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C261" t="n">
-        <v>5684.82</v>
+        <v>5607.75</v>
       </c>
       <c r="D261" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E261" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F261" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C262" t="n">
-        <v>5717.09</v>
+        <v>5684.82</v>
       </c>
       <c r="D262" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E262" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F262" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C263" t="n">
-        <v>5702.03</v>
+        <v>5717.09</v>
       </c>
       <c r="D263" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E263" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F263" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C264" t="n">
-        <v>5630.41</v>
+        <v>5702.03</v>
       </c>
       <c r="D264" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E264" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F264" t="n">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C265" t="n">
-        <v>5487.26</v>
+        <v>5630.41</v>
       </c>
       <c r="D265" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E265" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="F265" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C266" t="n">
-        <v>5261.98</v>
+        <v>5487.26</v>
       </c>
       <c r="D266" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E266" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="F266" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C267" t="n">
-        <v>4959.08</v>
+        <v>5261.98</v>
       </c>
       <c r="D267" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E267" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="F267" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C268" t="n">
-        <v>4598.29</v>
+        <v>4959.08</v>
       </c>
       <c r="D268" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E268" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F268" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C269" t="n">
-        <v>4207.41</v>
+        <v>4598.29</v>
       </c>
       <c r="D269" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E269" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F269" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C270" t="n">
-        <v>3811.52</v>
+        <v>4207.41</v>
       </c>
       <c r="D270" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E270" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="F270" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C271" t="n">
-        <v>3426.12</v>
+        <v>3811.52</v>
       </c>
       <c r="D271" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E271" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="F271" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C272" t="n">
-        <v>3057.02</v>
+        <v>3426.12</v>
       </c>
       <c r="D272" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F272" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E272" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F272" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C273" t="n">
-        <v>2706.17</v>
+        <v>3057.02</v>
       </c>
       <c r="D273" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="E273" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="F273" t="n">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C274" t="n">
-        <v>2375.65</v>
+        <v>2706.17</v>
       </c>
       <c r="D274" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="E274" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="F274" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C275" t="n">
-        <v>2067.43</v>
+        <v>2375.65</v>
       </c>
       <c r="D275" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="E275" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="F275" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C276" t="n">
-        <v>1784.6</v>
+        <v>2067.43</v>
       </c>
       <c r="D276" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="E276" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="F276" t="n">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B277" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C277" t="n">
-        <v>1529.94</v>
+        <v>1784.6</v>
       </c>
       <c r="D277" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="E277" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="F277" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B278" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C278" t="n">
-        <v>1301.97</v>
+        <v>1529.94</v>
       </c>
       <c r="D278" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="E278" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="F278" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B279" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C279" t="n">
-        <v>1099.12</v>
+        <v>1301.97</v>
       </c>
       <c r="D279" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="E279" t="n">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="F279" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B280" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C280" t="n">
-        <v>921.16</v>
+        <v>1099.12</v>
       </c>
       <c r="D280" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E280" t="n">
-        <v>2.51</v>
+        <v>2.49</v>
       </c>
       <c r="F280" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B281" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C281" t="n">
-        <v>768.86</v>
+        <v>921.16</v>
       </c>
       <c r="D281" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="E281" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="F281" t="n">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B282" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C282" t="n">
-        <v>641.99</v>
+        <v>768.86</v>
       </c>
       <c r="D282" t="n">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
       <c r="E282" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="F282" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B283" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C283" t="n">
-        <v>538.9400000000001</v>
+        <v>641.99</v>
       </c>
       <c r="D283" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="E283" t="n">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="F283" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B284" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C284" t="n">
-        <v>456.18</v>
+        <v>538.9400000000001</v>
       </c>
       <c r="D284" t="n">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="E284" t="n">
-        <v>2.95</v>
+        <v>2.71</v>
       </c>
       <c r="F284" t="n">
-        <v>3.54</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B285" t="n">
+        <v>342</v>
+      </c>
+      <c r="C285" t="n">
+        <v>456.18</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B286" t="n">
         <v>566</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C286" t="n">
         <v>388.41</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D286" t="n">
         <v>3.71</v>
       </c>
-      <c r="E285" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="F285" t="n">
-        <v>4.07</v>
+      <c r="E286" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F286" t="n">
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,79 +472,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44175.99930555555</v>
+        <v>44176.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>16999</v>
+        <v>18727</v>
       </c>
       <c r="C2" t="n">
-        <v>14489.97</v>
+        <v>14744.86</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E2" t="n">
         <v>0.66</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44174.99930555555</v>
+        <v>44175.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>12756</v>
+        <v>16999</v>
       </c>
       <c r="C3" t="n">
-        <v>15409.88</v>
+        <v>15315.81</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44173.99930555555</v>
+        <v>44174.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>14842</v>
+        <v>12756</v>
       </c>
       <c r="C4" t="n">
-        <v>16369.88</v>
+        <v>15938.37</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="E4" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="F4" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44173.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>13720</v>
+        <v>14842</v>
       </c>
       <c r="C5" t="n">
-        <v>17364</v>
+        <v>16654.77</v>
       </c>
       <c r="D5" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="F5" t="n">
         <v>0.8</v>
@@ -552,76 +552,76 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44171.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>18887</v>
+        <v>13720</v>
       </c>
       <c r="C6" t="n">
-        <v>18348.05</v>
+        <v>17468.56</v>
       </c>
       <c r="D6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44170.99930555555</v>
+        <v>44171.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>21052</v>
+        <v>18887</v>
       </c>
       <c r="C7" t="n">
-        <v>19245.93</v>
+        <v>18335.02</v>
       </c>
       <c r="D7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44169.99930555555</v>
+        <v>44170.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>24099</v>
+        <v>21052</v>
       </c>
       <c r="C8" t="n">
-        <v>19992.77</v>
+        <v>19169.78</v>
       </c>
       <c r="D8" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44168.99930555555</v>
+        <v>44169.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>23225</v>
+        <v>24099</v>
       </c>
       <c r="C9" t="n">
-        <v>20572.73</v>
+        <v>19895.25</v>
       </c>
       <c r="D9" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>0.8</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>20709</v>
+        <v>23225</v>
       </c>
       <c r="C10" t="n">
-        <v>21038.67</v>
+        <v>20481.65</v>
       </c>
       <c r="D10" t="n">
         <v>0.8100000000000001</v>
@@ -647,44 +647,44 @@
         <v>0.8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C11" t="n">
-        <v>21490.7</v>
+        <v>20969.09</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>0.79</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C12" t="n">
-        <v>22028.28</v>
+        <v>21447.64</v>
       </c>
       <c r="D12" t="n">
         <v>0.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F12" t="n">
         <v>0.8100000000000001</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C13" t="n">
-        <v>22705.53</v>
+        <v>22009.86</v>
       </c>
       <c r="D13" t="n">
         <v>0.79</v>
@@ -712,59 +712,59 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C14" t="n">
-        <v>23508.1</v>
+        <v>22706.12</v>
       </c>
       <c r="D14" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C15" t="n">
-        <v>24386.46</v>
+        <v>23520.75</v>
       </c>
       <c r="D15" t="n">
         <v>0.8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F15" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C16" t="n">
-        <v>25309.8</v>
+        <v>24404.67</v>
       </c>
       <c r="D16" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F16" t="n">
         <v>0.82</v>
@@ -772,719 +772,719 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C17" t="n">
-        <v>26291.97</v>
+        <v>25328.52</v>
       </c>
       <c r="D17" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.82</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C18" t="n">
-        <v>27377.68</v>
+        <v>26307.89</v>
       </c>
       <c r="D18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.84</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C19" t="n">
-        <v>28591.95</v>
+        <v>27389.2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E19" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.85</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C20" t="n">
-        <v>29893.9</v>
+        <v>28598.81</v>
       </c>
       <c r="D20" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C21" t="n">
-        <v>31171.99</v>
+        <v>29896.7</v>
       </c>
       <c r="D21" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E21" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F21" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C22" t="n">
-        <v>32296.02</v>
+        <v>31171.8</v>
       </c>
       <c r="D22" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F22" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C23" t="n">
-        <v>33184.62</v>
+        <v>32294</v>
       </c>
       <c r="D23" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E23" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C24" t="n">
-        <v>33836.83</v>
+        <v>33181.81</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E24" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C25" t="n">
-        <v>34314.29</v>
+        <v>33834.01</v>
       </c>
       <c r="D25" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C26" t="n">
-        <v>34693.46</v>
+        <v>34311.94</v>
       </c>
       <c r="D26" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C27" t="n">
-        <v>35013.46</v>
+        <v>34691.81</v>
       </c>
       <c r="D27" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C28" t="n">
-        <v>35245.12</v>
+        <v>35012.53</v>
       </c>
       <c r="D28" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C29" t="n">
-        <v>35333.42</v>
+        <v>35244.79</v>
       </c>
       <c r="D29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C30" t="n">
-        <v>35250.34</v>
+        <v>35333.52</v>
       </c>
       <c r="D30" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C31" t="n">
-        <v>35027.65</v>
+        <v>35250.69</v>
       </c>
       <c r="D31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C32" t="n">
-        <v>34734</v>
+        <v>35028.1</v>
       </c>
       <c r="D32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C33" t="n">
-        <v>34424.79</v>
+        <v>34734.44</v>
       </c>
       <c r="D33" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C34" t="n">
-        <v>34112.64</v>
+        <v>34425.15</v>
       </c>
       <c r="D34" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E34" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C35" t="n">
-        <v>33734.33</v>
+        <v>34112.88</v>
       </c>
       <c r="D35" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C36" t="n">
-        <v>33209.34</v>
+        <v>33734.46</v>
       </c>
       <c r="D36" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C37" t="n">
-        <v>32513.33</v>
+        <v>33209.38</v>
       </c>
       <c r="D37" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E37" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="F37" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C38" t="n">
-        <v>31690.84</v>
+        <v>32513.3</v>
       </c>
       <c r="D38" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C39" t="n">
-        <v>30822.14</v>
+        <v>31690.77</v>
       </c>
       <c r="D39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C40" t="n">
-        <v>29970.19</v>
+        <v>30822.07</v>
       </c>
       <c r="D40" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C41" t="n">
-        <v>29138.93</v>
+        <v>29970.13</v>
       </c>
       <c r="D41" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E41" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F41" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C42" t="n">
-        <v>28257.47</v>
+        <v>29138.87</v>
       </c>
       <c r="D42" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E42" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F42" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C43" t="n">
-        <v>27241.48</v>
+        <v>28257.44</v>
       </c>
       <c r="D43" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E43" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F43" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C44" t="n">
-        <v>26046.81</v>
+        <v>27241.47</v>
       </c>
       <c r="D44" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E44" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F44" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C45" t="n">
-        <v>24688.18</v>
+        <v>26046.8</v>
       </c>
       <c r="D45" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E45" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C46" t="n">
-        <v>23219.58</v>
+        <v>24688.19</v>
       </c>
       <c r="D46" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E46" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C47" t="n">
-        <v>21706.67</v>
+        <v>23219.59</v>
       </c>
       <c r="D47" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E47" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F47" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C48" t="n">
-        <v>20196.33</v>
+        <v>21706.68</v>
       </c>
       <c r="D48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F48" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C49" t="n">
-        <v>18698.47</v>
+        <v>20196.34</v>
       </c>
       <c r="D49" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F49" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C50" t="n">
-        <v>17214.8</v>
+        <v>18698.48</v>
       </c>
       <c r="D50" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E50" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F50" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C51" t="n">
-        <v>15756.9</v>
+        <v>17214.81</v>
       </c>
       <c r="D51" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E51" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F51" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C52" t="n">
-        <v>14354.81</v>
+        <v>15756.91</v>
       </c>
       <c r="D52" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E52" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F52" t="n">
         <v>1.78</v>
@@ -1492,19 +1492,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C53" t="n">
-        <v>13046.4</v>
+        <v>14354.82</v>
       </c>
       <c r="D53" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E53" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F53" t="n">
         <v>1.78</v>
@@ -1512,39 +1512,39 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C54" t="n">
-        <v>11863.44</v>
+        <v>13046.4</v>
       </c>
       <c r="D54" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E54" t="n">
         <v>1.72</v>
       </c>
       <c r="F54" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C55" t="n">
-        <v>10809.37</v>
+        <v>11863.44</v>
       </c>
       <c r="D55" t="n">
         <v>1.76</v>
       </c>
       <c r="E55" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F55" t="n">
         <v>1.79</v>
@@ -1552,53 +1552,53 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C56" t="n">
-        <v>9858.67</v>
+        <v>10809.37</v>
       </c>
       <c r="D56" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E56" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F56" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C57" t="n">
-        <v>8981.58</v>
+        <v>9858.67</v>
       </c>
       <c r="D57" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E57" t="n">
         <v>1.74</v>
       </c>
       <c r="F57" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C58" t="n">
-        <v>8159.87</v>
+        <v>8981.58</v>
       </c>
       <c r="D58" t="n">
         <v>1.78</v>
@@ -1607,18 +1607,18 @@
         <v>1.74</v>
       </c>
       <c r="F58" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C59" t="n">
-        <v>7391.89</v>
+        <v>8159.87</v>
       </c>
       <c r="D59" t="n">
         <v>1.78</v>
@@ -1632,379 +1632,379 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C60" t="n">
-        <v>6687.4</v>
+        <v>7391.89</v>
       </c>
       <c r="D60" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E60" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F60" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C61" t="n">
-        <v>6055.96</v>
+        <v>6687.4</v>
       </c>
       <c r="D61" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E61" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F61" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C62" t="n">
-        <v>5495.89</v>
+        <v>6055.96</v>
       </c>
       <c r="D62" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E62" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F62" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C63" t="n">
-        <v>4991.12</v>
+        <v>5495.89</v>
       </c>
       <c r="D63" t="n">
         <v>1.75</v>
       </c>
       <c r="E63" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F63" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C64" t="n">
-        <v>4522.48</v>
+        <v>4991.12</v>
       </c>
       <c r="D64" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="E64" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="F64" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C65" t="n">
-        <v>4079.31</v>
+        <v>4522.48</v>
       </c>
       <c r="D65" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E65" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="F65" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C66" t="n">
-        <v>3663.77</v>
+        <v>4079.31</v>
       </c>
       <c r="D66" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="E66" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="F66" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C67" t="n">
-        <v>3286.67</v>
+        <v>3663.77</v>
       </c>
       <c r="D67" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="E67" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F67" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C68" t="n">
-        <v>2959.48</v>
+        <v>3286.67</v>
       </c>
       <c r="D68" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E68" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F68" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C69" t="n">
-        <v>2686.25</v>
+        <v>2959.48</v>
       </c>
       <c r="D69" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E69" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F69" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C70" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D70" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E70" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F70" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C71" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D71" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E71" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F71" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C72" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D72" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E72" t="n">
         <v>1.25</v>
       </c>
-      <c r="E72" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F72" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C73" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E73" t="n">
         <v>1.2</v>
       </c>
-      <c r="E73" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F73" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C74" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D74" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E74" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F74" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C75" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D75" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E75" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F75" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C76" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D76" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E76" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F76" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C77" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D77" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E77" t="n">
         <v>1.06</v>
       </c>
       <c r="F77" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C78" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D78" t="n">
         <v>1.11</v>
       </c>
       <c r="E78" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F78" t="n">
         <v>1.16</v>
@@ -2012,33 +2012,33 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C79" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D79" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E79" t="n">
         <v>1.05</v>
       </c>
       <c r="F79" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C80" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D80" t="n">
         <v>1.1</v>
@@ -2052,19 +2052,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C81" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D81" t="n">
         <v>1.1</v>
       </c>
       <c r="E81" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F81" t="n">
         <v>1.15</v>
@@ -2072,19 +2072,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C82" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D82" t="n">
         <v>1.1</v>
       </c>
       <c r="E82" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F82" t="n">
         <v>1.15</v>
@@ -2092,19 +2092,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C83" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D83" t="n">
         <v>1.1</v>
       </c>
       <c r="E83" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F83" t="n">
         <v>1.15</v>
@@ -2112,16 +2112,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C84" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E84" t="n">
         <v>1.04</v>
@@ -2132,99 +2132,99 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C85" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D85" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E85" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F85" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C86" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D86" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E86" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F86" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C87" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D87" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E87" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F87" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C88" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D88" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E88" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F88" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C89" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D89" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E89" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F89" t="n">
         <v>1.08</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C90" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D90" t="n">
         <v>1.02</v>
@@ -2247,444 +2247,444 @@
         <v>0.97</v>
       </c>
       <c r="F90" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C91" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D91" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E91" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F91" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C92" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D92" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F92" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C93" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D93" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E93" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F93" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C94" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D94" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E94" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F94" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C95" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E95" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F95" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C96" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D96" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E96" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F96" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C97" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D97" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E97" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F97" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C98" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D98" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E98" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F98" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C99" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D99" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E99" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="F99" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C100" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E100" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F100" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C101" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E101" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F101" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C102" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D102" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E102" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="F102" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C103" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D103" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E103" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F103" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C104" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D104" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E104" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F104" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C105" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F105" t="n">
         <v>1.34</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1.42</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C106" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F106" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C107" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D107" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F107" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C108" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F108" t="n">
         <v>1.58</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C109" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D109" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E109" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F109" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C110" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D110" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E110" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="F110" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C111" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D111" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E111" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F111" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C112" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D112" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E112" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="F112" t="n">
         <v>1.83</v>
@@ -2692,153 +2692,153 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C113" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D113" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E113" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="F113" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C114" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D114" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E114" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F114" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C115" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D115" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E115" t="n">
         <v>1.49</v>
       </c>
-      <c r="E115" t="n">
-        <v>1.38</v>
-      </c>
       <c r="F115" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C116" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D116" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E116" t="n">
         <v>1.39</v>
       </c>
-      <c r="E116" t="n">
-        <v>1.28</v>
-      </c>
       <c r="F116" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C117" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E117" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="F117" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C118" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E118" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="F118" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C119" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E119" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F119" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C120" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D120" t="n">
         <v>1.23</v>
@@ -2847,144 +2847,144 @@
         <v>1.12</v>
       </c>
       <c r="F120" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C121" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E121" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F121" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C122" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D122" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E122" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="F122" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C123" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D123" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E123" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="F123" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C124" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D124" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E124" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="F124" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C125" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="E125" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="F125" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C126" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D126" t="n">
         <v>1.34</v>
       </c>
       <c r="E126" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="F126" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C127" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D127" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="F127" t="n">
         <v>1.47</v>
@@ -2992,113 +2992,113 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C128" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D128" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E128" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F128" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C129" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D129" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="E129" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="F129" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C130" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D130" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E130" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="F130" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C131" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D131" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E131" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="F131" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C132" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D132" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E132" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="F132" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C133" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D133" t="n">
         <v>1.13</v>
@@ -3112,173 +3112,173 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C134" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D134" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F134" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C135" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D135" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E135" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C136" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D136" t="n">
         <v>1.15</v>
       </c>
       <c r="E136" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F136" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C137" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D137" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E137" t="n">
         <v>1.02</v>
       </c>
       <c r="F137" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C138" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D138" t="n">
         <v>1.16</v>
       </c>
       <c r="E138" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F138" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C139" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D139" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E139" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F139" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C140" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D140" t="n">
         <v>1.17</v>
       </c>
       <c r="E140" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F140" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C141" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D141" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E141" t="n">
         <v>1.03</v>
       </c>
       <c r="F141" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C142" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D142" t="n">
         <v>1.18</v>
@@ -3287,204 +3287,204 @@
         <v>1.03</v>
       </c>
       <c r="F142" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C143" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D143" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="E143" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F143" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C144" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D144" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E144" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F144" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C145" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D145" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="E145" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F145" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C146" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D146" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="E146" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F146" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C147" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D147" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E147" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F147" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C148" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D148" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E148" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F148" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C149" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E149" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F149" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C150" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D150" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F150" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C151" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D151" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E151" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F151" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C152" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D152" t="n">
         <v>0.97</v>
       </c>
       <c r="E152" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F152" t="n">
         <v>1.11</v>
@@ -3492,79 +3492,79 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C153" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D153" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E153" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F153" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C154" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D154" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E154" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F154" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C155" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D155" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E155" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F155" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C156" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D156" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E156" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F156" t="n">
         <v>1.16</v>
@@ -3572,179 +3572,179 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C157" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D157" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E157" t="n">
         <v>0.89</v>
       </c>
       <c r="F157" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C158" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D158" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E158" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F158" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C159" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D159" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E159" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F159" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C160" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D160" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E160" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F160" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C161" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D161" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E161" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="F161" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C162" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D162" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E162" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C163" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D163" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E163" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F163" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C164" t="n">
         <v>184.12</v>
       </c>
       <c r="D164" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E164" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F164" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C165" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D165" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F165" t="n">
         <v>0.93</v>
@@ -3752,233 +3752,233 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C166" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D166" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E166" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F166" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C167" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D167" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E167" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C168" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E168" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="F168" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C169" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E169" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F169" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C170" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D170" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F170" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C171" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D171" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E171" t="n">
         <v>0.92</v>
       </c>
       <c r="F171" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C172" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D172" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="E172" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F172" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C173" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D173" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E173" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="F173" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C174" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D174" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E174" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C175" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D175" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E175" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C176" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E176" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C177" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D177" t="n">
         <v>0.8</v>
@@ -3992,339 +3992,339 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C178" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D178" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E178" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="F178" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C179" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D179" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E179" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="F179" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C180" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E180" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C181" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D181" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E181" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F181" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C182" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D182" t="n">
         <v>0.92</v>
       </c>
       <c r="E182" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F182" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C183" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D183" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E183" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F183" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C184" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D184" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E184" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F184" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C185" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D185" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="E185" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C186" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D186" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E186" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C187" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D187" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E187" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="F187" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C188" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D188" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E188" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F188" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C189" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D189" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E189" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F189" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C190" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D190" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E190" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="F190" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C191" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D191" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E191" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F191" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C192" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D192" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E192" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F192" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C193" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D193" t="n">
         <v>0.64</v>
       </c>
       <c r="E193" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F193" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C194" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D194" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E194" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="F194" t="n">
         <v>0.72</v>
@@ -4332,93 +4332,93 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C195" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D195" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E195" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="F195" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C196" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D196" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E196" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F196" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C197" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D197" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E197" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="F197" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C198" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D198" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E198" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F198" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C199" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D199" t="n">
         <v>0.72</v>
@@ -4432,13 +4432,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C200" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D200" t="n">
         <v>0.72</v>
@@ -4447,24 +4447,24 @@
         <v>0.66</v>
       </c>
       <c r="F200" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C201" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D201" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E201" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F201" t="n">
         <v>0.78</v>
@@ -4472,13 +4472,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C202" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D202" t="n">
         <v>0.71</v>
@@ -4487,18 +4487,18 @@
         <v>0.65</v>
       </c>
       <c r="F202" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C203" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D203" t="n">
         <v>0.71</v>
@@ -4507,61 +4507,61 @@
         <v>0.65</v>
       </c>
       <c r="F203" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C204" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D204" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E204" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F204" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C205" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D205" t="n">
         <v>0.7</v>
       </c>
       <c r="E205" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F205" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C206" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E206" t="n">
         <v>0.64</v>
@@ -4572,33 +4572,33 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C207" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D207" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F207" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C208" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D208" t="n">
         <v>0.6899999999999999</v>
@@ -4612,13 +4612,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C209" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D209" t="n">
         <v>0.6899999999999999</v>
@@ -4632,13 +4632,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C210" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D210" t="n">
         <v>0.6899999999999999</v>
@@ -4652,16 +4652,16 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C211" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E211" t="n">
         <v>0.65</v>
@@ -4672,19 +4672,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C212" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D212" t="n">
         <v>0.7</v>
       </c>
       <c r="E212" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F212" t="n">
         <v>0.75</v>
@@ -4692,19 +4692,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C213" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D213" t="n">
         <v>0.7</v>
       </c>
       <c r="E213" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F213" t="n">
         <v>0.75</v>
@@ -4712,16 +4712,16 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C214" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E214" t="n">
         <v>0.65</v>
@@ -4732,73 +4732,73 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C215" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D215" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E215" t="n">
         <v>0.65</v>
       </c>
       <c r="F215" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C216" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D216" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E216" t="n">
         <v>0.64</v>
       </c>
       <c r="F216" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C217" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D217" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E217" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F217" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C218" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D218" t="n">
         <v>0.67</v>
@@ -4807,64 +4807,64 @@
         <v>0.63</v>
       </c>
       <c r="F218" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C219" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D219" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E219" t="n">
         <v>0.63</v>
       </c>
       <c r="F219" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C220" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D220" t="n">
         <v>0.66</v>
       </c>
       <c r="E220" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F220" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C221" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D221" t="n">
         <v>0.66</v>
       </c>
       <c r="E221" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F221" t="n">
         <v>0.7</v>
@@ -4872,16 +4872,16 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C222" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D222" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E222" t="n">
         <v>0.63</v>
@@ -4892,253 +4892,253 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C223" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D223" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E223" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F223" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C224" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E224" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F224" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C225" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D225" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E225" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F225" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C226" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D226" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E226" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F226" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C227" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D227" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E227" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F227" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C228" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D228" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E228" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F228" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C229" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D229" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E229" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F229" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C230" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D230" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E230" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F230" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C231" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D231" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E231" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F231" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C232" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D232" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E232" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F232" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C233" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D233" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E233" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F233" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C234" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D234" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E234" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F234" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C235" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D235" t="n">
         <v>0.84</v>
@@ -5152,16 +5152,16 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C236" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D236" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E236" t="n">
         <v>0.8100000000000001</v>
@@ -5172,33 +5172,33 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C237" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D237" t="n">
         <v>0.85</v>
       </c>
       <c r="E237" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F237" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C238" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D238" t="n">
         <v>0.85</v>
@@ -5212,13 +5212,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C239" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D239" t="n">
         <v>0.85</v>
@@ -5232,19 +5232,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C240" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D240" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E240" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F240" t="n">
         <v>0.88</v>
@@ -5252,13 +5252,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C241" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D241" t="n">
         <v>0.86</v>
@@ -5267,78 +5267,78 @@
         <v>0.83</v>
       </c>
       <c r="F241" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C242" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D242" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E242" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F242" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C243" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D243" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E243" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F243" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C244" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D244" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E244" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F244" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C245" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D245" t="n">
         <v>0.89</v>
@@ -5352,13 +5352,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C246" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D246" t="n">
         <v>0.89</v>
@@ -5372,93 +5372,93 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C247" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D247" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E247" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F247" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C248" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D248" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E248" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F248" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C249" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D249" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E249" t="n">
         <v>0.84</v>
       </c>
       <c r="F249" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C250" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D250" t="n">
         <v>0.86</v>
       </c>
       <c r="E250" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F250" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C251" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D251" t="n">
         <v>0.86</v>
@@ -5472,13 +5472,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C252" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D252" t="n">
         <v>0.86</v>
@@ -5487,24 +5487,24 @@
         <v>0.83</v>
       </c>
       <c r="F252" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C253" t="n">
-        <v>4336.91</v>
+        <v>4223.92</v>
       </c>
       <c r="D253" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E253" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F253" t="n">
         <v>0.89</v>
@@ -5512,662 +5512,682 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C254" t="n">
-        <v>4460.83</v>
+        <v>4336.91</v>
       </c>
       <c r="D254" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E254" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F254" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C255" t="n">
-        <v>4599.64</v>
+        <v>4460.83</v>
       </c>
       <c r="D255" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F255" t="n">
         <v>0.9</v>
-      </c>
-      <c r="E255" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F255" t="n">
-        <v>0.92</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C256" t="n">
-        <v>4758.75</v>
+        <v>4599.64</v>
       </c>
       <c r="D256" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F256" t="n">
         <v>0.93</v>
-      </c>
-      <c r="E256" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F256" t="n">
-        <v>0.95</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C257" t="n">
-        <v>4939.96</v>
+        <v>4758.75</v>
       </c>
       <c r="D257" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E257" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F257" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C258" t="n">
-        <v>5134.49</v>
+        <v>4939.96</v>
       </c>
       <c r="D258" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E258" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F258" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C259" t="n">
-        <v>5323.19</v>
+        <v>5134.49</v>
       </c>
       <c r="D259" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E259" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F259" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C260" t="n">
-        <v>5485.5</v>
+        <v>5323.19</v>
       </c>
       <c r="D260" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E260" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F260" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C261" t="n">
-        <v>5607.75</v>
+        <v>5485.5</v>
       </c>
       <c r="D261" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E261" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F261" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C262" t="n">
-        <v>5684.82</v>
+        <v>5607.75</v>
       </c>
       <c r="D262" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E262" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F262" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C263" t="n">
-        <v>5717.09</v>
+        <v>5684.82</v>
       </c>
       <c r="D263" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E263" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F263" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C264" t="n">
-        <v>5702.03</v>
+        <v>5717.09</v>
       </c>
       <c r="D264" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E264" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F264" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C265" t="n">
-        <v>5630.41</v>
+        <v>5702.03</v>
       </c>
       <c r="D265" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E265" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F265" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C266" t="n">
-        <v>5487.26</v>
+        <v>5630.41</v>
       </c>
       <c r="D266" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E266" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="F266" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C267" t="n">
-        <v>5261.98</v>
+        <v>5487.26</v>
       </c>
       <c r="D267" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E267" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="F267" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C268" t="n">
-        <v>4959.08</v>
+        <v>5261.98</v>
       </c>
       <c r="D268" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E268" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="F268" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C269" t="n">
-        <v>4598.29</v>
+        <v>4959.08</v>
       </c>
       <c r="D269" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E269" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F269" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C270" t="n">
-        <v>4207.41</v>
+        <v>4598.29</v>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E270" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="F270" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C271" t="n">
-        <v>3811.52</v>
+        <v>4207.41</v>
       </c>
       <c r="D271" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F271" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C272" t="n">
-        <v>3426.12</v>
+        <v>3811.52</v>
       </c>
       <c r="D272" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E272" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="F272" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C273" t="n">
-        <v>3057.02</v>
+        <v>3426.12</v>
       </c>
       <c r="D273" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F273" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E273" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F273" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C274" t="n">
-        <v>2706.17</v>
+        <v>3057.02</v>
       </c>
       <c r="D274" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="E274" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="F274" t="n">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C275" t="n">
-        <v>2375.65</v>
+        <v>2706.17</v>
       </c>
       <c r="D275" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="E275" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="F275" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C276" t="n">
-        <v>2067.43</v>
+        <v>2375.65</v>
       </c>
       <c r="D276" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="E276" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="F276" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B277" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C277" t="n">
-        <v>1784.6</v>
+        <v>2067.43</v>
       </c>
       <c r="D277" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="E277" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="F277" t="n">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B278" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C278" t="n">
-        <v>1529.94</v>
+        <v>1784.6</v>
       </c>
       <c r="D278" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="E278" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="F278" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B279" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C279" t="n">
-        <v>1301.97</v>
+        <v>1529.94</v>
       </c>
       <c r="D279" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="E279" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="F279" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B280" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C280" t="n">
-        <v>1099.12</v>
+        <v>1301.97</v>
       </c>
       <c r="D280" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="E280" t="n">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="F280" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B281" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C281" t="n">
-        <v>921.16</v>
+        <v>1099.12</v>
       </c>
       <c r="D281" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E281" t="n">
-        <v>2.52</v>
+        <v>2.49</v>
       </c>
       <c r="F281" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B282" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C282" t="n">
-        <v>768.86</v>
+        <v>921.16</v>
       </c>
       <c r="D282" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="E282" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="F282" t="n">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B283" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C283" t="n">
-        <v>641.99</v>
+        <v>768.86</v>
       </c>
       <c r="D283" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="E283" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="F283" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B284" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C284" t="n">
-        <v>538.9400000000001</v>
+        <v>641.99</v>
       </c>
       <c r="D284" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="E284" t="n">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="F284" t="n">
-        <v>3.22</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B285" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C285" t="n">
-        <v>456.18</v>
+        <v>538.9400000000001</v>
       </c>
       <c r="D285" t="n">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="E285" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="F285" t="n">
-        <v>3.54</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B286" t="n">
+        <v>342</v>
+      </c>
+      <c r="C286" t="n">
+        <v>456.18</v>
+      </c>
+      <c r="D286" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F286" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B287" t="n">
         <v>566</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C287" t="n">
         <v>388.41</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D287" t="n">
         <v>3.71</v>
       </c>
-      <c r="E286" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F286" t="n">
-        <v>4.1</v>
+      <c r="E287" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F287" t="n">
+        <v>4.07</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,113 +472,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44177.99930555555</v>
+        <v>44178.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>19903</v>
+        <v>17938</v>
       </c>
       <c r="C2" t="n">
-        <v>15994.3</v>
+        <v>18420.77</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="E2" t="n">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44176.99930555555</v>
+        <v>44177.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>18727</v>
+        <v>19903</v>
       </c>
       <c r="C3" t="n">
-        <v>16071.18</v>
+        <v>17759.84</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="F3" t="n">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44175.99930555555</v>
+        <v>44176.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>16999</v>
+        <v>18727</v>
       </c>
       <c r="C4" t="n">
-        <v>16198.42</v>
+        <v>17187.3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F4" t="n">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44174.99930555555</v>
+        <v>44175.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>12756</v>
+        <v>16999</v>
       </c>
       <c r="C5" t="n">
-        <v>16446.21</v>
+        <v>16787.08</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="E5" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44173.99930555555</v>
+        <v>44174.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>14842</v>
+        <v>12756</v>
       </c>
       <c r="C6" t="n">
-        <v>16875.4</v>
+        <v>16648.36</v>
       </c>
       <c r="D6" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44173.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>13720</v>
+        <v>14842</v>
       </c>
       <c r="C7" t="n">
-        <v>17493.33</v>
+        <v>16829.01</v>
       </c>
       <c r="D7" t="n">
         <v>0.79</v>
@@ -592,76 +592,76 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44171.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>18887</v>
+        <v>13720</v>
       </c>
       <c r="C8" t="n">
-        <v>18246.55</v>
+        <v>17316.8</v>
       </c>
       <c r="D8" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44170.99930555555</v>
+        <v>44171.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>21052</v>
+        <v>18887</v>
       </c>
       <c r="C9" t="n">
-        <v>19034.01</v>
+        <v>18029.6</v>
       </c>
       <c r="D9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44169.99930555555</v>
+        <v>44170.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>24099</v>
+        <v>21052</v>
       </c>
       <c r="C10" t="n">
-        <v>19758.31</v>
+        <v>18835.5</v>
       </c>
       <c r="D10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44168.99930555555</v>
+        <v>44169.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>23225</v>
+        <v>24099</v>
       </c>
       <c r="C11" t="n">
-        <v>20370.55</v>
+        <v>19609.31</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E11" t="n">
         <v>0.79</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>20709</v>
+        <v>23225</v>
       </c>
       <c r="C12" t="n">
-        <v>20895.08</v>
+        <v>20280.45</v>
       </c>
       <c r="D12" t="n">
         <v>0.8</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C13" t="n">
-        <v>21410.64</v>
+        <v>20858.72</v>
       </c>
       <c r="D13" t="n">
         <v>0.8</v>
@@ -712,33 +712,33 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C14" t="n">
-        <v>22003.06</v>
+        <v>21415.03</v>
       </c>
       <c r="D14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.79</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.78</v>
-      </c>
       <c r="F14" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C15" t="n">
-        <v>22719.82</v>
+        <v>22032.79</v>
       </c>
       <c r="D15" t="n">
         <v>0.79</v>
@@ -747,24 +747,24 @@
         <v>0.78</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C16" t="n">
-        <v>23545.24</v>
+        <v>22760.71</v>
       </c>
       <c r="D16" t="n">
         <v>0.8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F16" t="n">
         <v>0.8100000000000001</v>
@@ -772,33 +772,33 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C17" t="n">
-        <v>24431.92</v>
+        <v>23586.4</v>
       </c>
       <c r="D17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C18" t="n">
-        <v>25352.99</v>
+        <v>24466.42</v>
       </c>
       <c r="D18" t="n">
         <v>0.8100000000000001</v>
@@ -812,719 +812,719 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C19" t="n">
-        <v>26326.55</v>
+        <v>25377.57</v>
       </c>
       <c r="D19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.83</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C20" t="n">
-        <v>27401.11</v>
+        <v>26340.83</v>
       </c>
       <c r="D20" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.84</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C21" t="n">
-        <v>28604.52</v>
+        <v>27406.6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="E21" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F21" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C22" t="n">
-        <v>29897.6</v>
+        <v>28603.61</v>
       </c>
       <c r="D22" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E22" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.88</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C23" t="n">
-        <v>31169.55</v>
+        <v>29892.87</v>
       </c>
       <c r="D23" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E23" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F23" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C24" t="n">
-        <v>32290.19</v>
+        <v>31163.26</v>
       </c>
       <c r="D24" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F24" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C25" t="n">
-        <v>33177.68</v>
+        <v>32284.01</v>
       </c>
       <c r="D25" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E25" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C26" t="n">
-        <v>33830.38</v>
+        <v>33172.61</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E26" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C27" t="n">
-        <v>34309.25</v>
+        <v>33826.88</v>
       </c>
       <c r="D27" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C28" t="n">
-        <v>34690.16</v>
+        <v>34307.32</v>
       </c>
       <c r="D28" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C29" t="n">
-        <v>35011.81</v>
+        <v>34689.53</v>
       </c>
       <c r="D29" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C30" t="n">
-        <v>35244.77</v>
+        <v>35012.11</v>
       </c>
       <c r="D30" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C31" t="n">
-        <v>35333.95</v>
+        <v>35245.6</v>
       </c>
       <c r="D31" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C32" t="n">
-        <v>35251.32</v>
+        <v>35334.96</v>
       </c>
       <c r="D32" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C33" t="n">
-        <v>35028.75</v>
+        <v>35252.28</v>
       </c>
       <c r="D33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C34" t="n">
-        <v>34734.99</v>
+        <v>35029.51</v>
       </c>
       <c r="D34" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C35" t="n">
-        <v>34425.54</v>
+        <v>34735.5</v>
       </c>
       <c r="D35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.17</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C36" t="n">
-        <v>34113.11</v>
+        <v>34425.81</v>
       </c>
       <c r="D36" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C37" t="n">
-        <v>33734.55</v>
+        <v>34113.18</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C38" t="n">
-        <v>33209.37</v>
+        <v>33734.48</v>
       </c>
       <c r="D38" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C39" t="n">
-        <v>32513.23</v>
+        <v>33209.23</v>
       </c>
       <c r="D39" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C40" t="n">
-        <v>31690.67</v>
+        <v>32513.07</v>
       </c>
       <c r="D40" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C41" t="n">
-        <v>30821.97</v>
+        <v>31690.53</v>
       </c>
       <c r="D41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C42" t="n">
-        <v>29970.04</v>
+        <v>30821.86</v>
       </c>
       <c r="D42" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C43" t="n">
-        <v>29138.82</v>
+        <v>29969.97</v>
       </c>
       <c r="D43" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E43" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F43" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C44" t="n">
-        <v>28257.41</v>
+        <v>29138.78</v>
       </c>
       <c r="D44" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E44" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F44" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C45" t="n">
-        <v>27241.45</v>
+        <v>28257.4</v>
       </c>
       <c r="D45" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E45" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F45" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C46" t="n">
-        <v>26046.81</v>
+        <v>27241.47</v>
       </c>
       <c r="D46" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E46" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F46" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C47" t="n">
-        <v>24688.2</v>
+        <v>26046.83</v>
       </c>
       <c r="D47" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E47" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F47" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C48" t="n">
-        <v>23219.61</v>
+        <v>24688.23</v>
       </c>
       <c r="D48" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E48" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C49" t="n">
-        <v>21706.7</v>
+        <v>23219.63</v>
       </c>
       <c r="D49" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E49" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F49" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C50" t="n">
-        <v>20196.36</v>
+        <v>21706.71</v>
       </c>
       <c r="D50" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F50" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C51" t="n">
-        <v>18698.49</v>
+        <v>20196.37</v>
       </c>
       <c r="D51" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F51" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C52" t="n">
-        <v>17214.81</v>
+        <v>18698.49</v>
       </c>
       <c r="D52" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F52" t="n">
         <v>1.74</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C53" t="n">
-        <v>15756.91</v>
+        <v>17214.81</v>
       </c>
       <c r="D53" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E53" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F53" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C54" t="n">
-        <v>14354.81</v>
+        <v>15756.9</v>
       </c>
       <c r="D54" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E54" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F54" t="n">
         <v>1.78</v>
@@ -1532,36 +1532,36 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C55" t="n">
-        <v>13046.39</v>
+        <v>14354.81</v>
       </c>
       <c r="D55" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E55" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F55" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C56" t="n">
-        <v>11863.44</v>
+        <v>13046.39</v>
       </c>
       <c r="D56" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E56" t="n">
         <v>1.73</v>
@@ -1572,19 +1572,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C57" t="n">
-        <v>10809.37</v>
+        <v>11863.44</v>
       </c>
       <c r="D57" t="n">
         <v>1.76</v>
       </c>
       <c r="E57" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F57" t="n">
         <v>1.79</v>
@@ -1592,36 +1592,36 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C58" t="n">
-        <v>9858.67</v>
+        <v>10809.37</v>
       </c>
       <c r="D58" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E58" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F58" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C59" t="n">
-        <v>8981.58</v>
+        <v>9858.67</v>
       </c>
       <c r="D59" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E59" t="n">
         <v>1.74</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C60" t="n">
-        <v>8159.87</v>
+        <v>8981.58</v>
       </c>
       <c r="D60" t="n">
         <v>1.78</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C61" t="n">
-        <v>7391.89</v>
+        <v>8159.87</v>
       </c>
       <c r="D61" t="n">
         <v>1.78</v>
@@ -1672,39 +1672,39 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C62" t="n">
-        <v>6687.4</v>
+        <v>7391.89</v>
       </c>
       <c r="D62" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E62" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F62" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C63" t="n">
-        <v>6055.97</v>
+        <v>6687.4</v>
       </c>
       <c r="D63" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E63" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F63" t="n">
         <v>1.81</v>
@@ -1712,316 +1712,316 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C64" t="n">
-        <v>5495.89</v>
+        <v>6055.97</v>
       </c>
       <c r="D64" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E64" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F64" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C65" t="n">
-        <v>4991.12</v>
+        <v>5495.89</v>
       </c>
       <c r="D65" t="n">
         <v>1.75</v>
       </c>
       <c r="E65" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F65" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C66" t="n">
-        <v>4522.48</v>
+        <v>4991.12</v>
       </c>
       <c r="D66" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="E66" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="F66" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C67" t="n">
-        <v>4079.31</v>
+        <v>4522.48</v>
       </c>
       <c r="D67" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E67" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="F67" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C68" t="n">
-        <v>3663.77</v>
+        <v>4079.31</v>
       </c>
       <c r="D68" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E68" t="n">
         <v>1.64</v>
       </c>
-      <c r="E68" t="n">
-        <v>1.58</v>
-      </c>
       <c r="F68" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C69" t="n">
-        <v>3286.67</v>
+        <v>3663.77</v>
       </c>
       <c r="D69" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E69" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="F69" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C70" t="n">
-        <v>2959.48</v>
+        <v>3286.67</v>
       </c>
       <c r="D70" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E70" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C71" t="n">
-        <v>2686.25</v>
+        <v>2959.48</v>
       </c>
       <c r="D71" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E71" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F71" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C72" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D72" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E72" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F72" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C73" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D73" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E73" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F73" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C74" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D74" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E74" t="n">
         <v>1.25</v>
       </c>
-      <c r="E74" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F74" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C75" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E75" t="n">
         <v>1.2</v>
       </c>
-      <c r="E75" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F75" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C76" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D76" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E76" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F76" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C77" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D77" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E77" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F77" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C78" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D78" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E78" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F78" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C79" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D79" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E79" t="n">
         <v>1.06</v>
@@ -2032,19 +2032,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C80" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D80" t="n">
         <v>1.11</v>
       </c>
       <c r="E80" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F80" t="n">
         <v>1.16</v>
@@ -2052,33 +2052,33 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C81" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E81" t="n">
         <v>1.05</v>
       </c>
       <c r="F81" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C82" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D82" t="n">
         <v>1.1</v>
@@ -2087,24 +2087,24 @@
         <v>1.05</v>
       </c>
       <c r="F82" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C83" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D83" t="n">
         <v>1.1</v>
       </c>
       <c r="E83" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F83" t="n">
         <v>1.15</v>
@@ -2112,13 +2112,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C84" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D84" t="n">
         <v>1.1</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C85" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D85" t="n">
         <v>1.1</v>
@@ -2152,16 +2152,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C86" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D86" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E86" t="n">
         <v>1.04</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C87" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D87" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E87" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F87" t="n">
         <v>1.14</v>
@@ -2192,93 +2192,93 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C88" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D88" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E88" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F88" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C89" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D89" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E89" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F89" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C90" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D90" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E90" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F90" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C91" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D91" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E91" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F91" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C92" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D92" t="n">
         <v>1.02</v>
@@ -2292,199 +2292,199 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C93" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D93" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E93" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F93" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C94" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D94" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E94" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F94" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C95" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D95" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E95" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C96" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D96" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E96" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F96" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C97" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D97" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E97" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F97" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C98" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E98" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F98" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C99" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D99" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E99" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="F99" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C100" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D100" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E100" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="F100" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C101" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E101" t="n">
         <v>1.09</v>
       </c>
       <c r="F101" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C102" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D102" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E102" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F102" t="n">
         <v>1.22</v>
@@ -2492,239 +2492,239 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C103" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D103" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E103" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F103" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C104" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D104" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E104" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="F104" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C105" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D105" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E105" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F105" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C106" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D106" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E106" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="F106" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C107" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D107" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="E107" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="F107" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C108" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D108" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F108" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C109" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F109" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1.59</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C110" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F110" t="n">
         <v>1.58</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C111" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D111" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E111" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="F111" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C112" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D112" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E112" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F112" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C113" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D113" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E113" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F113" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C114" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D114" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E114" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="F114" t="n">
         <v>1.83</v>
@@ -2732,153 +2732,153 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C115" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D115" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E115" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="F115" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C116" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D116" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E116" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F116" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C117" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E117" t="n">
         <v>1.49</v>
       </c>
-      <c r="E117" t="n">
-        <v>1.38</v>
-      </c>
       <c r="F117" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C118" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D118" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E118" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F118" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C119" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E119" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="F119" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C120" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E120" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="F120" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C121" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D121" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E121" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F121" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C122" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D122" t="n">
         <v>1.23</v>
@@ -2887,284 +2887,284 @@
         <v>1.12</v>
       </c>
       <c r="F122" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C123" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D123" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E123" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F123" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C124" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D124" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E124" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F124" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C125" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D125" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E125" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F125" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C126" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E126" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F126" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C127" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D127" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="E127" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="F127" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C128" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D128" t="n">
         <v>1.34</v>
       </c>
       <c r="E128" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="F128" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C129" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D129" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E129" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="F129" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C130" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D130" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="E130" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F130" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C131" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D131" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E131" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="F131" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C132" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D132" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="E132" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="F132" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C133" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D133" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E133" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="F133" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C134" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D134" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F134" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C135" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D135" t="n">
         <v>1.13</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F135" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C136" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D136" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E136" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
         <v>1.27</v>
@@ -3172,73 +3172,73 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C137" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D137" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E137" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C138" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D138" t="n">
         <v>1.15</v>
       </c>
       <c r="E138" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F138" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C139" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D139" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E139" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F139" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C140" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D140" t="n">
         <v>1.16</v>
@@ -3252,53 +3252,53 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C141" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D141" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E141" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F141" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C142" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D142" t="n">
         <v>1.17</v>
       </c>
       <c r="E142" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F142" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C143" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D143" t="n">
         <v>1.17</v>
@@ -3307,24 +3307,24 @@
         <v>1.03</v>
       </c>
       <c r="F143" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C144" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D144" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="E144" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F144" t="n">
         <v>1.33</v>
@@ -3332,193 +3332,193 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C145" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D145" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="E145" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F145" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C146" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D146" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F146" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C147" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D147" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="E147" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F147" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C148" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D148" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F148" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C149" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D149" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E149" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F149" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C150" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D150" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E150" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F150" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C151" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E151" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F151" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C152" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D152" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F152" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C153" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D153" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E153" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F153" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C154" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D154" t="n">
         <v>0.97</v>
@@ -3532,99 +3532,99 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C155" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D155" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E155" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F155" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C156" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D156" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E156" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F156" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C157" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D157" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F157" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C158" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D158" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E158" t="n">
         <v>0.89</v>
       </c>
       <c r="F158" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C159" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D159" t="n">
         <v>1.02</v>
       </c>
       <c r="E159" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F159" t="n">
         <v>1.16</v>
@@ -3632,153 +3632,153 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C160" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D160" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E160" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F160" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C161" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D161" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E161" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F161" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C162" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D162" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E162" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F162" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C163" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D163" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E163" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F163" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C164" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D164" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E164" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F164" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C165" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D165" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E165" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="F165" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C166" t="n">
         <v>184.12</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E166" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F166" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C167" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D167" t="n">
         <v>0.8100000000000001</v>
@@ -3787,238 +3787,238 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F167" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C168" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D168" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E168" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C169" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D169" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E169" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C170" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E170" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="F170" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C171" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E171" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F171" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C172" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D172" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F172" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C173" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D173" t="n">
         <v>1.04</v>
       </c>
       <c r="E173" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F173" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C174" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D174" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="E174" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F174" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C175" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D175" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E175" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F175" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C176" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D176" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E176" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C177" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D177" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E177" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C178" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E178" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C179" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D179" t="n">
         <v>0.8</v>
@@ -4032,93 +4032,93 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C180" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D180" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E180" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F180" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C181" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D181" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E181" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="F181" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C182" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E182" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="F182" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C183" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D183" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E183" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F183" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C184" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D184" t="n">
         <v>0.92</v>
@@ -4132,333 +4132,333 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C185" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D185" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E185" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F185" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C186" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D186" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E186" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="F186" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C187" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D187" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E187" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F187" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C188" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E188" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C189" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D189" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E189" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="F189" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C190" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D190" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E190" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F190" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C191" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D191" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E191" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F191" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C192" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D192" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E192" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F192" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C193" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D193" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E193" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F193" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C194" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D194" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E194" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F194" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C195" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D195" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E195" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F195" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C196" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D196" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E196" t="n">
         <v>0.58</v>
       </c>
       <c r="F196" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C197" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D197" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E197" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F197" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C198" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E198" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="F198" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C199" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D199" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E199" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="F199" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C200" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D200" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E200" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F200" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C201" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D201" t="n">
         <v>0.72</v>
@@ -4472,13 +4472,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C202" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D202" t="n">
         <v>0.72</v>
@@ -4487,24 +4487,24 @@
         <v>0.66</v>
       </c>
       <c r="F202" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C203" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D203" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E203" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F203" t="n">
         <v>0.78</v>
@@ -4512,13 +4512,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C204" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D204" t="n">
         <v>0.71</v>
@@ -4532,13 +4532,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C205" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D205" t="n">
         <v>0.71</v>
@@ -4547,64 +4547,64 @@
         <v>0.65</v>
       </c>
       <c r="F205" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C206" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E206" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F206" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C207" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D207" t="n">
         <v>0.7</v>
       </c>
       <c r="E207" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F207" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C208" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E208" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F208" t="n">
         <v>0.75</v>
@@ -4612,13 +4612,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C209" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D209" t="n">
         <v>0.6899999999999999</v>
@@ -4632,13 +4632,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C210" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D210" t="n">
         <v>0.6899999999999999</v>
@@ -4652,19 +4652,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C211" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D211" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E211" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F211" t="n">
         <v>0.74</v>
@@ -4672,19 +4672,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C212" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D212" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E212" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F212" t="n">
         <v>0.74</v>
@@ -4692,39 +4692,39 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C213" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E213" t="n">
         <v>0.65</v>
       </c>
       <c r="F213" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C214" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D214" t="n">
         <v>0.7</v>
       </c>
       <c r="E214" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F214" t="n">
         <v>0.75</v>
@@ -4732,13 +4732,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C215" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D215" t="n">
         <v>0.7</v>
@@ -4747,24 +4747,24 @@
         <v>0.66</v>
       </c>
       <c r="F215" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C216" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D216" t="n">
         <v>0.7</v>
       </c>
       <c r="E216" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F216" t="n">
         <v>0.74</v>
@@ -4772,73 +4772,73 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C217" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D217" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E217" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F217" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C218" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D218" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E218" t="n">
         <v>0.64</v>
       </c>
       <c r="F218" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C219" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D219" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E219" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F219" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C220" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D220" t="n">
         <v>0.67</v>
@@ -4847,24 +4847,24 @@
         <v>0.63</v>
       </c>
       <c r="F220" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C221" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D221" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E221" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F221" t="n">
         <v>0.7</v>
@@ -4872,13 +4872,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C222" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D222" t="n">
         <v>0.66</v>
@@ -4892,293 +4892,293 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C223" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D223" t="n">
         <v>0.66</v>
       </c>
       <c r="E223" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F223" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C224" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D224" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E224" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F224" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C225" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D225" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E225" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F225" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C226" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D226" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E226" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F226" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C227" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D227" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E227" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F227" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C228" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D228" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E228" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F228" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C229" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D229" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E229" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F229" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C230" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E230" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F230" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C231" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D231" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E231" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F231" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C232" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D232" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E232" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F232" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C233" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D233" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E233" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F233" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C234" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D234" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E234" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F234" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C235" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D235" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E235" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F235" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C236" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D236" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E236" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F236" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C237" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D237" t="n">
         <v>0.84</v>
@@ -5192,33 +5192,33 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C238" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D238" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E238" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F238" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C239" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D239" t="n">
         <v>0.85</v>
@@ -5232,13 +5232,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C240" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D240" t="n">
         <v>0.85</v>
@@ -5252,13 +5252,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C241" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D241" t="n">
         <v>0.85</v>
@@ -5272,19 +5272,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C242" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D242" t="n">
         <v>0.85</v>
       </c>
       <c r="E242" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F242" t="n">
         <v>0.88</v>
@@ -5292,13 +5292,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C243" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D243" t="n">
         <v>0.86</v>
@@ -5307,78 +5307,78 @@
         <v>0.83</v>
       </c>
       <c r="F243" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C244" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D244" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E244" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F244" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C245" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D245" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E245" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F245" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C246" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D246" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E246" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F246" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C247" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D247" t="n">
         <v>0.89</v>
@@ -5392,13 +5392,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C248" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D248" t="n">
         <v>0.89</v>
@@ -5412,93 +5412,93 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C249" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D249" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E249" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F249" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C250" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D250" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E250" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="F250" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C251" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D251" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E251" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F251" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C252" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D252" t="n">
         <v>0.86</v>
       </c>
       <c r="E252" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F252" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C253" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D253" t="n">
         <v>0.86</v>
@@ -5512,13 +5512,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C254" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D254" t="n">
         <v>0.86</v>
@@ -5527,24 +5527,24 @@
         <v>0.83</v>
       </c>
       <c r="F254" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C255" t="n">
-        <v>4336.91</v>
+        <v>4223.92</v>
       </c>
       <c r="D255" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E255" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F255" t="n">
         <v>0.89</v>
@@ -5552,662 +5552,682 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C256" t="n">
-        <v>4460.83</v>
+        <v>4336.91</v>
       </c>
       <c r="D256" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E256" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F256" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C257" t="n">
-        <v>4599.64</v>
+        <v>4460.83</v>
       </c>
       <c r="D257" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E257" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F257" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C258" t="n">
-        <v>4758.75</v>
+        <v>4599.64</v>
       </c>
       <c r="D258" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F258" t="n">
         <v>0.93</v>
-      </c>
-      <c r="E258" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F258" t="n">
-        <v>0.95</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C259" t="n">
-        <v>4939.96</v>
+        <v>4758.75</v>
       </c>
       <c r="D259" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E259" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F259" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C260" t="n">
-        <v>5134.49</v>
+        <v>4939.96</v>
       </c>
       <c r="D260" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E260" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F260" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C261" t="n">
-        <v>5323.19</v>
+        <v>5134.49</v>
       </c>
       <c r="D261" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E261" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F261" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F261" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C262" t="n">
-        <v>5485.5</v>
+        <v>5323.19</v>
       </c>
       <c r="D262" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E262" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F262" t="n">
         <v>1.1</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C263" t="n">
-        <v>5607.75</v>
+        <v>5485.5</v>
       </c>
       <c r="D263" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E263" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F263" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C264" t="n">
-        <v>5684.82</v>
+        <v>5607.75</v>
       </c>
       <c r="D264" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E264" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F264" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C265" t="n">
-        <v>5717.09</v>
+        <v>5684.82</v>
       </c>
       <c r="D265" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E265" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F265" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C266" t="n">
-        <v>5702.03</v>
+        <v>5717.09</v>
       </c>
       <c r="D266" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E266" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F266" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C267" t="n">
-        <v>5630.41</v>
+        <v>5702.03</v>
       </c>
       <c r="D267" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E267" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F267" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C268" t="n">
-        <v>5487.26</v>
+        <v>5630.41</v>
       </c>
       <c r="D268" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E268" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="F268" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C269" t="n">
-        <v>5261.98</v>
+        <v>5487.26</v>
       </c>
       <c r="D269" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E269" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F269" t="n">
         <v>1.7</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C270" t="n">
-        <v>4959.08</v>
+        <v>5261.98</v>
       </c>
       <c r="D270" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E270" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="F270" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C271" t="n">
-        <v>4598.29</v>
+        <v>4959.08</v>
       </c>
       <c r="D271" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E271" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F271" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C272" t="n">
-        <v>4207.41</v>
+        <v>4598.29</v>
       </c>
       <c r="D272" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E272" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="F272" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C273" t="n">
-        <v>3811.52</v>
+        <v>4207.41</v>
       </c>
       <c r="D273" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E273" t="n">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="F273" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C274" t="n">
-        <v>3426.12</v>
+        <v>3811.52</v>
       </c>
       <c r="D274" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E274" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="F274" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C275" t="n">
-        <v>3057.02</v>
+        <v>3426.12</v>
       </c>
       <c r="D275" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F275" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E275" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F275" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C276" t="n">
-        <v>2706.17</v>
+        <v>3057.02</v>
       </c>
       <c r="D276" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="E276" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="F276" t="n">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B277" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C277" t="n">
-        <v>2375.65</v>
+        <v>2706.17</v>
       </c>
       <c r="D277" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="E277" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="F277" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B278" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C278" t="n">
-        <v>2067.43</v>
+        <v>2375.65</v>
       </c>
       <c r="D278" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="E278" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="F278" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B279" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C279" t="n">
-        <v>1784.6</v>
+        <v>2067.43</v>
       </c>
       <c r="D279" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="E279" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="F279" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B280" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C280" t="n">
-        <v>1529.94</v>
+        <v>1784.6</v>
       </c>
       <c r="D280" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="E280" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="F280" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B281" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C281" t="n">
-        <v>1301.97</v>
+        <v>1529.94</v>
       </c>
       <c r="D281" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="E281" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="F281" t="n">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B282" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C282" t="n">
-        <v>1099.12</v>
+        <v>1301.97</v>
       </c>
       <c r="D282" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="E282" t="n">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="F282" t="n">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B283" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C283" t="n">
-        <v>921.16</v>
+        <v>1099.12</v>
       </c>
       <c r="D283" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E283" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="F283" t="n">
-        <v>2.86</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B284" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C284" t="n">
-        <v>768.86</v>
+        <v>921.16</v>
       </c>
       <c r="D284" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="E284" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="F284" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B285" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C285" t="n">
-        <v>641.99</v>
+        <v>768.86</v>
       </c>
       <c r="D285" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="E285" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="F285" t="n">
-        <v>3.04</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B286" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C286" t="n">
-        <v>538.9400000000001</v>
+        <v>641.99</v>
       </c>
       <c r="D286" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="E286" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="F286" t="n">
-        <v>3.22</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B287" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C287" t="n">
-        <v>456.18</v>
+        <v>538.9400000000001</v>
       </c>
       <c r="D287" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F287" t="n">
         <v>3.23</v>
-      </c>
-      <c r="E287" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F287" t="n">
-        <v>3.54</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B288" t="n">
+        <v>342</v>
+      </c>
+      <c r="C288" t="n">
+        <v>456.18</v>
+      </c>
+      <c r="D288" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F288" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B289" t="n">
         <v>566</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C289" t="n">
         <v>388.41</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D289" t="n">
         <v>3.71</v>
       </c>
-      <c r="E288" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="F288" t="n">
-        <v>4.09</v>
+      <c r="E289" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F289" t="n">
+        <v>4.07</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,79 +472,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44178.99930555555</v>
+        <v>44179.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>17938</v>
+        <v>12030</v>
       </c>
       <c r="C2" t="n">
-        <v>18420.77</v>
+        <v>16012.14</v>
       </c>
       <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.99</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44177.99930555555</v>
+        <v>44178.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>19903</v>
+        <v>17938</v>
       </c>
       <c r="C3" t="n">
-        <v>17759.84</v>
+        <v>16141.27</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="E3" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44176.99930555555</v>
+        <v>44177.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>18727</v>
+        <v>19903</v>
       </c>
       <c r="C4" t="n">
-        <v>17187.3</v>
+        <v>16238.19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44175.99930555555</v>
+        <v>44176.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>16999</v>
+        <v>18727</v>
       </c>
       <c r="C5" t="n">
-        <v>16787.08</v>
+        <v>16307.45</v>
       </c>
       <c r="D5" t="n">
         <v>0.84</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>0.87</v>
@@ -552,59 +552,59 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44174.99930555555</v>
+        <v>44175.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>12756</v>
+        <v>16999</v>
       </c>
       <c r="C6" t="n">
-        <v>16648.36</v>
+        <v>16400.5</v>
       </c>
       <c r="D6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.8</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.79</v>
-      </c>
       <c r="F6" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44173.99930555555</v>
+        <v>44174.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>14842</v>
+        <v>12756</v>
       </c>
       <c r="C7" t="n">
-        <v>16829.01</v>
+        <v>16599.39</v>
       </c>
       <c r="D7" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44173.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>13720</v>
+        <v>14842</v>
       </c>
       <c r="C8" t="n">
-        <v>17316.8</v>
+        <v>16976.33</v>
       </c>
       <c r="D8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.78</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.77</v>
       </c>
       <c r="F8" t="n">
         <v>0.8</v>
@@ -612,19 +612,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44171.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>18887</v>
+        <v>13720</v>
       </c>
       <c r="C9" t="n">
-        <v>18029.6</v>
+        <v>17547.22</v>
       </c>
       <c r="D9" t="n">
         <v>0.79</v>
       </c>
       <c r="E9" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="F9" t="n">
         <v>0.8</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44170.99930555555</v>
+        <v>44171.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>21052</v>
+        <v>18887</v>
       </c>
       <c r="C10" t="n">
-        <v>18835.5</v>
+        <v>18263.66</v>
       </c>
       <c r="D10" t="n">
         <v>0.8</v>
@@ -652,13 +652,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44169.99930555555</v>
+        <v>44170.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>24099</v>
+        <v>21052</v>
       </c>
       <c r="C11" t="n">
-        <v>19609.31</v>
+        <v>19026.36</v>
       </c>
       <c r="D11" t="n">
         <v>0.8</v>
@@ -672,19 +672,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44168.99930555555</v>
+        <v>44169.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>23225</v>
+        <v>24099</v>
       </c>
       <c r="C12" t="n">
-        <v>20280.45</v>
+        <v>19737.2</v>
       </c>
       <c r="D12" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.79</v>
       </c>
       <c r="F12" t="n">
         <v>0.82</v>
@@ -692,33 +692,33 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>20709</v>
+        <v>23225</v>
       </c>
       <c r="C13" t="n">
-        <v>20858.72</v>
+        <v>20345.07</v>
       </c>
       <c r="D13" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.8</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.79</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C14" t="n">
-        <v>21415.03</v>
+        <v>20871.49</v>
       </c>
       <c r="D14" t="n">
         <v>0.8</v>
@@ -732,819 +732,819 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C15" t="n">
-        <v>22032.79</v>
+        <v>21392.41</v>
       </c>
       <c r="D15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.79</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.78</v>
-      </c>
       <c r="F15" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C16" t="n">
-        <v>22760.71</v>
+        <v>21991.38</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E16" t="n">
         <v>0.78</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C17" t="n">
-        <v>23586.4</v>
+        <v>22714.28</v>
       </c>
       <c r="D17" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C18" t="n">
-        <v>24466.42</v>
+        <v>23544.5</v>
       </c>
       <c r="D18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C19" t="n">
-        <v>25377.57</v>
+        <v>24434.34</v>
       </c>
       <c r="D19" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.82</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C20" t="n">
-        <v>26340.83</v>
+        <v>25356.98</v>
       </c>
       <c r="D20" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.82</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C21" t="n">
-        <v>27406.6</v>
+        <v>26330.85</v>
       </c>
       <c r="D21" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.84</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C22" t="n">
-        <v>28603.61</v>
+        <v>27404.88</v>
       </c>
       <c r="D22" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="E22" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F22" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C23" t="n">
-        <v>29892.87</v>
+        <v>28607.32</v>
       </c>
       <c r="D23" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E23" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.88</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C24" t="n">
-        <v>31163.26</v>
+        <v>29899.32</v>
       </c>
       <c r="D24" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E24" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F24" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C25" t="n">
-        <v>32284.01</v>
+        <v>31170.32</v>
       </c>
       <c r="D25" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F25" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C26" t="n">
-        <v>33172.61</v>
+        <v>32290.23</v>
       </c>
       <c r="D26" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E26" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C27" t="n">
-        <v>33826.88</v>
+        <v>33177.25</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E27" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F27" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C28" t="n">
-        <v>34307.32</v>
+        <v>33829.74</v>
       </c>
       <c r="D28" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C29" t="n">
-        <v>34689.53</v>
+        <v>34308.58</v>
       </c>
       <c r="D29" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C30" t="n">
-        <v>35012.11</v>
+        <v>34689.59</v>
       </c>
       <c r="D30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C31" t="n">
-        <v>35245.6</v>
+        <v>35011.4</v>
       </c>
       <c r="D31" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C32" t="n">
-        <v>35334.96</v>
+        <v>35244.53</v>
       </c>
       <c r="D32" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C33" t="n">
-        <v>35252.28</v>
+        <v>35333.85</v>
       </c>
       <c r="D33" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C34" t="n">
-        <v>35029.51</v>
+        <v>35251.34</v>
       </c>
       <c r="D34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C35" t="n">
-        <v>34735.5</v>
+        <v>35028.83</v>
       </c>
       <c r="D35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C36" t="n">
-        <v>34425.81</v>
+        <v>34735.1</v>
       </c>
       <c r="D36" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C37" t="n">
-        <v>34113.18</v>
+        <v>34425.65</v>
       </c>
       <c r="D37" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C38" t="n">
-        <v>33734.48</v>
+        <v>34113.19</v>
       </c>
       <c r="D38" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E38" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C39" t="n">
-        <v>33209.23</v>
+        <v>33734.61</v>
       </c>
       <c r="D39" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E39" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C40" t="n">
-        <v>32513.07</v>
+        <v>33209.4</v>
       </c>
       <c r="D40" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C41" t="n">
-        <v>31690.53</v>
+        <v>32513.24</v>
       </c>
       <c r="D41" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C42" t="n">
-        <v>30821.86</v>
+        <v>31690.67</v>
       </c>
       <c r="D42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C43" t="n">
-        <v>29969.97</v>
+        <v>30821.96</v>
       </c>
       <c r="D43" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F43" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C44" t="n">
-        <v>29138.78</v>
+        <v>29970.03</v>
       </c>
       <c r="D44" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E44" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F44" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C45" t="n">
-        <v>28257.4</v>
+        <v>29138.8</v>
       </c>
       <c r="D45" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E45" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F45" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C46" t="n">
-        <v>27241.47</v>
+        <v>28257.39</v>
       </c>
       <c r="D46" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E46" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F46" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C47" t="n">
-        <v>26046.83</v>
+        <v>27241.45</v>
       </c>
       <c r="D47" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E47" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C48" t="n">
-        <v>24688.23</v>
+        <v>26046.8</v>
       </c>
       <c r="D48" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E48" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C49" t="n">
-        <v>23219.63</v>
+        <v>24688.2</v>
       </c>
       <c r="D49" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E49" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F49" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C50" t="n">
-        <v>21706.71</v>
+        <v>23219.61</v>
       </c>
       <c r="D50" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E50" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F50" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C51" t="n">
-        <v>20196.37</v>
+        <v>21706.7</v>
       </c>
       <c r="D51" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F51" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C52" t="n">
-        <v>18698.49</v>
+        <v>20196.36</v>
       </c>
       <c r="D52" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F52" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C53" t="n">
-        <v>17214.81</v>
+        <v>18698.49</v>
       </c>
       <c r="D53" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E53" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C54" t="n">
-        <v>15756.9</v>
+        <v>17214.82</v>
       </c>
       <c r="D54" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E54" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F54" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C55" t="n">
-        <v>14354.81</v>
+        <v>15756.91</v>
       </c>
       <c r="D55" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E55" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F55" t="n">
         <v>1.78</v>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C56" t="n">
-        <v>13046.39</v>
+        <v>14354.81</v>
       </c>
       <c r="D56" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E56" t="n">
         <v>1.73</v>
@@ -1572,19 +1572,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C57" t="n">
-        <v>11863.44</v>
+        <v>13046.39</v>
       </c>
       <c r="D57" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E57" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F57" t="n">
         <v>1.79</v>
@@ -1592,19 +1592,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C58" t="n">
-        <v>10809.37</v>
+        <v>11863.44</v>
       </c>
       <c r="D58" t="n">
         <v>1.76</v>
       </c>
       <c r="E58" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F58" t="n">
         <v>1.79</v>
@@ -1612,53 +1612,53 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C59" t="n">
-        <v>9858.67</v>
+        <v>10809.37</v>
       </c>
       <c r="D59" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E59" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F59" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C60" t="n">
-        <v>8981.58</v>
+        <v>9858.67</v>
       </c>
       <c r="D60" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E60" t="n">
         <v>1.74</v>
       </c>
       <c r="F60" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C61" t="n">
-        <v>8159.87</v>
+        <v>8981.58</v>
       </c>
       <c r="D61" t="n">
         <v>1.78</v>
@@ -1667,18 +1667,18 @@
         <v>1.74</v>
       </c>
       <c r="F61" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C62" t="n">
-        <v>7391.89</v>
+        <v>8159.87</v>
       </c>
       <c r="D62" t="n">
         <v>1.78</v>
@@ -1692,39 +1692,39 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C63" t="n">
-        <v>6687.4</v>
+        <v>7391.89</v>
       </c>
       <c r="D63" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E63" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F63" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C64" t="n">
-        <v>6055.97</v>
+        <v>6687.4</v>
       </c>
       <c r="D64" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E64" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F64" t="n">
         <v>1.81</v>
@@ -1732,339 +1732,339 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C65" t="n">
-        <v>5495.89</v>
+        <v>6055.97</v>
       </c>
       <c r="D65" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E65" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F65" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C66" t="n">
-        <v>4991.12</v>
+        <v>5495.89</v>
       </c>
       <c r="D66" t="n">
         <v>1.75</v>
       </c>
       <c r="E66" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F66" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C67" t="n">
-        <v>4522.48</v>
+        <v>4991.12</v>
       </c>
       <c r="D67" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="E67" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="F67" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C68" t="n">
-        <v>4079.31</v>
+        <v>4522.48</v>
       </c>
       <c r="D68" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E68" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="F68" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C69" t="n">
-        <v>3663.77</v>
+        <v>4079.31</v>
       </c>
       <c r="D69" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="E69" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="F69" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C70" t="n">
-        <v>3286.67</v>
+        <v>3663.77</v>
       </c>
       <c r="D70" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="E70" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F70" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C71" t="n">
-        <v>2959.48</v>
+        <v>3286.67</v>
       </c>
       <c r="D71" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E71" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="F71" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C72" t="n">
-        <v>2686.25</v>
+        <v>2959.48</v>
       </c>
       <c r="D72" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E72" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F72" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C73" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D73" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E73" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F73" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C74" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E74" t="n">
         <v>1.31</v>
       </c>
-      <c r="E74" t="n">
-        <v>1.25</v>
-      </c>
       <c r="F74" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C75" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E75" t="n">
         <v>1.25</v>
       </c>
-      <c r="E75" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F75" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C76" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E76" t="n">
         <v>1.2</v>
       </c>
-      <c r="E76" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F76" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C77" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D77" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E77" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F77" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C78" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D78" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E78" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="F78" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C79" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D79" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E79" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="F79" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C80" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E80" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="F80" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C81" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D81" t="n">
         <v>1.11</v>
       </c>
       <c r="E81" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F81" t="n">
         <v>1.16</v>
@@ -2072,16 +2072,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C82" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E82" t="n">
         <v>1.05</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C83" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D83" t="n">
         <v>1.1</v>
@@ -2112,19 +2112,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C84" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D84" t="n">
         <v>1.1</v>
       </c>
       <c r="E84" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F84" t="n">
         <v>1.15</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C85" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D85" t="n">
         <v>1.1</v>
@@ -2152,19 +2152,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C86" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D86" t="n">
         <v>1.1</v>
       </c>
       <c r="E86" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F86" t="n">
         <v>1.15</v>
@@ -2172,133 +2172,133 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44093.99930555555</v>
+        <v>44094.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1638</v>
+        <v>1587</v>
       </c>
       <c r="C87" t="n">
-        <v>1553.69</v>
+        <v>1575.6</v>
       </c>
       <c r="D87" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="E87" t="n">
         <v>1.04</v>
       </c>
       <c r="F87" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44092.99930555555</v>
+        <v>44093.99930555555</v>
       </c>
       <c r="B88" t="n">
-        <v>1907</v>
+        <v>1638</v>
       </c>
       <c r="C88" t="n">
-        <v>1526.56</v>
+        <v>1553.69</v>
       </c>
       <c r="D88" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="E88" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F88" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44091.99930555555</v>
+        <v>44092.99930555555</v>
       </c>
       <c r="B89" t="n">
-        <v>1585</v>
+        <v>1907</v>
       </c>
       <c r="C89" t="n">
-        <v>1494.19</v>
+        <v>1526.56</v>
       </c>
       <c r="D89" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E89" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F89" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44090.99930555555</v>
+        <v>44091.99930555555</v>
       </c>
       <c r="B90" t="n">
-        <v>1452</v>
+        <v>1585</v>
       </c>
       <c r="C90" t="n">
-        <v>1460.94</v>
+        <v>1494.19</v>
       </c>
       <c r="D90" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="E90" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F90" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44089.99930555555</v>
+        <v>44090.99930555555</v>
       </c>
       <c r="B91" t="n">
-        <v>1229</v>
+        <v>1452</v>
       </c>
       <c r="C91" t="n">
-        <v>1433.34</v>
+        <v>1460.94</v>
       </c>
       <c r="D91" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E91" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44088.99930555555</v>
+        <v>44089.99930555555</v>
       </c>
       <c r="B92" t="n">
-        <v>1008</v>
+        <v>1229</v>
       </c>
       <c r="C92" t="n">
-        <v>1416.93</v>
+        <v>1433.34</v>
       </c>
       <c r="D92" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E92" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F92" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44087.99930555555</v>
+        <v>44088.99930555555</v>
       </c>
       <c r="B93" t="n">
-        <v>1458</v>
+        <v>1008</v>
       </c>
       <c r="C93" t="n">
-        <v>1413.18</v>
+        <v>1416.93</v>
       </c>
       <c r="D93" t="n">
         <v>1.02</v>
@@ -2307,444 +2307,444 @@
         <v>0.97</v>
       </c>
       <c r="F93" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44086.99930555555</v>
+        <v>44087.99930555555</v>
       </c>
       <c r="B94" t="n">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="C94" t="n">
-        <v>1418.5</v>
+        <v>1413.18</v>
       </c>
       <c r="D94" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E94" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F94" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44085.99930555555</v>
+        <v>44086.99930555555</v>
       </c>
       <c r="B95" t="n">
-        <v>1616</v>
+        <v>1501</v>
       </c>
       <c r="C95" t="n">
-        <v>1427.32</v>
+        <v>1418.5</v>
       </c>
       <c r="D95" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F95" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44084.99930555555</v>
+        <v>44085.99930555555</v>
       </c>
       <c r="B96" t="n">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C96" t="n">
-        <v>1434.72</v>
+        <v>1427.32</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="E96" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F96" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44083.99930555555</v>
+        <v>44084.99930555555</v>
       </c>
       <c r="B97" t="n">
-        <v>1434</v>
+        <v>1597</v>
       </c>
       <c r="C97" t="n">
-        <v>1438.24</v>
+        <v>1434.72</v>
       </c>
       <c r="D97" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E97" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F97" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44082.99930555555</v>
+        <v>44083.99930555555</v>
       </c>
       <c r="B98" t="n">
-        <v>1370</v>
+        <v>1434</v>
       </c>
       <c r="C98" t="n">
-        <v>1437.85</v>
+        <v>1438.24</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E98" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F98" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44081.99930555555</v>
+        <v>44082.99930555555</v>
       </c>
       <c r="B99" t="n">
-        <v>1108</v>
+        <v>1370</v>
       </c>
       <c r="C99" t="n">
-        <v>1434.22</v>
+        <v>1437.85</v>
       </c>
       <c r="D99" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E99" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F99" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44080.99930555555</v>
+        <v>44081.99930555555</v>
       </c>
       <c r="B100" t="n">
-        <v>1297</v>
+        <v>1108</v>
       </c>
       <c r="C100" t="n">
-        <v>1427.16</v>
+        <v>1434.22</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E100" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F100" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44079.99930555555</v>
+        <v>44080.99930555555</v>
       </c>
       <c r="B101" t="n">
-        <v>1694</v>
+        <v>1297</v>
       </c>
       <c r="C101" t="n">
-        <v>1414.67</v>
+        <v>1427.16</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E101" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="F101" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44078.99930555555</v>
+        <v>44079.99930555555</v>
       </c>
       <c r="B102" t="n">
-        <v>1733</v>
+        <v>1694</v>
       </c>
       <c r="C102" t="n">
-        <v>1394.87</v>
+        <v>1414.67</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E102" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="F102" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44077.99930555555</v>
+        <v>44078.99930555555</v>
       </c>
       <c r="B103" t="n">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="C103" t="n">
-        <v>1369.24</v>
+        <v>1394.87</v>
       </c>
       <c r="D103" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E103" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F103" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44076.99930555555</v>
+        <v>44077.99930555555</v>
       </c>
       <c r="B104" t="n">
-        <v>1326</v>
+        <v>1397</v>
       </c>
       <c r="C104" t="n">
-        <v>1343.03</v>
+        <v>1369.24</v>
       </c>
       <c r="D104" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E104" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="F104" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44075.99930555555</v>
+        <v>44076.99930555555</v>
       </c>
       <c r="B105" t="n">
-        <v>978</v>
+        <v>1326</v>
       </c>
       <c r="C105" t="n">
-        <v>1322.39</v>
+        <v>1343.03</v>
       </c>
       <c r="D105" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E105" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="F105" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44074.99930555555</v>
+        <v>44075.99930555555</v>
       </c>
       <c r="B106" t="n">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C106" t="n">
-        <v>1311.1</v>
+        <v>1322.39</v>
       </c>
       <c r="D106" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="E106" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="F106" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44073.99930555555</v>
+        <v>44074.99930555555</v>
       </c>
       <c r="B107" t="n">
-        <v>1365</v>
+        <v>996</v>
       </c>
       <c r="C107" t="n">
-        <v>1307.59</v>
+        <v>1311.1</v>
       </c>
       <c r="D107" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="E107" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="F107" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44072.99930555555</v>
+        <v>44073.99930555555</v>
       </c>
       <c r="B108" t="n">
-        <v>1444</v>
+        <v>1365</v>
       </c>
       <c r="C108" t="n">
-        <v>1305.33</v>
+        <v>1307.59</v>
       </c>
       <c r="D108" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="E108" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="F108" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44071.99930555555</v>
+        <v>44072.99930555555</v>
       </c>
       <c r="B109" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="C109" t="n">
-        <v>1296.46</v>
+        <v>1305.33</v>
       </c>
       <c r="D109" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F109" t="n">
         <v>1.42</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44070.99930555555</v>
+        <v>44071.99930555555</v>
       </c>
       <c r="B110" t="n">
-        <v>1411</v>
+        <v>1462</v>
       </c>
       <c r="C110" t="n">
-        <v>1274.78</v>
+        <v>1296.46</v>
       </c>
       <c r="D110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F110" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44069.99930555555</v>
+        <v>44070.99930555555</v>
       </c>
       <c r="B111" t="n">
-        <v>1367</v>
+        <v>1411</v>
       </c>
       <c r="C111" t="n">
-        <v>1237.39</v>
+        <v>1274.78</v>
       </c>
       <c r="D111" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="E111" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="F111" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44068.99930555555</v>
+        <v>44069.99930555555</v>
       </c>
       <c r="B112" t="n">
-        <v>878</v>
+        <v>1367</v>
       </c>
       <c r="C112" t="n">
-        <v>1184.67</v>
+        <v>1237.39</v>
       </c>
       <c r="D112" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="E112" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="F112" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44067.99930555555</v>
+        <v>44068.99930555555</v>
       </c>
       <c r="B113" t="n">
-        <v>953</v>
+        <v>878</v>
       </c>
       <c r="C113" t="n">
-        <v>1118.95</v>
+        <v>1184.67</v>
       </c>
       <c r="D113" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="E113" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="F113" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44066.99930555555</v>
+        <v>44067.99930555555</v>
       </c>
       <c r="B114" t="n">
-        <v>1210</v>
+        <v>953</v>
       </c>
       <c r="C114" t="n">
-        <v>1041.87</v>
+        <v>1118.95</v>
       </c>
       <c r="D114" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="E114" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="F114" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44065.99930555555</v>
+        <v>44066.99930555555</v>
       </c>
       <c r="B115" t="n">
-        <v>1071</v>
+        <v>1210</v>
       </c>
       <c r="C115" t="n">
-        <v>954.83</v>
+        <v>1041.87</v>
       </c>
       <c r="D115" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E115" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="F115" t="n">
         <v>1.83</v>
@@ -2752,153 +2752,153 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44064.99930555555</v>
+        <v>44065.99930555555</v>
       </c>
       <c r="B116" t="n">
-        <v>947</v>
+        <v>1071</v>
       </c>
       <c r="C116" t="n">
-        <v>861.08</v>
+        <v>954.83</v>
       </c>
       <c r="D116" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="E116" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="F116" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44063.99930555555</v>
+        <v>44064.99930555555</v>
       </c>
       <c r="B117" t="n">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="C117" t="n">
-        <v>766.2</v>
+        <v>861.08</v>
       </c>
       <c r="D117" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="E117" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F117" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44062.99930555555</v>
+        <v>44063.99930555555</v>
       </c>
       <c r="B118" t="n">
-        <v>642</v>
+        <v>845</v>
       </c>
       <c r="C118" t="n">
-        <v>677.34</v>
+        <v>766.2</v>
       </c>
       <c r="D118" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E118" t="n">
         <v>1.49</v>
       </c>
-      <c r="E118" t="n">
-        <v>1.38</v>
-      </c>
       <c r="F118" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44061.99930555555</v>
+        <v>44062.99930555555</v>
       </c>
       <c r="B119" t="n">
-        <v>403</v>
+        <v>642</v>
       </c>
       <c r="C119" t="n">
-        <v>601.6799999999999</v>
+        <v>677.34</v>
       </c>
       <c r="D119" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="E119" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="F119" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44060.99930555555</v>
+        <v>44061.99930555555</v>
       </c>
       <c r="B120" t="n">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C120" t="n">
-        <v>544.0700000000001</v>
+        <v>601.6799999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="E120" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="F120" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44059.99930555555</v>
+        <v>44060.99930555555</v>
       </c>
       <c r="B121" t="n">
-        <v>479</v>
+        <v>320</v>
       </c>
       <c r="C121" t="n">
-        <v>505.08</v>
+        <v>544.0700000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E121" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="F121" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44058.99930555555</v>
+        <v>44059.99930555555</v>
       </c>
       <c r="B122" t="n">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="C122" t="n">
-        <v>481.06</v>
+        <v>505.08</v>
       </c>
       <c r="D122" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="E122" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="F122" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44057.99930555555</v>
+        <v>44058.99930555555</v>
       </c>
       <c r="B123" t="n">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="C123" t="n">
-        <v>466.39</v>
+        <v>481.06</v>
       </c>
       <c r="D123" t="n">
         <v>1.23</v>
@@ -2907,258 +2907,258 @@
         <v>1.12</v>
       </c>
       <c r="F123" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44056.99930555555</v>
+        <v>44057.99930555555</v>
       </c>
       <c r="B124" t="n">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C124" t="n">
-        <v>456.05</v>
+        <v>466.39</v>
       </c>
       <c r="D124" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E124" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="F124" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44055.99930555555</v>
+        <v>44056.99930555555</v>
       </c>
       <c r="B125" t="n">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C125" t="n">
-        <v>446.75</v>
+        <v>456.05</v>
       </c>
       <c r="D125" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E125" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F125" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44054.99930555555</v>
+        <v>44055.99930555555</v>
       </c>
       <c r="B126" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C126" t="n">
-        <v>436.85</v>
+        <v>446.75</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E126" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F126" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44053.99930555555</v>
+        <v>44054.99930555555</v>
       </c>
       <c r="B127" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="C127" t="n">
-        <v>425.8</v>
+        <v>436.85</v>
       </c>
       <c r="D127" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F127" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44052.99930555555</v>
+        <v>44053.99930555555</v>
       </c>
       <c r="B128" t="n">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="C128" t="n">
-        <v>413.12</v>
+        <v>425.8</v>
       </c>
       <c r="D128" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="E128" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="F128" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44051.99930555555</v>
+        <v>44052.99930555555</v>
       </c>
       <c r="B129" t="n">
-        <v>347</v>
+        <v>463</v>
       </c>
       <c r="C129" t="n">
-        <v>397.75</v>
+        <v>413.12</v>
       </c>
       <c r="D129" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="E129" t="n">
         <v>1.21</v>
       </c>
       <c r="F129" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44050.99930555555</v>
+        <v>44051.99930555555</v>
       </c>
       <c r="B130" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C130" t="n">
-        <v>379</v>
+        <v>397.75</v>
       </c>
       <c r="D130" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="E130" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F130" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44049.99930555555</v>
+        <v>44050.99930555555</v>
       </c>
       <c r="B131" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C131" t="n">
-        <v>357.05</v>
+        <v>379</v>
       </c>
       <c r="D131" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="E131" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="F131" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44048.99930555555</v>
+        <v>44049.99930555555</v>
       </c>
       <c r="B132" t="n">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C132" t="n">
-        <v>333.88</v>
+        <v>357.05</v>
       </c>
       <c r="D132" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="E132" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="F132" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44047.99930555555</v>
+        <v>44048.99930555555</v>
       </c>
       <c r="B133" t="n">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="C133" t="n">
-        <v>312.58</v>
+        <v>333.88</v>
       </c>
       <c r="D133" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="E133" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="F133" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44046.99930555555</v>
+        <v>44047.99930555555</v>
       </c>
       <c r="B134" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C134" t="n">
-        <v>296.11</v>
+        <v>312.58</v>
       </c>
       <c r="D134" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="E134" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="F134" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44045.99930555555</v>
+        <v>44046.99930555555</v>
       </c>
       <c r="B135" t="n">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="C135" t="n">
-        <v>285.65</v>
+        <v>296.11</v>
       </c>
       <c r="D135" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="E135" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F135" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44044.99930555555</v>
+        <v>44045.99930555555</v>
       </c>
       <c r="B136" t="n">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="C136" t="n">
-        <v>280.1</v>
+        <v>285.65</v>
       </c>
       <c r="D136" t="n">
         <v>1.13</v>
@@ -3167,81 +3167,81 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44043.99930555555</v>
+        <v>44044.99930555555</v>
       </c>
       <c r="B137" t="n">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C137" t="n">
-        <v>277.02</v>
+        <v>280.1</v>
       </c>
       <c r="D137" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44042.99930555555</v>
+        <v>44043.99930555555</v>
       </c>
       <c r="B138" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C138" t="n">
-        <v>273.98</v>
+        <v>277.02</v>
       </c>
       <c r="D138" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="E138" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44041.99930555555</v>
+        <v>44042.99930555555</v>
       </c>
       <c r="B139" t="n">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C139" t="n">
-        <v>269.82</v>
+        <v>273.98</v>
       </c>
       <c r="D139" t="n">
         <v>1.15</v>
       </c>
       <c r="E139" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44040.99930555555</v>
+        <v>44041.99930555555</v>
       </c>
       <c r="B140" t="n">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C140" t="n">
-        <v>264.85</v>
+        <v>269.82</v>
       </c>
       <c r="D140" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="E140" t="n">
         <v>1.02</v>
@@ -3252,19 +3252,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44039.99930555555</v>
+        <v>44040.99930555555</v>
       </c>
       <c r="B141" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C141" t="n">
-        <v>260</v>
+        <v>264.85</v>
       </c>
       <c r="D141" t="n">
         <v>1.16</v>
       </c>
       <c r="E141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F141" t="n">
         <v>1.3</v>
@@ -3272,39 +3272,39 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44038.99930555555</v>
+        <v>44039.99930555555</v>
       </c>
       <c r="B142" t="n">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C142" t="n">
-        <v>255.75</v>
+        <v>260</v>
       </c>
       <c r="D142" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="E142" t="n">
         <v>1.02</v>
       </c>
       <c r="F142" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44037.99930555555</v>
+        <v>44038.99930555555</v>
       </c>
       <c r="B143" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C143" t="n">
-        <v>251.71</v>
+        <v>255.75</v>
       </c>
       <c r="D143" t="n">
         <v>1.17</v>
       </c>
       <c r="E143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F143" t="n">
         <v>1.31</v>
@@ -3312,33 +3312,33 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44036.99930555555</v>
+        <v>44037.99930555555</v>
       </c>
       <c r="B144" t="n">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C144" t="n">
-        <v>247.16</v>
+        <v>251.71</v>
       </c>
       <c r="D144" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E144" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F144" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44035.99930555555</v>
+        <v>44036.99930555555</v>
       </c>
       <c r="B145" t="n">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="C145" t="n">
-        <v>241.5</v>
+        <v>247.16</v>
       </c>
       <c r="D145" t="n">
         <v>1.18</v>
@@ -3352,193 +3352,193 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44034.99930555555</v>
+        <v>44035.99930555555</v>
       </c>
       <c r="B146" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C146" t="n">
-        <v>234.63</v>
+        <v>241.5</v>
       </c>
       <c r="D146" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="E146" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F146" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44033.99930555555</v>
+        <v>44034.99930555555</v>
       </c>
       <c r="B147" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C147" t="n">
-        <v>227.11</v>
+        <v>234.63</v>
       </c>
       <c r="D147" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="E147" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F147" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44032.99930555555</v>
+        <v>44033.99930555555</v>
       </c>
       <c r="B148" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C148" t="n">
-        <v>219.83</v>
+        <v>227.11</v>
       </c>
       <c r="D148" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E148" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F148" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44031.99930555555</v>
+        <v>44032.99930555555</v>
       </c>
       <c r="B149" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C149" t="n">
-        <v>213.13</v>
+        <v>219.83</v>
       </c>
       <c r="D149" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="E149" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F149" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44030.99930555555</v>
+        <v>44031.99930555555</v>
       </c>
       <c r="B150" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C150" t="n">
-        <v>206.91</v>
+        <v>213.13</v>
       </c>
       <c r="D150" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="E150" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F150" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44029.99930555555</v>
+        <v>44030.99930555555</v>
       </c>
       <c r="B151" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C151" t="n">
-        <v>201.14</v>
+        <v>206.91</v>
       </c>
       <c r="D151" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F151" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44028.99930555555</v>
+        <v>44029.99930555555</v>
       </c>
       <c r="B152" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C152" t="n">
-        <v>196.18</v>
+        <v>201.14</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E152" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F152" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44027.99930555555</v>
+        <v>44028.99930555555</v>
       </c>
       <c r="B153" t="n">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C153" t="n">
-        <v>192.78</v>
+        <v>196.18</v>
       </c>
       <c r="D153" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F153" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44026.99930555555</v>
+        <v>44027.99930555555</v>
       </c>
       <c r="B154" t="n">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C154" t="n">
-        <v>191.74</v>
+        <v>192.78</v>
       </c>
       <c r="D154" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E154" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F154" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44025.99930555555</v>
+        <v>44026.99930555555</v>
       </c>
       <c r="B155" t="n">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C155" t="n">
-        <v>193.26</v>
+        <v>191.74</v>
       </c>
       <c r="D155" t="n">
         <v>0.97</v>
@@ -3552,73 +3552,73 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44024.99930555555</v>
+        <v>44025.99930555555</v>
       </c>
       <c r="B156" t="n">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C156" t="n">
-        <v>196.55</v>
+        <v>193.26</v>
       </c>
       <c r="D156" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E156" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F156" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44023.99930555555</v>
+        <v>44024.99930555555</v>
       </c>
       <c r="B157" t="n">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C157" t="n">
-        <v>200.25</v>
+        <v>196.55</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E157" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F157" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44022.99930555555</v>
+        <v>44023.99930555555</v>
       </c>
       <c r="B158" t="n">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="C158" t="n">
-        <v>203.13</v>
+        <v>200.25</v>
       </c>
       <c r="D158" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E158" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F158" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44021.99930555555</v>
+        <v>44022.99930555555</v>
       </c>
       <c r="B159" t="n">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C159" t="n">
-        <v>204.32</v>
+        <v>203.13</v>
       </c>
       <c r="D159" t="n">
         <v>1.02</v>
@@ -3632,13 +3632,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44020.99930555555</v>
+        <v>44021.99930555555</v>
       </c>
       <c r="B160" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C160" t="n">
-        <v>203.74</v>
+        <v>204.32</v>
       </c>
       <c r="D160" t="n">
         <v>1.02</v>
@@ -3647,164 +3647,164 @@
         <v>0.88</v>
       </c>
       <c r="F160" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44019.99930555555</v>
+        <v>44020.99930555555</v>
       </c>
       <c r="B161" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="C161" t="n">
-        <v>201.78</v>
+        <v>203.74</v>
       </c>
       <c r="D161" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E161" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F161" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44018.99930555555</v>
+        <v>44019.99930555555</v>
       </c>
       <c r="B162" t="n">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C162" t="n">
-        <v>198.88</v>
+        <v>201.78</v>
       </c>
       <c r="D162" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E162" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F162" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44017.99930555555</v>
+        <v>44018.99930555555</v>
       </c>
       <c r="B163" t="n">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C163" t="n">
-        <v>195.22</v>
+        <v>198.88</v>
       </c>
       <c r="D163" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="F163" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44016.99930555555</v>
+        <v>44017.99930555555</v>
       </c>
       <c r="B164" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C164" t="n">
-        <v>191.06</v>
+        <v>195.22</v>
       </c>
       <c r="D164" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E164" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="F164" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44015.99930555555</v>
+        <v>44016.99930555555</v>
       </c>
       <c r="B165" t="n">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C165" t="n">
-        <v>186.97</v>
+        <v>191.06</v>
       </c>
       <c r="D165" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E165" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="F165" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44014.99930555555</v>
+        <v>44015.99930555555</v>
       </c>
       <c r="B166" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C166" t="n">
-        <v>184.12</v>
+        <v>186.97</v>
       </c>
       <c r="D166" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E166" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="F166" t="n">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44013.99930555555</v>
+        <v>44014.99930555555</v>
       </c>
       <c r="B167" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C167" t="n">
         <v>184.12</v>
       </c>
       <c r="D167" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E167" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="F167" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44012.99930555555</v>
+        <v>44013.99930555555</v>
       </c>
       <c r="B168" t="n">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C168" t="n">
-        <v>188.48</v>
+        <v>184.12</v>
       </c>
       <c r="D168" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E168" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F168" t="n">
         <v>0.92</v>
@@ -3812,116 +3812,116 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44011.99930555555</v>
+        <v>44012.99930555555</v>
       </c>
       <c r="B169" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C169" t="n">
-        <v>197.95</v>
+        <v>188.48</v>
       </c>
       <c r="D169" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E169" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44010.99930555555</v>
+        <v>44011.99930555555</v>
       </c>
       <c r="B170" t="n">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C170" t="n">
-        <v>211.83</v>
+        <v>197.95</v>
       </c>
       <c r="D170" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E170" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="F170" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44009.99930555555</v>
+        <v>44010.99930555555</v>
       </c>
       <c r="B171" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C171" t="n">
-        <v>227.76</v>
+        <v>211.83</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E171" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="F171" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44008.99930555555</v>
+        <v>44009.99930555555</v>
       </c>
       <c r="B172" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="C172" t="n">
-        <v>242.25</v>
+        <v>227.76</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E172" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F172" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44007.99930555555</v>
+        <v>44008.99930555555</v>
       </c>
       <c r="B173" t="n">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C173" t="n">
-        <v>251.57</v>
+        <v>242.25</v>
       </c>
       <c r="D173" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F173" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44006.99930555555</v>
+        <v>44007.99930555555</v>
       </c>
       <c r="B174" t="n">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="C174" t="n">
-        <v>253.15</v>
+        <v>251.57</v>
       </c>
       <c r="D174" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E174" t="n">
         <v>0.92</v>
@@ -3932,119 +3932,119 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44005.99930555555</v>
+        <v>44006.99930555555</v>
       </c>
       <c r="B175" t="n">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C175" t="n">
-        <v>246.92</v>
+        <v>253.15</v>
       </c>
       <c r="D175" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="E175" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F175" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44004.99930555555</v>
+        <v>44005.99930555555</v>
       </c>
       <c r="B176" t="n">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C176" t="n">
-        <v>236.08</v>
+        <v>246.92</v>
       </c>
       <c r="D176" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="E176" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F176" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44003.99930555555</v>
+        <v>44004.99930555555</v>
       </c>
       <c r="B177" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C177" t="n">
-        <v>224.82</v>
+        <v>236.08</v>
       </c>
       <c r="D177" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="E177" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44002.99930555555</v>
+        <v>44003.99930555555</v>
       </c>
       <c r="B178" t="n">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C178" t="n">
-        <v>217.15</v>
+        <v>224.82</v>
       </c>
       <c r="D178" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E178" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44001.99930555555</v>
+        <v>44002.99930555555</v>
       </c>
       <c r="B179" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C179" t="n">
-        <v>216.11</v>
+        <v>217.15</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F179" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44000.99930555555</v>
+        <v>44001.99930555555</v>
       </c>
       <c r="B180" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C180" t="n">
-        <v>222.78</v>
+        <v>216.11</v>
       </c>
       <c r="D180" t="n">
         <v>0.8</v>
       </c>
       <c r="E180" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F180" t="n">
         <v>0.91</v>
@@ -4052,433 +4052,433 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43999.99930555555</v>
+        <v>44000.99930555555</v>
       </c>
       <c r="B181" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C181" t="n">
-        <v>235.01</v>
+        <v>222.78</v>
       </c>
       <c r="D181" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E181" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="F181" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43998.99930555555</v>
+        <v>43999.99930555555</v>
       </c>
       <c r="B182" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C182" t="n">
-        <v>249.63</v>
+        <v>235.01</v>
       </c>
       <c r="D182" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E182" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="F182" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43997.99930555555</v>
+        <v>43998.99930555555</v>
       </c>
       <c r="B183" t="n">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="C183" t="n">
-        <v>263.68</v>
+        <v>249.63</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E183" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43996.99930555555</v>
+        <v>43997.99930555555</v>
       </c>
       <c r="B184" t="n">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C184" t="n">
-        <v>274.7</v>
+        <v>263.68</v>
       </c>
       <c r="D184" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E184" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F184" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43995.99930555555</v>
+        <v>43996.99930555555</v>
       </c>
       <c r="B185" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C185" t="n">
-        <v>281.34</v>
+        <v>274.7</v>
       </c>
       <c r="D185" t="n">
         <v>0.92</v>
       </c>
       <c r="E185" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F185" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43994.99930555555</v>
+        <v>43995.99930555555</v>
       </c>
       <c r="B186" t="n">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="C186" t="n">
-        <v>283.71</v>
+        <v>281.34</v>
       </c>
       <c r="D186" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E186" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F186" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43993.99930555555</v>
+        <v>43994.99930555555</v>
       </c>
       <c r="B187" t="n">
-        <v>379</v>
+        <v>163</v>
       </c>
       <c r="C187" t="n">
-        <v>282.99</v>
+        <v>283.71</v>
       </c>
       <c r="D187" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E187" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="F187" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43992.99930555555</v>
+        <v>43993.99930555555</v>
       </c>
       <c r="B188" t="n">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="C188" t="n">
-        <v>280.48</v>
+        <v>282.99</v>
       </c>
       <c r="D188" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E188" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="F188" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43991.99930555555</v>
+        <v>43992.99930555555</v>
       </c>
       <c r="B189" t="n">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="C189" t="n">
-        <v>277.8</v>
+        <v>280.48</v>
       </c>
       <c r="D189" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E189" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43990.99930555555</v>
+        <v>43991.99930555555</v>
       </c>
       <c r="B190" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C190" t="n">
-        <v>276.15</v>
+        <v>277.8</v>
       </c>
       <c r="D190" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E190" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="F190" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43989.99930555555</v>
+        <v>43990.99930555555</v>
       </c>
       <c r="B191" t="n">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C191" t="n">
-        <v>276.38</v>
+        <v>276.15</v>
       </c>
       <c r="D191" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E191" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="F191" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43988.99930555555</v>
+        <v>43989.99930555555</v>
       </c>
       <c r="B192" t="n">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C192" t="n">
-        <v>278.93</v>
+        <v>276.38</v>
       </c>
       <c r="D192" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E192" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F192" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43987.99930555555</v>
+        <v>43988.99930555555</v>
       </c>
       <c r="B193" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="C193" t="n">
-        <v>283.82</v>
+        <v>278.93</v>
       </c>
       <c r="D193" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="F193" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43986.99930555555</v>
+        <v>43987.99930555555</v>
       </c>
       <c r="B194" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="C194" t="n">
-        <v>291.42</v>
+        <v>283.82</v>
       </c>
       <c r="D194" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E194" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="F194" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43985.99930555555</v>
+        <v>43986.99930555555</v>
       </c>
       <c r="B195" t="n">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="C195" t="n">
-        <v>303.22</v>
+        <v>291.42</v>
       </c>
       <c r="D195" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E195" t="n">
         <v>0.58</v>
       </c>
       <c r="F195" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43984.99930555555</v>
+        <v>43985.99930555555</v>
       </c>
       <c r="B196" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C196" t="n">
-        <v>320.39</v>
+        <v>303.22</v>
       </c>
       <c r="D196" t="n">
         <v>0.64</v>
       </c>
       <c r="E196" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F196" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43983.99930555555</v>
+        <v>43984.99930555555</v>
       </c>
       <c r="B197" t="n">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C197" t="n">
-        <v>343.38</v>
+        <v>320.39</v>
       </c>
       <c r="D197" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E197" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F197" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43982.99930555555</v>
+        <v>43983.99930555555</v>
       </c>
       <c r="B198" t="n">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C198" t="n">
-        <v>371.4</v>
+        <v>343.38</v>
       </c>
       <c r="D198" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E198" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="F198" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43981.99930555555</v>
+        <v>43982.99930555555</v>
       </c>
       <c r="B199" t="n">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C199" t="n">
-        <v>401.89</v>
+        <v>371.4</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E199" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="F199" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43980.99930555555</v>
+        <v>43981.99930555555</v>
       </c>
       <c r="B200" t="n">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="C200" t="n">
-        <v>431.68</v>
+        <v>401.89</v>
       </c>
       <c r="D200" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E200" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="F200" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43979.99930555555</v>
+        <v>43980.99930555555</v>
       </c>
       <c r="B201" t="n">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="C201" t="n">
-        <v>458.27</v>
+        <v>431.68</v>
       </c>
       <c r="D201" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E201" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F201" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43978.99930555555</v>
+        <v>43979.99930555555</v>
       </c>
       <c r="B202" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C202" t="n">
-        <v>481.02</v>
+        <v>458.27</v>
       </c>
       <c r="D202" t="n">
         <v>0.72</v>
@@ -4492,13 +4492,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43977.99930555555</v>
+        <v>43978.99930555555</v>
       </c>
       <c r="B203" t="n">
-        <v>397</v>
+        <v>584</v>
       </c>
       <c r="C203" t="n">
-        <v>501.43</v>
+        <v>481.02</v>
       </c>
       <c r="D203" t="n">
         <v>0.72</v>
@@ -4507,38 +4507,38 @@
         <v>0.66</v>
       </c>
       <c r="F203" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43976.99930555555</v>
+        <v>43977.99930555555</v>
       </c>
       <c r="B204" t="n">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C204" t="n">
-        <v>522.16</v>
+        <v>501.43</v>
       </c>
       <c r="D204" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E204" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F204" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43975.99930555555</v>
+        <v>43976.99930555555</v>
       </c>
       <c r="B205" t="n">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="C205" t="n">
-        <v>544.91</v>
+        <v>522.16</v>
       </c>
       <c r="D205" t="n">
         <v>0.71</v>
@@ -4547,18 +4547,18 @@
         <v>0.65</v>
       </c>
       <c r="F205" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43974.99930555555</v>
+        <v>43975.99930555555</v>
       </c>
       <c r="B206" t="n">
-        <v>669</v>
+        <v>531</v>
       </c>
       <c r="C206" t="n">
-        <v>569.49</v>
+        <v>544.91</v>
       </c>
       <c r="D206" t="n">
         <v>0.71</v>
@@ -4572,33 +4572,33 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43973.99930555555</v>
+        <v>43974.99930555555</v>
       </c>
       <c r="B207" t="n">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C207" t="n">
-        <v>594.9299999999999</v>
+        <v>569.49</v>
       </c>
       <c r="D207" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E207" t="n">
         <v>0.65</v>
       </c>
       <c r="F207" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43972.99930555555</v>
+        <v>43973.99930555555</v>
       </c>
       <c r="B208" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C208" t="n">
-        <v>620.9</v>
+        <v>594.9299999999999</v>
       </c>
       <c r="D208" t="n">
         <v>0.7</v>
@@ -4607,44 +4607,44 @@
         <v>0.65</v>
       </c>
       <c r="F208" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43971.99930555555</v>
+        <v>43972.99930555555</v>
       </c>
       <c r="B209" t="n">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C209" t="n">
-        <v>648.05</v>
+        <v>620.9</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E209" t="n">
         <v>0.64</v>
       </c>
       <c r="F209" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43970.99930555555</v>
+        <v>43971.99930555555</v>
       </c>
       <c r="B210" t="n">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C210" t="n">
-        <v>677.75</v>
+        <v>648.05</v>
       </c>
       <c r="D210" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E210" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F210" t="n">
         <v>0.74</v>
@@ -4652,19 +4652,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43969.99930555555</v>
+        <v>43970.99930555555</v>
       </c>
       <c r="B211" t="n">
-        <v>451</v>
+        <v>813</v>
       </c>
       <c r="C211" t="n">
-        <v>711.71</v>
+        <v>677.75</v>
       </c>
       <c r="D211" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E211" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F211" t="n">
         <v>0.74</v>
@@ -4672,19 +4672,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43968.99930555555</v>
+        <v>43969.99930555555</v>
       </c>
       <c r="B212" t="n">
-        <v>675</v>
+        <v>451</v>
       </c>
       <c r="C212" t="n">
-        <v>751.34</v>
+        <v>711.71</v>
       </c>
       <c r="D212" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E212" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F212" t="n">
         <v>0.74</v>
@@ -4692,19 +4692,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43967.99930555555</v>
+        <v>43968.99930555555</v>
       </c>
       <c r="B213" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="C213" t="n">
-        <v>795.84</v>
+        <v>751.34</v>
       </c>
       <c r="D213" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F213" t="n">
         <v>0.74</v>
@@ -4712,39 +4712,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43966.99930555555</v>
+        <v>43967.99930555555</v>
       </c>
       <c r="B214" t="n">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="C214" t="n">
-        <v>842.8099999999999</v>
+        <v>795.84</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E214" t="n">
         <v>0.65</v>
       </c>
       <c r="F214" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43965.99930555555</v>
+        <v>43966.99930555555</v>
       </c>
       <c r="B215" t="n">
-        <v>992</v>
+        <v>789</v>
       </c>
       <c r="C215" t="n">
-        <v>889.71</v>
+        <v>842.8099999999999</v>
       </c>
       <c r="D215" t="n">
         <v>0.7</v>
       </c>
       <c r="E215" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F215" t="n">
         <v>0.75</v>
@@ -4752,13 +4752,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43964.99930555555</v>
+        <v>43965.99930555555</v>
       </c>
       <c r="B216" t="n">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="C216" t="n">
-        <v>934.4400000000001</v>
+        <v>889.71</v>
       </c>
       <c r="D216" t="n">
         <v>0.7</v>
@@ -4767,18 +4767,18 @@
         <v>0.66</v>
       </c>
       <c r="F216" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43963.99930555555</v>
+        <v>43964.99930555555</v>
       </c>
       <c r="B217" t="n">
-        <v>1402</v>
+        <v>888</v>
       </c>
       <c r="C217" t="n">
-        <v>976.5599999999999</v>
+        <v>934.4400000000001</v>
       </c>
       <c r="D217" t="n">
         <v>0.7</v>
@@ -4792,73 +4792,73 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43962.99930555555</v>
+        <v>43963.99930555555</v>
       </c>
       <c r="B218" t="n">
-        <v>744</v>
+        <v>1402</v>
       </c>
       <c r="C218" t="n">
-        <v>1017.39</v>
+        <v>976.5599999999999</v>
       </c>
       <c r="D218" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E218" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F218" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43961.99930555555</v>
+        <v>43962.99930555555</v>
       </c>
       <c r="B219" t="n">
-        <v>802</v>
+        <v>744</v>
       </c>
       <c r="C219" t="n">
-        <v>1060.63</v>
+        <v>1017.39</v>
       </c>
       <c r="D219" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E219" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F219" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43960.99930555555</v>
+        <v>43961.99930555555</v>
       </c>
       <c r="B220" t="n">
-        <v>1083</v>
+        <v>802</v>
       </c>
       <c r="C220" t="n">
-        <v>1108.72</v>
+        <v>1060.63</v>
       </c>
       <c r="D220" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E220" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F220" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43959.99930555555</v>
+        <v>43960.99930555555</v>
       </c>
       <c r="B221" t="n">
-        <v>1327</v>
+        <v>1083</v>
       </c>
       <c r="C221" t="n">
-        <v>1161.92</v>
+        <v>1108.72</v>
       </c>
       <c r="D221" t="n">
         <v>0.67</v>
@@ -4867,24 +4867,24 @@
         <v>0.63</v>
       </c>
       <c r="F221" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43958.99930555555</v>
+        <v>43959.99930555555</v>
       </c>
       <c r="B222" t="n">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="C222" t="n">
-        <v>1219.97</v>
+        <v>1161.92</v>
       </c>
       <c r="D222" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E222" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F222" t="n">
         <v>0.7</v>
@@ -4892,13 +4892,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43957.99930555555</v>
+        <v>43958.99930555555</v>
       </c>
       <c r="B223" t="n">
-        <v>1444</v>
+        <v>1401</v>
       </c>
       <c r="C223" t="n">
-        <v>1284.03</v>
+        <v>1219.97</v>
       </c>
       <c r="D223" t="n">
         <v>0.66</v>
@@ -4907,18 +4907,18 @@
         <v>0.62</v>
       </c>
       <c r="F223" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43956.99930555555</v>
+        <v>43957.99930555555</v>
       </c>
       <c r="B224" t="n">
-        <v>1075</v>
+        <v>1444</v>
       </c>
       <c r="C224" t="n">
-        <v>1356.97</v>
+        <v>1284.03</v>
       </c>
       <c r="D224" t="n">
         <v>0.66</v>
@@ -4927,21 +4927,21 @@
         <v>0.62</v>
       </c>
       <c r="F224" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43955.99930555555</v>
+        <v>43956.99930555555</v>
       </c>
       <c r="B225" t="n">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="C225" t="n">
-        <v>1441.81</v>
+        <v>1356.97</v>
       </c>
       <c r="D225" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E225" t="n">
         <v>0.63</v>
@@ -4952,253 +4952,253 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43954.99930555555</v>
+        <v>43955.99930555555</v>
       </c>
       <c r="B226" t="n">
-        <v>1389</v>
+        <v>1221</v>
       </c>
       <c r="C226" t="n">
-        <v>1538.63</v>
+        <v>1441.81</v>
       </c>
       <c r="D226" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E226" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F226" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43953.99930555555</v>
+        <v>43954.99930555555</v>
       </c>
       <c r="B227" t="n">
-        <v>1900</v>
+        <v>1389</v>
       </c>
       <c r="C227" t="n">
-        <v>1644.22</v>
+        <v>1538.63</v>
       </c>
       <c r="D227" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E227" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="F227" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43952.99930555555</v>
+        <v>43953.99930555555</v>
       </c>
       <c r="B228" t="n">
-        <v>1965</v>
+        <v>1900</v>
       </c>
       <c r="C228" t="n">
-        <v>1753.99</v>
+        <v>1644.22</v>
       </c>
       <c r="D228" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F228" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43951.99930555555</v>
+        <v>43952.99930555555</v>
       </c>
       <c r="B229" t="n">
-        <v>1872</v>
+        <v>1965</v>
       </c>
       <c r="C229" t="n">
-        <v>1865.36</v>
+        <v>1753.99</v>
       </c>
       <c r="D229" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E229" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="F229" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43950.99930555555</v>
+        <v>43951.99930555555</v>
       </c>
       <c r="B230" t="n">
-        <v>2086</v>
+        <v>1872</v>
       </c>
       <c r="C230" t="n">
-        <v>1978.6</v>
+        <v>1865.36</v>
       </c>
       <c r="D230" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E230" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="F230" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43949.99930555555</v>
+        <v>43950.99930555555</v>
       </c>
       <c r="B231" t="n">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C231" t="n">
-        <v>2095.56</v>
+        <v>1978.6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="E231" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F231" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43948.99930555555</v>
+        <v>43949.99930555555</v>
       </c>
       <c r="B232" t="n">
-        <v>1739</v>
+        <v>2091</v>
       </c>
       <c r="C232" t="n">
-        <v>2218.32</v>
+        <v>2095.56</v>
       </c>
       <c r="D232" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E232" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F232" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43947.99930555555</v>
+        <v>43948.99930555555</v>
       </c>
       <c r="B233" t="n">
-        <v>2324</v>
+        <v>1739</v>
       </c>
       <c r="C233" t="n">
-        <v>2346.77</v>
+        <v>2218.32</v>
       </c>
       <c r="D233" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="E233" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F233" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43946.99930555555</v>
+        <v>43947.99930555555</v>
       </c>
       <c r="B234" t="n">
-        <v>2357</v>
+        <v>2324</v>
       </c>
       <c r="C234" t="n">
-        <v>2476.25</v>
+        <v>2346.77</v>
       </c>
       <c r="D234" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="E234" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F234" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43945.99930555555</v>
+        <v>43946.99930555555</v>
       </c>
       <c r="B235" t="n">
-        <v>3021</v>
+        <v>2357</v>
       </c>
       <c r="C235" t="n">
-        <v>2599.96</v>
+        <v>2476.25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E235" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F235" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43944.99930555555</v>
+        <v>43945.99930555555</v>
       </c>
       <c r="B236" t="n">
-        <v>2646</v>
+        <v>3021</v>
       </c>
       <c r="C236" t="n">
-        <v>2711.63</v>
+        <v>2599.96</v>
       </c>
       <c r="D236" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E236" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F236" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43943.99930555555</v>
+        <v>43944.99930555555</v>
       </c>
       <c r="B237" t="n">
-        <v>3370</v>
+        <v>2646</v>
       </c>
       <c r="C237" t="n">
-        <v>2809.36</v>
+        <v>2711.63</v>
       </c>
       <c r="D237" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E237" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F237" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43942.99930555555</v>
+        <v>43943.99930555555</v>
       </c>
       <c r="B238" t="n">
-        <v>2729</v>
+        <v>3370</v>
       </c>
       <c r="C238" t="n">
-        <v>2895.24</v>
+        <v>2809.36</v>
       </c>
       <c r="D238" t="n">
         <v>0.84</v>
@@ -5212,33 +5212,33 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43941.99930555555</v>
+        <v>43942.99930555555</v>
       </c>
       <c r="B239" t="n">
-        <v>2256</v>
+        <v>2729</v>
       </c>
       <c r="C239" t="n">
-        <v>2975.63</v>
+        <v>2895.24</v>
       </c>
       <c r="D239" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E239" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F239" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43940.99930555555</v>
+        <v>43941.99930555555</v>
       </c>
       <c r="B240" t="n">
-        <v>3047</v>
+        <v>2256</v>
       </c>
       <c r="C240" t="n">
-        <v>3055.9</v>
+        <v>2975.63</v>
       </c>
       <c r="D240" t="n">
         <v>0.85</v>
@@ -5252,13 +5252,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43939.99930555555</v>
+        <v>43940.99930555555</v>
       </c>
       <c r="B241" t="n">
-        <v>3491</v>
+        <v>3047</v>
       </c>
       <c r="C241" t="n">
-        <v>3136.69</v>
+        <v>3055.9</v>
       </c>
       <c r="D241" t="n">
         <v>0.85</v>
@@ -5272,13 +5272,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43938.99930555555</v>
+        <v>43939.99930555555</v>
       </c>
       <c r="B242" t="n">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C242" t="n">
-        <v>3217.52</v>
+        <v>3136.69</v>
       </c>
       <c r="D242" t="n">
         <v>0.85</v>
@@ -5292,19 +5292,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43937.99930555555</v>
+        <v>43938.99930555555</v>
       </c>
       <c r="B243" t="n">
-        <v>3786</v>
+        <v>3493</v>
       </c>
       <c r="C243" t="n">
-        <v>3300.39</v>
+        <v>3217.52</v>
       </c>
       <c r="D243" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E243" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F243" t="n">
         <v>0.88</v>
@@ -5312,93 +5312,93 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43936.99930555555</v>
+        <v>43937.99930555555</v>
       </c>
       <c r="B244" t="n">
-        <v>2667</v>
+        <v>3786</v>
       </c>
       <c r="C244" t="n">
-        <v>3389.89</v>
+        <v>3300.39</v>
       </c>
       <c r="D244" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E244" t="n">
         <v>0.83</v>
       </c>
       <c r="F244" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43935.99930555555</v>
+        <v>43936.99930555555</v>
       </c>
       <c r="B245" t="n">
-        <v>2972</v>
+        <v>2667</v>
       </c>
       <c r="C245" t="n">
-        <v>3490.5</v>
+        <v>3389.89</v>
       </c>
       <c r="D245" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E245" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F245" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43934.99930555555</v>
+        <v>43935.99930555555</v>
       </c>
       <c r="B246" t="n">
-        <v>3153</v>
+        <v>2972</v>
       </c>
       <c r="C246" t="n">
-        <v>3599.09</v>
+        <v>3490.5</v>
       </c>
       <c r="D246" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E246" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F246" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43933.99930555555</v>
+        <v>43934.99930555555</v>
       </c>
       <c r="B247" t="n">
-        <v>4092</v>
+        <v>3153</v>
       </c>
       <c r="C247" t="n">
-        <v>3704.61</v>
+        <v>3599.09</v>
       </c>
       <c r="D247" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E247" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F247" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43932.99930555555</v>
+        <v>43933.99930555555</v>
       </c>
       <c r="B248" t="n">
-        <v>4694</v>
+        <v>4092</v>
       </c>
       <c r="C248" t="n">
-        <v>3793</v>
+        <v>3704.61</v>
       </c>
       <c r="D248" t="n">
         <v>0.89</v>
@@ -5412,13 +5412,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43931.99930555555</v>
+        <v>43932.99930555555</v>
       </c>
       <c r="B249" t="n">
-        <v>3951</v>
+        <v>4694</v>
       </c>
       <c r="C249" t="n">
-        <v>3856.53</v>
+        <v>3793</v>
       </c>
       <c r="D249" t="n">
         <v>0.89</v>
@@ -5432,73 +5432,73 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43930.99930555555</v>
+        <v>43931.99930555555</v>
       </c>
       <c r="B250" t="n">
-        <v>4204</v>
+        <v>3951</v>
       </c>
       <c r="C250" t="n">
-        <v>3899.28</v>
+        <v>3856.53</v>
       </c>
       <c r="D250" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E250" t="n">
         <v>0.86</v>
       </c>
       <c r="F250" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43929.99930555555</v>
+        <v>43930.99930555555</v>
       </c>
       <c r="B251" t="n">
-        <v>3836</v>
+        <v>4204</v>
       </c>
       <c r="C251" t="n">
-        <v>3933.61</v>
+        <v>3899.28</v>
       </c>
       <c r="D251" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E251" t="n">
         <v>0.85</v>
       </c>
       <c r="F251" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43928.99930555555</v>
+        <v>43929.99930555555</v>
       </c>
       <c r="B252" t="n">
-        <v>3039</v>
+        <v>3836</v>
       </c>
       <c r="C252" t="n">
-        <v>3975.66</v>
+        <v>3933.61</v>
       </c>
       <c r="D252" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E252" t="n">
         <v>0.84</v>
       </c>
       <c r="F252" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43927.99930555555</v>
+        <v>43928.99930555555</v>
       </c>
       <c r="B253" t="n">
-        <v>3599</v>
+        <v>3039</v>
       </c>
       <c r="C253" t="n">
-        <v>4037.87</v>
+        <v>3975.66</v>
       </c>
       <c r="D253" t="n">
         <v>0.86</v>
@@ -5507,18 +5507,18 @@
         <v>0.83</v>
       </c>
       <c r="F253" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43926.99930555555</v>
+        <v>43927.99930555555</v>
       </c>
       <c r="B254" t="n">
-        <v>4316</v>
+        <v>3599</v>
       </c>
       <c r="C254" t="n">
-        <v>4122.39</v>
+        <v>4037.87</v>
       </c>
       <c r="D254" t="n">
         <v>0.86</v>
@@ -5532,13 +5532,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43925.99930555555</v>
+        <v>43926.99930555555</v>
       </c>
       <c r="B255" t="n">
-        <v>4805</v>
+        <v>4316</v>
       </c>
       <c r="C255" t="n">
-        <v>4223.92</v>
+        <v>4122.39</v>
       </c>
       <c r="D255" t="n">
         <v>0.86</v>
@@ -5547,24 +5547,24 @@
         <v>0.83</v>
       </c>
       <c r="F255" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43924.99930555555</v>
+        <v>43925.99930555555</v>
       </c>
       <c r="B256" t="n">
-        <v>4585</v>
+        <v>4805</v>
       </c>
       <c r="C256" t="n">
-        <v>4336.91</v>
+        <v>4223.92</v>
       </c>
       <c r="D256" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E256" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F256" t="n">
         <v>0.89</v>
@@ -5572,662 +5572,682 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43923.99930555555</v>
+        <v>43924.99930555555</v>
       </c>
       <c r="B257" t="n">
-        <v>4668</v>
+        <v>4585</v>
       </c>
       <c r="C257" t="n">
-        <v>4460.83</v>
+        <v>4336.91</v>
       </c>
       <c r="D257" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E257" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="F257" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43922.99930555555</v>
+        <v>43923.99930555555</v>
       </c>
       <c r="B258" t="n">
-        <v>4782</v>
+        <v>4668</v>
       </c>
       <c r="C258" t="n">
-        <v>4599.64</v>
+        <v>4460.83</v>
       </c>
       <c r="D258" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E258" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F258" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43921.99930555555</v>
+        <v>43922.99930555555</v>
       </c>
       <c r="B259" t="n">
-        <v>4053</v>
+        <v>4782</v>
       </c>
       <c r="C259" t="n">
-        <v>4758.75</v>
+        <v>4599.64</v>
       </c>
       <c r="D259" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F259" t="n">
         <v>0.93</v>
-      </c>
-      <c r="E259" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F259" t="n">
-        <v>0.95</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43920.99930555555</v>
+        <v>43921.99930555555</v>
       </c>
       <c r="B260" t="n">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C260" t="n">
-        <v>4939.96</v>
+        <v>4758.75</v>
       </c>
       <c r="D260" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E260" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F260" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43919.99930555555</v>
+        <v>43920.99930555555</v>
       </c>
       <c r="B261" t="n">
-        <v>5217</v>
+        <v>4050</v>
       </c>
       <c r="C261" t="n">
-        <v>5134.49</v>
+        <v>4939.96</v>
       </c>
       <c r="D261" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E261" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F261" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43918.99930555555</v>
+        <v>43919.99930555555</v>
       </c>
       <c r="B262" t="n">
-        <v>5974</v>
+        <v>5217</v>
       </c>
       <c r="C262" t="n">
-        <v>5323.19</v>
+        <v>5134.49</v>
       </c>
       <c r="D262" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="E262" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F262" t="n">
         <v>1.04</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43917.99930555555</v>
+        <v>43918.99930555555</v>
       </c>
       <c r="B263" t="n">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="C263" t="n">
-        <v>5485.5</v>
+        <v>5323.19</v>
       </c>
       <c r="D263" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="E263" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="F263" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43916.99930555555</v>
+        <v>43917.99930555555</v>
       </c>
       <c r="B264" t="n">
-        <v>6153</v>
+        <v>5959</v>
       </c>
       <c r="C264" t="n">
-        <v>5607.75</v>
+        <v>5485.5</v>
       </c>
       <c r="D264" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="E264" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="F264" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43915.99930555555</v>
+        <v>43916.99930555555</v>
       </c>
       <c r="B265" t="n">
-        <v>5210</v>
+        <v>6153</v>
       </c>
       <c r="C265" t="n">
-        <v>5684.82</v>
+        <v>5607.75</v>
       </c>
       <c r="D265" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="E265" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F265" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43914.99930555555</v>
+        <v>43915.99930555555</v>
       </c>
       <c r="B266" t="n">
-        <v>5249</v>
+        <v>5210</v>
       </c>
       <c r="C266" t="n">
-        <v>5717.09</v>
+        <v>5684.82</v>
       </c>
       <c r="D266" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="E266" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="F266" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43913.99930555555</v>
+        <v>43914.99930555555</v>
       </c>
       <c r="B267" t="n">
-        <v>4789</v>
+        <v>5249</v>
       </c>
       <c r="C267" t="n">
-        <v>5702.03</v>
+        <v>5717.09</v>
       </c>
       <c r="D267" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="E267" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F267" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43912.99930555555</v>
+        <v>43913.99930555555</v>
       </c>
       <c r="B268" t="n">
-        <v>5560</v>
+        <v>4789</v>
       </c>
       <c r="C268" t="n">
-        <v>5630.41</v>
+        <v>5702.03</v>
       </c>
       <c r="D268" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="E268" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="F268" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43911.99930555555</v>
+        <v>43912.99930555555</v>
       </c>
       <c r="B269" t="n">
-        <v>6557</v>
+        <v>5560</v>
       </c>
       <c r="C269" t="n">
-        <v>5487.26</v>
+        <v>5630.41</v>
       </c>
       <c r="D269" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="E269" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="F269" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43910.99930555555</v>
+        <v>43911.99930555555</v>
       </c>
       <c r="B270" t="n">
-        <v>5986</v>
+        <v>6557</v>
       </c>
       <c r="C270" t="n">
-        <v>5261.98</v>
+        <v>5487.26</v>
       </c>
       <c r="D270" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="E270" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="F270" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43909.99930555555</v>
+        <v>43910.99930555555</v>
       </c>
       <c r="B271" t="n">
-        <v>5322</v>
+        <v>5986</v>
       </c>
       <c r="C271" t="n">
-        <v>4959.08</v>
+        <v>5261.98</v>
       </c>
       <c r="D271" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="E271" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="F271" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43908.99930555555</v>
+        <v>43909.99930555555</v>
       </c>
       <c r="B272" t="n">
-        <v>4207</v>
+        <v>5322</v>
       </c>
       <c r="C272" t="n">
-        <v>4598.29</v>
+        <v>4959.08</v>
       </c>
       <c r="D272" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="E272" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="F272" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43907.99930555555</v>
+        <v>43908.99930555555</v>
       </c>
       <c r="B273" t="n">
-        <v>3526</v>
+        <v>4207</v>
       </c>
       <c r="C273" t="n">
-        <v>4207.41</v>
+        <v>4598.29</v>
       </c>
       <c r="D273" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="E273" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="F273" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43906.99930555555</v>
+        <v>43907.99930555555</v>
       </c>
       <c r="B274" t="n">
-        <v>3233</v>
+        <v>3526</v>
       </c>
       <c r="C274" t="n">
-        <v>3811.52</v>
+        <v>4207.41</v>
       </c>
       <c r="D274" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="E274" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F274" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43905.99930555555</v>
+        <v>43906.99930555555</v>
       </c>
       <c r="B275" t="n">
-        <v>3590</v>
+        <v>3233</v>
       </c>
       <c r="C275" t="n">
-        <v>3426.12</v>
+        <v>3811.52</v>
       </c>
       <c r="D275" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="E275" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="F275" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43904.99930555555</v>
+        <v>43905.99930555555</v>
       </c>
       <c r="B276" t="n">
-        <v>3497</v>
+        <v>3590</v>
       </c>
       <c r="C276" t="n">
-        <v>3057.02</v>
+        <v>3426.12</v>
       </c>
       <c r="D276" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F276" t="n">
         <v>2.21</v>
-      </c>
-      <c r="E276" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F276" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43903.99930555555</v>
+        <v>43904.99930555555</v>
       </c>
       <c r="B277" t="n">
-        <v>2547</v>
+        <v>3497</v>
       </c>
       <c r="C277" t="n">
-        <v>2706.17</v>
+        <v>3057.02</v>
       </c>
       <c r="D277" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="E277" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="F277" t="n">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43902.99930555555</v>
+        <v>43903.99930555555</v>
       </c>
       <c r="B278" t="n">
-        <v>2651</v>
+        <v>2547</v>
       </c>
       <c r="C278" t="n">
-        <v>2375.65</v>
+        <v>2706.17</v>
       </c>
       <c r="D278" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="E278" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="F278" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43901.99930555555</v>
+        <v>43902.99930555555</v>
       </c>
       <c r="B279" t="n">
-        <v>2313</v>
+        <v>2651</v>
       </c>
       <c r="C279" t="n">
-        <v>2067.43</v>
+        <v>2375.65</v>
       </c>
       <c r="D279" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="E279" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="F279" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43900.99930555555</v>
+        <v>43901.99930555555</v>
       </c>
       <c r="B280" t="n">
-        <v>977</v>
+        <v>2313</v>
       </c>
       <c r="C280" t="n">
-        <v>1784.6</v>
+        <v>2067.43</v>
       </c>
       <c r="D280" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="E280" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="F280" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43899.99930555555</v>
+        <v>43900.99930555555</v>
       </c>
       <c r="B281" t="n">
-        <v>1797</v>
+        <v>977</v>
       </c>
       <c r="C281" t="n">
-        <v>1529.94</v>
+        <v>1784.6</v>
       </c>
       <c r="D281" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="E281" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="F281" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43898.99930555555</v>
+        <v>43899.99930555555</v>
       </c>
       <c r="B282" t="n">
-        <v>1492</v>
+        <v>1797</v>
       </c>
       <c r="C282" t="n">
-        <v>1301.97</v>
+        <v>1529.94</v>
       </c>
       <c r="D282" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="E282" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="F282" t="n">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43897.99930555555</v>
+        <v>43898.99930555555</v>
       </c>
       <c r="B283" t="n">
-        <v>1247</v>
+        <v>1492</v>
       </c>
       <c r="C283" t="n">
-        <v>1099.12</v>
+        <v>1301.97</v>
       </c>
       <c r="D283" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="E283" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="F283" t="n">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43896.99930555555</v>
+        <v>43897.99930555555</v>
       </c>
       <c r="B284" t="n">
-        <v>778</v>
+        <v>1247</v>
       </c>
       <c r="C284" t="n">
-        <v>921.16</v>
+        <v>1099.12</v>
       </c>
       <c r="D284" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E284" t="n">
-        <v>2.51</v>
+        <v>2.49</v>
       </c>
       <c r="F284" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43895.99930555555</v>
+        <v>43896.99930555555</v>
       </c>
       <c r="B285" t="n">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C285" t="n">
-        <v>768.86</v>
+        <v>921.16</v>
       </c>
       <c r="D285" t="n">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="E285" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="F285" t="n">
-        <v>2.94</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43894.99930555555</v>
+        <v>43895.99930555555</v>
       </c>
       <c r="B286" t="n">
-        <v>587</v>
+        <v>769</v>
       </c>
       <c r="C286" t="n">
-        <v>641.99</v>
+        <v>768.86</v>
       </c>
       <c r="D286" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="E286" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="F286" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43893.99930555555</v>
+        <v>43894.99930555555</v>
       </c>
       <c r="B287" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="C287" t="n">
-        <v>538.9400000000001</v>
+        <v>641.99</v>
       </c>
       <c r="D287" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="E287" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="F287" t="n">
-        <v>3.23</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43892.99930555555</v>
+        <v>43893.99930555555</v>
       </c>
       <c r="B288" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="C288" t="n">
-        <v>456.18</v>
+        <v>538.9400000000001</v>
       </c>
       <c r="D288" t="n">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="E288" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="F288" t="n">
-        <v>3.53</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
+        <v>43892.99930555555</v>
+      </c>
+      <c r="B289" t="n">
+        <v>342</v>
+      </c>
+      <c r="C289" t="n">
+        <v>456.18</v>
+      </c>
+      <c r="D289" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F289" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>43891.99930555555</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B290" t="n">
         <v>566</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C290" t="n">
         <v>388.41</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D290" t="n">
         <v>3.71</v>
       </c>
-      <c r="E289" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="F289" t="n">
-        <v>4.07</v>
+      <c r="E290" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F290" t="n">
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>

--- a/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
+++ b/data/computed/TD-covid19-ita-andamento-nazionale_Rt.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,19 +472,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44179.99930555555</v>
+        <v>44180.99930555555</v>
       </c>
       <c r="B2" t="n">
-        <v>12030</v>
+        <v>14844</v>
       </c>
       <c r="C2" t="n">
-        <v>16012.14</v>
+        <v>15161.97</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E2" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="F2" t="n">
         <v>0.99</v>
@@ -492,156 +492,156 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44178.99930555555</v>
+        <v>44179.99930555555</v>
       </c>
       <c r="B3" t="n">
-        <v>17938</v>
+        <v>12030</v>
       </c>
       <c r="C3" t="n">
-        <v>16141.27</v>
+        <v>15526.31</v>
       </c>
       <c r="D3" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E3" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F3" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44177.99930555555</v>
+        <v>44178.99930555555</v>
       </c>
       <c r="B4" t="n">
-        <v>19903</v>
+        <v>17938</v>
       </c>
       <c r="C4" t="n">
-        <v>16238.19</v>
+        <v>15849.86</v>
       </c>
       <c r="D4" t="n">
         <v>0.86</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44176.99930555555</v>
+        <v>44177.99930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>18727</v>
+        <v>19903</v>
       </c>
       <c r="C5" t="n">
-        <v>16307.45</v>
+        <v>16099.57</v>
       </c>
       <c r="D5" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E5" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44175.99930555555</v>
+        <v>44176.99930555555</v>
       </c>
       <c r="B6" t="n">
-        <v>16999</v>
+        <v>18727</v>
       </c>
       <c r="C6" t="n">
-        <v>16400.5</v>
+        <v>16276.31</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F6" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44174.99930555555</v>
+        <v>44175.99930555555</v>
       </c>
       <c r="B7" t="n">
-        <v>12756</v>
+        <v>16999</v>
       </c>
       <c r="C7" t="n">
-        <v>16599.39</v>
+        <v>16434.49</v>
       </c>
       <c r="D7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.8</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.78</v>
-      </c>
       <c r="F7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44173.99930555555</v>
+        <v>44174.99930555555</v>
       </c>
       <c r="B8" t="n">
-        <v>14842</v>
+        <v>12756</v>
       </c>
       <c r="C8" t="n">
-        <v>16976.33</v>
+        <v>16663.69</v>
       </c>
       <c r="D8" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="E8" t="n">
         <v>0.78</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44172.99930555555</v>
+        <v>44173.99930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>13720</v>
+        <v>14842</v>
       </c>
       <c r="C9" t="n">
-        <v>17547.22</v>
+        <v>17045.72</v>
       </c>
       <c r="D9" t="n">
         <v>0.79</v>
       </c>
       <c r="E9" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44171.99930555555</v>
+        <v>44172.99930555555</v>
       </c>
       <c r="B10" t="n">
-        <v>18887</v>
+        <v>13720</v>
       </c>
       <c r="C10" t="n">
-        <v>18263.66</v>
+        <v>17606.18</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E10" t="n">
         <v>0.78</v>
@@ -652,39 +652,39 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44170.99930555555</v>
+        <v>44171.99930555555</v>
       </c>
       <c r="B11" t="n">
-        <v>21052</v>
+        <v>18887</v>
       </c>
       <c r="C11" t="n">
-        <v>19026.36</v>
+        <v>18304.95</v>
       </c>
       <c r="D11" t="n">
         <v>0.8</v>
       </c>
       <c r="E11" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F11" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44169.99930555555</v>
+        <v>44170.99930555555</v>
       </c>
       <c r="B12" t="n">
-        <v>24099</v>
+        <v>21052</v>
       </c>
       <c r="C12" t="n">
-        <v>19737.2</v>
+        <v>19048.9</v>
       </c>
       <c r="D12" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F12" t="n">
         <v>0.82</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44168.99930555555</v>
+        <v>44169.99930555555</v>
       </c>
       <c r="B13" t="n">
-        <v>23225</v>
+        <v>24099</v>
       </c>
       <c r="C13" t="n">
-        <v>20345.07</v>
+        <v>19743.76</v>
       </c>
       <c r="D13" t="n">
         <v>0.8100000000000001</v>
@@ -712,33 +712,33 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44167.99930555555</v>
+        <v>44168.99930555555</v>
       </c>
       <c r="B14" t="n">
-        <v>20709</v>
+        <v>23225</v>
       </c>
       <c r="C14" t="n">
-        <v>20871.49</v>
+        <v>20340.27</v>
       </c>
       <c r="D14" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.8</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.79</v>
-      </c>
       <c r="F14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44166.99930555555</v>
+        <v>44167.99930555555</v>
       </c>
       <c r="B15" t="n">
-        <v>19350</v>
+        <v>20709</v>
       </c>
       <c r="C15" t="n">
-        <v>21392.41</v>
+        <v>20860.24</v>
       </c>
       <c r="D15" t="n">
         <v>0.8</v>
@@ -752,33 +752,33 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44165.99930555555</v>
+        <v>44166.99930555555</v>
       </c>
       <c r="B16" t="n">
-        <v>16377</v>
+        <v>19350</v>
       </c>
       <c r="C16" t="n">
-        <v>21991.38</v>
+        <v>21378.94</v>
       </c>
       <c r="D16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.79</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.78</v>
-      </c>
       <c r="F16" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44164.99930555555</v>
+        <v>44165.99930555555</v>
       </c>
       <c r="B17" t="n">
-        <v>20648</v>
+        <v>16377</v>
       </c>
       <c r="C17" t="n">
-        <v>22714.28</v>
+        <v>21978.74</v>
       </c>
       <c r="D17" t="n">
         <v>0.79</v>
@@ -792,53 +792,53 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44163.99930555555</v>
+        <v>44164.99930555555</v>
       </c>
       <c r="B18" t="n">
-        <v>26323</v>
+        <v>20648</v>
       </c>
       <c r="C18" t="n">
-        <v>23544.5</v>
+        <v>22704.27</v>
       </c>
       <c r="D18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44162.99930555555</v>
+        <v>44163.99930555555</v>
       </c>
       <c r="B19" t="n">
-        <v>28352</v>
+        <v>26323</v>
       </c>
       <c r="C19" t="n">
-        <v>24434.34</v>
+        <v>23537.81</v>
       </c>
       <c r="D19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44161.99930555555</v>
+        <v>44162.99930555555</v>
       </c>
       <c r="B20" t="n">
-        <v>29003</v>
+        <v>28352</v>
       </c>
       <c r="C20" t="n">
-        <v>25356.98</v>
+        <v>24430.83</v>
       </c>
       <c r="D20" t="n">
         <v>0.8100000000000001</v>
@@ -852,779 +852,779 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44160.99930555555</v>
+        <v>44161.99930555555</v>
       </c>
       <c r="B21" t="n">
-        <v>25853</v>
+        <v>29003</v>
       </c>
       <c r="C21" t="n">
-        <v>26330.85</v>
+        <v>25356.03</v>
       </c>
       <c r="D21" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.82</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44159.99930555555</v>
+        <v>44160.99930555555</v>
       </c>
       <c r="B22" t="n">
-        <v>23232</v>
+        <v>25853</v>
       </c>
       <c r="C22" t="n">
-        <v>27404.88</v>
+        <v>26331.66</v>
       </c>
       <c r="D22" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.84</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44158.99930555555</v>
+        <v>44159.99930555555</v>
       </c>
       <c r="B23" t="n">
-        <v>22930</v>
+        <v>23232</v>
       </c>
       <c r="C23" t="n">
-        <v>28607.32</v>
+        <v>27406.65</v>
       </c>
       <c r="D23" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="E23" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F23" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44157.99930555555</v>
+        <v>44158.99930555555</v>
       </c>
       <c r="B24" t="n">
-        <v>28337</v>
+        <v>22930</v>
       </c>
       <c r="C24" t="n">
-        <v>29899.32</v>
+        <v>28609.38</v>
       </c>
       <c r="D24" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E24" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44156.99930555555</v>
+        <v>44157.99930555555</v>
       </c>
       <c r="B25" t="n">
-        <v>34767</v>
+        <v>28337</v>
       </c>
       <c r="C25" t="n">
-        <v>31170.32</v>
+        <v>29901.21</v>
       </c>
       <c r="D25" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E25" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F25" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44155.99930555555</v>
+        <v>44156.99930555555</v>
       </c>
       <c r="B26" t="n">
-        <v>37242</v>
+        <v>34767</v>
       </c>
       <c r="C26" t="n">
-        <v>32290.23</v>
+        <v>31171.77</v>
       </c>
       <c r="D26" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F26" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44154.99930555555</v>
+        <v>44155.99930555555</v>
       </c>
       <c r="B27" t="n">
-        <v>36176</v>
+        <v>37242</v>
       </c>
       <c r="C27" t="n">
-        <v>33177.25</v>
+        <v>32291.17</v>
       </c>
       <c r="D27" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E27" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44153.99930555555</v>
+        <v>44154.99930555555</v>
       </c>
       <c r="B28" t="n">
-        <v>34282</v>
+        <v>36176</v>
       </c>
       <c r="C28" t="n">
-        <v>33829.74</v>
+        <v>33177.71</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E28" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.99</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44152.99930555555</v>
+        <v>44153.99930555555</v>
       </c>
       <c r="B29" t="n">
-        <v>32191</v>
+        <v>34282</v>
       </c>
       <c r="C29" t="n">
-        <v>34308.58</v>
+        <v>33829.82</v>
       </c>
       <c r="D29" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.01</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44151.99930555555</v>
+        <v>44152.99930555555</v>
       </c>
       <c r="B30" t="n">
-        <v>27354</v>
+        <v>32191</v>
       </c>
       <c r="C30" t="n">
-        <v>34689.59</v>
+        <v>34308.41</v>
       </c>
       <c r="D30" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.03</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44150.99930555555</v>
+        <v>44151.99930555555</v>
       </c>
       <c r="B31" t="n">
-        <v>33979</v>
+        <v>27354</v>
       </c>
       <c r="C31" t="n">
-        <v>35011.4</v>
+        <v>34689.29</v>
       </c>
       <c r="D31" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.05</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44149.99930555555</v>
+        <v>44150.99930555555</v>
       </c>
       <c r="B32" t="n">
-        <v>37255</v>
+        <v>33979</v>
       </c>
       <c r="C32" t="n">
-        <v>35244.53</v>
+        <v>35011.07</v>
       </c>
       <c r="D32" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.07</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44148.99930555555</v>
+        <v>44149.99930555555</v>
       </c>
       <c r="B33" t="n">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="C33" t="n">
-        <v>35333.85</v>
+        <v>35244.25</v>
       </c>
       <c r="D33" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.09</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44147.99930555555</v>
+        <v>44148.99930555555</v>
       </c>
       <c r="B34" t="n">
-        <v>37978</v>
+        <v>40902</v>
       </c>
       <c r="C34" t="n">
-        <v>35251.34</v>
+        <v>35333.64</v>
       </c>
       <c r="D34" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.11</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44146.99930555555</v>
+        <v>44147.99930555555</v>
       </c>
       <c r="B35" t="n">
-        <v>32961</v>
+        <v>37978</v>
       </c>
       <c r="C35" t="n">
-        <v>35028.83</v>
+        <v>35251.2</v>
       </c>
       <c r="D35" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.13</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44145.99930555555</v>
+        <v>44146.99930555555</v>
       </c>
       <c r="B36" t="n">
-        <v>35098</v>
+        <v>32961</v>
       </c>
       <c r="C36" t="n">
-        <v>34735.1</v>
+        <v>35028.77</v>
       </c>
       <c r="D36" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.15</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44144.99930555555</v>
+        <v>44145.99930555555</v>
       </c>
       <c r="B37" t="n">
-        <v>25271</v>
+        <v>35098</v>
       </c>
       <c r="C37" t="n">
-        <v>34425.65</v>
+        <v>34735.09</v>
       </c>
       <c r="D37" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.16</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44143.99930555555</v>
+        <v>44144.99930555555</v>
       </c>
       <c r="B38" t="n">
-        <v>32616</v>
+        <v>25271</v>
       </c>
       <c r="C38" t="n">
-        <v>34113.19</v>
+        <v>34425.68</v>
       </c>
       <c r="D38" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="E38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.19</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44142.99930555555</v>
+        <v>44143.99930555555</v>
       </c>
       <c r="B39" t="n">
-        <v>39811</v>
+        <v>32616</v>
       </c>
       <c r="C39" t="n">
-        <v>33734.61</v>
+        <v>34113.24</v>
       </c>
       <c r="D39" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="E39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.21</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44141.99930555555</v>
+        <v>44142.99930555555</v>
       </c>
       <c r="B40" t="n">
-        <v>37809</v>
+        <v>39811</v>
       </c>
       <c r="C40" t="n">
-        <v>33209.4</v>
+        <v>33734.66</v>
       </c>
       <c r="D40" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="E40" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.24</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44140.99930555555</v>
+        <v>44141.99930555555</v>
       </c>
       <c r="B41" t="n">
-        <v>34505</v>
+        <v>37809</v>
       </c>
       <c r="C41" t="n">
-        <v>32513.24</v>
+        <v>33209.45</v>
       </c>
       <c r="D41" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="E41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.27</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44139.99930555555</v>
+        <v>44140.99930555555</v>
       </c>
       <c r="B42" t="n">
-        <v>30550</v>
+        <v>34505</v>
       </c>
       <c r="C42" t="n">
-        <v>31690.67</v>
+        <v>32513.27</v>
       </c>
       <c r="D42" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.29</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44138.99930555555</v>
+        <v>44139.99930555555</v>
       </c>
       <c r="B43" t="n">
-        <v>28244</v>
+        <v>30550</v>
       </c>
       <c r="C43" t="n">
-        <v>30821.96</v>
+        <v>31690.69</v>
       </c>
       <c r="D43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="E43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F43" t="n">
         <v>1.32</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44137.99930555555</v>
+        <v>44138.99930555555</v>
       </c>
       <c r="B44" t="n">
-        <v>22253</v>
+        <v>28244</v>
       </c>
       <c r="C44" t="n">
-        <v>29970.03</v>
+        <v>30821.97</v>
       </c>
       <c r="D44" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="E44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F44" t="n">
         <v>1.35</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44136.99930555555</v>
+        <v>44137.99930555555</v>
       </c>
       <c r="B45" t="n">
-        <v>29907</v>
+        <v>22253</v>
       </c>
       <c r="C45" t="n">
-        <v>29138.8</v>
+        <v>29970.03</v>
       </c>
       <c r="D45" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="E45" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F45" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44135.99930555555</v>
+        <v>44136.99930555555</v>
       </c>
       <c r="B46" t="n">
-        <v>31758</v>
+        <v>29907</v>
       </c>
       <c r="C46" t="n">
-        <v>28257.39</v>
+        <v>29138.79</v>
       </c>
       <c r="D46" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="E46" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F46" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44134.99930555555</v>
+        <v>44135.99930555555</v>
       </c>
       <c r="B47" t="n">
-        <v>31084</v>
+        <v>31758</v>
       </c>
       <c r="C47" t="n">
-        <v>27241.45</v>
+        <v>28257.39</v>
       </c>
       <c r="D47" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="E47" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="F47" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44133.99930555555</v>
+        <v>44134.99930555555</v>
       </c>
       <c r="B48" t="n">
-        <v>26831</v>
+        <v>31084</v>
       </c>
       <c r="C48" t="n">
-        <v>26046.8</v>
+        <v>27241.44</v>
       </c>
       <c r="D48" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="E48" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="F48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44132.99930555555</v>
+        <v>44133.99930555555</v>
       </c>
       <c r="B49" t="n">
-        <v>24991</v>
+        <v>26831</v>
       </c>
       <c r="C49" t="n">
-        <v>24688.2</v>
+        <v>26046.79</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="E49" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="F49" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44131.99930555555</v>
+        <v>44132.99930555555</v>
       </c>
       <c r="B50" t="n">
-        <v>21994</v>
+        <v>24991</v>
       </c>
       <c r="C50" t="n">
-        <v>23219.61</v>
+        <v>24688.2</v>
       </c>
       <c r="D50" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="E50" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="F50" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44130.99930555555</v>
+        <v>44131.99930555555</v>
       </c>
       <c r="B51" t="n">
-        <v>17012</v>
+        <v>21994</v>
       </c>
       <c r="C51" t="n">
-        <v>21706.7</v>
+        <v>23219.61</v>
       </c>
       <c r="D51" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E51" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F51" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44129.99930555555</v>
+        <v>44130.99930555555</v>
       </c>
       <c r="B52" t="n">
-        <v>21273</v>
+        <v>17012</v>
       </c>
       <c r="C52" t="n">
-        <v>20196.36</v>
+        <v>21706.7</v>
       </c>
       <c r="D52" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F52" t="n">
         <v>1.69</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44128.99930555555</v>
+        <v>44129.99930555555</v>
       </c>
       <c r="B53" t="n">
-        <v>19644</v>
+        <v>21273</v>
       </c>
       <c r="C53" t="n">
-        <v>18698.49</v>
+        <v>20196.36</v>
       </c>
       <c r="D53" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F53" t="n">
         <v>1.72</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44127.99930555555</v>
+        <v>44128.99930555555</v>
       </c>
       <c r="B54" t="n">
-        <v>19143</v>
+        <v>19644</v>
       </c>
       <c r="C54" t="n">
-        <v>17214.82</v>
+        <v>18698.49</v>
       </c>
       <c r="D54" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="E54" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F54" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44126.99930555555</v>
+        <v>44127.99930555555</v>
       </c>
       <c r="B55" t="n">
-        <v>16079</v>
+        <v>19143</v>
       </c>
       <c r="C55" t="n">
-        <v>15756.91</v>
+        <v>17214.82</v>
       </c>
       <c r="D55" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E55" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F55" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44125.99930555555</v>
+        <v>44126.99930555555</v>
       </c>
       <c r="B56" t="n">
-        <v>15199</v>
+        <v>16079</v>
       </c>
       <c r="C56" t="n">
-        <v>14354.81</v>
+        <v>15756.91</v>
       </c>
       <c r="D56" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E56" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F56" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44124.99930555555</v>
+        <v>44125.99930555555</v>
       </c>
       <c r="B57" t="n">
-        <v>10874</v>
+        <v>15199</v>
       </c>
       <c r="C57" t="n">
-        <v>13046.39</v>
+        <v>14354.82</v>
       </c>
       <c r="D57" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E57" t="n">
         <v>1.73</v>
       </c>
       <c r="F57" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44123.99930555555</v>
+        <v>44124.99930555555</v>
       </c>
       <c r="B58" t="n">
-        <v>9338</v>
+        <v>10874</v>
       </c>
       <c r="C58" t="n">
-        <v>11863.44</v>
+        <v>13046.39</v>
       </c>
       <c r="D58" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E58" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F58" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44122.99930555555</v>
+        <v>44123.99930555555</v>
       </c>
       <c r="B59" t="n">
-        <v>11705</v>
+        <v>9338</v>
       </c>
       <c r="C59" t="n">
-        <v>10809.37</v>
+        <v>11863.44</v>
       </c>
       <c r="D59" t="n">
         <v>1.76</v>
       </c>
       <c r="E59" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="F59" t="n">
         <v>1.79</v>
@@ -1632,36 +1632,36 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44121.99930555555</v>
+        <v>44122.99930555555</v>
       </c>
       <c r="B60" t="n">
-        <v>10925</v>
+        <v>11705</v>
       </c>
       <c r="C60" t="n">
-        <v>9858.67</v>
+        <v>10809.37</v>
       </c>
       <c r="D60" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E60" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F60" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44120.99930555555</v>
+        <v>44121.99930555555</v>
       </c>
       <c r="B61" t="n">
-        <v>10010</v>
+        <v>10925</v>
       </c>
       <c r="C61" t="n">
-        <v>8981.58</v>
+        <v>9858.67</v>
       </c>
       <c r="D61" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E61" t="n">
         <v>1.74</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44119.99930555555</v>
+        <v>44120.99930555555</v>
       </c>
       <c r="B62" t="n">
-        <v>8804</v>
+        <v>10010</v>
       </c>
       <c r="C62" t="n">
-        <v>8159.87</v>
+        <v>8981.58</v>
       </c>
       <c r="D62" t="n">
         <v>1.78</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44118.99930555555</v>
+        <v>44119.99930555555</v>
       </c>
       <c r="B63" t="n">
-        <v>7332</v>
+        <v>8804</v>
       </c>
       <c r="C63" t="n">
-        <v>7391.89</v>
+        <v>8159.87</v>
       </c>
       <c r="D63" t="n">
         <v>1.78</v>
@@ -1712,39 +1712,39 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44117.99930555555</v>
+        <v>44118.99930555555</v>
       </c>
       <c r="B64" t="n">
-        <v>5901</v>
+        <v>7332</v>
       </c>
       <c r="C64" t="n">
-        <v>6687.4</v>
+        <v>7391.89</v>
       </c>
       <c r="D64" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E64" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="F64" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44116.99930555555</v>
+        <v>44117.99930555555</v>
       </c>
       <c r="B65" t="n">
-        <v>4619</v>
+        <v>5901</v>
       </c>
       <c r="C65" t="n">
-        <v>6055.97</v>
+        <v>6687.4</v>
       </c>
       <c r="D65" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E65" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F65" t="n">
         <v>1.81</v>
@@ -1752,39 +1752,39 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44115.99930555555</v>
+        <v>44116.99930555555</v>
       </c>
       <c r="B66" t="n">
-        <v>5456</v>
+        <v>4619</v>
       </c>
       <c r="C66" t="n">
-        <v>5495.89</v>
+        <v>6055.97</v>
       </c>
       <c r="D66" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="E66" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F66" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44114.99930555555</v>
+        <v>44115.99930555555</v>
       </c>
       <c r="B67" t="n">
-        <v>5724</v>
+        <v>5456</v>
       </c>
       <c r="C67" t="n">
-        <v>4991.12</v>
+        <v>5495.89</v>
       </c>
       <c r="D67" t="n">
         <v>1.75</v>
       </c>
       <c r="E67" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F67" t="n">
         <v>1.8</v>
@@ -1792,299 +1792,299 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44113.99930555555</v>
+        <v>44114.99930555555</v>
       </c>
       <c r="B68" t="n">
-        <v>5372</v>
+        <v>5724</v>
       </c>
       <c r="C68" t="n">
-        <v>4522.48</v>
+        <v>4991.12</v>
       </c>
       <c r="D68" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="E68" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="F68" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44112.99930555555</v>
+        <v>44113.99930555555</v>
       </c>
       <c r="B69" t="n">
-        <v>4458</v>
+        <v>5372</v>
       </c>
       <c r="C69" t="n">
-        <v>4079.31</v>
+        <v>4522.48</v>
       </c>
       <c r="D69" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="E69" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="F69" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44111.99930555555</v>
+        <v>44112.99930555555</v>
       </c>
       <c r="B70" t="n">
-        <v>3678</v>
+        <v>4458</v>
       </c>
       <c r="C70" t="n">
-        <v>3663.77</v>
+        <v>4079.31</v>
       </c>
       <c r="D70" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E70" t="n">
         <v>1.64</v>
       </c>
-      <c r="E70" t="n">
-        <v>1.58</v>
-      </c>
       <c r="F70" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44110.99930555555</v>
+        <v>44111.99930555555</v>
       </c>
       <c r="B71" t="n">
-        <v>2677</v>
+        <v>3678</v>
       </c>
       <c r="C71" t="n">
-        <v>3286.67</v>
+        <v>3663.77</v>
       </c>
       <c r="D71" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="E71" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F71" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44109.99930555555</v>
+        <v>44110.99930555555</v>
       </c>
       <c r="B72" t="n">
-        <v>2257</v>
+        <v>2677</v>
       </c>
       <c r="C72" t="n">
-        <v>2959.48</v>
+        <v>3286.67</v>
       </c>
       <c r="D72" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="E72" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="F72" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44108.99930555555</v>
+        <v>44109.99930555555</v>
       </c>
       <c r="B73" t="n">
-        <v>2578</v>
+        <v>2257</v>
       </c>
       <c r="C73" t="n">
-        <v>2686.25</v>
+        <v>2959.48</v>
       </c>
       <c r="D73" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="E73" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="F73" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44107.99930555555</v>
+        <v>44108.99930555555</v>
       </c>
       <c r="B74" t="n">
-        <v>2844</v>
+        <v>2578</v>
       </c>
       <c r="C74" t="n">
-        <v>2461.59</v>
+        <v>2686.25</v>
       </c>
       <c r="D74" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="E74" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="F74" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44106.99930555555</v>
+        <v>44107.99930555555</v>
       </c>
       <c r="B75" t="n">
-        <v>2499</v>
+        <v>2844</v>
       </c>
       <c r="C75" t="n">
-        <v>2275.67</v>
+        <v>2461.59</v>
       </c>
       <c r="D75" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="E75" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F75" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44105.99930555555</v>
+        <v>44106.99930555555</v>
       </c>
       <c r="B76" t="n">
-        <v>2548</v>
+        <v>2499</v>
       </c>
       <c r="C76" t="n">
-        <v>2120.37</v>
+        <v>2275.67</v>
       </c>
       <c r="D76" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E76" t="n">
         <v>1.25</v>
       </c>
-      <c r="E76" t="n">
-        <v>1.2</v>
-      </c>
       <c r="F76" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44104.99930555555</v>
+        <v>44105.99930555555</v>
       </c>
       <c r="B77" t="n">
-        <v>1851</v>
+        <v>2548</v>
       </c>
       <c r="C77" t="n">
-        <v>1991.52</v>
+        <v>2120.37</v>
       </c>
       <c r="D77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E77" t="n">
         <v>1.2</v>
       </c>
-      <c r="E77" t="n">
-        <v>1.15</v>
-      </c>
       <c r="F77" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44103.99930555555</v>
+        <v>44104.99930555555</v>
       </c>
       <c r="B78" t="n">
-        <v>1648</v>
+        <v>1851</v>
       </c>
       <c r="C78" t="n">
-        <v>1888.97</v>
+        <v>1991.52</v>
       </c>
       <c r="D78" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="E78" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F78" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44102.99930555555</v>
+        <v>44103.99930555555</v>
       </c>
       <c r="B79" t="n">
-        <v>1494</v>
+        <v>1648</v>
       </c>
       <c r="C79" t="n">
-        <v>1812.38</v>
+        <v>1888.97</v>
       </c>
       <c r="D79" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="E79" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="F79" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44101.99930555555</v>
+        <v>44102.99930555555</v>
       </c>
       <c r="B80" t="n">
-        <v>1766</v>
+        <v>1494</v>
       </c>
       <c r="C80" t="n">
-        <v>1758.38</v>
+        <v>1812.38</v>
       </c>
       <c r="D80" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="E80" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F80" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44100.99930555555</v>
+        <v>44101.99930555555</v>
       </c>
       <c r="B81" t="n">
-        <v>1869</v>
+        <v>1766</v>
       </c>
       <c r="C81" t="n">
-        <v>1720.23</v>
+        <v>1758.38</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E81" t="n">
         <v>1.06</v>
       </c>
       <c r="F81" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44099.99930555555</v>
+        <v>44100.99930555555</v>
       </c>
       <c r="B82" t="n">
-        <v>1912</v>
+        <v>1869</v>
       </c>
       <c r="C82" t="n">
-        <v>1690.58</v>
+        <v>1720.23</v>
       </c>
       <c r="D82" t="n">
         <v>1.11</v>
       </c>
       <c r="E82" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F82" t="n">
         <v>1.16</v>
@@ -2092,33 +2092,33 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44098.99930555555</v>
+        <v>44099.99930555555</v>
       </c>
       <c r="B83" t="n">
-        <v>1786</v>
+        <v>1912</v>
       </c>
       <c r="C83" t="n">
-        <v>1664.17</v>
+        <v>1690.58</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="E83" t="n">
         <v>1.05</v>
       </c>
       <c r="F83" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44097.99930555555</v>
+        <v>44098.99930555555</v>
       </c>
       <c r="B84" t="n">
-        <v>1640</v>
+        <v>1786</v>
       </c>
       <c r="C84" t="n">
-        <v>1639.12</v>
+        <v>1664.17</v>
       </c>
       <c r="D84" t="n">
         <v>1.1</v>
@@ -2127,18 +2127,18 @@
         <v>1.05</v>
       </c>
       <c r="F84" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44096.99930555555</v>
+        <v>44097.99930555555</v>
       </c>
       <c r="B85" t="n">
-        <v>1392</v>
+        <v>1640</v>
       </c>
       <c r="C85" t="n">
-        <v>1615.92</v>
+        <v>1639.12</v>
       </c>
       <c r="D85" t="n">
         <v>1.1</v>
@@ -2152,19 +2152,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44095.99930555555</v>
+        <v>44096.99930555555</v>
       </c>
       <c r="B86" t="n">
-        <v>1350</v>
+        <v>1392</v>
       </c>
       <c r="C86" t="n">
-        <v>1595.22</v>
+        <v>1615.92</v>
       </c>
       <c r="D86" t="n">
         <v>1.1</v>
       </c>
       <c r="E86" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F86" t="n">
         <v>1.15</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44094.99930555555</v>
+        <v>44095.99930555555</v>
       </c>
       <c r="B87" t="n">
-        <v>1587</v>
+        <v>1350</v>
       </c>
       <c r="C87" t="n">
-        <v>1575.6</v>
+        <v>1595.22</v>
       </c>
       <c r="D87" t="n">
         <v>1.1</v>
@@ -2192,133 +2